--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3EC4951-B171-4175-97D8-3AD0F8F9A947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8A07F-77B0-41C8-9D79-778B378BC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
   <si>
     <t>ID do Documento</t>
   </si>
@@ -82,6 +82,9 @@
     <t>Kendig, Catherine</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Journal of Social Ontology</t>
   </si>
   <si>
@@ -131,6 +134,9 @@
   </si>
   <si>
     <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
   <si>
     <t>International Journal on Recent and Innovation Trends in Computing and Communication</t>
@@ -186,6 +192,9 @@
     <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Revue d'Intelligence Artificielle</t>
   </si>
   <si>
@@ -232,6 +241,9 @@
     <t>Krzywoszynska, Anna; Marchesi, Greta</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>Environmental Humanities</t>
   </si>
   <si>
@@ -285,6 +297,9 @@
     <t>Shu, Yanfeng; Liu, Qing</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>Proceedings - 21st International Congress on Modelling and Simulation, MODSIM 2015</t>
   </si>
   <si>
@@ -321,6 +336,9 @@
     <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>Indian Journal of Agricultural Sciences</t>
   </si>
   <si>
@@ -330,44 +348,77 @@
     <t>United States Department of Agriculture (USDA) Soil Taxonomy is based on soil properties that can be objectively observed and measured in the natural conditions as they exist today. There are many soil classification systems but USDA Soil Taxonomy is most accepted worldwide. Ontologies are the new form of knowledge representation that acts in synergy with agents and Semantic Web Architecture. Soil ontology developed for USDA soil taxonomy has been used to develop a query interface that will help in detailed study of soil taxonomy, classification of new soil as well as exchange knowledge between software agents and systems. This is a web based application having N-tier architecture. Application development environment is NetBeans 6. 9 editor and Protégé. Web development technology is Java Server Pages (JSP). Programming languages JAVA and SPARQL are used for querying. Client interface is developed with Hyper Text Markup Language (HTML), Cascading Style Sheet (CSS) and JavaScript. Third tier of software consist of database which is in MS-SQL server 2005. Other two layers are Web Ontology Language (OWL) Ontology layer and Semantic Web Framework layer. OWL layer contains soil taxonomy information in the form of Ontology. Semantic Web Framework layer is implemented using JENA. In the search panel user can search anything related to USDA Soil Taxonomy, which comprises of twelve orders. However, this software contains information about seven soil orders reported in India. Domain experts can see and edit the knowledge base (i. e. Soil Ontology) or can suggest anything related to the creation of Soil Taxonomy Ontology through WebProtégé.</t>
   </si>
   <si>
-    <t>MFAMAD</t>
-  </si>
-  <si>
-    <t>MFAM-AD: an anomaly detection model for multivariate time series using attention mechanism to fuse multi-scale features</t>
-  </si>
-  <si>
-    <t>Xia, Shengjie; Sun, Wu; Zou, Xiaofeng; Chen, Panfeng; Ma, Dan; Xu, Huarong; Chen, Mei; Li, Hui</t>
-  </si>
-  <si>
-    <t>PeerJ Computer Science</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.7717/PEERJ-CS.2201</t>
-  </si>
-  <si>
-    <t>"time series" and gecco"</t>
-  </si>
-  <si>
-    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\MFAMAD.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Este documento apresenta o MFAM-AD, um novo modelo para detecção de anomalias em séries temporais multivariadas, que combina redes neurais convolucionais (CNNs) e redes de memória de longo prazo bidirecionais (Bi-LSTMs). O modelo utiliza camadas convolucionais paralelas com um mecanismo de atenção para extrair e fundir características em múltiplas escalas, enquanto as Bi-LSTMs capturam dependências temporais para reconstruir a série temporal e detectar anomalias baseadas em erros de reconstrução. Os resultados experimentais em conjuntos de dados públicos demonstram que o MFAM-AD supera vários modelos de linha de base e em alguns conjuntos de dados, supera até mesmo o modelo de última geração DCdetector, validando sua eficácia na detecção de anomalias. O MFAM-AD oferece uma solução robusta e eficaz para detecção de anomalias em séries temporais multivariadas, com potencial para diversas aplicações no mundo real.
+    <t>maconto</t>
+  </si>
+  <si>
+    <t>MaCOnto: A robust maize crop ontology based on soils, fertilizers and irrigation knowledge</t>
+  </si>
+  <si>
+    <t>Aminu, Enesi Femi; Oyefolahan, Ishaq Oyebisi; Abdullahi, Muhammad Bashir; Salaudeen, Muhammadu Tajudeen</t>
+  </si>
+  <si>
+    <t>Intelligent Systems with Applications</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.iswa.2022.200125</t>
+  </si>
+  <si>
+    <t>"soil knowledge" limit "science computer"</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\maconto.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O artigo apresenta o MaCOnto, uma ontologia robusta para o domínio do milho, focada em solos, fertilizantes e irrigação, construída com OWL e regras SWRL.  A ontologia usa uma metodologia de engenharia de ontologia em seis etapas, incluindo a evolução autônoma por meio do WordNet. O MaCOnto foi validado com sucesso por especialistas em domínio através de 80 questões de competência modeladas em lógica de primeira ordem e implementadas como regras, demonstrando capacidades de inferência. A avaliação estrutural baseada em oito métricas demonstra um desempenho superior em comparação com ontologias OWL existentes, confirmando sua robustez.
 </t>
   </si>
   <si>
-    <t>Multivariate time series anomaly detection has garnered significant attention in fields such as IT operations, finance, medicine, and industry. However, a key challenge lies in the fact that anomaly patterns often exhibit multi-scale temporal variations, which existing detection models often fail to capture effectively. This limitation significantly impacts detection accuracy. To address this issue, we propose the MFAM-AD model, which combines the strengths of convolutional neural networks (CNNs) and bidirectional long short-term memory (Bi-LSTM). The MFAM-AD model is designed to enhance anomaly detection accuracy by seamlessly integrating temporal dependencies and multi-scale spatial features. Specifically, it utilizes parallel convolutional layers to extract features across different scales, employing an attention mechanism for optimal feature fusion. Additionally, Bi-LSTM is leveraged to capture time-dependent information, reconstruct the time series and enable accurate anomaly detection based on reconstruction errors. In contrast to existing algorithms that struggle with inadequate feature fusion or are confined to single-scale feature analysis, MFAMAD effectively addresses the unique challenges of multivariate time series anomaly detection. Experimental results on five publicly available datasets demonstrate the superiority of the proposed model. Specifically, on the datasets SMAP, MSL, and SMD1-1, our MFAM-AD model has the second-highest F1 score after the current state-of-the-art DCdetector model. On the datasets NIPS-TS-SWAN and NIPS-TS-GECCO, the F1 scores of MAFM-AD are 0.046 (6.2%) and 0.09 (21.3%) higher than those of DCdetector, respectively(the value ranges from 0 to 1). These findings validate the MFAMAD model’s efficacy in multivariate time series anomaly detection, highlighting its potential in various real-world applications. © 2024 Xia et al.</t>
-  </si>
-  <si>
-    <t>"soil knowledge" limit "science computer"</t>
-  </si>
-  <si>
-    <t>maconto</t>
+    <t>The demand for relevant information in a timely manner portrays the significance of knowledge management in all areas of lives; for instance, agriculture. To this end, soils, fertilizers and irrigation as agronomic concepts are essential knowledge inputs for any crops, such as maize. Conversely, there is always difficulty in timely retrieval of these relevant information owing to the unstructured nature of data in repositories, and complexity of concepts mismatch. Sequel to this development, ontology, a semantic data modeling technique is promising as it has been recently employed to deal with these challenges across different domains. However, the robustness of ontology, in terms of semantic expressivity of hidden knowledge, and autonomous growth of ontology leave some gaps to contend with. In view of this development, this research aims to design a robust OWL Rule based ontology for maize crop domain by considering primarily soils, fertilizers and irrigation agronomic concepts capable to evolve autonomously. The proposed ontology herein christened MaCOnto, is developed using the adapted six steps ontology-engineering principle. Over 1,430 entities are encoded in OWL; eighty Competency Questions (CQs) validated by domain experts are modeled in FOL, and implemented as rules via SWRL. Thus, the ontology is queried by SQWRL. Besides, the novel algorithmic design for the ontology to autonomously evolve is implemented in Java environment by employing WordNet. The results obtained from structural based evaluation show an outstanding performance across the eight metrics. Similarly, the results of the competency-based evaluation are also promising. Therefore, the proposed MaCOnto is a robust application based ontology capable to infer and responds to user's query based on its contextual information. © 2022</t>
   </si>
   <si>
     <t>Causal_Research_on_Soil</t>
   </si>
   <si>
+    <t>Causal Research on Soil Temperature and Moisture Content at Different Depths</t>
+  </si>
+  <si>
+    <t>Cao, Zhihao; Mu, Shaomin; Xu, Li; Shao, Mingfeng; Qu, Hongchun</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>IEEE Access</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ACCESS.2021.3064264</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Causal_Research_on_Soil.txt</t>
+  </si>
+  <si>
+    <t>Este documento investiga as relações causais entre a temperatura e o teor de umidade do solo em diferentes profundidades, usando modelagem empírica dinâmica (EDM). O estudo demonstra que a complexidade e as relações de causa e efeito no sistema solo variam entre o verão e o inverno. Através do algoritmo de projeção simples e do algoritmo de mapeamento cruzado convergente (CCM), os autores identificam que a transferência de energia térmica entre as camadas do solo e a atividade da água influenciam significativamente as relações causais. Os resultados obtidos são consistentes com o ambiente real do solo e fornecem uma nova perspectiva para a pesquisa da dinâmica do solo.</t>
+  </si>
+  <si>
+    <t>The soil system is complex and dynamic, making it difficult to understand using traditional statistical approaches. In this paper, we analyze the causal relationship of soil temperature and moisture content at different depths in summer and winter based on dynamic empirical modelling. Specifically, we describe the complexity of soil temperature and moisture content system through mathematical methods. Moreover, we demonstrate the direction and magnitude of causal relationship between soil moisture content and temperature at different depths by equation-free methods. Besides, we describe the difference of soil system properties in summer and winter through causal research. The experiments show that results obtained are consistent with the actual soil environment. The causality is described by dynamic empirical modelling rather than prior soil knowledge. The paper may provide a new idea for soil dynamics research.  © 2013 IEEE.</t>
+  </si>
+  <si>
     <t>Temporal-space-variation</t>
+  </si>
+  <si>
+    <t>Temporal-spatial variations monitoring of soil moisture using microwave polarization difference index</t>
+  </si>
+  <si>
+    <t>Duan, Si-Bo; Li, Zhao-Liang; Tang, Ronglin; Tang, Bo-Hui; Wu, Hua; Jiang, Xiaoguang</t>
+  </si>
+  <si>
+    <t>International Geoscience and Remote Sensing Symposium (IGARSS)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/IGARSS.2014.6947183</t>
+  </si>
+  <si>
+    <t>Soil moisture is a key variable that influences the redistribution of the radiant energy and the runoff generation and percolation of water in soil. Knowledge of soil moisture temporal-spatial variations is important in a wide range of studies. This study aims to investigate the temporal-spatial variations of soil moisture using microwave polarization difference index (MPDI). The AMSR-E/Aqua Daily Global Quarter-Degree Gridded Brightness Temperature at 10.65 GHz channel was used to calculate the MPDI. In addition, the AMSR-E/Aqua Daily L3 Surface Soil Moisture was used in this study. The temporal and spatial patterns between the MPDI and soil moisture were analyzed. The results indicate that the temporal and spatial patterns of the MPDI are consistent with those of soil moisture. The MPDI reflects the temporal and spatial variations of soil moisture. © 2014 IEEE.</t>
   </si>
 </sst>
 </file>
@@ -730,15 +781,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q16"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H17" activeCellId="1" sqref="G16 H17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:XFD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -804,414 +856,448 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>2024</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>2024</v>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>2020</v>
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>2015</v>
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11">
-        <v>2015</v>
-      </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13">
-        <v>2024</v>
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>56</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="I13" t="s">
-        <v>108</v>
-      </c>
-      <c r="J13" t="s">
-        <v>31</v>
+        <v>114</v>
       </c>
       <c r="N13" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="Q13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>116</v>
+      </c>
+      <c r="B14" t="s">
+        <v>117</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+      <c r="D14" t="s">
+        <v>119</v>
+      </c>
+      <c r="E14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
       </c>
       <c r="G14" t="s">
-        <v>110</v>
+        <v>112</v>
+      </c>
+      <c r="H14" t="s">
+        <v>122</v>
+      </c>
+      <c r="I14" t="s">
+        <v>123</v>
+      </c>
+      <c r="N14" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" t="s">
+        <v>127</v>
+      </c>
+      <c r="D15" t="s">
+        <v>103</v>
+      </c>
+      <c r="E15" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" t="s">
+        <v>129</v>
+      </c>
+      <c r="G15" t="s">
         <v>112</v>
       </c>
-      <c r="G15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>113</v>
-      </c>
-      <c r="G16" t="s">
-        <v>110</v>
+      <c r="N15" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B8A07F-77B0-41C8-9D79-778B378BC939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700928D4-48AD-451F-A66B-6D8C84FD4F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -784,11 +784,12 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
     <col min="3" max="3" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="34" customWidth="1"/>
   </cols>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{700928D4-48AD-451F-A66B-6D8C84FD4F16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EAA6E-FA0D-421B-AD7E-6DB336BD6C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="237">
   <si>
     <t>ID do Documento</t>
   </si>
@@ -82,9 +82,6 @@
     <t>Kendig, Catherine</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>Journal of Social Ontology</t>
   </si>
   <si>
@@ -134,9 +131,6 @@
   </si>
   <si>
     <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
   <si>
     <t>International Journal on Recent and Innovation Trends in Computing and Communication</t>
@@ -192,9 +186,6 @@
     <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Revue d'Intelligence Artificielle</t>
   </si>
   <si>
@@ -241,9 +232,6 @@
     <t>Krzywoszynska, Anna; Marchesi, Greta</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Environmental Humanities</t>
   </si>
   <si>
@@ -297,9 +285,6 @@
     <t>Shu, Yanfeng; Liu, Qing</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Proceedings - 21st International Congress on Modelling and Simulation, MODSIM 2015</t>
   </si>
   <si>
@@ -336,9 +321,6 @@
     <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>Indian Journal of Agricultural Sciences</t>
   </si>
   <si>
@@ -348,77 +330,422 @@
     <t>United States Department of Agriculture (USDA) Soil Taxonomy is based on soil properties that can be objectively observed and measured in the natural conditions as they exist today. There are many soil classification systems but USDA Soil Taxonomy is most accepted worldwide. Ontologies are the new form of knowledge representation that acts in synergy with agents and Semantic Web Architecture. Soil ontology developed for USDA soil taxonomy has been used to develop a query interface that will help in detailed study of soil taxonomy, classification of new soil as well as exchange knowledge between software agents and systems. This is a web based application having N-tier architecture. Application development environment is NetBeans 6. 9 editor and Protégé. Web development technology is Java Server Pages (JSP). Programming languages JAVA and SPARQL are used for querying. Client interface is developed with Hyper Text Markup Language (HTML), Cascading Style Sheet (CSS) and JavaScript. Third tier of software consist of database which is in MS-SQL server 2005. Other two layers are Web Ontology Language (OWL) Ontology layer and Semantic Web Framework layer. OWL layer contains soil taxonomy information in the form of Ontology. Semantic Web Framework layer is implemented using JENA. In the search panel user can search anything related to USDA Soil Taxonomy, which comprises of twelve orders. However, this software contains information about seven soil orders reported in India. Domain experts can see and edit the knowledge base (i. e. Soil Ontology) or can suggest anything related to the creation of Soil Taxonomy Ontology through WebProtégé.</t>
   </si>
   <si>
-    <t>maconto</t>
-  </si>
-  <si>
-    <t>MaCOnto: A robust maize crop ontology based on soils, fertilizers and irrigation knowledge</t>
-  </si>
-  <si>
-    <t>Aminu, Enesi Femi; Oyefolahan, Ishaq Oyebisi; Abdullahi, Muhammad Bashir; Salaudeen, Muhammadu Tajudeen</t>
-  </si>
-  <si>
-    <t>Intelligent Systems with Applications</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1016/j.iswa.2022.200125</t>
-  </si>
-  <si>
-    <t>"soil knowledge" limit "science computer"</t>
-  </si>
-  <si>
-    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\maconto.txt</t>
-  </si>
-  <si>
-    <t xml:space="preserve">O artigo apresenta o MaCOnto, uma ontologia robusta para o domínio do milho, focada em solos, fertilizantes e irrigação, construída com OWL e regras SWRL.  A ontologia usa uma metodologia de engenharia de ontologia em seis etapas, incluindo a evolução autônoma por meio do WordNet. O MaCOnto foi validado com sucesso por especialistas em domínio através de 80 questões de competência modeladas em lógica de primeira ordem e implementadas como regras, demonstrando capacidades de inferência. A avaliação estrutural baseada em oito métricas demonstra um desempenho superior em comparação com ontologias OWL existentes, confirmando sua robustez.
+    <t>An-active-disturbance-rejection</t>
+  </si>
+  <si>
+    <t>An active disturbance rejection control approach to vibration control on flexible systems based on frequency response</t>
+  </si>
+  <si>
+    <t>Lin, Shuyang</t>
+  </si>
+  <si>
+    <t>Advanced Control for Applications: Engineering and Industrial Systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/adc2.222</t>
+  </si>
+  <si>
+    <t>snowballing Design-of-Multiple-Ontology</t>
+  </si>
+  <si>
+    <t>Active disturbance rejection control (ADRC) is considerably applied due to its advantage of focusing on merely dominant parameters. Research on flexible systems frequently confronting perplexing disturbances can utilize this method to simplify irrelevant items as a single variable. In this paper, we focused on vibration control problems in flexible systems with the application of ADRC and constructed a second-order system model under the guideline of fundamental principles of ADRC and an innovative algorithm for tuning feedforward compensation ADRC. During the simulation, we discussed three cases in which each solely one parameter varies while others are kept invariant. Time, open-loop frequency, and close-loop frequency responses were respectively analyzed in all cases as to determine the stability of the system. According to the simulation results, we arrived at the conclusion: we should choose the specification of a flexible system within an intermediate range and evade from critical system parameters to procure stability and efficiency. © 2024 John Wiley &amp; Sons Ltd.</t>
+  </si>
+  <si>
+    <t>3D_Segmentation_of_MRI</t>
+  </si>
+  <si>
+    <t>3D Segmentation of MRI Using Multimodal for Detection of Brain Tumour</t>
+  </si>
+  <si>
+    <t>Sanjay, D.; Devarsh, V.; Murali, E.; Antony, J Cruz; Vignesh, R.</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Recent Innovation in Smart and Sustainable Technology, ICRISST 2024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICRISST59181.2024.10921899</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\3D_Segmentation_of_MRI.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento explora o uso de modelos de deep learning, especificamente UNET, FPN, e UNET+FPN, para segmentação de tumores cerebrais em imagens de ressonância magnética (MRI). O estudo visa desenvolver um modelo automatizado que possa auxiliar no diagnóstico e planejamento do tratamento, comparando o desempenho dos modelos individuais e uma combinação deles (ensemble model). Os resultados mostram que UNET e UNET+FPN alcançaram alta precisão na segmentação, com o UNET+FPN exibindo ligeira melhora em algumas métricas. O modelo ensemble, combinando os resultados dos modelos individuais, também demonstrou desempenho promissor, indicando o potencial da combinação de diferentes arquiteturas de deep learning para aprimorar a segmentação de tumores cerebrais.
 </t>
   </si>
   <si>
-    <t>The demand for relevant information in a timely manner portrays the significance of knowledge management in all areas of lives; for instance, agriculture. To this end, soils, fertilizers and irrigation as agronomic concepts are essential knowledge inputs for any crops, such as maize. Conversely, there is always difficulty in timely retrieval of these relevant information owing to the unstructured nature of data in repositories, and complexity of concepts mismatch. Sequel to this development, ontology, a semantic data modeling technique is promising as it has been recently employed to deal with these challenges across different domains. However, the robustness of ontology, in terms of semantic expressivity of hidden knowledge, and autonomous growth of ontology leave some gaps to contend with. In view of this development, this research aims to design a robust OWL Rule based ontology for maize crop domain by considering primarily soils, fertilizers and irrigation agronomic concepts capable to evolve autonomously. The proposed ontology herein christened MaCOnto, is developed using the adapted six steps ontology-engineering principle. Over 1,430 entities are encoded in OWL; eighty Competency Questions (CQs) validated by domain experts are modeled in FOL, and implemented as rules via SWRL. Thus, the ontology is queried by SQWRL. Besides, the novel algorithmic design for the ontology to autonomously evolve is implemented in Java environment by employing WordNet. The results obtained from structural based evaluation show an outstanding performance across the eight metrics. Similarly, the results of the competency-based evaluation are also promising. Therefore, the proposed MaCOnto is a robust application based ontology capable to infer and responds to user's query based on its contextual information. © 2022</t>
-  </si>
-  <si>
-    <t>Causal_Research_on_Soil</t>
-  </si>
-  <si>
-    <t>Causal Research on Soil Temperature and Moisture Content at Different Depths</t>
-  </si>
-  <si>
-    <t>Cao, Zhihao; Mu, Shaomin; Xu, Li; Shao, Mingfeng; Qu, Hongchun</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>IEEE Access</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1109/ACCESS.2021.3064264</t>
-  </si>
-  <si>
-    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Causal_Research_on_Soil.txt</t>
-  </si>
-  <si>
-    <t>Este documento investiga as relações causais entre a temperatura e o teor de umidade do solo em diferentes profundidades, usando modelagem empírica dinâmica (EDM). O estudo demonstra que a complexidade e as relações de causa e efeito no sistema solo variam entre o verão e o inverno. Através do algoritmo de projeção simples e do algoritmo de mapeamento cruzado convergente (CCM), os autores identificam que a transferência de energia térmica entre as camadas do solo e a atividade da água influenciam significativamente as relações causais. Os resultados obtidos são consistentes com o ambiente real do solo e fornecem uma nova perspectiva para a pesquisa da dinâmica do solo.</t>
-  </si>
-  <si>
-    <t>The soil system is complex and dynamic, making it difficult to understand using traditional statistical approaches. In this paper, we analyze the causal relationship of soil temperature and moisture content at different depths in summer and winter based on dynamic empirical modelling. Specifically, we describe the complexity of soil temperature and moisture content system through mathematical methods. Moreover, we demonstrate the direction and magnitude of causal relationship between soil moisture content and temperature at different depths by equation-free methods. Besides, we describe the difference of soil system properties in summer and winter through causal research. The experiments show that results obtained are consistent with the actual soil environment. The causality is described by dynamic empirical modelling rather than prior soil knowledge. The paper may provide a new idea for soil dynamics research.  © 2013 IEEE.</t>
-  </si>
-  <si>
-    <t>Temporal-space-variation</t>
-  </si>
-  <si>
-    <t>Temporal-spatial variations monitoring of soil moisture using microwave polarization difference index</t>
-  </si>
-  <si>
-    <t>Duan, Si-Bo; Li, Zhao-Liang; Tang, Ronglin; Tang, Bo-Hui; Wu, Hua; Jiang, Xiaoguang</t>
-  </si>
-  <si>
-    <t>International Geoscience and Remote Sensing Symposium (IGARSS)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1109/IGARSS.2014.6947183</t>
-  </si>
-  <si>
-    <t>Soil moisture is a key variable that influences the redistribution of the radiant energy and the runoff generation and percolation of water in soil. Knowledge of soil moisture temporal-spatial variations is important in a wide range of studies. This study aims to investigate the temporal-spatial variations of soil moisture using microwave polarization difference index (MPDI). The AMSR-E/Aqua Daily Global Quarter-Degree Gridded Brightness Temperature at 10.65 GHz channel was used to calculate the MPDI. In addition, the AMSR-E/Aqua Daily L3 Surface Soil Moisture was used in this study. The temporal and spatial patterns between the MPDI and soil moisture were analyzed. The results indicate that the temporal and spatial patterns of the MPDI are consistent with those of soil moisture. The MPDI reflects the temporal and spatial variations of soil moisture. © 2014 IEEE.</t>
+    <t>Determining brain tumors from MRI can be challenging due to several factors, and it typically requires expertise in neuroimaging and collaboration between radiologists, neurologists, and other specialists. Some tumors may have a subtle or a typical appearance on MRI, making them difficult to distinguish from normal brain tissue. Brain tumors can be highly heterogeneous in terms of silhouette, scope, and internal structure. Tumors can have different types of tissues, such as necrotic and enhancing regions, making it challenging to accurately delineate their boundaries. Brain tumors can be highly heterogeneous in terms of silhouette, scope, and internal structure. Tumors can have different types of tissues, such as necrotic, cystic, or enhancing regions, making it challenging to accurately delineate their boundaries. Deep learning has shown promising results in various medical imaging tasks, including the identification and classification of brain tumors, such as gliomas, from MRI images. In this paper, an attempt to design an ensemble model for the prediction of 3D brain tumor segmentation and performance is going to be evaluated using deep learning models such as UNET, FPN, and UNET+FPN. The above models are evaluated on the BraTS 2021 (Brain Tumour Segmentation) dataset, and comparing the metrics of each model reveals that UNET and, an enhanced model that combines UNET and FPN, UNET+FPN has the highest accuracy of 0.9959 and 0.9954 respectively. © 2024 IEEE.</t>
+  </si>
+  <si>
+    <t>appearance-quality-identification</t>
+  </si>
+  <si>
+    <t>Appearance quality identification and environmental factors tracing of Lyophyllum decastes for precise environment control using knowledge graph</t>
+  </si>
+  <si>
+    <t>Zhou, Kai; Yu, Junyuan; Shi, Haotong; Hou, Rui; Wu, Huarui; Hou, Jialin</t>
+  </si>
+  <si>
+    <t>Computers and Electronics in Agriculture</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.compag.2025.110369</t>
+  </si>
+  <si>
+    <t>snowballing An-Ontology-based-Knowledge</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\appearance-quality-identification.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento propõe um método chamado DCRes-GAT, que integra um grafo de conhecimento (KG) com uma rede neural multimodal (CNN e GAT) para identificar a qualidade da aparência de Lyophyllum decastes e rastrear fatores ambientais. O DCRes-GAT combina o conhecimento prévio sobre qualidade e fatores ambientais (KG) com características visuais extraídas de imagens usando uma rede neural residual aprimorada.  Os resultados experimentais mostram que o DCRes-GAT alcança alta precisão na identificação de características (99,45%) e no diagnóstico de fatores ambientais (99,84%), fornecendo uma base para o controle preciso do ambiente de cultivo. A aplicação prática em um ambiente de produção simulado demonstra a viabilidade do método para melhorar a qualidade e a eficiência da produção.
+</t>
+  </si>
+  <si>
+    <t>In the factory production of Lyophyllum decastes, inappropriate cultivation environments can lead to appearance quality issues, which in turn affect both yield and quality. However, the appearance characteristics of Lyophyllum decastes influenced by environmental factors share similarities, and the environmental factors that cause appearance quality problems exhibit coupling and complexity. Therefore, the identification of appearance characteristics and tracing of environmental factors present significant challenges. To address this issue, this paper proposes a multimodal learning network, DCRes-GAT, which integrates an improved Residual Neural Network (DCResNet) and a Graph Attention Network (GAT) to accurately identify the features of Lyophyllum decastes, while simultaneously tracing environmental factors and providing control recommendations. First, a knowledge graph based on the prior knowledge of quality and environmental factors is constructed, mapping this information to a point space and extracting key features. Next, DCResNet is employed to extract optical features from Lyophyllum decastes images. In addition, the receptive field is expanded through dilated convolutions, while pixel-level details are preserved, and a Convolutional Block Attention Module (CBAM) is incorporated to identify subtle visual differences. Finally, a dot product operation fuses point-space features with visual features, achieving accurate identification of characteristics and providing suggestions. Experimental results demonstrate that the DCRes-GAT model performs excellently, with a feature identification accuracy of 99.45%, and can precisely diagnose key environmental factors that cause appearance quality problems, achieving a diagnostic accuracy of 99.84%. This provides a basis for the precise control of the cultivation environment of Lyophyllum decastes. © 2025</t>
+  </si>
+  <si>
+    <t>interweaving-academic-insights</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\interweaving-academic-insights.txt</t>
+  </si>
+  <si>
+    <t>Este documento propõe um framework estratégico de data fabric para melhorar a gestão do conhecimento em grandes instituições acadêmicas, superando desafios como fragmentação de dados e sistemas de informação isolados. A pesquisa explora o uso de ontologias e grafos de conhecimento para modelar, integrar e representar o conhecimento acadêmico, facilitando o acesso e o intercâmbio de informações. A avaliação demonstra que essa abordagem efetivamente quebra silos de dados, promove a colaboração em pesquisa e melhora os processos de tomada de decisão. A estrutura proposta (vDFKM), quando integrada em um sistema pré-existente como DSpace, proporciona uma forma mais eficiente de gerenciar e conectar recursos acadêmicos fragmentados, melhorando a acessibilidade para alunos e educadores.</t>
+  </si>
+  <si>
+    <t>use-of-NLP-techniques</t>
+  </si>
+  <si>
+    <t>Use of NLP Techniques and High-Performance Computing for Automated Knowledge Based Ontology Construction of Saffron Crop</t>
+  </si>
+  <si>
+    <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
+  </si>
+  <si>
+    <t>Parallel and High-Performance Computing in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/9781003425458-10</t>
+  </si>
+  <si>
+    <t>The agriculture industry is very different from other industries, as it depends on many natural and climatic factors. Revolutionary changes are shaking up the way farming is done and opening up new opportunities and challenges. The amount of user-generated information about smart farming, green houses, and indoor farming that is available on the web keeps growing. Learning how to represent language and solve tasks from beginning to end without the help of human experts to extract and create features has made approaches more precise and much more challenging in terms of the number of parameters. This means that they need parallelized and distributed resources for high-performance computing. This chapter gives a knowledge-based representation of the most recent problems, algorithms, and models in the field of agriculture that involve natural language processing. Mainly we consider saffron crop cultivation. Additionally, the impact of high-performance computing for natural language processing (NLP) applications is shown by going into detail about deep learning approaches that use large amounts of data to train models before using them to understand text. In the proposed method, NLP techniques are used to prepare the data; rule-based formal concept analysis and mapping are used to analyze and map the tags that have been reduced; and finally weather, pests, and soil subdomain ontologies are built separately from the saffron agricultural domain data. © 2025 selection and editorial matter, Mukesh Raghuwanshi, Pradnya Borkar, Rutvij H. Jhaveri, and Roshani Raut.</t>
+  </si>
+  <si>
+    <t>an-ontology-based-agriculture</t>
+  </si>
+  <si>
+    <t>An ontology-based agriculture decision-support system with an evidence-based explanation model</t>
+  </si>
+  <si>
+    <t>Alharbi, Amani Falah; Aslam, Muhammad Ahtisham; Asiry, Khalid Ali; Aljohani, Naif Radi; Glikman, Yury</t>
+  </si>
+  <si>
+    <t>Smart Agricultural Technology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.atech.2024.100659</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\an-ontology-based-agriculture.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento apresenta o AgrODSS, um sistema de apoio à decisão baseado em ontologia para auxiliar na identificação e controle de doenças e pragas em plantas, com foco em palmeiras datileiras. O sistema utiliza a ontologia PDP-O para modelar o conhecimento sobre doenças e pragas, juntamente com o modelo EBEM para fornecer evidências científicas que validem as recomendações. O AgrODSS permite consultar informações sobre sintomas, agentes causais e métodos de controle através de uma interface SPARQL, sendo avaliado por especialistas que confirmaram a sua utilidade com uma precisão geral de 80,66%. O estudo explora métodos de modelagem ontológica e destaca a importância de sistemas que expliquem suas decisões com base em evidências.
+</t>
+  </si>
+  <si>
+    <t>Aplicações de Ontologia de Solos em Agricultura de Precisão</t>
+  </si>
+  <si>
+    <t>Effective management of plant diseases and pests requires knowledge that covers multiple domains. At the same time, retrieving the relevant information in a timely manner is always challenging, due to the unstructured nature of agricultural data. Over the years, efforts have been made to develop an ontology-based Decision-Support System (DSS) to facilitate the diagnosis and control of plant diseases. Some major issues with these systems are that: (1) they do not adopt the full extent of the ontological constructs to represent domain entities, which, in turn, reduces reasoning capabilities and prevents systems from being more intelligent, (2) they do not adequately provide the desired level of knowledge to support complex decisions, which requires many factors to be considered, (3) they do not adequately explain or provide evidence to demonstrate the validity of the system's outputs. To address these limitations, we present a novel system termed Agriculture Ontology Based Decision Support System (AgrODSS), which aims to assist in plant disease and pest identification and control. AgrODSS architecture consists of two semantic-based models. First, we developed Plant Diseases and Pests Ontology (PDP-O) to capture, model, and represent diseases and pest knowledge in a machine-understandable format. Second, we designed and developed an Evidence-Based Explanation Model (EBEM) that points to related evidence from the literature to demonstrate the validity of the system outputs. We demonstrate the effectiveness of AgrODSS by executing various queries via AgrODSS SPARQL Endpoint and obtaining valuable information to support decision-making. Finally, we evaluated AgrODSS practically with domain experts (including entomologists and pathologists) and it produced similar answers to those given by the experts, with an overall accuracy of 80.66%. These results demonstrate AgrODSS's ability to assist agricultural stakeholders in making proper disease or pest diagnoses and choosing the appropriate control methods. © 2024</t>
+  </si>
+  <si>
+    <t>Developing-agriculture-ontology</t>
+  </si>
+  <si>
+    <t>Developing an agriculture ontology for extracting relationships from texts using Natural Language Processing to enhance semantic understanding</t>
+  </si>
+  <si>
+    <t>Bhattacharya, Saurabh; Pandey, Manju</t>
+  </si>
+  <si>
+    <t>International Journal of Information Technology (Singapore)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s41870-024-01809-x</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Developing-agriculture-ontology.txt</t>
+  </si>
+  <si>
+    <t>Este artigo apresenta uma metodologia para desenvolver uma ontologia agrícola usando web scraping, Processamento de Linguagem Natural (PLN) e Inteligência Artificial (IA) para extrair relações semânticas de textos. A metodologia envolve a coleta e pré-processamento de dados textuais agrícolas, extração de características relevantes usando técnicas de PLN e modelos de aprendizado de máquina (SVM, Random Forest, CNN e LSTM), e construção da ontologia usando o Protégé com base em regras. Os resultados demonstram a eficácia da abordagem na identificação precisa de conexões entre conceitos agrícolas, melhorando a compreensão das inter-relações no setor. A ontologia resultante tem potencial para aprimorar os processos de tomada de decisão na agricultura, fornecendo insights valiosos sobre as interações entre diversos conceitos.</t>
+  </si>
+  <si>
+    <t>This paper outlines a methodology for developing an agriculture ontology to extract relationships from texts using web-scraping techniques, Natural Language Processing (NLP) and Artificial Intelligence (AI). The objective of the presented approach is to offer a deeper understanding of the connections among different concepts in the agriculture industry and enhance the decision-making processes. The proposed methodology comprises utilizing web-scraping techniques to gather text data pertaining to agriculture from sources that provide agri-related information. Subsequently, the gathered data is subjected to pre-processing utilizing NLP techniques in order to eliminate any extraneous or insignificant information. Then, a range of Machine-Learning and Deep Learning techniques, specifically Linear SVM, Random Forest, Convolutional Neural Network (CNN), and Long Short-Term Memory (LSTM) network, are employed to derive significant insights from the pre-processed data. The ontology is constructed using Protégé through the identification of concepts and relationships derived from the extracted features using a rule-based methodology. The suggested approach was evaluated using a dataset consisting of articles related to agriculture. The results showcased the effectiveness of the suggested approach in creating an agriculture ontology that accurately identifies connections between concepts. Paper introduces a novel approach to creating an agriculture ontology by employing web-scraping techniques, NLP, and AI to extract semantic relationships from textual data. The proposed approach has the potential to enhance decision-making processes in agriculture by providing insights into the interrelationships among various concepts. This methodology is highly valuable for researchers and professionals in the agriculture sector and it can also be utilized in other fields to derive semantic relationships from textual data. Graphical abstract: (Figure presented.). © The Author(s), under exclusive licence to Bharati Vidyapeeth's Institute of Computer Applications and Management 2024.</t>
+  </si>
+  <si>
+    <t>Ontology-based-land-cover</t>
+  </si>
+  <si>
+    <t>Development of an Ontology-Based Technique for Labeling Land Cover Classes with Minimum Utilization of SAR Features</t>
+  </si>
+  <si>
+    <t>Gupta, Shruti; Singh, Dharmendra; Kumar, Sandeep</t>
+  </si>
+  <si>
+    <t>SN Computer Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s42979-023-02184-3</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Ontology-based-land-cover.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento apresenta uma nova ontologia para rotular a cobertura do solo usando dados de satélite SAR (Land Cover Labeling - LCL). A ontologia utiliza um algoritmo adaptativo baseado em estatísticas de imagem de características selecionadas por Random Forest para reduzir a computação. Os resultados mostram uma acurácia de classificação de aproximadamente 85%, indicando que a ontologia proposta pode efetivamente rotular as classes de cobertura do solo com bom desempenho. A abordagem facilita a criação de conjuntos de dados de cobertura do solo rotulados, consistentes e precisos, que são cruciais para o gerenciamento do território, monitoramento ambiental e planejamento urbano.
+</t>
+  </si>
+  <si>
+    <t>Modelagem Semântica de Solos; Estudos de Caso e Implementações</t>
+  </si>
+  <si>
+    <t>The availability of satellite imagery to "domain" experts, along with advancements in image processing and analysis techniques, has revolutionized numerous fields, enabling better understanding, planning, and management of our planet's resources. However, formalizing the knowledge gained from domain experts is essential for preserving, sharing, and leveraging their expertise. In this context, knowledge representation methods like ontology play a significant role in the development of applications based on satellite image analysis. Land cover labeling is one of the significant applications of satellite image analysis and plays a vital role in various domains by providing valuable information about the Earth's surface. Although several works have been reported to focus on land cover land use classification and labeling, very few are properly documented or formalized. Therefore, in this paper, an LCL (land cover labeling) ontology has been proposed for labeling the land cover classes using PALSAR-I satellite data. The ontology is based on an adaptive algorithm, as the labeling criterion is independent of specific range values and depends on feature image statistics. For algorithm development, four types of features, namely, polarimetric features, texture features, color features, and wavelet features were examined. For selecting optimal feature set, random forest was utilized and, consequently, for further labeling the classes a set of rules has been formed by applying Otsu thresholding on the selected class-wise feature sets. The derived rules were finally formalized to develop the ontology for labeling the land cover classes. The proposed ontology was applied to distinct study sites using PALSAR-I data which resulted in a satisfactory classification accuracy of around 85%. © 2023, The Author(s), under exclusive licence to Springer Nature Singapore Pte Ltd.</t>
+  </si>
+  <si>
+    <t>Property-based-quality-measures</t>
+  </si>
+  <si>
+    <t>Property-Based Quality Measures in Ontology Modeling</t>
+  </si>
+  <si>
+    <t>Agárdi, Anita; Kovács, László</t>
+  </si>
+  <si>
+    <t>Applied Sciences (Switzerland)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3390/app122312475</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Property-based-quality-measures.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento aborda a modelagem de ontologias, focando na importância das propriedades para criar modelos reutilizáveis e interoperáveis. O estudo propõe novas métricas de qualidade baseadas em propriedades e um método para converter ontologias em modelos para desenvolvimento de software.  Os benefícios das métricas propostas e a usabilidade dos métodos de conversão são demonstrados com exemplos de modelagem de conhecimento. A pesquisa conclui que as ontologias com propriedades bem definidas são mais adequadas para diversas aplicações, incluindo desenvolvimento de software e gerenciamento de conhecimento, e as métricas propostas auxiliam na criação desses modelos.
+</t>
+  </si>
+  <si>
+    <t>The development of an appropriate ontology model is usually a hard task. One of the main issues is that ontology developers usually concentrate on classes and neglect the role of properties. This paper analyzes the role of an appropriate property set in providing multi-purpose ontology models with a high level of re-usability in different areas. In this paper, novel quality metrics related to property components are introduced and a conversion method is presented to map the base ontology into models for software development. The benefits of the proposed quality metrics and the usability of the proposed conversion methods are demonstrated by examples from the field of knowledge modeling. © 2022 by the authors.</t>
+  </si>
+  <si>
+    <t>A_Survey_on_Computational_Aptitudes</t>
+  </si>
+  <si>
+    <t>A Survey on Computational Aptitudes towards Precision Agriculture using Data Mining</t>
+  </si>
+  <si>
+    <t>Murali, E.; Anouncia, S.Margret</t>
+  </si>
+  <si>
+    <t>3rd International Conference on Smart Electronics and Communication, ICOSEC 2022 - Proceedings</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICOSEC54921.2022.9951960</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A_Survey_on_Computational_Aptitudes.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artigo de revisão explora o uso de mineração de dados e ontologias na agricultura de precisão, com o objetivo de otimizar a produção de culturas por meio da análise de dados. Ele destaca a importância da coleta de dados (sensores, drones, satélites) e aplicação de técnicas de mineração de dados para tarefas como previsão de chuva, detecção de pragas e recomendação de culturas. O artigo também discute o uso de modelos de ontologia para gerenciamento e integração do conhecimento agrícola, melhorando o acesso e a reutilização de informações. Os resultados indicam que a combinação de mineração de dados e ontologias oferece uma abordagem promissora para melhorar a tomada de decisões e impulsionar a eficiência na agricultura.
+</t>
+  </si>
+  <si>
+    <t>Precision agriculture is a modern agriculture implementation technique in which analysis of numerous source data takes place for decision-making and operation in the management of crop production. The data for precision agriculture are collected through robots, sensors, satellites, and drones. The two approaches of precision agriculture are the predictive approach which is used for representing the static indicator during the crop cycle whereas the control approach is an updating of information Ontology is a demonstration of concepts and their shared association. It can be used in a wide range of contexts, including the classification of agricultural information and the development of knowledge bases. The basic steps involved in precision farming are assessing variation, managing variability, and evaluation. The various tools used in precision farming are the internet of things (IoT), a global positioning system (GPS), geographic information system (GPS), remote sensor, proximate sensor technology, grid sampling, etc. With the increase in information technology in the field of agriculture. Consequently, data mining become much essential for decision-making. This paper attempts to emphasize the coherence of data mining approaches toward helping precision agriculture as a valuable venture.  © 2022 IEEE.</t>
+  </si>
+  <si>
+    <t>snowballing Supervised-Ontology-Oriented</t>
+  </si>
+  <si>
+    <t>Futuristic-e-governance-security</t>
+  </si>
+  <si>
+    <t>Futuristic e-governance security with deep learning applications</t>
+  </si>
+  <si>
+    <t>Kumar, Rajeev; Abdul Hamid, Abu Bakar; Binti Ya'akub, Noor Inayah; Gaur, Madhu Sharma; Kumar, Sanjeev</t>
+  </si>
+  <si>
+    <t>Futuristic e-Governance Security With Deep Learning Applications</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4018/978-1-6684-9596-4</t>
+  </si>
+  <si>
+    <t>In today's rapidly advancing digital world, governments are increasingly relying on technology to enhance security systems and streamline governance. However, this growing reliance on digital platforms and data collection also presents significant challenges. Cybersecurity threats and privacy concerns pose large risks to sensitive information and can potentially leading to inaccuracies or breaches within deep learning models. There is a pressing need for comprehensive solutions that address these security issues and protect valuable data in the realm of e-governance. Futuristic e-Governance Security With Deep Learning Applications is a timely and indispensable resource that offers a holistic approach to tackling the security challenges of the digital era. The book presents a global perspective on the integration of intelligent systems with cybersecurity applications, highlighting cutting-edge techniques and methodologies to safeguard deep learning models from security attacks and privacy vulnerabilities. By exploring the latest advances and countermeasures in deep learning, this book equips scholars, researchers, and industry experts with the knowledge and tools they need to address security concerns and develop robust e-governance systems. This comprehensive volume not only sheds light on the current state-of-the-art methods but also delves into future trends and challenges. From skill development and tools for intelligence systems to deep learning, machine learning, blockchain, IoT, and cloud computing, the book covers a wide range of topics essential to understanding and implementing secure e-governance systems. With its practical insights and interdisciplinary approach, this book serves as a vital resource for academics, researchers, and professionals seeking to navigate the complex landscape of e-governance security and leverage deep learning applications to protect valuable data and ensure the smooth functioning of government operations. © 2024 by IGI Global. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Deep-learning-based-soil</t>
+  </si>
+  <si>
+    <t>Deep Learning-Based Soil Nutrient Content Prediction for Crop Yield Estimation</t>
+  </si>
+  <si>
+    <t>Sharma, Iti; Kumar, Nimish; Verma, Himanshu</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4018/978-1-6684-9596-4.ch005</t>
+  </si>
+  <si>
+    <t>This chapter proposes a deep learning-based approach for predicting soil nutrient content and its impact on crop yield. The objective is to develop an accurate model that can assist farmers in making informed decisions about nutrient management and improving crop productivity. The proposed approach employs a combination of a convolutional neural network (CNN) architecture and long short-term memory (LSTM) networks for analyzing soil samples and forecasting nutrient content. Subsequently, the trained model is harnessed to assess the influence of soil nutrient content on crop yield, taking into account factors like climate, water availability, and soil type. The approach was tested on publicly available soil nutrient and crop yield datasets of soil samples collected from different regions and crops. The findings illustrate that the suggested model surpasses conventional approaches and attains remarkable precision in forecasting soil nutrient levels and crop yield. © 2024. IGI Global. All rights reserved.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este documento apresenta uma metodologia para desenvolver uma ontologia de agricultura usando web scraping, Processamento de Linguagem Natural (PLN) e Inteligência Artificial (IA) para extrair relações semânticas de textos. O objetivo é aprimorar a compreensão das conexões entre diferentes conceitos na agricultura e melhorar a tomada de decisões. Várias técnicas de Machine Learning e Deep Learning, como SVM linear, Random Forest, CNN e LSTM, são empregadas para derivar insights significativos dos dados. Os resultados demonstram a eficácia da abordagem proposta na criação de uma ontologia de agricultura que identifica com precisão as conexões entre os conceitos, mostrando potencial para melhorar a tomada de decisões no setor agrícola.
+</t>
+  </si>
+  <si>
+    <t>Deep-neural-network-system</t>
+  </si>
+  <si>
+    <t>Deep Neural Network System Using Ontology to Recommend Organic Fertilizers for a Sustainable Agriculture</t>
+  </si>
+  <si>
+    <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli; Ramachandra, Divakar Harohally</t>
+  </si>
+  <si>
+    <t>Ingenierie des Systemes d'Information</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.18280/isi.280222</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Deep-neural-network-system.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O artigo apresenta um sistema de rede neural profunda orientado por ontologia para recomendar fertilizantes orgânicos, visando a agricultura sustentável. Uma ontologia de domínio agrícola é construída usando linguagem semântica e combinada com um modelo de aprendizado profundo para processar dados de qualidade do solo. O sistema recomenda os melhores fertilizantes orgânicos com base nas propriedades químicas do solo, considerando fatores como pH, nitrogênio, fósforo e potássio. Os resultados mostram que o modelo atinge uma precisão de cerca de 80% na recomendação de fertilizantes orgânicos adequados, com base na análise da precisão e recall. O artigo conclui que a combinação de ontologia e aprendizado profundo é promissora para sistemas de recomendação na agricultura.
+</t>
+  </si>
+  <si>
+    <t>The highest challenge humankind is facing in the current time period is the enormous population growth and the need to meet the food and nutrient to the population. To meet the enormous production, the farmers are more relayed on the usage of chemicals to increase the food production during the cultivation process. Inclination towards chemical fertilizers is because of their popularity and availability, the over usage of these chemicals is a root cause of many major problems like nutrient-less crops, soil quality degradation, and environmental hazards in the long run. The availability of a knowledge base of the soil quality parameters and their related organic fertilizers according to the farmer's region can decrease the inclination towards the utilization of chemical fertilizers and adopt the usage of organic fertilizers. To help in this process of a major change in farming we built an ontology oriented deep learning model which recommends the farmers in choosing the best organic fertilizers based on the soil quality. The domain ontology construction for agriculture is based on semantic language which can be reused in the future. The knowledge base is then utilized by the deep learning model to process the data and recommend the best suitable fertilizers. © 2023 International Information and Engineering Technology Association. All rights reserved.</t>
+  </si>
+  <si>
+    <t>KIASOntoRec</t>
+  </si>
+  <si>
+    <t>KIASOntoRec: A Knowledge Infused Approach for Socially Aware Ontology Recommendation</t>
+  </si>
+  <si>
+    <t>Valecha, Aastha; Deepak, Gerard; Surya, Deep ak</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-031-27499-2_36</t>
+  </si>
+  <si>
+    <t>snowballing Ontofusioncrop</t>
+  </si>
+  <si>
+    <t>The World Wide Web is progressively adopting web 3.0 standards, and there is a demand for semantically compatible recommendation techniques in today’s world. This paper presents a framework to facilitate Knowledge infused automatic Ontology recommendation. User queries and user clicks data are preprocessed and Structural Topic Modelling is employed to identify the latent sematic structure found in the corpus and generate topics. RDF triplets are generated based on the topics extracted using OntoCollab. RDF data along with the Google’s Knowledge Base API used to obtain the subgraphs and relevant topics. Bagging algorithm based on Random Forest Classification Technique with Decision Trees Algorithm is used to classify the terms. A knowledge base is constructed by merging the subgraphs. Semantic similarity among entities of the knowledge graph and the top 25% of the classified results is computed using SemantoSim and ANOVA. The topic set is extracted and subjected to axiomatization. Finally, the most relevant Ontology to the user query is suggested to the user. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+  </si>
+  <si>
+    <t>Application-of-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>Application of artificial intelligence and machine learning in agriculture</t>
+  </si>
+  <si>
+    <t>Marwaha, Sudeep; Deb, Chandan Kumar; Haque, Md. Ashraful; Naha, Sanchita; Maji, Arpan Kumar</t>
+  </si>
+  <si>
+    <t>Translating Physiological Tools to Augment Crop Breeding</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-981-19-7498-4_21</t>
+  </si>
+  <si>
+    <t>snowballing Strengthening-soil-taxonomy</t>
+  </si>
+  <si>
+    <t>Artificial intelligence (AI) is the branch of science that deals with the development of machines to mimic human intelligence. Machine learning (ML) is a subdomain of AI where the machine can learn automatically from data without being explicitly programmed. Agriculture is constantly pressed upon to produce more with less resource. AI and ML techniques have the capacity to optimize resource utilization by analysing agricultural data. It has changed the present-day face of farming by predicting various input parameters and forecasting post-harvest life of a crop. This chapter discusses the different AI and ML techniques available and how they have been used in different phases of the agriculture life cycle. This chapter includes vast range areas in agriculture that requires AI and ML. It includes soil, irrigation, and disease managements. Importance of AI in the field of plant phenomics also included in this chapter. The probable use of geographic information system (GIS) and remote sensing coupled with AI are discussed in this chapter. © Springer Nature Singapore Pte Ltd. 2023. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Development_of_an_Ontology_for_Bulgarian</t>
+  </si>
+  <si>
+    <t>Development of an Ontology for Bulgarian Soil Types</t>
+  </si>
+  <si>
+    <t>Stoyanova-Doycheva, Asya; Madanska, Sebiha; Bilyanov, Sheban</t>
+  </si>
+  <si>
+    <t>International Conference Automatics and Informatics, ICAI 2023 - Proceedings</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICAI58806.2023.10339031</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Development_of_an_Ontology_for_Bulgarian.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Este artigo apresenta o desenvolvimento de uma ontologia para os tipos de solos búlgaros, alinhada com a lista taxonômica da FAO e integrada à plataforma ZEMELA para agricultura inteligente. A ontologia inclui informações sobre as regiões agroclimáticas adequadas para o cultivo de diversas culturas, considerando características como teor de húmus e benignidade do solo. A ontologia, construída no Protégé, utiliza raciocínio (reasoning) com o Hermit Reasoner para classificar regiões agroclimáticas com base nas características do solo. O objetivo é fornecer uma base de conhecimento estruturada para auxiliar agricultores na tomada de decisões e no planejamento agrícola preciso, e tem potencial de aplicação em outras áreas como fundações de construção.
+</t>
+  </si>
+  <si>
+    <t>Modelagem Semântica de Solos; Aplicações de Ontologia de Solos em Agricultura de Precisão; Estudos de Caso e Implementações</t>
+  </si>
+  <si>
+    <t>The article presents the development of an ontology for the Taxonomic List of Soils in Bulgaria (according to the FAO World System). In addition to soil types, the ontology includes knowledge about the different agro-climatic regions in Bulgaria that are suitable for cultivating various agricultural crops. The ontology is part of the knowledge base of the ZEMELA platform for smart agriculture.  © 2023 IEEE.</t>
+  </si>
+  <si>
+    <t>ontology-crop-pest-control</t>
+  </si>
+  <si>
+    <t>Ontology of Crop Pest Control</t>
+  </si>
+  <si>
+    <t>Onkov, Kolyo</t>
+  </si>
+  <si>
+    <t>ACM International Conference Proceeding Series</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3388176.3388208</t>
+  </si>
+  <si>
+    <t>Domain ontology of crop pest control consists of hierarchically structured biological and chemical information and concepts on crops, pests, pest control measures and relations among them. Despite vertical relations in hierarchies, the knowledge about crop protection measures leads to horizontal relations between classes biological and chemical objects. There is analogy between class objects in biological classification of crops, pests and pest control measures from one hand and from the other hand class objects and instances of object oriented programming. The developed domain ontology has characteristics of task ontology because it leads to building analytical models, data analysis and solving practical problems. Classification of tasks and applications based on the domain ontology is in the scope of this work, as well. The main aim of the ontology is the development of intelligent computer based systems intended to satisfy specific informational needs of the professionals and practitioners in agronomy, crop protection, plant medicine, economics and business.  © 2020 ACM.</t>
+  </si>
+  <si>
+    <t>Develpment-of-semantic-enabled-engeneering</t>
+  </si>
+  <si>
+    <t>an-ontology-soil-properties</t>
+  </si>
+  <si>
+    <t>An ontology of soil properties and processes</t>
+  </si>
+  <si>
+    <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-46547-0_4</t>
+  </si>
+  <si>
+    <t>Assessing the Underworld (ATU) is a large interdisciplinary UK research project, which addresses challenges in integrated inter-asset maintenance. As assets on the surface of the ground (e.g. roads or pavements) and those buried under it (e.g. pipes and cables) are supported by the ground, the properties and processes of soil affect the performance of these assets to a significant degree. In order to make integrated decisions, it is necessary to combine the knowledge and expertise in multiple areas, such as roads, soil, buried assets, sensing, etc. This requires an underpinning knowledge model, in the form of an ontology. Within this context, we present a new ontology for describing soil properties (e.g. soil strength) and processes (e.g. soil compaction), as well as how they affect each other. This ontology can be used to express how the ground affects and is affected by assets buried under the ground or on the ground surface. The ontology is written in OWL 2 and openly available from the University of Leeds data repository: http://doi.org/10.5518/54. © Springer International Publishing AG 2016.</t>
+  </si>
+  <si>
+    <t>Editorial-Board_2018_Environmental-Modelling---Software</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Editorial-Board_2018_Environmental-Modelling---Software.txt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">O documento lista um extenso conselho editorial de uma publicação acadêmica, incluindo o editor-chefe, editores honorários, editores e editores associados. Os membros do conselho são afiliados a diversas universidades e instituições de pesquisa em todo o mundo. Não há menção de ontologia de solos, métodos, aplicações ou resultados chave. Portanto, não é possível fornecer um resumo sobre esses tópicos com base neste texto.
+</t>
+  </si>
+  <si>
+    <t>Soil-aggregates-southern-China</t>
+  </si>
+  <si>
+    <t>snowballing Web-based-software-USDA</t>
   </si>
 </sst>
 </file>
@@ -781,17 +1108,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q15"/>
+  <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="22.7109375" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
-    <col min="7" max="7" width="34" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -857,448 +1182,1022 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
+      <c r="Q3" t="s">
         <v>33</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>2015</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>2015</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <v>2024</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" t="s">
-        <v>110</v>
-      </c>
-      <c r="F13" t="s">
-        <v>111</v>
-      </c>
-      <c r="G13" t="s">
-        <v>112</v>
-      </c>
-      <c r="H13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I13" t="s">
-        <v>114</v>
-      </c>
-      <c r="N13" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B14" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="C14" t="s">
-        <v>118</v>
-      </c>
-      <c r="D14" t="s">
-        <v>119</v>
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>2024</v>
       </c>
       <c r="E14" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="G14" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="I14" t="s">
-        <v>123</v>
+        <v>114</v>
+      </c>
+      <c r="J14" t="s">
+        <v>31</v>
       </c>
       <c r="N14" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15" t="s">
+        <v>117</v>
+      </c>
+      <c r="C15" t="s">
+        <v>118</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G15" t="s">
+        <v>121</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>125</v>
       </c>
-      <c r="B15" t="s">
+      <c r="G16" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" t="s">
         <v>126</v>
       </c>
-      <c r="C15" t="s">
+      <c r="I16" t="s">
         <v>127</v>
       </c>
-      <c r="D15" t="s">
-        <v>103</v>
-      </c>
-      <c r="E15" t="s">
+      <c r="J16" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>128</v>
       </c>
-      <c r="F15" t="s">
+      <c r="B17" t="s">
         <v>129</v>
       </c>
-      <c r="G15" t="s">
-        <v>112</v>
-      </c>
-      <c r="N15" t="s">
+      <c r="C17" t="s">
         <v>130</v>
+      </c>
+      <c r="D17">
+        <v>2025</v>
+      </c>
+      <c r="E17" t="s">
+        <v>131</v>
+      </c>
+      <c r="F17" t="s">
+        <v>132</v>
+      </c>
+      <c r="G17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>121</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
+        <v>141</v>
+      </c>
+      <c r="N18" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>121</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20">
+        <v>2023</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>121</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>121</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>121</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" t="s">
+        <v>175</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>128</v>
+      </c>
+      <c r="B23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D23">
+        <v>2025</v>
+      </c>
+      <c r="E23" t="s">
+        <v>131</v>
+      </c>
+      <c r="F23" t="s">
+        <v>132</v>
+      </c>
+      <c r="G23" t="s">
+        <v>176</v>
+      </c>
+      <c r="N23" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B24" t="s">
+        <v>178</v>
+      </c>
+      <c r="C24" t="s">
+        <v>179</v>
+      </c>
+      <c r="D24">
+        <v>2024</v>
+      </c>
+      <c r="E24" t="s">
+        <v>180</v>
+      </c>
+      <c r="F24" t="s">
+        <v>181</v>
+      </c>
+      <c r="G24" t="s">
+        <v>176</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>183</v>
+      </c>
+      <c r="B25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C25" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25">
+        <v>2024</v>
+      </c>
+      <c r="E25" t="s">
+        <v>180</v>
+      </c>
+      <c r="F25" t="s">
+        <v>186</v>
+      </c>
+      <c r="G25" t="s">
+        <v>176</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>176</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>188</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
+        <v>150</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>189</v>
+      </c>
+      <c r="B27" t="s">
+        <v>190</v>
+      </c>
+      <c r="C27" t="s">
+        <v>191</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27" t="s">
+        <v>192</v>
+      </c>
+      <c r="F27" t="s">
+        <v>193</v>
+      </c>
+      <c r="G27" t="s">
+        <v>176</v>
+      </c>
+      <c r="H27" t="s">
+        <v>194</v>
+      </c>
+      <c r="I27" t="s">
+        <v>195</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>197</v>
+      </c>
+      <c r="B28" t="s">
+        <v>198</v>
+      </c>
+      <c r="C28" t="s">
+        <v>199</v>
+      </c>
+      <c r="D28">
+        <v>2023</v>
+      </c>
+      <c r="E28" t="s">
+        <v>63</v>
+      </c>
+      <c r="F28" t="s">
+        <v>200</v>
+      </c>
+      <c r="G28" t="s">
+        <v>201</v>
+      </c>
+      <c r="N28" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>203</v>
+      </c>
+      <c r="B29" t="s">
+        <v>204</v>
+      </c>
+      <c r="C29" t="s">
+        <v>205</v>
+      </c>
+      <c r="D29">
+        <v>2023</v>
+      </c>
+      <c r="E29" t="s">
+        <v>206</v>
+      </c>
+      <c r="F29" t="s">
+        <v>207</v>
+      </c>
+      <c r="G29" t="s">
+        <v>208</v>
+      </c>
+      <c r="N29" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>210</v>
+      </c>
+      <c r="B30" t="s">
+        <v>211</v>
+      </c>
+      <c r="C30" t="s">
+        <v>212</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30" t="s">
+        <v>213</v>
+      </c>
+      <c r="F30" t="s">
+        <v>214</v>
+      </c>
+      <c r="G30" t="s">
+        <v>208</v>
+      </c>
+      <c r="H30" t="s">
+        <v>215</v>
+      </c>
+      <c r="I30" t="s">
+        <v>216</v>
+      </c>
+      <c r="J30" t="s">
+        <v>217</v>
+      </c>
+      <c r="N30" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>219</v>
+      </c>
+      <c r="B31" t="s">
+        <v>220</v>
+      </c>
+      <c r="C31" t="s">
+        <v>221</v>
+      </c>
+      <c r="D31">
+        <v>2020</v>
+      </c>
+      <c r="E31" t="s">
+        <v>222</v>
+      </c>
+      <c r="F31" t="s">
+        <v>223</v>
+      </c>
+      <c r="G31" t="s">
+        <v>208</v>
+      </c>
+      <c r="N31" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>225</v>
+      </c>
+      <c r="G32" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>226</v>
+      </c>
+      <c r="B33" t="s">
+        <v>227</v>
+      </c>
+      <c r="C33" t="s">
+        <v>228</v>
+      </c>
+      <c r="D33">
+        <v>2016</v>
+      </c>
+      <c r="E33" t="s">
+        <v>229</v>
+      </c>
+      <c r="F33" t="s">
+        <v>230</v>
+      </c>
+      <c r="G33" t="s">
+        <v>208</v>
+      </c>
+      <c r="N33" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" t="s">
+        <v>208</v>
+      </c>
+      <c r="H34" t="s">
+        <v>233</v>
+      </c>
+      <c r="I34" t="s">
+        <v>234</v>
+      </c>
+      <c r="J34" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="G35" t="s">
+        <v>236</v>
       </c>
     </row>
   </sheetData>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{353EAA6E-FA0D-421B-AD7E-6DB336BD6C84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2AA11C-9536-4003-825D-9E5FC282F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$35</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="251">
   <si>
     <t>ID do Documento</t>
   </si>
@@ -82,6 +85,9 @@
     <t>Kendig, Catherine</t>
   </si>
   <si>
+    <t>2024</t>
+  </si>
+  <si>
     <t>Journal of Social Ontology</t>
   </si>
   <si>
@@ -131,6 +137,9 @@
   </si>
   <si>
     <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
+  </si>
+  <si>
+    <t>2023</t>
   </si>
   <si>
     <t>International Journal on Recent and Innovation Trends in Computing and Communication</t>
@@ -186,6 +195,9 @@
     <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
   </si>
   <si>
+    <t>2022</t>
+  </si>
+  <si>
     <t>Revue d'Intelligence Artificielle</t>
   </si>
   <si>
@@ -232,6 +244,9 @@
     <t>Krzywoszynska, Anna; Marchesi, Greta</t>
   </si>
   <si>
+    <t>2020</t>
+  </si>
+  <si>
     <t>Environmental Humanities</t>
   </si>
   <si>
@@ -285,6 +300,9 @@
     <t>Shu, Yanfeng; Liu, Qing</t>
   </si>
   <si>
+    <t>2015</t>
+  </si>
+  <si>
     <t>Proceedings - 21st International Congress on Modelling and Simulation, MODSIM 2015</t>
   </si>
   <si>
@@ -321,6 +339,9 @@
     <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
   </si>
   <si>
+    <t>2014</t>
+  </si>
+  <si>
     <t>Indian Journal of Agricultural Sciences</t>
   </si>
   <si>
@@ -330,40 +351,46 @@
     <t>United States Department of Agriculture (USDA) Soil Taxonomy is based on soil properties that can be objectively observed and measured in the natural conditions as they exist today. There are many soil classification systems but USDA Soil Taxonomy is most accepted worldwide. Ontologies are the new form of knowledge representation that acts in synergy with agents and Semantic Web Architecture. Soil ontology developed for USDA soil taxonomy has been used to develop a query interface that will help in detailed study of soil taxonomy, classification of new soil as well as exchange knowledge between software agents and systems. This is a web based application having N-tier architecture. Application development environment is NetBeans 6. 9 editor and Protégé. Web development technology is Java Server Pages (JSP). Programming languages JAVA and SPARQL are used for querying. Client interface is developed with Hyper Text Markup Language (HTML), Cascading Style Sheet (CSS) and JavaScript. Third tier of software consist of database which is in MS-SQL server 2005. Other two layers are Web Ontology Language (OWL) Ontology layer and Semantic Web Framework layer. OWL layer contains soil taxonomy information in the form of Ontology. Semantic Web Framework layer is implemented using JENA. In the search panel user can search anything related to USDA Soil Taxonomy, which comprises of twelve orders. However, this software contains information about seven soil orders reported in India. Domain experts can see and edit the knowledge base (i. e. Soil Ontology) or can suggest anything related to the creation of Soil Taxonomy Ontology through WebProtégé.</t>
   </si>
   <si>
-    <t>An-active-disturbance-rejection</t>
-  </si>
-  <si>
-    <t>An active disturbance rejection control approach to vibration control on flexible systems based on frequency response</t>
-  </si>
-  <si>
-    <t>Lin, Shuyang</t>
-  </si>
-  <si>
-    <t>Advanced Control for Applications: Engineering and Industrial Systems</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1002/adc2.222</t>
+    <t>use-of-NLP-techniques</t>
+  </si>
+  <si>
+    <t>Use of NLP Techniques and High-Performance Computing for Automated Knowledge Based Ontology Construction of Saffron Crop</t>
+  </si>
+  <si>
+    <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
+  </si>
+  <si>
+    <t>2025</t>
+  </si>
+  <si>
+    <t>Parallel and High-Performance Computing in Artificial Intelligence</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1201/9781003425458-10</t>
+  </si>
+  <si>
+    <t>snowballing An-Ontology-based-Knowledge</t>
+  </si>
+  <si>
+    <t>The agriculture industry is very different from other industries, as it depends on many natural and climatic factors. Revolutionary changes are shaking up the way farming is done and opening up new opportunities and challenges. The amount of user-generated information about smart farming, green houses, and indoor farming that is available on the web keeps growing. Learning how to represent language and solve tasks from beginning to end without the help of human experts to extract and create features has made approaches more precise and much more challenging in terms of the number of parameters. This means that they need parallelized and distributed resources for high-performance computing. This chapter gives a knowledge-based representation of the most recent problems, algorithms, and models in the field of agriculture that involve natural language processing. Mainly we consider saffron crop cultivation. Additionally, the impact of high-performance computing for natural language processing (NLP) applications is shown by going into detail about deep learning approaches that use large amounts of data to train models before using them to understand text. In the proposed method, NLP techniques are used to prepare the data; rule-based formal concept analysis and mapping are used to analyze and map the tags that have been reduced; and finally weather, pests, and soil subdomain ontologies are built separately from the saffron agricultural domain data. © 2025 selection and editorial matter, Mukesh Raghuwanshi, Pradnya Borkar, Rutvij H. Jhaveri, and Roshani Raut.</t>
+  </si>
+  <si>
+    <t>3D_Segmentation_of_MRI</t>
+  </si>
+  <si>
+    <t>3D Segmentation of MRI Using Multimodal for Detection of Brain Tumour</t>
+  </si>
+  <si>
+    <t>Sanjay, D.; Devarsh, V.; Murali, E.; Antony, J Cruz; Vignesh, R.</t>
+  </si>
+  <si>
+    <t>2024 International Conference on Recent Innovation in Smart and Sustainable Technology, ICRISST 2024</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1109/ICRISST59181.2024.10921899</t>
   </si>
   <si>
     <t>snowballing Design-of-Multiple-Ontology</t>
-  </si>
-  <si>
-    <t>Active disturbance rejection control (ADRC) is considerably applied due to its advantage of focusing on merely dominant parameters. Research on flexible systems frequently confronting perplexing disturbances can utilize this method to simplify irrelevant items as a single variable. In this paper, we focused on vibration control problems in flexible systems with the application of ADRC and constructed a second-order system model under the guideline of fundamental principles of ADRC and an innovative algorithm for tuning feedforward compensation ADRC. During the simulation, we discussed three cases in which each solely one parameter varies while others are kept invariant. Time, open-loop frequency, and close-loop frequency responses were respectively analyzed in all cases as to determine the stability of the system. According to the simulation results, we arrived at the conclusion: we should choose the specification of a flexible system within an intermediate range and evade from critical system parameters to procure stability and efficiency. © 2024 John Wiley &amp; Sons Ltd.</t>
-  </si>
-  <si>
-    <t>3D_Segmentation_of_MRI</t>
-  </si>
-  <si>
-    <t>3D Segmentation of MRI Using Multimodal for Detection of Brain Tumour</t>
-  </si>
-  <si>
-    <t>Sanjay, D.; Devarsh, V.; Murali, E.; Antony, J Cruz; Vignesh, R.</t>
-  </si>
-  <si>
-    <t>2024 International Conference on Recent Innovation in Smart and Sustainable Technology, ICRISST 2024</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1109/ICRISST59181.2024.10921899</t>
   </si>
   <si>
     <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\3D_Segmentation_of_MRI.txt</t>
@@ -391,9 +418,6 @@
     <t>https://doi.org/10.1016/j.compag.2025.110369</t>
   </si>
   <si>
-    <t>snowballing An-Ontology-based-Knowledge</t>
-  </si>
-  <si>
     <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\appearance-quality-identification.txt</t>
   </si>
   <si>
@@ -413,22 +437,22 @@
     <t>Este documento propõe um framework estratégico de data fabric para melhorar a gestão do conhecimento em grandes instituições acadêmicas, superando desafios como fragmentação de dados e sistemas de informação isolados. A pesquisa explora o uso de ontologias e grafos de conhecimento para modelar, integrar e representar o conhecimento acadêmico, facilitando o acesso e o intercâmbio de informações. A avaliação demonstra que essa abordagem efetivamente quebra silos de dados, promove a colaboração em pesquisa e melhora os processos de tomada de decisão. A estrutura proposta (vDFKM), quando integrada em um sistema pré-existente como DSpace, proporciona uma forma mais eficiente de gerenciar e conectar recursos acadêmicos fragmentados, melhorando a acessibilidade para alunos e educadores.</t>
   </si>
   <si>
-    <t>use-of-NLP-techniques</t>
-  </si>
-  <si>
-    <t>Use of NLP Techniques and High-Performance Computing for Automated Knowledge Based Ontology Construction of Saffron Crop</t>
-  </si>
-  <si>
-    <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
-  </si>
-  <si>
-    <t>Parallel and High-Performance Computing in Artificial Intelligence</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1201/9781003425458-10</t>
-  </si>
-  <si>
-    <t>The agriculture industry is very different from other industries, as it depends on many natural and climatic factors. Revolutionary changes are shaking up the way farming is done and opening up new opportunities and challenges. The amount of user-generated information about smart farming, green houses, and indoor farming that is available on the web keeps growing. Learning how to represent language and solve tasks from beginning to end without the help of human experts to extract and create features has made approaches more precise and much more challenging in terms of the number of parameters. This means that they need parallelized and distributed resources for high-performance computing. This chapter gives a knowledge-based representation of the most recent problems, algorithms, and models in the field of agriculture that involve natural language processing. Mainly we consider saffron crop cultivation. Additionally, the impact of high-performance computing for natural language processing (NLP) applications is shown by going into detail about deep learning approaches that use large amounts of data to train models before using them to understand text. In the proposed method, NLP techniques are used to prepare the data; rule-based formal concept analysis and mapping are used to analyze and map the tags that have been reduced; and finally weather, pests, and soil subdomain ontologies are built separately from the saffron agricultural domain data. © 2025 selection and editorial matter, Mukesh Raghuwanshi, Pradnya Borkar, Rutvij H. Jhaveri, and Roshani Raut.</t>
+    <t>An-active-disturbance-rejection</t>
+  </si>
+  <si>
+    <t>An active disturbance rejection control approach to vibration control on flexible systems based on frequency response</t>
+  </si>
+  <si>
+    <t>Lin, Shuyang</t>
+  </si>
+  <si>
+    <t>Advanced Control for Applications: Engineering and Industrial Systems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/adc2.222</t>
+  </si>
+  <si>
+    <t>Active disturbance rejection control (ADRC) is considerably applied due to its advantage of focusing on merely dominant parameters. Research on flexible systems frequently confronting perplexing disturbances can utilize this method to simplify irrelevant items as a single variable. In this paper, we focused on vibration control problems in flexible systems with the application of ADRC and constructed a second-order system model under the guideline of fundamental principles of ADRC and an innovative algorithm for tuning feedforward compensation ADRC. During the simulation, we discussed three cases in which each solely one parameter varies while others are kept invariant. Time, open-loop frequency, and close-loop frequency responses were respectively analyzed in all cases as to determine the stability of the system. According to the simulation results, we arrived at the conclusion: we should choose the specification of a flexible system within an intermediate range and evade from critical system parameters to procure stability and efficiency. © 2024 John Wiley &amp; Sons Ltd.</t>
   </si>
   <si>
     <t>an-ontology-based-agriculture</t>
@@ -561,40 +585,64 @@
     <t>Precision agriculture is a modern agriculture implementation technique in which analysis of numerous source data takes place for decision-making and operation in the management of crop production. The data for precision agriculture are collected through robots, sensors, satellites, and drones. The two approaches of precision agriculture are the predictive approach which is used for representing the static indicator during the crop cycle whereas the control approach is an updating of information Ontology is a demonstration of concepts and their shared association. It can be used in a wide range of contexts, including the classification of agricultural information and the development of knowledge bases. The basic steps involved in precision farming are assessing variation, managing variability, and evaluation. The various tools used in precision farming are the internet of things (IoT), a global positioning system (GPS), geographic information system (GPS), remote sensor, proximate sensor technology, grid sampling, etc. With the increase in information technology in the field of agriculture. Consequently, data mining become much essential for decision-making. This paper attempts to emphasize the coherence of data mining approaches toward helping precision agriculture as a valuable venture.  © 2022 IEEE.</t>
   </si>
   <si>
+    <t>KIASOntoRec</t>
+  </si>
+  <si>
+    <t>KIASOntoRec: A Knowledge Infused Approach for Socially Aware Ontology Recommendation</t>
+  </si>
+  <si>
+    <t>Valecha, Aastha; Deepak, Gerard; Surya, Deep ak</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-031-27499-2_36</t>
+  </si>
+  <si>
+    <t>snowballing Ontofusioncrop</t>
+  </si>
+  <si>
+    <t>The World Wide Web is progressively adopting web 3.0 standards, and there is a demand for semantically compatible recommendation techniques in today’s world. This paper presents a framework to facilitate Knowledge infused automatic Ontology recommendation. User queries and user clicks data are preprocessed and Structural Topic Modelling is employed to identify the latent sematic structure found in the corpus and generate topics. RDF triplets are generated based on the topics extracted using OntoCollab. RDF data along with the Google’s Knowledge Base API used to obtain the subgraphs and relevant topics. Bagging algorithm based on Random Forest Classification Technique with Decision Trees Algorithm is used to classify the terms. A knowledge base is constructed by merging the subgraphs. Semantic similarity among entities of the knowledge graph and the top 25% of the classified results is computed using SemantoSim and ANOVA. The topic set is extracted and subjected to axiomatization. Finally, the most relevant Ontology to the user query is suggested to the user. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
+  </si>
+  <si>
+    <t>Application-of-artificial-intelligence</t>
+  </si>
+  <si>
+    <t>Application of artificial intelligence and machine learning in agriculture</t>
+  </si>
+  <si>
+    <t>Marwaha, Sudeep; Deb, Chandan Kumar; Haque, Md. Ashraful; Naha, Sanchita; Maji, Arpan Kumar</t>
+  </si>
+  <si>
+    <t>Translating Physiological Tools to Augment Crop Breeding</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-981-19-7498-4_21</t>
+  </si>
+  <si>
+    <t>snowballing Strengthening-soil-taxonomy</t>
+  </si>
+  <si>
+    <t>Artificial intelligence (AI) is the branch of science that deals with the development of machines to mimic human intelligence. Machine learning (ML) is a subdomain of AI where the machine can learn automatically from data without being explicitly programmed. Agriculture is constantly pressed upon to produce more with less resource. AI and ML techniques have the capacity to optimize resource utilization by analysing agricultural data. It has changed the present-day face of farming by predicting various input parameters and forecasting post-harvest life of a crop. This chapter discusses the different AI and ML techniques available and how they have been used in different phases of the agriculture life cycle. This chapter includes vast range areas in agriculture that requires AI and ML. It includes soil, irrigation, and disease managements. Importance of AI in the field of plant phenomics also included in this chapter. The probable use of geographic information system (GIS) and remote sensing coupled with AI are discussed in this chapter. © Springer Nature Singapore Pte Ltd. 2023. All rights reserved.</t>
+  </si>
+  <si>
+    <t>ontology-crop-pest-control</t>
+  </si>
+  <si>
+    <t>Ontology of Crop Pest Control</t>
+  </si>
+  <si>
+    <t>Onkov, Kolyo</t>
+  </si>
+  <si>
+    <t>ACM International Conference Proceeding Series</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1145/3388176.3388208</t>
+  </si>
+  <si>
+    <t>Domain ontology of crop pest control consists of hierarchically structured biological and chemical information and concepts on crops, pests, pest control measures and relations among them. Despite vertical relations in hierarchies, the knowledge about crop protection measures leads to horizontal relations between classes biological and chemical objects. There is analogy between class objects in biological classification of crops, pests and pest control measures from one hand and from the other hand class objects and instances of object oriented programming. The developed domain ontology has characteristics of task ontology because it leads to building analytical models, data analysis and solving practical problems. Classification of tasks and applications based on the domain ontology is in the scope of this work, as well. The main aim of the ontology is the development of intelligent computer based systems intended to satisfy specific informational needs of the professionals and practitioners in agronomy, crop protection, plant medicine, economics and business.  © 2020 ACM.</t>
+  </si>
+  <si>
     <t>snowballing Supervised-Ontology-Oriented</t>
-  </si>
-  <si>
-    <t>Futuristic-e-governance-security</t>
-  </si>
-  <si>
-    <t>Futuristic e-governance security with deep learning applications</t>
-  </si>
-  <si>
-    <t>Kumar, Rajeev; Abdul Hamid, Abu Bakar; Binti Ya'akub, Noor Inayah; Gaur, Madhu Sharma; Kumar, Sanjeev</t>
-  </si>
-  <si>
-    <t>Futuristic e-Governance Security With Deep Learning Applications</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.4018/978-1-6684-9596-4</t>
-  </si>
-  <si>
-    <t>In today's rapidly advancing digital world, governments are increasingly relying on technology to enhance security systems and streamline governance. However, this growing reliance on digital platforms and data collection also presents significant challenges. Cybersecurity threats and privacy concerns pose large risks to sensitive information and can potentially leading to inaccuracies or breaches within deep learning models. There is a pressing need for comprehensive solutions that address these security issues and protect valuable data in the realm of e-governance. Futuristic e-Governance Security With Deep Learning Applications is a timely and indispensable resource that offers a holistic approach to tackling the security challenges of the digital era. The book presents a global perspective on the integration of intelligent systems with cybersecurity applications, highlighting cutting-edge techniques and methodologies to safeguard deep learning models from security attacks and privacy vulnerabilities. By exploring the latest advances and countermeasures in deep learning, this book equips scholars, researchers, and industry experts with the knowledge and tools they need to address security concerns and develop robust e-governance systems. This comprehensive volume not only sheds light on the current state-of-the-art methods but also delves into future trends and challenges. From skill development and tools for intelligence systems to deep learning, machine learning, blockchain, IoT, and cloud computing, the book covers a wide range of topics essential to understanding and implementing secure e-governance systems. With its practical insights and interdisciplinary approach, this book serves as a vital resource for academics, researchers, and professionals seeking to navigate the complex landscape of e-governance security and leverage deep learning applications to protect valuable data and ensure the smooth functioning of government operations. © 2024 by IGI Global. All rights reserved.</t>
-  </si>
-  <si>
-    <t>Deep-learning-based-soil</t>
-  </si>
-  <si>
-    <t>Deep Learning-Based Soil Nutrient Content Prediction for Crop Yield Estimation</t>
-  </si>
-  <si>
-    <t>Sharma, Iti; Kumar, Nimish; Verma, Himanshu</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.4018/978-1-6684-9596-4.ch005</t>
-  </si>
-  <si>
-    <t>This chapter proposes a deep learning-based approach for predicting soil nutrient content and its impact on crop yield. The objective is to develop an accurate model that can assist farmers in making informed decisions about nutrient management and improving crop productivity. The proposed approach employs a combination of a convolutional neural network (CNN) architecture and long short-term memory (LSTM) networks for analyzing soil samples and forecasting nutrient content. Subsequently, the trained model is harnessed to assess the influence of soil nutrient content on crop yield, taking into account factors like climate, water availability, and soil type. The approach was tested on publicly available soil nutrient and crop yield datasets of soil samples collected from different regions and crops. The findings illustrate that the suggested model surpasses conventional approaches and attains remarkable precision in forecasting soil nutrient levels and crop yield. © 2024. IGI Global. All rights reserved.</t>
   </si>
   <si>
     <t xml:space="preserve">Este documento apresenta uma metodologia para desenvolver uma ontologia de agricultura usando web scraping, Processamento de Linguagem Natural (PLN) e Inteligência Artificial (IA) para extrair relações semânticas de textos. O objetivo é aprimorar a compreensão das conexões entre diferentes conceitos na agricultura e melhorar a tomada de decisões. Várias técnicas de Machine Learning e Deep Learning, como SVM linear, Random Forest, CNN e LSTM, são empregadas para derivar insights significativos dos dados. Os resultados demonstram a eficácia da abordagem proposta na criação de uma ontologia de agricultura que identifica com precisão as conexões entre os conceitos, mostrando potencial para melhorar a tomada de decisões no setor agrícola.
@@ -626,43 +674,28 @@
     <t>The highest challenge humankind is facing in the current time period is the enormous population growth and the need to meet the food and nutrient to the population. To meet the enormous production, the farmers are more relayed on the usage of chemicals to increase the food production during the cultivation process. Inclination towards chemical fertilizers is because of their popularity and availability, the over usage of these chemicals is a root cause of many major problems like nutrient-less crops, soil quality degradation, and environmental hazards in the long run. The availability of a knowledge base of the soil quality parameters and their related organic fertilizers according to the farmer's region can decrease the inclination towards the utilization of chemical fertilizers and adopt the usage of organic fertilizers. To help in this process of a major change in farming we built an ontology oriented deep learning model which recommends the farmers in choosing the best organic fertilizers based on the soil quality. The domain ontology construction for agriculture is based on semantic language which can be reused in the future. The knowledge base is then utilized by the deep learning model to process the data and recommend the best suitable fertilizers. © 2023 International Information and Engineering Technology Association. All rights reserved.</t>
   </si>
   <si>
-    <t>KIASOntoRec</t>
-  </si>
-  <si>
-    <t>KIASOntoRec: A Knowledge Infused Approach for Socially Aware Ontology Recommendation</t>
-  </si>
-  <si>
-    <t>Valecha, Aastha; Deepak, Gerard; Surya, Deep ak</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/978-3-031-27499-2_36</t>
-  </si>
-  <si>
-    <t>snowballing Ontofusioncrop</t>
-  </si>
-  <si>
-    <t>The World Wide Web is progressively adopting web 3.0 standards, and there is a demand for semantically compatible recommendation techniques in today’s world. This paper presents a framework to facilitate Knowledge infused automatic Ontology recommendation. User queries and user clicks data are preprocessed and Structural Topic Modelling is employed to identify the latent sematic structure found in the corpus and generate topics. RDF triplets are generated based on the topics extracted using OntoCollab. RDF data along with the Google’s Knowledge Base API used to obtain the subgraphs and relevant topics. Bagging algorithm based on Random Forest Classification Technique with Decision Trees Algorithm is used to classify the terms. A knowledge base is constructed by merging the subgraphs. Semantic similarity among entities of the knowledge graph and the top 25% of the classified results is computed using SemantoSim and ANOVA. The topic set is extracted and subjected to axiomatization. Finally, the most relevant Ontology to the user query is suggested to the user. © 2023, The Author(s), under exclusive license to Springer Nature Switzerland AG.</t>
-  </si>
-  <si>
-    <t>Application-of-artificial-intelligence</t>
-  </si>
-  <si>
-    <t>Application of artificial intelligence and machine learning in agriculture</t>
-  </si>
-  <si>
-    <t>Marwaha, Sudeep; Deb, Chandan Kumar; Haque, Md. Ashraful; Naha, Sanchita; Maji, Arpan Kumar</t>
-  </si>
-  <si>
-    <t>Translating Physiological Tools to Augment Crop Breeding</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/978-981-19-7498-4_21</t>
-  </si>
-  <si>
-    <t>snowballing Strengthening-soil-taxonomy</t>
-  </si>
-  <si>
-    <t>Artificial intelligence (AI) is the branch of science that deals with the development of machines to mimic human intelligence. Machine learning (ML) is a subdomain of AI where the machine can learn automatically from data without being explicitly programmed. Agriculture is constantly pressed upon to produce more with less resource. AI and ML techniques have the capacity to optimize resource utilization by analysing agricultural data. It has changed the present-day face of farming by predicting various input parameters and forecasting post-harvest life of a crop. This chapter discusses the different AI and ML techniques available and how they have been used in different phases of the agriculture life cycle. This chapter includes vast range areas in agriculture that requires AI and ML. It includes soil, irrigation, and disease managements. Importance of AI in the field of plant phenomics also included in this chapter. The probable use of geographic information system (GIS) and remote sensing coupled with AI are discussed in this chapter. © Springer Nature Singapore Pte Ltd. 2023. All rights reserved.</t>
+    <t>an-ontology-soil-properties</t>
+  </si>
+  <si>
+    <t>An ontology of soil properties and processes</t>
+  </si>
+  <si>
+    <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-319-46547-0_4</t>
+  </si>
+  <si>
+    <t>Assessing the Underworld (ATU) is a large interdisciplinary UK research project, which addresses challenges in integrated inter-asset maintenance. As assets on the surface of the ground (e.g. roads or pavements) and those buried under it (e.g. pipes and cables) are supported by the ground, the properties and processes of soil affect the performance of these assets to a significant degree. In order to make integrated decisions, it is necessary to combine the knowledge and expertise in multiple areas, such as roads, soil, buried assets, sensing, etc. This requires an underpinning knowledge model, in the form of an ontology. Within this context, we present a new ontology for describing soil properties (e.g. soil strength) and processes (e.g. soil compaction), as well as how they affect each other. This ontology can be used to express how the ground affects and is affected by assets buried under the ground or on the ground surface. The ontology is written in OWL 2 and openly available from the University of Leeds data repository: http://doi.org/10.5518/54. © Springer International Publishing AG 2016.</t>
+  </si>
+  <si>
+    <t>Develpment-of-semantic-enabled-engeneering</t>
   </si>
   <si>
     <t>Development_of_an_Ontology_for_Bulgarian</t>
@@ -693,43 +726,37 @@
     <t>The article presents the development of an ontology for the Taxonomic List of Soils in Bulgaria (according to the FAO World System). In addition to soil types, the ontology includes knowledge about the different agro-climatic regions in Bulgaria that are suitable for cultivating various agricultural crops. The ontology is part of the knowledge base of the ZEMELA platform for smart agriculture.  © 2023 IEEE.</t>
   </si>
   <si>
-    <t>ontology-crop-pest-control</t>
-  </si>
-  <si>
-    <t>Ontology of Crop Pest Control</t>
-  </si>
-  <si>
-    <t>Onkov, Kolyo</t>
-  </si>
-  <si>
-    <t>ACM International Conference Proceeding Series</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1145/3388176.3388208</t>
-  </si>
-  <si>
-    <t>Domain ontology of crop pest control consists of hierarchically structured biological and chemical information and concepts on crops, pests, pest control measures and relations among them. Despite vertical relations in hierarchies, the knowledge about crop protection measures leads to horizontal relations between classes biological and chemical objects. There is analogy between class objects in biological classification of crops, pests and pest control measures from one hand and from the other hand class objects and instances of object oriented programming. The developed domain ontology has characteristics of task ontology because it leads to building analytical models, data analysis and solving practical problems. Classification of tasks and applications based on the domain ontology is in the scope of this work, as well. The main aim of the ontology is the development of intelligent computer based systems intended to satisfy specific informational needs of the professionals and practitioners in agronomy, crop protection, plant medicine, economics and business.  © 2020 ACM.</t>
-  </si>
-  <si>
-    <t>Develpment-of-semantic-enabled-engeneering</t>
-  </si>
-  <si>
-    <t>an-ontology-soil-properties</t>
-  </si>
-  <si>
-    <t>An ontology of soil properties and processes</t>
-  </si>
-  <si>
-    <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
-  </si>
-  <si>
-    <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
-  </si>
-  <si>
-    <t>https://doi.org/10.1007/978-3-319-46547-0_4</t>
-  </si>
-  <si>
-    <t>Assessing the Underworld (ATU) is a large interdisciplinary UK research project, which addresses challenges in integrated inter-asset maintenance. As assets on the surface of the ground (e.g. roads or pavements) and those buried under it (e.g. pipes and cables) are supported by the ground, the properties and processes of soil affect the performance of these assets to a significant degree. In order to make integrated decisions, it is necessary to combine the knowledge and expertise in multiple areas, such as roads, soil, buried assets, sensing, etc. This requires an underpinning knowledge model, in the form of an ontology. Within this context, we present a new ontology for describing soil properties (e.g. soil strength) and processes (e.g. soil compaction), as well as how they affect each other. This ontology can be used to express how the ground affects and is affected by assets buried under the ground or on the ground surface. The ontology is written in OWL 2 and openly available from the University of Leeds data repository: http://doi.org/10.5518/54. © Springer International Publishing AG 2016.</t>
+    <t>Futuristic-e-governance-security</t>
+  </si>
+  <si>
+    <t>Futuristic e-governance security with deep learning applications</t>
+  </si>
+  <si>
+    <t>Kumar, Rajeev; Abdul Hamid, Abu Bakar; Binti Ya'akub, Noor Inayah; Gaur, Madhu Sharma; Kumar, Sanjeev</t>
+  </si>
+  <si>
+    <t>Futuristic e-Governance Security With Deep Learning Applications</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4018/978-1-6684-9596-4</t>
+  </si>
+  <si>
+    <t>In today's rapidly advancing digital world, governments are increasingly relying on technology to enhance security systems and streamline governance. However, this growing reliance on digital platforms and data collection also presents significant challenges. Cybersecurity threats and privacy concerns pose large risks to sensitive information and can potentially leading to inaccuracies or breaches within deep learning models. There is a pressing need for comprehensive solutions that address these security issues and protect valuable data in the realm of e-governance. Futuristic e-Governance Security With Deep Learning Applications is a timely and indispensable resource that offers a holistic approach to tackling the security challenges of the digital era. The book presents a global perspective on the integration of intelligent systems with cybersecurity applications, highlighting cutting-edge techniques and methodologies to safeguard deep learning models from security attacks and privacy vulnerabilities. By exploring the latest advances and countermeasures in deep learning, this book equips scholars, researchers, and industry experts with the knowledge and tools they need to address security concerns and develop robust e-governance systems. This comprehensive volume not only sheds light on the current state-of-the-art methods but also delves into future trends and challenges. From skill development and tools for intelligence systems to deep learning, machine learning, blockchain, IoT, and cloud computing, the book covers a wide range of topics essential to understanding and implementing secure e-governance systems. With its practical insights and interdisciplinary approach, this book serves as a vital resource for academics, researchers, and professionals seeking to navigate the complex landscape of e-governance security and leverage deep learning applications to protect valuable data and ensure the smooth functioning of government operations. © 2024 by IGI Global. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Deep-learning-based-soil</t>
+  </si>
+  <si>
+    <t>Deep Learning-Based Soil Nutrient Content Prediction for Crop Yield Estimation</t>
+  </si>
+  <si>
+    <t>Sharma, Iti; Kumar, Nimish; Verma, Himanshu</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4018/978-1-6684-9596-4.ch005</t>
+  </si>
+  <si>
+    <t>This chapter proposes a deep learning-based approach for predicting soil nutrient content and its impact on crop yield. The objective is to develop an accurate model that can assist farmers in making informed decisions about nutrient management and improving crop productivity. The proposed approach employs a combination of a convolutional neural network (CNN) architecture and long short-term memory (LSTM) networks for analyzing soil samples and forecasting nutrient content. Subsequently, the trained model is harnessed to assess the influence of soil nutrient content on crop yield, taking into account factors like climate, water availability, and soil type. The approach was tested on publicly available soil nutrient and crop yield datasets of soil samples collected from different regions and crops. The findings illustrate that the suggested model surpasses conventional approaches and attains remarkable precision in forecasting soil nutrient levels and crop yield. © 2024. IGI Global. All rights reserved.</t>
   </si>
   <si>
     <t>Editorial-Board_2018_Environmental-Modelling---Software</t>
@@ -745,7 +772,25 @@
     <t>Soil-aggregates-southern-China</t>
   </si>
   <si>
+    <t>Soil aggregates response to tillage and residue management in a double paddy rice soil of the Southern China</t>
+  </si>
+  <si>
+    <t>Chen, Zhongdu; Ti, Jin-song; Chen, Fu</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>Nutrient Cycling in Agroecosystems</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10705-017-9864-8</t>
+  </si>
+  <si>
     <t>snowballing Web-based-software-USDA</t>
+  </si>
+  <si>
+    <t>Soil aggregate stability is a key indicator of soil quality and environmental sustainability of agroecosystems. The protection of organic material within aggregates against microbial decomposition is regarded as an important process in soil organic carbon stabilization but detailed knowledge about this process is still lacking. The objective of our study was to examine the multiple year effects of plow tillage with residue removed (PT0), plow tillage with residue incorporation (PT), rotary tillage with residue retention (RT), and no-till with residue retention (NT) on soil water stable aggregates (WSA) under a double rice (Oryza sativa L.) cropping system in the Southern China. Results showed that the NT system increased the proportion of &gt;2 mm aggregate fraction, and reduced the proportion of &lt;0.053 mm aggregates at 0–5 cm depth in 2011. Compared with PT0 and PT, significantly higher large macroaggregate (&gt;2 mm) associated-C contributions to TOC were observed in the surface layer (0–10 cm depth) under RT and NT. A significant positive correlation between TOC and macroaggregate (&gt;2 and 2–0.25 mm) associated-C was observed at 0–20 cm soil depth in the paddy rice ecosystem. Therefore, conversion to NT, could enhance the formation of stable macroaggregate, macroaggregates associated-C, and total C contents in paddy soil of Southern China. © 2017, Springer Science+Business Media B.V.</t>
   </si>
 </sst>
 </file>
@@ -1110,13 +1155,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="55.28515625" customWidth="1"/>
+    <col min="7" max="7" width="58.7109375" customWidth="1"/>
+    <col min="8" max="8" width="39" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
@@ -1182,1025 +1229,1047 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2">
-        <v>2024</v>
+      <c r="D2" t="s">
+        <v>20</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
-      </c>
-      <c r="D3">
-        <v>2024</v>
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
       </c>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>37</v>
+      </c>
+      <c r="D4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" t="s">
+        <v>43</v>
+      </c>
+      <c r="N4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q4" t="s">
         <v>34</v>
-      </c>
-      <c r="B4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D4">
-        <v>2023</v>
-      </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" t="s">
-        <v>38</v>
-      </c>
-      <c r="G4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>40</v>
-      </c>
-      <c r="J4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>47</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I5" t="s">
+        <v>51</v>
+      </c>
+      <c r="J5" t="s">
         <v>43</v>
       </c>
-      <c r="B5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5">
-        <v>2023</v>
-      </c>
-      <c r="E5" t="s">
-        <v>46</v>
-      </c>
-      <c r="F5" t="s">
-        <v>47</v>
-      </c>
-      <c r="G5" t="s">
-        <v>22</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" t="s">
-        <v>41</v>
-      </c>
       <c r="N5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D6">
-        <v>2022</v>
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
       </c>
       <c r="E6" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="I6" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="J6" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N6" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="Q6" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
-      </c>
-      <c r="D7">
-        <v>2022</v>
+        <v>65</v>
+      </c>
+      <c r="D7" t="s">
+        <v>56</v>
       </c>
       <c r="E7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="F7" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="G7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C8" t="s">
-        <v>68</v>
-      </c>
-      <c r="D8">
-        <v>2020</v>
+        <v>71</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
       </c>
       <c r="E8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="F8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="Q8" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="H9" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="I9" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="J9" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N9" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q9" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C10" t="s">
-        <v>85</v>
-      </c>
-      <c r="D10">
-        <v>2015</v>
+        <v>89</v>
+      </c>
+      <c r="D10" t="s">
+        <v>90</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N10" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C11" t="s">
+        <v>96</v>
+      </c>
+      <c r="D11" t="s">
         <v>90</v>
       </c>
-      <c r="C11" t="s">
-        <v>91</v>
-      </c>
-      <c r="D11">
-        <v>2015</v>
-      </c>
       <c r="E11" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="F11" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="G11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N11" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D12">
-        <v>2014</v>
+        <v>102</v>
+      </c>
+      <c r="D12" t="s">
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F12" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="G12" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N12" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="B13" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="C13" t="s">
-        <v>103</v>
-      </c>
-      <c r="D13">
-        <v>2024</v>
+        <v>109</v>
+      </c>
+      <c r="D13" t="s">
+        <v>110</v>
       </c>
       <c r="E13" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="F13" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="G13" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="B14" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="C14" t="s">
-        <v>110</v>
-      </c>
-      <c r="D14">
-        <v>2024</v>
+        <v>117</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
       </c>
       <c r="E14" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="F14" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="H14" t="s">
-        <v>113</v>
+        <v>121</v>
       </c>
       <c r="I14" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="J14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N14" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
       <c r="Q14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B15" t="s">
-        <v>117</v>
+        <v>125</v>
       </c>
       <c r="C15" t="s">
-        <v>118</v>
-      </c>
-      <c r="D15">
-        <v>2025</v>
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>110</v>
       </c>
       <c r="E15" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="F15" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="G15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H15" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
       <c r="I15" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N15" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="Q15" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="G16" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H16" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="I16" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="B17" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
       <c r="C17" t="s">
-        <v>130</v>
-      </c>
-      <c r="D17">
-        <v>2025</v>
+        <v>137</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="N17" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="C18" t="s">
-        <v>136</v>
-      </c>
-      <c r="D18">
-        <v>2024</v>
+        <v>143</v>
+      </c>
+      <c r="D18" t="s">
+        <v>20</v>
       </c>
       <c r="E18" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F18" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="G18" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H18" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
       <c r="I18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="J18" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N18" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="Q18" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C19" t="s">
-        <v>145</v>
-      </c>
-      <c r="D19">
-        <v>2024</v>
+        <v>152</v>
+      </c>
+      <c r="D19" t="s">
+        <v>20</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F19" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G19" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H19" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I19" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="J19" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N19" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q19" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
       <c r="B20" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C20" t="s">
-        <v>153</v>
-      </c>
-      <c r="D20">
-        <v>2023</v>
+        <v>160</v>
+      </c>
+      <c r="D20" t="s">
+        <v>38</v>
       </c>
       <c r="E20" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="F20" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H20" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="Q20" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="B21" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="C21" t="s">
-        <v>162</v>
-      </c>
-      <c r="D21">
-        <v>2022</v>
+        <v>169</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F21" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G21" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H21" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="J21" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="N21" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="Q21" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="B22" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
-      </c>
-      <c r="D22">
-        <v>2022</v>
+        <v>177</v>
+      </c>
+      <c r="D22" t="s">
+        <v>56</v>
       </c>
       <c r="E22" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="F22" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="G22" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="H22" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="I22" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J22" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N22" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="Q22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>128</v>
+        <v>183</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>184</v>
       </c>
       <c r="C23" t="s">
-        <v>130</v>
-      </c>
-      <c r="D23">
-        <v>2025</v>
+        <v>185</v>
+      </c>
+      <c r="D23" t="s">
+        <v>38</v>
       </c>
       <c r="E23" t="s">
-        <v>131</v>
+        <v>66</v>
       </c>
       <c r="F23" t="s">
-        <v>132</v>
+        <v>186</v>
       </c>
       <c r="G23" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="N23" t="s">
-        <v>133</v>
+        <v>188</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>177</v>
+        <v>189</v>
       </c>
       <c r="B24" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C24" t="s">
-        <v>179</v>
-      </c>
-      <c r="D24">
-        <v>2024</v>
+        <v>191</v>
+      </c>
+      <c r="D24" t="s">
+        <v>38</v>
       </c>
       <c r="E24" t="s">
-        <v>180</v>
+        <v>192</v>
       </c>
       <c r="F24" t="s">
-        <v>181</v>
+        <v>193</v>
       </c>
       <c r="G24" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="B25" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="C25" t="s">
-        <v>185</v>
-      </c>
-      <c r="D25">
-        <v>2024</v>
+        <v>198</v>
+      </c>
+      <c r="D25" t="s">
+        <v>72</v>
       </c>
       <c r="E25" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="F25" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="G25" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="N25" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="B26" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>145</v>
-      </c>
-      <c r="D26">
-        <v>2024</v>
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="F26" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="G26" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="H26" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="I26" t="s">
-        <v>188</v>
+        <v>203</v>
       </c>
       <c r="J26" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N26" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="Q26" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>189</v>
+        <v>204</v>
       </c>
       <c r="B27" t="s">
-        <v>190</v>
+        <v>205</v>
       </c>
       <c r="C27" t="s">
-        <v>191</v>
-      </c>
-      <c r="D27">
-        <v>2023</v>
+        <v>206</v>
+      </c>
+      <c r="D27" t="s">
+        <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="F27" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="G27" t="s">
-        <v>176</v>
+        <v>202</v>
       </c>
       <c r="H27" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="I27" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="N27" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="Q27" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="B28" t="s">
-        <v>198</v>
+        <v>213</v>
       </c>
       <c r="C28" t="s">
-        <v>199</v>
-      </c>
-      <c r="D28">
-        <v>2023</v>
+        <v>214</v>
+      </c>
+      <c r="D28" t="s">
+        <v>215</v>
       </c>
       <c r="E28" t="s">
-        <v>63</v>
+        <v>216</v>
       </c>
       <c r="F28" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="G28" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="N28" t="s">
-        <v>202</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>203</v>
-      </c>
-      <c r="B29" t="s">
-        <v>204</v>
-      </c>
-      <c r="C29" t="s">
-        <v>205</v>
-      </c>
-      <c r="D29">
-        <v>2023</v>
-      </c>
-      <c r="E29" t="s">
-        <v>206</v>
-      </c>
-      <c r="F29" t="s">
-        <v>207</v>
+        <v>219</v>
       </c>
       <c r="G29" t="s">
-        <v>208</v>
-      </c>
-      <c r="N29" t="s">
-        <v>209</v>
+        <v>194</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>210</v>
+        <v>220</v>
       </c>
       <c r="B30" t="s">
-        <v>211</v>
+        <v>221</v>
       </c>
       <c r="C30" t="s">
-        <v>212</v>
-      </c>
-      <c r="D30">
-        <v>2023</v>
+        <v>222</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
       </c>
       <c r="E30" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="F30" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="G30" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H30" t="s">
-        <v>215</v>
+        <v>225</v>
       </c>
       <c r="I30" t="s">
-        <v>216</v>
+        <v>226</v>
       </c>
       <c r="J30" t="s">
-        <v>217</v>
+        <v>227</v>
       </c>
       <c r="N30" t="s">
-        <v>218</v>
+        <v>228</v>
       </c>
       <c r="Q30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>219</v>
+        <v>107</v>
       </c>
       <c r="B31" t="s">
-        <v>220</v>
+        <v>108</v>
       </c>
       <c r="C31" t="s">
-        <v>221</v>
-      </c>
-      <c r="D31">
-        <v>2020</v>
+        <v>109</v>
+      </c>
+      <c r="D31" t="s">
+        <v>110</v>
       </c>
       <c r="E31" t="s">
-        <v>222</v>
+        <v>111</v>
       </c>
       <c r="F31" t="s">
-        <v>223</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N31" t="s">
-        <v>224</v>
+        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>225</v>
+        <v>229</v>
+      </c>
+      <c r="B32" t="s">
+        <v>230</v>
+      </c>
+      <c r="C32" t="s">
+        <v>231</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32" t="s">
+        <v>232</v>
+      </c>
+      <c r="F32" t="s">
+        <v>233</v>
       </c>
       <c r="G32" t="s">
-        <v>208</v>
+        <v>202</v>
+      </c>
+      <c r="N32" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>226</v>
+        <v>235</v>
       </c>
       <c r="B33" t="s">
-        <v>227</v>
+        <v>236</v>
       </c>
       <c r="C33" t="s">
-        <v>228</v>
-      </c>
-      <c r="D33">
-        <v>2016</v>
+        <v>237</v>
+      </c>
+      <c r="D33" t="s">
+        <v>20</v>
       </c>
       <c r="E33" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="F33" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="G33" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="N33" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>232</v>
+        <v>240</v>
+      </c>
+      <c r="D34">
+        <v>2018</v>
       </c>
       <c r="G34" t="s">
-        <v>208</v>
+        <v>194</v>
       </c>
       <c r="H34" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="I34" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="J34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q34" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>235</v>
+        <v>243</v>
+      </c>
+      <c r="B35" t="s">
+        <v>244</v>
+      </c>
+      <c r="C35" t="s">
+        <v>245</v>
+      </c>
+      <c r="D35" t="s">
+        <v>246</v>
+      </c>
+      <c r="E35" t="s">
+        <v>247</v>
+      </c>
+      <c r="F35" t="s">
+        <v>248</v>
       </c>
       <c r="G35" t="s">
-        <v>236</v>
+        <v>249</v>
+      </c>
+      <c r="N35" t="s">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:Q35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -8,22 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E2AA11C-9536-4003-825D-9E5FC282F013}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C25AD75-FAB9-4FA1-9474-F6851DF67929}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$Q$35</definedName>
-  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="817" uniqueCount="583">
   <si>
     <t>ID do Documento</t>
   </si>
@@ -85,9 +82,6 @@
     <t>Kendig, Catherine</t>
   </si>
   <si>
-    <t>2024</t>
-  </si>
-  <si>
     <t>Journal of Social Ontology</t>
   </si>
   <si>
@@ -137,9 +131,6 @@
   </si>
   <si>
     <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
-  </si>
-  <si>
-    <t>2023</t>
   </si>
   <si>
     <t>International Journal on Recent and Innovation Trends in Computing and Communication</t>
@@ -195,9 +186,6 @@
     <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
   </si>
   <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>Revue d'Intelligence Artificielle</t>
   </si>
   <si>
@@ -244,9 +232,6 @@
     <t>Krzywoszynska, Anna; Marchesi, Greta</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
     <t>Environmental Humanities</t>
   </si>
   <si>
@@ -300,9 +285,6 @@
     <t>Shu, Yanfeng; Liu, Qing</t>
   </si>
   <si>
-    <t>2015</t>
-  </si>
-  <si>
     <t>Proceedings - 21st International Congress on Modelling and Simulation, MODSIM 2015</t>
   </si>
   <si>
@@ -339,9 +321,6 @@
     <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
   </si>
   <si>
-    <t>2014</t>
-  </si>
-  <si>
     <t>Indian Journal of Agricultural Sciences</t>
   </si>
   <si>
@@ -358,9 +337,6 @@
   </si>
   <si>
     <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
-  </si>
-  <si>
-    <t>2025</t>
   </si>
   <si>
     <t>Parallel and High-Performance Computing in Artificial Intelligence</t>
@@ -683,9 +659,6 @@
     <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
   </si>
   <si>
-    <t>2016</t>
-  </si>
-  <si>
     <t>Lecture Notes in Computer Science (including subseries Lecture Notes in Artificial Intelligence and Lecture Notes in Bioinformatics)</t>
   </si>
   <si>
@@ -778,9 +751,6 @@
     <t>Chen, Zhongdu; Ti, Jin-song; Chen, Fu</t>
   </si>
   <si>
-    <t>2017</t>
-  </si>
-  <si>
     <t>Nutrient Cycling in Agroecosystems</t>
   </si>
   <si>
@@ -791,6 +761,1063 @@
   </si>
   <si>
     <t>Soil aggregate stability is a key indicator of soil quality and environmental sustainability of agroecosystems. The protection of organic material within aggregates against microbial decomposition is regarded as an important process in soil organic carbon stabilization but detailed knowledge about this process is still lacking. The objective of our study was to examine the multiple year effects of plow tillage with residue removed (PT0), plow tillage with residue incorporation (PT), rotary tillage with residue retention (RT), and no-till with residue retention (NT) on soil water stable aggregates (WSA) under a double rice (Oryza sativa L.) cropping system in the Southern China. Results showed that the NT system increased the proportion of &gt;2 mm aggregate fraction, and reduced the proportion of &lt;0.053 mm aggregates at 0–5 cm depth in 2011. Compared with PT0 and PT, significantly higher large macroaggregate (&gt;2 mm) associated-C contributions to TOC were observed in the surface layer (0–10 cm depth) under RT and NT. A significant positive correlation between TOC and macroaggregate (&gt;2 and 2–0.25 mm) associated-C was observed at 0–20 cm soil depth in the paddy rice ecosystem. Therefore, conversion to NT, could enhance the formation of stable macroaggregate, macroaggregates associated-C, and total C contents in paddy soil of Southern China. © 2017, Springer Science+Business Media B.V.</t>
+  </si>
+  <si>
+    <t>The-garden-as-the-field</t>
+  </si>
+  <si>
+    <t>The garden as the field: following soil regeneration practices with participatory soil science in Singapore</t>
+  </si>
+  <si>
+    <t>Ng, Huiying; Jing, Toh Han; Lee, Wuan See Vivian; George, Edgar Raeben; Philip, Varughese</t>
+  </si>
+  <si>
+    <t>Agriculture and Human Values</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10460-025-10757-6</t>
+  </si>
+  <si>
+    <t>snowballing Toward-relational-materiality</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-garden-as-the-field.txt</t>
+  </si>
+  <si>
+    <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+  </si>
+  <si>
+    <t>Soil is an essential part of urban foodscapes. While community gardens have received attention as parts of this foodscape, the role of experienced gardeners in the everyday transformation of human-soil relations is underexamined. This paper traces an action research project aimed at connecting human-soil relations with the “30 by 30” national food security policy that is part of the Singapore Green Plan 2030. Based on a collaboration initiated by a community group with the National Parks Board of Singapore, this paper introduces the concept of “soil companions”, and presents the qualitative findings of a larger 36-month study. It examines the practices of experienced gardeners who build soil as bioinfrastructure. A thematic analysis of interviews with five soil companions–gardeners employing soil regeneration practices–in Singapore was conducted. We discuss the ecological and social dimensions of their practices, and implications for soil and food security policies for an increasingly urban world. We raise future directions for research on foodscapes, public health, and global commodity chains. © The Author(s), under exclusive licence to Springer Nature B.V. 2025.</t>
+  </si>
+  <si>
+    <t>Cultivating-ecosystem-conviviality</t>
+  </si>
+  <si>
+    <t>Cultivating ecosystem conviviality through soil arts and urban gardening</t>
+  </si>
+  <si>
+    <t>Holmstedt, Janna; Lindblad, Jenny; Fredengren, Christina; Åsberg, Cecilia; Lobell, Malin; Wegsjö, Karin</t>
+  </si>
+  <si>
+    <t>The Routledge Handbook of Cultural Ecosystem Services</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4324/9781003414896-27</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Cultivating-ecosystem-conviviality.txt</t>
+  </si>
+  <si>
+    <t>Abiotic; Ecosystems; Soils; Ecosystem services; Embodied CO; Practice theories; Service focus; Socio-ecological; Uncertainty; Urban ecology; Urban environments; Well being; Urban growth</t>
+  </si>
+  <si>
+    <t>This chapter suggests that the notion of cultivating ecosystem conviviality helps bring attention to nourishing sites of local empowerment and ecological belonging that often go unnoticed in urban environments. We offer this notion as a complement to ongoing efforts of invigorating cultural ecosystem services (CES) with relational and embodied approaches. Through a transdisciplinary and mixed methodology of soil arts that includes artist-led open stages, ecosystem conviviality is explored through soil-centered practices in urban gardening and art. The chapter attends to how gardeners situate themselves not as receivers or producers of services but as entangled co-creators of open-ended ecosystems. This in turn calls attention to a needed shift in CES focus, from benefits and human well-being to considering ecosystem relations and values as embodied co-becomings, with consequences for sites, people, and soils alike. The aim of the situated practice-theory of soil arts that this chapter presents, is to offer new perspectives and methods for those involved with planning and management of urban ecologies, and others seeking more integrative ways of grappling with socioecological challenges and uncertainties. © 2025 selection and editorial matter, Pamela D. McElwee, Karen E. Allen, Rachelle K. Gould, Minna Hsu and Jun He. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Contestations-in-the-emerging-soil</t>
+  </si>
+  <si>
+    <t>Contestations in the emerging soil-based carbon economy: towards a research agenda</t>
+  </si>
+  <si>
+    <t>Ingram, Julie; Maye, Damian; Reed, Mark</t>
+  </si>
+  <si>
+    <t>Sustainability Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s11625-024-01609-z</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Contestations-in-the-emerging-soil.txt</t>
+  </si>
+  <si>
+    <t>This paper highlights the need to consider the processes and relations in the political, knowledge, technical and socio-material complex that underpins the emergence of a soil-based carbon economy. This economy, characterised by the proliferation of voluntary soil-based carbon markets, carbon farming policies, supply chain and other initiatives, operates through private mechanisms (offsetting, insetting) and public policy instruments. This emerging economy entails a number of inherent political and knowledge contestations associated with claims around the mitigation potential of soil carbon sequestration and carbon farming. We adapt a social ecological systems (SES) framework to understand these contestations and draw on a corpus of agricultural, ecological, political and social science literatures to identify and pose critical questions for future research. We conceptualise the emerging soil-based carbon economy as interactions and outcomes among actors embedded within a defined SES (governance, resource systems, resource units, actors). Five themes are identified: Marketisation, abstraction and technogovernance; Power relations and expert knowledge; Disputing the meaning and value of soil carbon; Disruptions: new interfaces, configurations and actor relations; Uncertainties and capabilities. These underpin a research agenda proposal. We argue that an integrative conceptualisation is essential to equitably account for the broad mix of social, technical, economic, political, and ecological contexts in which soil carbon is embedded and present options for operationalising the conceptualisation. © The Author(s) 2025.</t>
+  </si>
+  <si>
+    <t>All-dried-up</t>
+  </si>
+  <si>
+    <t>All dried up: The materiality of drought in Ladismith, South Africa</t>
+  </si>
+  <si>
+    <t>Savelli, Elisa; Rusca, Maria; Cloke, Hannah; Flügel, Tyrel J; Karriem, Abdulrazak; Di Baldassarre, Giuliano</t>
+  </si>
+  <si>
+    <t>Environment and Planning E: Nature and Space</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/25148486221126617</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\All-dried-up.txt</t>
+  </si>
+  <si>
+    <t>This paper conceptualises droughts as socioecological phenomena coproduced by the recursive engagement of human and non-human transformations. Through an interdisciplinary approach that integrates political ecology, material geographies and hydroclimatology, this work simultaneously apprehends the role of politics and power in reshaping drought, along with the agency of biophysical processes – soil, vegetation, hydrology and microclimate – that co-produce droughts and their spatiotemporal patterning. The drought-stricken Ladismith in Western Cape, South Africa, is the instrumental case study and point of departure of our empirical analysis. To advance a materiality of drought that seriously accounts for the coevolution of biophysical and political transformations, we alter the spatiotemporal and empirical foci of drought analyses thereby retracing Ladismith’s socioecological history since colonial times. In turn, such extended framework exposes the agency of soil, vegetation, hydrology and microclimate and their metabolic exchanges with processes of colonisation, apartheid, capitalist and neoliberal transformations of South African economy. We argue that the narrow pursuit of profits and capital accumulation of the few has produced a fundamental disruption between nature and society which contributed to transform Ladismith’s drought into a socioecological crisis. Whilst advancing debates on materiality, we note two fundamental contributions to the study of drought. First, our approach makes hydrological accounts of droughts less politically naive and socially blind. Second, it develops a political ecology of droughts and socioecological crises more attuned to the materiality of drought. We contend that apprehending the materiality of drought and the active role of its non-human processes can further understandings of the workings of power and the production of socioecological injustices. © The Author(s) 2022.</t>
+  </si>
+  <si>
+    <t>Thinking-with-soil-heritage</t>
+  </si>
+  <si>
+    <t>Thinking with soil in heritage matters</t>
+  </si>
+  <si>
+    <t>Fredengren, Christina</t>
+  </si>
+  <si>
+    <t>Landscape Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01426397.2024.2424601</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Thinking-with-soil-heritage.txt</t>
+  </si>
+  <si>
+    <t>Sweden; cultural heritage; landscape; perception; soil; sustainability</t>
+  </si>
+  <si>
+    <t>This paper explores what could be learned ‘by thinking with soil’ in heritage matters, and ‘thinking with heritage’ in soil matters. Soil is connected to major sustainability issues as it is life-essential to a wide range of beings. Soil is rarely thought of as heritage, despite becoming a scarce resource over time. It is argued that heritage as ‘landscapes of human perception’ is not enough to meet the challenges at hand, whereas the alternative ‘heritage as phenomena’ allows for discussing the long-term material/immaterial multi-species interrelations that build up in situated soils. It gives better positions to discuss justice and care between generations and convivial re-generation of landscapes. The paper works with a case study from mid-Sweden to show how different ‘agential-cuts’ of soil give rise to stakeholder tensions as different worlds are produced. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Learning-with-compost</t>
+  </si>
+  <si>
+    <t>Learning with compost: digging down into food waste, urban soils and community</t>
+  </si>
+  <si>
+    <t>Turner, Bethaney; Hill, Ann; Abramovic, Jessica</t>
+  </si>
+  <si>
+    <t>Local Environment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/13549839.2024.2380853</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Learning-with-compost.txt</t>
+  </si>
+  <si>
+    <t>Australia; Australian Capital Territory; Canberra; New South Wales; Sydney [New South Wales]; compost; environmental impact; ethics; food waste; local participation; urban area</t>
+  </si>
+  <si>
+    <t>This paper explores human, soil, compost and food waste interactions in a community composting initiative in Australia. Drawing on an ethnographic study in 2 Australian cities–Sydney and Canberra, this paper identifies the emergence of a “composting ethic” among participants that is animated by three forms of learning and doing: (1) noticing and attending, (2) embodying and (3) experimentation. Fieldwork analysis is contextualised in relation to literature from the environmental humanities, discard studies and learnings from First Nations Australians and their ontologies. By bringing these empirics, key literature and ontologies together, this paper aims to deepen understanding of the opportunities and challenges of community composting to reduce negative environmental impacts and support anti-colonial practices of discard. It does this by identifying the characteristics of a composting ethic and the contexts and skills capable of nurturing its emergence. Attention is also paid to what may limit realisation of such an ethic. Overall, this paper aims to generate further applied academic understanding about the unique role–and possibilities–of efforts to revitalise and grow city soils and advance anti-colonial food waste management through community composting. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Soils-in-motion-NY</t>
+  </si>
+  <si>
+    <t>Soils in motion: the metabolism of New York City’s urban grounds</t>
+  </si>
+  <si>
+    <t>Harris, Luke</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01426397.2025.2526498</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soils-in-motion-NY.txt</t>
+  </si>
+  <si>
+    <t>This article examines the socioecological metabolism of soils in New York City, tracing their production, circulation, and transformation within the dynamics of extended urbanisation. It explores how soil, as both a biophysical and socio-political entity, alternates between being treated as lively or inert in response to the demands of capital. The study explores three cases: a soil mixing facility in New Jersey, the regional extraction of sand, and the municipal Clean Soil Bank program. By integrating scholarship on urban metabolism and the metabolic rift, the article challenges reductionist and technocratic perspectives framing soil as a passive substrate, emphasising instead its dynamic role in urban life and agrarian urbanism. The findings reveal how soils, shaped by socioecological histories, resist simplistic binaries of life and nonlife, offering new possibilities for understanding the interplay between urbanisation, ecological relations, and political economy. © 2025 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Soils-and-Subsoils-STS</t>
+  </si>
+  <si>
+    <t>Soils and Subsoils in STS: Technosciences and Underground Entities</t>
+  </si>
+  <si>
+    <t>Laurent, Brice; Merlin, Julien; Meulemans, Germain</t>
+  </si>
+  <si>
+    <t>Science and Technology in Society</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/9781394388516.ch10</t>
+  </si>
+  <si>
+    <t>Ecology; Energy transition; Energy transitions; Science and technology studies; Terrestrial soils; Time of transitions; Soils</t>
+  </si>
+  <si>
+    <t>Today's ambitions for ecological and energy transition highlight the central role of the sites of production and extraction of natural resources, and connect soils and subsoils with technical, scientific, economic and political questions. As a result, soils and subsoils have been the subject of recent interest in science and technology studies (STS). This chapter begins by discussing the relationships between the critique of soil and subsoil sciences and (post)colonial issues. It presents works that have analyzed the transformation of soils and subsoils into resources. The chapter discusses the questions raised by the use of soils and subsoils in times of transition. Echoing Latour's invitation to develop a policy of the “terrestrial”, soils and subsoils open up stimulating avenues of research for STS, consisting of exploring the making of the territory, in all its material, epistemic, economic and social thickness, as well as attachments to it. © ISTE Ltd 2025.</t>
+  </si>
+  <si>
+    <t>Knowing-soils-beyond-carbon-farming</t>
+  </si>
+  <si>
+    <t>Knowing soils – Perspectives beyond growth in carbon farming</t>
+  </si>
+  <si>
+    <t>Barrineau, Susanna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Journal of Political Ecology </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.2458/jpe.5919</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Knowing-soils-beyond-carbon-farming.txt</t>
+  </si>
+  <si>
+    <t>Sweden; agricultural soil; carbon emission; farming system</t>
+  </si>
+  <si>
+    <t>This article works with the idea that radical solutions in agri-food systems require multiple ways of knowing soils beyond the dominant scientific practices. Using a relational lens that invites us to think with soils, this article lifts our gaze to human-soil relationships in creating post-growth food systems. In the context of a grassroots initiative in Sweden that advances regenerative carbon farming as a transformational pathway to food systems within planetary boundaries, poetic inquiry is used to bring the often-unheard perspectives of “knowing soils” to the fore; how we know about soils matters. © (2025), (University of Arizona Libraries). All rights reserved.</t>
+  </si>
+  <si>
+    <t>Soil-and-Organization-Studies</t>
+  </si>
+  <si>
+    <t>Soil and Organization Studies: Unearthing a ‘more-than-relational’ ethics towards non-humans</t>
+  </si>
+  <si>
+    <t>Sage, Daniel</t>
+  </si>
+  <si>
+    <t>Organization Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/01708406251317257</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-and-Organization-Studies.txt</t>
+  </si>
+  <si>
+    <t>Soil is being refigured across academia and society at large as a significant and lively yet fragile actor. Caring closely for soil appears increasingly vital to organizing sustainable and equitable economies, food systems and urban development. Soil is becoming a touchstone for a relational ethics of careful organizing with Earth’s non-human inhabitants, also encompassing animals, oceans and atmospheres. In this essay-style article I think with soil to problematize this wider relational ethics. My critique starts by explaining how soil has become central to this relational ethics and then recognizes that soil often does not fit within human narratives of attentive care. I read such soil refusals as an earthly invitation to explore forms of soil organizing that develop moral arguments for profound detachments and exclusions from non-humans. Exploring two such examples – Indigenous farming and proposals for soilless food production – I elaborate an alternative ‘more-than-relational’ ethics. This is an approach to non-human ethics where sometimes non-humans, like soil, are never known at all or become known only to then be ignored. Such a more-than-relational ethics acknowledges that while attentive care is preferable to ethical approaches that exploit non-humans, it is not sufficient to organize a more sustainable, prosperous and equitable planet. Thinking with a more-than-relational ethics instead acknowledges the moral case for profound exclusions and detachments of non-humans that do not serve attentive care but can help multi-species flourishing in a time of planetary ecological crises. This novel approach to ethics contributes to organizational theory by radically problematizing prevailing scholarship valorizing ever closer knowledge of non-humans and their practices of organizing. Instead, scholars should also explore knowledges and practices, including Indigenous ones, that can help us detach from and ignore some non-humans. © The Author(s) 2025. This article is distributed under the terms of the Creative Commons Attribution 4.0 License (https://creativecommons.org/licenses/by/4.0/) which permits any use, reproduction and distribution of the work without further permission provided the original work is attributed as specified on the SAGE and Open Access pages (https://us.sagepub.com/en-us/nam/open-access-at-sage).</t>
+  </si>
+  <si>
+    <t>Unearthing-care-Rooting-Norway-Costa-Rica</t>
+  </si>
+  <si>
+    <t>Unearthing care: Rooting alternative agricultural practices in Norway and Costa Rica</t>
+  </si>
+  <si>
+    <t>Hugøy, Isabelle</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/25148486241245012</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Unearthing-care-Rooting-Norway-Costa-Rica.txt</t>
+  </si>
+  <si>
+    <t>This article contributes to the growing literature on human-soil relations by exploring how care for agricultural soils unfolds among farmers who engage with alternative agricultural practices across different productions and sites in Norway and Costa Rica. These farmers approach soil as a living being and seek to approach care with macro- and microorganisms in response to soil challenges and economic instabilities. The article follows recent literature on soil care in showing how agricultural practices challenge the dominant approach to soils as passive. However, the article argues the necessity of expanding on existing notions of care. This, I argue, involves ethnographically “unearthing” care: unpacking and situating a diversity of soil care practices, their human and other-than-human entanglements, and how these relations are conditioned by environmental, genealogical, sociocultural, temporal, epistemic, economic, and political mechanisms within and beyond the farm. Considering these variables is essential to keep soil care in the emerging literature from following a romanticizing path toward abstract individualism. © The Author(s) 2024.</t>
+  </si>
+  <si>
+    <t>Soil-carbon-offset-markets</t>
+  </si>
+  <si>
+    <t>Soil carbon offset markets are not a just climate solution</t>
+  </si>
+  <si>
+    <t>Saifuddin, Mustafa; Abramoff, Rose Z; Foster, Erika J; McClelland, Shelby C</t>
+  </si>
+  <si>
+    <t>Frontiers in Ecology and the Environment</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/fee.2781</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-carbon-offset-markets.txt</t>
+  </si>
+  <si>
+    <t>carbon sequestration; climate change; combustion; environmental justice; fossil fuel; perturbation; soil carbon</t>
+  </si>
+  <si>
+    <t>There is growing interest in enhancing soil carbon sequestration (SCS) as a climate mitigation strategy, including neutralizing atmospheric emissions from fossil-fuel combustion through the development of soil carbon offset markets. Several studies have focused on refining estimates of the magnitude of potential SCS or on developing methods for soil carbon quantification in markets. We call on scientists and policy makers to resist assimilating soils into carbon offset markets due to not only fundamental flaws in the logic of these markets to reach climate neutrality but also environmental justice concerns. Here, we first highlight how carbon offset markets rely on an inappropriate substitution of inert fossil carbon with dynamic stocks of soil carbon. We then note the failure of these markets to account for intersecting anthropogenic perturbations to the carbon cycle, including the soil carbon debt and ongoing agricultural emissions. Next, we invite scientists to consider soil functions beyond productivity and profitability. Finally, we describe and support historical opposition to offset markets by environmental justice advocates. We encourage scientists to consider how their research and communications can promote diverse soil functions and just climate-change mitigation. © 2024 The Author(s). Frontiers in Ecology and the Environment published by Wiley Periodicals LLC on behalf of The Ecological Society of America.</t>
+  </si>
+  <si>
+    <t>Farming-for-the-patchy-Anthropocene</t>
+  </si>
+  <si>
+    <t>Farming for the patchy Anthropocene: The spatial imaginaries of regenerative agriculture</t>
+  </si>
+  <si>
+    <t>Cusworth, George; Lorimer, Jamie; Welden, E.A.</t>
+  </si>
+  <si>
+    <t>Geographical Journal</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/geoj.12558</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Farming-for-the-patchy-Anthropocene.txt</t>
+  </si>
+  <si>
+    <t>United Kingdom; agricultural management; Anthropocene; empirical analysis; farming system; plantation; spatiotemporal analysis</t>
+  </si>
+  <si>
+    <t>With its focus on the species level of the Anthropos, there is growing concern that the Anthropocene analytic lacks the conceptual nuance needed to grapple with the unevenly distributed harms and responsibilities tied up with issues of biodiversity loss, global warming, and land use change. Conceptual variants like the patchy Anthropocene have been proposed to better capture the justice implications of these socio-ecological crises, directing attention to their spatially ubiquitous yet context-specific character. The figure of the plantation has come to play an important role in this scholarship due to the contribution intensive agriculture had made to these interlinking crises. Through empirical study of the regenerative agricultural movement, this paper reflects on how regenerative farmers use different sites (fields, soils, livestock stomachs) to apprehend their agro-ethical responsibilities to more-than-human actors both near to and far from the landscapes they manage. Our aims here are two-fold. First, we provide a more affirmative account of agricultural management than is currently offered by plantation farming: a model of food production that is not just ‘in’ the Anthropocene, but ‘for’ it. Second, we contribute to ongoing discussions unfolding in the social sciences around the tools needed to conceptualise the interlinking spatial and justice aspects of the Anthropocene transition. By bringing the patchy analytic into conversation with more established geographic writing on scale, volume, and horizontal connections, we show the merit of juxtaposing multiple models of spatial relation as a way of gaining ethical and conceptual traction on complex socio-ecological issues. We argue that the ‘polymorphic’ spatial imaginaries of regenerative agriculturalists can offer some guidance on the tools needed to attend to the specificity of local Anthropocene outcomes in relation to socio-ecological forces actuating the world at much greater spatio-temporal scales. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2023 The Authors. The Geographical Journal published by John Wiley &amp; Sons Ltd on behalf of Royal Geographical Society (with the Institute of British Geographers).</t>
+  </si>
+  <si>
+    <t>A-simple-definition-of-soil</t>
+  </si>
+  <si>
+    <t>A simple definition of soil</t>
+  </si>
+  <si>
+    <t>Cahyana, Destika; Mulyanto, Budi</t>
+  </si>
+  <si>
+    <t>Soil Security</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.soisec.2024.100146</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A-simple-definition-of-soil.txt</t>
+  </si>
+  <si>
+    <t>This paper presents a simpler definition of soil that reflects three aspects: ontology (what), epistemology (how), and axiology (value), which are related to the construction of the definition. Soil is the loose mineral or organic material comprising three phases solid, liquid, and, gaseous, found on the surface of the earth (ontology), resulting from weathering processes through interactions of the lithosphere, atmosphere, hydrosphere, and biosphere (epistemology) serving as a habitat for micro and macro-organisms, plants, and animals, and ultimately supporting human life and civilization (axiology). This simple definition brings more attention to human soil interactions and build sustainable solutions for soil and civilization in the future. © 2024</t>
+  </si>
+  <si>
+    <t>Relationships-regeneration-Great-Plains</t>
+  </si>
+  <si>
+    <t>Relationships of regeneration in Great Plains commodity agriculture</t>
+  </si>
+  <si>
+    <t>Snorek, Julie; Freidberg, Susanne; Smith, Geneva</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10460-024-10558-3</t>
+  </si>
+  <si>
+    <t>In recent years regenerative agriculture has attracted growing attention as a means to improve soil health and farmer livelihoods while slowing climate change. With this attention has come increased policy support as well as the launch of private sector programs that promote regenerative agriculture as a form of carbon farming. In the United States many of these programs recruit primarily in regions where large-scale commodity production prevails, such as the Great Plains. There, a decades-old regenerative agriculture movement is growing rapidly, but not due to the incentives offered by companies’ carbon programs. On the contrary, farmers are adopting regenerative practices to cut their dependence on corporate agrochemical inputs and expertise, and to thereby achieve technology sovereignty. These practice changes often strain farmers’ existing social relationships while drawing them into new and previously neglected ones, including the more-than-human relations necessary for building soil health. These new relationships and the knowledge they generate may in turn lead farmers to think differently about their own autonomy. These findings provide insight into farmers’ skepticism of private sector carbon farming programs, and highlight the value of attention to the multiple types of relationship change that accompany and facilitate regenerative transitions. © The Author(s), under exclusive licence to Springer Nature B.V. 2024.</t>
+  </si>
+  <si>
+    <t>How-water-changes</t>
+  </si>
+  <si>
+    <t>How water changes (every)things: A feminist study of how 'water worlds' shape processes of rural agrarian transformations in Maharashtra, India</t>
+  </si>
+  <si>
+    <t>Tozzi, Arianna; Leonardelli, Irene</t>
+  </si>
+  <si>
+    <t>Routledge Handbook of Gender and Water Governance</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4324/9781003100379-31</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\How-water-changes.txt</t>
+  </si>
+  <si>
+    <t>This chapter argues that the relational materiality of water - co-emergent between water's biophysical characteristics and its sociocultural situatedness - impacts the unfolding of gender and livelihood dynamics in specific contexts. Taking the case of semi-arid areas of Maharashtra, India, this chapter examines processes of rural transformation through the lens of a transition between two waters moving across the landscape, probing the resulting shift in gender labor relations. Building on ethnographic fieldwork in two regions, one where livelihoods are dependent on monsoonal rainfalls and another where farmers use wastewater irrigation, we focus on three more-than-human elements at play in this transition: water solutes and sediments, soil organisms and goats. Exploring these as our analytical entry points, we reveal the importance of reconceptualizing labor as a more-than-human relation to better understand how agrarian environments are reshaped by irrigation infrastructure projects. In a feminized agriculture sector, where ecologies are enrolled into processes of agrarian transformation, this perspective problematizes narratives of efficiency behind their stories of successes, demanding metrics that capture the invisibilized work people and their ecologies do together. Further, this work contributes to scholarship on water's materiality, demanding that we engage with the obligations of our more-than-human relatedness to bridge feminist struggles with environmental concerns. © 2025 selection and editorial matter, Tatiana Acevedo-Guerrero, Lisa Bossenbroek, Irene Leonardelli, Margreet Zwarteveen, and Seema Kulkarni. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Decolonising-the-Earth</t>
+  </si>
+  <si>
+    <t>Decolonising the Earth: Anticolonial Environmentalism and the Soil of Empire</t>
+  </si>
+  <si>
+    <t>Davidson, Joe P. L.; Carreira da Silva, Filipe</t>
+  </si>
+  <si>
+    <t>Theory, Culture and Society</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/02632764241242380</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Decolonising-the-Earth.txt</t>
+  </si>
+  <si>
+    <t>The relationship between humanity and the soil is an increasingly important topic in social theory. However, conceptualisations of the soil developed by anticolonial thinkers at the high point of the movement for self-determination between the 1940s and the 1970s have remained largely ignored. This is a shame, not least because theorists like Eric Williams, Walter Rodney, Suzanne Césaire and Amílcar Cabral were concerned with the soil. Building on recent work on human-soil relations and decolonial ecology, we argue that these four thinkers conceptualised the connection between soil, empire, and anticolonial revolt. Williams and Rodney ground understanding of soil degradation in global relations of economic power, while Césaire and Cabral reconceptualise postcolonial nationhood in terms of the mutability and diversity of the soil. The article concludes by suggesting that these two anticolonial counterpoints, global connectivity and more-than-human identification, anticipate and deepen contemporary attempts to decolonise ecological thinking. © The Author(s) 2024.</t>
+  </si>
+  <si>
+    <t>Environmental-Harms-and-Entangled</t>
+  </si>
+  <si>
+    <t>Environmental Harms and Entangled Lifeworlds in the Russia-Ukraine War: A Relational Reframing of Transitional Justice</t>
+  </si>
+  <si>
+    <t>Clark, Janine Natalya</t>
+  </si>
+  <si>
+    <t>Journal of Intervention and Statebuilding</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/17502977.2025.2533716</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Environmental-Harms-and-Entangled.txt</t>
+  </si>
+  <si>
+    <t>This interdisciplinary article adopts a novel approach to thinking about the environmental impacts of the Russia-Ukraine war - and of war/armed conflict more broadly. First, it unpacks, drawing on original empirical data, how these impacts make salient the interconnectedness of human and more-than-human worlds, which it explores with reference to the concept of solastalgia. Second, the article situates its analysis of the war's environmental impacts directly in relation to transitional justice. Calling for a relational reframing of the field that gives expression to multiply entangled lifeworlds, it reflects on what this reframing might look like and emphasises two key ideas - care and listening. © 2025 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>What-Was-Soil-Antiquity</t>
+  </si>
+  <si>
+    <t>What Was Soil in Antiquity? A View from Ritual</t>
+  </si>
+  <si>
+    <t>Blidstein, Moshe</t>
+  </si>
+  <si>
+    <t>Worldviews: Environment, Culture, Religion</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1163/15685357-02902004</t>
+  </si>
+  <si>
+    <t>This article examines the ritual uses and cultural meanings of soil in the ancient Mediterranean (c. 8th century BCE-6th century CE). It analyzes rituals involving the physical manipulation of soil across Greek, Roman, Jewish, and early Christian traditions. Through a thematic examination of practices such as burial, mourning, purification, healing, and symbolic transfer, the article identifies two primary, often overlapping, symbolic dimensions: soil signifying lowliness, humility, dirt, and purification (often 'placeless' soil), and soil representing specific, potent locations such as homeland, sacred sites, or burial grounds ('placed' soil). Significantly, rituals manipulating soil rarely centered directly on agricultural fertility, diverging from interpretations focused solely on earth goddesses. This provides some insights for contemporary relationships with soils. © Moshe Blidstein, 2025.</t>
+  </si>
+  <si>
+    <t>Creating-alternative-future-trajectories</t>
+  </si>
+  <si>
+    <t>Creating alternative future trajectories for carbon farming through a relational lens: pathways towards transformative social-ecological change in the European Union</t>
+  </si>
+  <si>
+    <t>Barrineau, Susanna; Do, Thao; Powell, Neil</t>
+  </si>
+  <si>
+    <t>Ecosystems and People</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/26395916.2025.2461535</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Creating-alternative-future-trajectories.txt</t>
+  </si>
+  <si>
+    <t>Sweden; carbon; ecological impact; European Union; farming system; social change; stakeholder; sustainability</t>
+  </si>
+  <si>
+    <t>This paper investigates how futures thinking and relational thinking may expand practices and strategies in agriculture that aim for sustainability. Using carbon farming as a case where relational thinking is brought into conversation with futures thinking, we explore how imaginaries of sustainability transformations can be further expanded to include ways of knowing, being, and doing that imagine more radical, relational, and ethical futures. Based on the analysis of a diverse empirical material including European Union reports, focus group discussions, and workshops with carbon farming stakeholders in Sweden using the futures method Causal Layered Analysis, this paper offers a critical relational lens for approaching and evaluating strategies and practices that aim for sustainability transformations in agricultural systems. © 2025 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Amphibious-Land-Repair</t>
+  </si>
+  <si>
+    <t>Amphibious Land Repair Restoration, Infrastructure and Accumulation in Southeast Asia’s Wetlands</t>
+  </si>
+  <si>
+    <t>Law, Tamar; Goldstein, Jenny</t>
+  </si>
+  <si>
+    <t>Environment and Society: Advances in Research</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3167/ares.2024.150106</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Amphibious-Land-Repair.txt</t>
+  </si>
+  <si>
+    <t>Amphibious landscapes, wetlands such as coasts, mangroves, peatlands, and deltas, have seen a recent surge in large-scale restoration efforts. This article examines this trend in Southeast Asia, reviewing the history and contemporary dynamics of wetland restoration in the region. Drawing from literatures on the political ecology of restoration, infrastructure studies, and the financialization of nature, we understand wetland restoration as a form of repair to highlight it as a socio-political process. We conceptualize restoration as infrastructurallandrepair, the process of restoring dynamic ecosystems for specific anthropocentric and economic aims, mediated through an amalgam of expertise, technology, and finance. We reveal how restoration can function as a socio-ecological fix, maintaining the same political-economic systems that initially caused wetland degradation. Finally, we identify a need for three areas of scholarship to be expanded on how restoration unfolds in practice within the SEA context, which will be crucial to informing more reparative forms of restoration. © The Author(s)</t>
+  </si>
+  <si>
+    <t>Waste-Frontiers-War-Enclosures</t>
+  </si>
+  <si>
+    <t>Waste Frontiers/War Enclosures: Decolonial Geosocial Analysis of Contaminated Military Land Conversions</t>
+  </si>
+  <si>
+    <t>Krupar, Shiloh</t>
+  </si>
+  <si>
+    <t>Annals of the American Association of Geographers</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/24694452.2024.2313501</t>
+  </si>
+  <si>
+    <t>United States; biodiversity; contaminated land; military land; war; waste</t>
+  </si>
+  <si>
+    <t>Military-industrial practices have left widespread contamination affecting land, water, air, and human and nonhuman bodies. This article uses decolonial analysis to examine the racial-colonial foundations that underlie contemporary efforts to reuse former U.S. military land for development projects. Interrelating scholarship on security and development with that of militarization and political ecology, I use “geosocial spectacle” to probe the material and pedagogical governance, frontier logics, and colonial aesthetics that emerge through land remediation and redevelopment. Featuring two military sites within U.S. base closure and realignment—the U.S. Front Range area of Colorado and former U.S. unincorporated territory of the Panama Canal Zone—the article delineates and expounds on two types of U.S. military land conversions: brownfields and biodiversity recreation. The article interrelates the conversion of contaminated land in both cases as waste frontier that facilitates ongoing cycles of land repossession as a form of dispossession and containment or denial of war. The article concludes by advocating for decolonial studies of the global color line entrenched by the U.S. Pentagon’s ongoing climate colonialism, to subvert the compartmentalized harms of war and capitalist extraction, and to galvanize explicitly anticolonial, antiracist land reuse and governance. © 2024 by American Association of Geographers.</t>
+  </si>
+  <si>
+    <t>Making-soil-in-the-Plantationocene</t>
+  </si>
+  <si>
+    <t>Making soil in the Plantationocene</t>
+  </si>
+  <si>
+    <t>Ofstehage, Andrew</t>
+  </si>
+  <si>
+    <t>Journal of Peasant Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/03066150.2023.2266705</t>
+  </si>
+  <si>
+    <t>Bahia; Brazil; United States; agricultural research; cerrado; ethnography; farmers attitude; monoculture; peasant agriculture; permeability; plantation; soil management; soil property</t>
+  </si>
+  <si>
+    <t>Based on 14 months of ethnographic research, this paper analyzes soil management within the plantation model of farmingin order to understand the extent to which life on large-scale monocultural farms can be controlled and directed toward extractiveproduction. Transnational soy farmers in Western Bahia Brazil ‘correct’ soils in the region to make them productive and marshal thisagronomic work to claim that they have added value to the land by ‘building it up’. Still, the permeability of the plantation keepstransnational farmers from achieving their dreams of control. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Against-wastelanding</t>
+  </si>
+  <si>
+    <t>Against wastelanding: distributed design at the pace of soil in the Conca de Barberà</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01426397.2024.2371890</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Against-wastelanding.txt</t>
+  </si>
+  <si>
+    <t>This paper proposes a methodology for designers to work in the extensive yet marginal landscapes that are produced as part of the process of agricultural intensification. The distributed design approach, which focuses on enriching the existing bioinfrastructure of the soil, emerged out an ongoing research project in the Conca de Barberà, Spain. The project involves managing an interconnected series of currently unproductive on unmaintained fields through the rotational grazing of horses, with the hypothesis that the systematic grazing regime will catalyse soil biological activity. By attending to the soil infrastructure, the project necessarily developed a unique design approach. Management decisions became design problems and design work took on something of the call and response of management. Though it was shaped by the specific constraints and opportunities of the research project, the methodology is applicable to a wide variety of design projects in extensive landscapes with limited resources. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>Who-Knows-What-Microbe-is</t>
+  </si>
+  <si>
+    <t>Who Knows What a Microbe is? The Variable Texture of Microbial Identity in Agricultural Products, Regulations, and Fields</t>
+  </si>
+  <si>
+    <t>Turner, Marie F.; Szymanski, Erika A.</t>
+  </si>
+  <si>
+    <t>Science and Technology Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.23987/sts.129544</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Who-Knows-What-Microbe-is.txt</t>
+  </si>
+  <si>
+    <t>Microbial products are becoming common alternatives for pesticides and fertilizers in light of the unsustainability of chemical products. What the microbes in these products are, though—that is, how they are enacted—varies across regulatory, research and development, and growing spaces, and that variation matters to how they are regulated. From document analyses, interviews, and ethnographic work with scientists, growers, and policy actors, we find that these microbes are epistemically uneven, sometimes with pinned-down identities, and sometimes with loosely woven textures with holes. Amid calls to tailor regulations specifically for these products, we suggest that regulations predicated on discrete identities and predictable and controllable functions will fail to account for all users’ experiences, and that regulation may need to learn to live with the lacy texture of microbes across contexts. © 2024 Finnish Society for Science and Technology Studies. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Agroecological-transitions</t>
+  </si>
+  <si>
+    <t>Agroecological transitions: reading, writing, and thinking across disciplinary divides</t>
+  </si>
+  <si>
+    <t>Cusworth, George</t>
+  </si>
+  <si>
+    <t>Frontiers in Agronomy</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3389/fagro.2024.1281393</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Agroecological-transitions.txt</t>
+  </si>
+  <si>
+    <t>There is great diversity in the methods, terms, and empirical focuses employed by social and natural scientists working on agroecological transitions. The upshot is that whilst various researchers may nominally be putting their shoulder to the same agroecological wheel, the impact of their combined efforts is not what it might be. The aim of this article is to assist in the co-ordination and collaboration of disparate research activities and actors. It does so by offering the readers of this journal a user-friendly guide to some of the terms being used by social scientists (particularly human geographers and anthropologists) in their work on pests, diseases, crop protections and agroecological transitions. Such a document is of particular use as the terms and concepts employed by social scientists are equipped to generate analysis with explicit political insight in a way that those used by natural scientists may not be. The concepts and theories of social scientists foreground the commonalities that cut across case studies which might otherwise seem separated by a reservoir of context specificity. Tooled with these terms of analysis, the promise of agroecology rightly becomes something with far reaching political and justice consequences. These terms are presented across five areas: the ontological, the epistemological, the methodological, the historical, and the aesthetic. Given the range of social, ecological, cultural, and economic barriers involved in effecting an agroecological transition, it is vital that different researchers are conversant in each other’s language. Copyright © 2024 Cusworth.</t>
+  </si>
+  <si>
+    <t>Governing-pathological-markets</t>
+  </si>
+  <si>
+    <t>Governing pathological markets: Microbes, banana export markets, and speculative farming practices</t>
+  </si>
+  <si>
+    <t>Wang, Chi-Mao; Chien, Ker-Hsuan</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/25148486231199334</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Governing-pathological-markets.txt</t>
+  </si>
+  <si>
+    <t>This paper examines the making and remaking of Taiwan's banana export market in response to the devastation caused by an outbreak of a novel infectious plant disease, Fusarium wilt disease Tropical Race 4 (TR4, Fusarium oxysporum f. sp. Cubense). Taiwan was the world's fourth-largest exporter of bananas in the 1960s before the collapse of the market in the early 1970s. While scholars have drawn on actor-network theory-inspired performativity approach to understand the role of non-human actants in market-making, insufficient attention has been given to the distinct impacts of microbes on cases such as that of Taiwan's banana export market. Microbes’ creative and ever-evolving qualities constantly present challenges related to the control and containment of such non-human entities, for which no pre-existing or universally applicable solutions exist. Consequently, there is a lack of research that provides useful frameworks to understand such disease-plagued markets. To bridge this gap in the literature, we examine the remaking of Taiwan's banana export market in the aftermath of the TR4 crisis using a case study approach and develop the notion of pathological markets. Inspired by recent scholarship on biosecurity and related care practices, we outline two characteristics that shape pathological markets: (a) speculative and probiotic care practices and (b) the rescaling of market organisations. The results of the fieldwork conducted as part of the present study in laboratories, government offices and on banana farms lead us to contend that the growth and development of particular microbes in multispecies environments such as Taiwan's banana farms constantly pose significant challenges for market farming. Moreover, to co-exist with the threats posed by the growth and development of microbes such as those which cause Fusarium wilt disease TR4, growers in Taiwan's banana export market rely heavily on probiotic and speculative care practices. © The Author(s) 2023.</t>
+  </si>
+  <si>
+    <t>Soil-extractivism</t>
+  </si>
+  <si>
+    <t>Soil extractivism: Political ontology of soil erasure in the European Union's agricultural politics</t>
+  </si>
+  <si>
+    <t>Hokkanen, Saana</t>
+  </si>
+  <si>
+    <t>Journal of Rural Studies</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jrurstud.2024.103298</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-extractivism.txt</t>
+  </si>
+  <si>
+    <t>Europe; agricultural production; biodiversity; Common Agricultural Policy; conceptual framework; European Union</t>
+  </si>
+  <si>
+    <t>This article examines how specific (non-relational) political ontological understandings of soils are incorporated into industrial agricultural politics in the European Union and introduces a complementary contribution to existing literature with the concept of soil extractivism. The concept is used to describe current institutionalized ways of relating to soils and their dynamics of power. Through an integrative literature review, the article links existing research on soils with the development of modern agriculture in Europe. The theoretical contribution of soil extractivism provides a conceptual tool for understanding currently dominant ways of treating soils as a key part of modernity and industrial capitalism as well as part of wider destructions of multispecies relations. © 2024 The Author</t>
+  </si>
+  <si>
+    <t>Reimagining-the-governance-water</t>
+  </si>
+  <si>
+    <t>Reimagining the governance of water from the ground up: On the ‘worlding-practices’ of grassroots movements building alternative ‘water worlds’</t>
+  </si>
+  <si>
+    <t>Tozzi, Arianna</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/25148486231223627</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Reimagining-the-governance-water.txt</t>
+  </si>
+  <si>
+    <t>This paper speaks to the uneven scholarly attention gone into tracing dominant forms of water governance as opposed to practices crafting alternative human-water relations on the ground. Through the case of an Indian-based network mobilising to transform how we understand rainfed regions as rain-dependent socio-ecologies, I theorise their action ‘with care’, a commitment to think-with grassroots movements as actors capable of bringing new worlds into being. Describing their activities as worlding-practices, I explore how the network confronts the invisibilities inscribed by the current paradigm reducing water to irrigation by defining alternative metrological tools that recentre the governance of water from the perspective of the rainfall. Tinkering with the variables of the constituted metrology, the network utilises an atlas, a formula, and an acronym to enact a different rainfed sociality into being, creating visibilities and cares for neglected things. Through the story of a grassroots group and their strategies of mobilisation, this account contributes to debates on how to pluralise water governance, suggesting that reimagining its practices requires taking seriously the performativity of grassroots knowledges. Building alliances between research and activism as e/affective world-building partners becomes key to co-theorise liveable human-water relations and caring socio-ecologies at large. © The Author(s) 2024.</t>
+  </si>
+  <si>
+    <t>Revitalizin-Air</t>
+  </si>
+  <si>
+    <t>Revitalizing Air: More-than-Human Relations in Urban Health Beyond the Modern-Premodern Binary</t>
+  </si>
+  <si>
+    <t>Meloni, Maurizio; Maller, Cecily</t>
+  </si>
+  <si>
+    <t>Geohumanities</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/2373566X.2023.2280570</t>
+  </si>
+  <si>
+    <t>The cleanliness, mobility and quality of urban air has regained political legibility in debates on post-pandemic cities. To contextualize the political and epistemological significance of air in urban contexts, we suggest looking at the under-researched experience of premodern cities and bodies, how they developed a complex ecological imagination and solutions guided by findings from Hippocratic-Galenic medicine. While we do not romanticize these efforts, we argue that they represent an overlooked archive through which the post-Enlightenment mechanization, securitization and abstraction of air can be challenged. Turning to recent findings from both more-than-human thinking and microbiology as applied to air (aerobiome), we acknowledge that microbiome science is a result of laboratory science; however, we argue that findings from microbiome science point to a reanimation of air as something that cannot be fully instrumentalized or securitized as in modernistic programs of biopolitical control. By drawing on the on the experience of the Hippocratic tradition as a catalyst and a proxy for wider ontologies of flows and corporeal porosity across the Eurasian landmass, we suggest arriving at an affirmative reconceptualization of human-environment entanglement based on notions of permeability and a non-binary ontology of flows. This more-than-human approach may not only complicate the alleged simplistic view of the “West” as a dualistic monolith but act also as bridge and companion to Indigenous and Southern ontologies and experiences of life, non-life, matter and nature. © 2024 American Association of Geographers Published by Taylor &amp; Francis Group, LLC.</t>
+  </si>
+  <si>
+    <t>Ways-of-un-knowing-landscapes</t>
+  </si>
+  <si>
+    <t>Ways of (un)knowing landscapes: Tracing more-than-human relations in regenerative agriculture</t>
+  </si>
+  <si>
+    <t>Kallio, Galina; LaFleur, Will</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1016/j.jrurstud.2023.103059</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Ways-of-un-knowing-landscapes.txt</t>
+  </si>
+  <si>
+    <t>Finland; Italy; Norway; agricultural land; agriculture; empirical analysis; ethnography; landscape; rural landscape; soil carbon</t>
+  </si>
+  <si>
+    <t>In the face of diverse socio-ecological crises, regenerative agriculture promises to enliven rural landscapes by positioning farmers as key actors in mitigating the ‘carbon problem’ on the one hand, and adapting to it on the other. This article troubles ways of knowing regenerative agriculture through soil-and-carbon centered representational knowledge practices. Conceptually, we build on relational scholarship and use the concept of (un)knowing landscapes to suggest that agricultural landscapes both become, and become (un)known in and through diverse more-than-human relations. Empirically, we draw from ethnographic fieldwork independently conducted at farms in Finland, Norway and Italy practicing diversified regenerative agriculture. By focusing specifically on the practices of composting and processes of decomposition, we show how farmers come to know and reciprocate the aliveness of their landscapes through both proximate and distant relational dynamics: balancing between control and cohabitation, caring for and taking care of, and attending to multiple rhythms of (re)production. We argue that placing a deeper focus on soils — even when representing them differently — not only risks making proximate relations in diversified regenerative agricultural landscapes unknown, but also permits these landscapes to become known primarily through relations of distance. This, in turn, enables the commensurability of regenerative agricultural landscapes into tradable units for carbon markets. We conclude that transformation towards ecological livelihoods requires a radical reevaluation of, and accounting for, diverse more-than-human landscape relations. © 2023 The Authors</t>
+  </si>
+  <si>
+    <t>Multiple-worlds-and-strange-objects</t>
+  </si>
+  <si>
+    <t>Multiple worlds and strange objects: environmental education research as an additive practice</t>
+  </si>
+  <si>
+    <t>Rautio, Pauliina; Hohti, Riikka; Tammi, Tuure; Ylirisku, Henrika</t>
+  </si>
+  <si>
+    <t>Australian Journal of Environmental Education</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1017/aee.2022.29</t>
+  </si>
+  <si>
+    <t>The paper offers three examples of passionate immersion with strange objects and working with peculiar multispecies assemblages, such as the assemblage of a dove called Romeo and the technology to humidify a greenhouse called 'Princess', or the experiment of orienteering in forests for years, accounting for slips, scratches and tumbles as being taught by the forest - and prioritising these over the more commonplace educational narratives. The paper is structured in a nonconventional way in that most space is reserved for reports from these ongoing inquiries. The authors will each discuss how they situate themselves in relation to strangeness in research and how they proceed methodologically, locating their approaches as postqualitative. The questions each example addresses are: What is a strange object? How do we come across them? What do we begin to do/produce with them? The additive orientation described in the research stories is proposed to be an important constituent for new survival knowledge especially relevant for environmental education, addressing environmental problems as wicked, and demanding approaches that reach beyond methodological divides.  © The Author(s), 2022. Published by Cambridge University Press.</t>
+  </si>
+  <si>
+    <t>Why-do-we-need-interdisciplinary-cooperation</t>
+  </si>
+  <si>
+    <t>Why do we need interdisciplinary cooperation with anthropologists and archaeologists in soil science?</t>
+  </si>
+  <si>
+    <t>Teuber, Sandra; Bartelheim, Martin; Hardenberg, Roland; Knopf, Monica; Knopf, Thomas; Kühn, Peter; Schade, Tobias; Schmidt, Karsten; Scholten, Thomas</t>
+  </si>
+  <si>
+    <t>Journal of Plant Nutrition and Soil Science</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/jpln.202200120</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Why-do-we-need-interdisciplinary-cooperation.txt</t>
+  </si>
+  <si>
+    <t>Looking at soils from the perspective of an environmental scientist or agronomist might neglect various dimensions of valuation that can be attributed to soils. Especially social and cultural connoted values including ecosystem services cannot always be measured in terms of scientific values or classified as soil types or soil qualities in a modern, economic way. Even though soils are a fact and have been present on the Earth's surface and used by people, at least for food production, at different times and in different cultures, the ways of dealing with soils and the valuations of soils are extremely diverse. Researchers in anthropology, archaeology, and agriculture, for example, are investigating different perspectives like soils as common good or as private property. This concerns not only different knowledge orders about soils, but also beliefs, techniques, foodways, practices, and power relations concerning soils and cereal cultivation. Based on the example of agriculture with a focus on cereal cultivation, we argue that there is still a great need for interdisciplinarity between the sciences and humanities. However, there is also a need to distinguish and explain between fundamental interdisciplinary research and application of findings in a socio-economic context. It is necessary to understand different knowledge orders and valuations in time or space and to reevaluate today's perspectives on soils and agriculture for facing modern problems such as soil degradation, erosion, salinization, and an overall loss of soil fertility. © 2022 The Authors. Journal of Plant Nutrition and Soil Science published by Wiley-VCH GmbH.</t>
+  </si>
+  <si>
+    <t>Science-Technology-and-Society</t>
+  </si>
+  <si>
+    <t>Science, Technology and Society: An Introduction</t>
+  </si>
+  <si>
+    <t>Gobo, Giampietro; Marcheselli, Valentina</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-031-08306-8</t>
+  </si>
+  <si>
+    <t>Science, Technology and Society: An Introduction provides students with an accessible overview of the interdisciplinary field of Science and Technology Studies (STS). The discipline breaks down traditional conceptions of knowledge as universal, neutral and ahistorical, and takes a more critical approach to science and technology as social embedded phenomena. This comprehensive textbook makes use of unique examples and case studies to illustrate theoretical debates and concepts. In addition, the reader acquires a unique vision of contemporary issues (such as the power of algorithms, the mystification of fake news, the role of experts within the decision-making process, for example). Each chapter incorporates pedagogically rich features, including interactive discussion points to be used individually or in class as prompts for debate. © The Editor(s) (if applicable) and The Author(s), under exclusive licence to Springer Nature Switzerland AG 2022</t>
+  </si>
+  <si>
+    <t>Nurturing-soil-adarities</t>
+  </si>
+  <si>
+    <t>Nurturing soil-adarities: Growing multispecies justice in therapeutic landscapes</t>
+  </si>
+  <si>
+    <t>Turner, Bethaney</t>
+  </si>
+  <si>
+    <t>Cultivated Therapeutic Landscapes: Gardening for Prevention, Restoration, and Equity</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.4324/9781003355731-16</t>
+  </si>
+  <si>
+    <t>Soil, and its underground multispecies microbiome, has so far been overlooked in work interrogating gardens as therapeutic landscapes. This chapter explores the emplaced, affective, and ethical dimensions of human-soil relations in urban home and community gardens through ethnographic fieldwork, demonstrating that the fundamental interdependence of human and soil health and wellbeing makes soil a fertile focus for investigation. Soil not only shapes the productive capacities of gardens and sustains urban green spaces; biodiverse soil has also been shown to have direct health benefits. On the flipside, the presence of contaminated, toxic soils - most prevalent in lower socio-economic neighbourhoods - exposes inequities in access to safe gardening sites and the realisation of their potential therapeutic benefits. Seizing on the growing emphasis on therapeutic spaces as relationally produced, this chapter contends that the therapeutic benefits of gardens are best realised when human participants cultivate attentive, responsive relationships with the myriad multispecies companions that mutually co-produce these sites. To do this, the chapter explores how a multispecies justice framework can be enacted in therapeutic garden landscapes to maximise human and multispecies health and wellbeing. © 2023 selection and editorial matter, Pauline Marsh and Allison Williams; individual chapters, the contributors.</t>
+  </si>
+  <si>
+    <t>Experiments-in-Situ-Soil-El-Salvador</t>
+  </si>
+  <si>
+    <t>Experiments in Situ: Soil Repair Practices as Part of Place- Based Action for Change in El Salvador</t>
+  </si>
+  <si>
+    <t>Millner, Naomi</t>
+  </si>
+  <si>
+    <t>Ecological Reparation: Repair, Remediation and Resurgence in Social and Environmental Conflict</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.51952/9781529239560.ch001</t>
+  </si>
+  <si>
+    <t>Agronomy; Cultivation; Repair; Wastes; Agro ecologies; Biofertilizers; Campesino; Collective memory; El Salvador; Environmental damage; Organics; Place-based; Small scale farmers; Traditional techniques; Agricultural robots</t>
+  </si>
+  <si>
+    <t>Agroecological networks have long valorized the experience of small-scale farmers and have cultivated processes of in situ experimentation to systematically evaluate the effectiveness of traditional techniques. In this chapter I suggest that this focus on experience and experimentation is vital within broader ecologies of ‘mending’ environmental damage, and to the ideas of ecological reparation put forward by this book. Specifically, I suggest that the loop of collective reflection on experience afforded by the examples I document in El Salvador allow for a supplementation of official histories with small stories; with purposefully censored collective memory; and with everyday expertise. The case presented in this chapter is engaged in experimental soil repair through composting practices and the creation of ‘biofertilizers’ – recipes that use local organic ingredients to boost soil health. I show how agroecological approaches to soil repair place campesino expertise at the heart of agricultural innovation and ecological reparation. Together, these fuller archives allow for a wider array of possible solutions to soil damage, while also enabling contestation to take place over stories told over land, ownership, lives, and communities. © 2023 Bristol University Press.</t>
+  </si>
+  <si>
+    <t>Skin-of-the-Earth-Fukushima</t>
+  </si>
+  <si>
+    <t>“Skin of the Earth” On Soil, Collaboration, and Temporality after Fukushima</t>
+  </si>
+  <si>
+    <t>Tam, Mankei</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1215/22011919-10422278</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Skin-of-the-Earth-Fukushima.txt</t>
+  </si>
+  <si>
+    <t>Fukushima [Tohoku]; Honshu; Japan; Tohoku; inorganic matter; nuclear accident; radioactive pollution; soil analysis; soil pollution; topsoil</t>
+  </si>
+  <si>
+    <t>This article explores soil and the multiple pathways it has provided for the coconstitution of forms of life that might be possible following the Fukushima nuclear fallout. In Iitate, a former evacuation zone where radiation still lingers, farmers and concerned citizens deploy a coproduction framework that involves experts in making their own science. Incorporating tactile knowledge of the environment, they make life-strengthening claims on the future amid state promises of revival and progress. Soil becomes alive in madei, which emerges from the processes of separating radiocesium from topsoil, growing rice, and other improvisations for relating to soils that cascade to regenerate a livable world. This article discusses how the Japanese state utilizes temporal scales that orient its citizenry to a future associated with accelerated and intensified productivity as a sign of progress, incorporating decontamination technologies to assert control over organic lives and inorganic matter to make them productive for humans. Through madei, this article addresses how soil guides human attention to the rediscovery of interspecies temporalities, paces, and rhythms, reconfiguring radioactivity to create what I conceptualize as a regenerative time to underscore how actors reanimate the future(s) in the here and now. © 2023 Mankei Tam.</t>
+  </si>
+  <si>
+    <t>Antipodean-more-than-human</t>
+  </si>
+  <si>
+    <t>Antipodean more-than-human geographies: From the edges</t>
+  </si>
+  <si>
+    <t>Siimes, Nikolai; Yee, Kenzi; McSherry, Alice; Sharp, Emma L.</t>
+  </si>
+  <si>
+    <t>New Zealand Geographer</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nzg.12371</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Antipodean-more-than-human.txt</t>
+  </si>
+  <si>
+    <t>To be more-than-human is to be relational, to no longer see the human as a discrete individual and to recognise the multivalent agency and import of the non-human in bio-physical, socio-economic and cultural worlds. This Special Issue galvanises an interest by Aotearoa New Zealand geographers in non-human–human relations and delivers more-than-human research from the edges: of the discipline, from our geographic position antipodal to ‘the west’ and ‘the north’, from early career researchers and from cognate literatures at the periphery of geographic thought. The contributions here question understandings of ethics, politics, conservation and economy through papers that explore affect, care, agency, discourses and practices with a range of more-than-human subject-objects: blackberries, wine yeasts, insects, PFAS and urban streams. © 2023 The Authors. New Zealand Geographer published by John Wiley &amp; Sons Australia, Ltd on behalf of New Zealand Geographical Society.</t>
+  </si>
+  <si>
+    <t>Thinking-with-soils-Aotearoa</t>
+  </si>
+  <si>
+    <t>Thinking with soils: Can urban farms help us heal metabolic rifts in Aotearoa?</t>
+  </si>
+  <si>
+    <t>Goburdhone, Sasha; Dombroski, Kelly</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1111/nzg.12363</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Thinking-with-soils-Aotearoa.txt</t>
+  </si>
+  <si>
+    <t>In this commentary, we reflect on our work with an urban youth farm where young people (re)connect to the food system. Participating in everyday soil creation and care activities nurtured new relationships with more-than-human ecologies and beings at an urban farm called Cultivate Christchurch. In this farm, participants engaged with soils and the process of making and regenerating soil from food waste via composting. We ask whether such activities can begin to help participants think with soil rather than about it, and to heal the ‘metabolic rift’, the socioecological disconnect from food growing and nutrient cycles. © 2023 The Authors. New Zealand Geographer published by John Wiley &amp; Sons Australia, Ltd on behalf of New Zealand Geographical Society.</t>
+  </si>
+  <si>
+    <t>Minding-the-Gaps</t>
+  </si>
+  <si>
+    <t>Minding the Gaps</t>
+  </si>
+  <si>
+    <t>Shenk, Linda; Franz, Kristie J.; Gutowski, William J.</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1215/22011919-10746001</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Minding-the-Gaps.txt</t>
+  </si>
+  <si>
+    <t>climate change; decision making; literature review; methodology; simulation; student</t>
+  </si>
+  <si>
+    <t>Increasingly, researchers share climate information as narratives to support decision-making and public action. In these contexts, however, scientists remain the focal storytellers. This article offers our methodology for researchers and communities to share narratives with each other and then to engage in collaborative storytelling. At the center of this work is how the humanities embrace the importance of narratives having gaps—narrative lacunae into which individuals can insert their experiences, needs, and values. Our storytelling- and gaps-based methodology allows communities and researchers to enter and transform each other’s stories. We offer a simulation model that fosters collaborative storytelling and give examples from the storytelling and social-environmental action projects that have emerged over three years of partnership with communities and university students. © 2023 Linda Shenk, Kristie J. Franz, and William J. Gutowski, Jr.</t>
+  </si>
+  <si>
+    <t>Vivendo-no-mundo-deles</t>
+  </si>
+  <si>
+    <t>Vivendo no mundo deles: Currículo a partir de um apelo geontológico</t>
+  </si>
+  <si>
+    <t>Ranniery, Thiago</t>
+  </si>
+  <si>
+    <t>Curriculo sem Fronteiras</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.35786/1645-1384.v20.n3.07</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vivendo-no-mundo-deles.txt</t>
+  </si>
+  <si>
+    <t>This text derives from the intentions of a ethnographic immersion project carried out in virology laboratories and their translation interfaces with scientific dissemination. It is a tentative and experimental essay on how scientific practices can instill imaginative transformations in the relationships between the different beings that share the Earth in what we call education. I propose to use the image living in their world in order to interrogate how colonial troubles make the curriculum equivalent to a project for the formation of the human subject. From intertwined stories, the argument explores, on the one hand, how the humanist autocracy fails to take advantage of the inconstancy of the animated materiality of the soil when struggling against the loss of a safe or stable terrain. On the other hand, it indicates how scientific controversies testify to a communication problem regarding the geontological appeal of printing to education the work of coordination and coexistence between multiple intimate encounters. In dialogue with feminist and queer studies, complicated by neomaterial and posthuman perspectives, I defend the reassessment of the relationship between education, geology and ecology as a condition for thinking ethical and political responses to the ongoing destruction. © 2020 Curriculo sem Fronteiras. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Permafrost-Politics</t>
+  </si>
+  <si>
+    <t>Permafrost Politics: Toward a Relational Materiality and Design of Arctic Ground</t>
+  </si>
+  <si>
+    <t>Cho, Leena</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/01426397.2020.1831461</t>
+  </si>
+  <si>
+    <t>Alaska; United States; United States; correction; frozen ground; numerical model; periglacial environment; permafrost; twentieth century</t>
+  </si>
+  <si>
+    <t>Permafrost—continuously frozen ground for more than two years—is one of the defining landscape elements in the Arctic. In the U.S., its development as an idea has parallelled mid-twentieth-century territorial struggles in Alaska and is inextricably linked to permafrost science and frontier engineering. Permafrost is more than a scientific category and engineering risk subject to correction and control; it is a foundation for dynamic socioecological and cultural expressions in arctic landscapes. In response, a relational approach is taken to examine permafrost’s cold, vibrant and plural materialities, with an aim of generating design possibilities that are attuned to these dynamics. In the Arctic where science continues to play a central role in determining putative futures, the article further suggests to creatively instrumentalise scientific forms of landscape inquiry, highlighting thermo-material interactions and multiplicities of arctic ground. © 2020 Landscape Research Group Ltd.</t>
+  </si>
+  <si>
+    <t>The-role-of-soils-in-learning-and-inspiration</t>
+  </si>
+  <si>
+    <t>The role of soils in learning and inspiration, physical and psychological experiences, and in supporting identities</t>
+  </si>
+  <si>
+    <t>McElwee, Pamela</t>
+  </si>
+  <si>
+    <t>Philosophical Transactions of the Royal Society B: Biological Sciences</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1098/rstb.2020.0184</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-role-of-soils-in-learning-and-inspiration.txt</t>
+  </si>
+  <si>
+    <t>Art; Conservation of Natural Resources; Cultural Characteristics; Environment; Gardening; Humans; Recreation; Religion; Social Justice; Soil; anthropogenic effect; social justice; soil analysis; soil ecosystem; art; cultural factor; environment; environmental protection; gardening; human; psychology; recreation; religion; social justice; soil</t>
+  </si>
+  <si>
+    <t>This paper reviews the literature on soil and nature's contributions to people (NCP) around learning and inspiration, physical and psychological experiences, and supporting identities, revealing a range of relationships to imagining, understanding and experiencing soil. Often labelled elsewhere as 'cultural ecosystem services', these NCP provide a range of benefits that are mostly non-material, non-consumptive and intangible. The review finds that NCP framings help to highlight how soils have contributed to inspiring learning and creative works, like art; to mental and physical health benefits, such as through recreation and gardening; and to cultural identities and practices, including religious practices and efforts for social justice. Overall, soils have played a large role in human creative endeavours, are the root of significant relationships to the environment and can be conceptualized through key metaphors, ideas and theory as a bridge linking culture and nature together. Yet despite the wide-ranging contributions of soils to these NCP, the literature remains uneven and much more remains to be understood, including how relational values of care and stewardship with soils can be fostered and how attention to the co-produced 'biosocial' nature of soil can help improve practices for soil health. This article is part of the theme issue 'The role of soils in delivering Nature's Contributions to People'. © 2021 The Author(s).</t>
+  </si>
+  <si>
+    <t>Seein-copiaposols-anthropogenic-soils</t>
+  </si>
+  <si>
+    <t>Seeing copiapósols: anthropogenic soils, strategic unknowing, and emergent taxonomies in northern Chile</t>
+  </si>
+  <si>
+    <t>Ureta, Sebastián; Otaegui, Alvaro</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/s10460-021-10191-4</t>
+  </si>
+  <si>
+    <t>In recent decades, anthropogenic soils have become so ubiquitous that for some authors they should be taken as the “golden spike” signaling the start of the Anthropocene. Despite their prominence, leading soil taxonomies have resisted calls to recognize them as a proper kind of soil. Such omission has importantly limited the ways in which soil practitioners can account and deal with the sociopolitical aspects embedded in soil formation. Approaching the issue from a sociomaterial perspective, this paper studies the effects of such omission on the work of soil scientists working in northern Chile. By contrasting their usage of the USDA/NRCS soil typology with the realities found in the field, the work of strategic unknowing that such typologies achieve becomes evident. To challenge such situation, the paper concludes exploring the notion of emergent taxonomies, classifications that are sensitive to local configurations of materials, living beings and power out which soils emerge. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+  </si>
+  <si>
+    <t>MORE-POSTHUMAN-GLOSSARY</t>
+  </si>
+  <si>
+    <t>MORE POSTHUMAN GLOSSARY</t>
+  </si>
+  <si>
+    <t>Jones, Emily; Klumbytė, Goda; Braidotti, Rosi</t>
+  </si>
+  <si>
+    <t>More Posthuman Glossary</t>
+  </si>
+  <si>
+    <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85188395551&amp;partnerID=40&amp;md5=ce326f6cb0dd5ae4b0cd3bea257cd76c</t>
+  </si>
+  <si>
+    <t>The notion of the posthuman continues to both intrigue and confuse, not least because of the huge number of ideas, theories and figures associated with this term. More Posthuman Glossary provides a way in to the dizzying array of posthuman concepts, providing vivid accounts of emerging terms. It is much more than a series of definitions, however, in that it seeks to imagine and predict what new terms might come into being as this exciting field continues to expand. A follow-up volume to the brilliant interventions of Posthuman Glossary (2018), this book extends and elaborates on that work, particularly focusing on concepts of race, indigeneity and new ideas in radical ecology. It also includes new and emerging voices within the new humanities and multiple modes of communicating ideas. This is an indispensible glossary for those who are exploring what the non-human, inhuman and posthuman might mean in the 21st century. © Natascha Unkart, 2019 "Untitled (Salvaged)". All rights reserved.</t>
+  </si>
+  <si>
+    <t>Wine-Is-Our-Bread</t>
+  </si>
+  <si>
+    <t>Wine Is Our Bread: Labour and Value in Moldovan Winemaking</t>
+  </si>
+  <si>
+    <t>Ana, Daniela</t>
+  </si>
+  <si>
+    <t>Wine Is Our Bread: Labour and Value in Moldovan WinemakingMigration</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.3167/9781800733411</t>
+  </si>
+  <si>
+    <t>Based on ethnographic work in a Moldovan winemaking village, Wine Is Our Bread shows how workers in a prestigious winery have experienced the country’s recent entry into the globalized wine market and how their productive activities at home and in the winery contribute to the value of commercial terroir wines. Drawing on theories of globalization, economic anthropology and political economy, the book contributes to understanding how crises and inequalities in capitalism lead to the ‘creative destruction’ of local products, their accelerated standardization and the increased exploitation of labour. © 2022 Daniela Ana. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Rethinking-the-Wool-Economy</t>
+  </si>
+  <si>
+    <t>Rethinking the (Wool) Economy</t>
+  </si>
+  <si>
+    <t>Smith, Tone; Ehrnström-Fuentes, Maria; Hagolani-Albov, Sophia E.; Klepp, Ingun Grimstad; Tobiasson, Tone Skårdal</t>
+  </si>
+  <si>
+    <t>Local, Slow and Sustainable Fashion: Wool as a Fabric for Change</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1007/978-3-030-88300-3_6</t>
+  </si>
+  <si>
+    <t>This chapter examines the limits to changing the current economic system through policy measures like green growth and the circular economy. We examine the biophysical aspects of the economy and the huge amounts of materials and energy the global economy consumes to achieve growth. Thus far, governmental responses have been incapable of addressing the underlying structural issues of the global textile industry and the accompanying exploitation of nature and peoples. While the necessary deep structural transformations are difficult to achieve through governmental policy change, we suggest that re-localisation of wool production-consumption networks is an expression of how engaged citizens can build more sustainable textile and fibre alternatives in place. Drawing on local food research, this chapter highlights the dangers of conflating local solutions with sustainability. Instead, we argue that assessing these emergent wool ventures based on how they are organised in the living landscape in specific places will enhance the understanding of what kind of socioecological impacts they can achieve. This includes how organising/connecting the activities and visions of wool entrepreneurs in place is essential if these ventures are going to be able to overcome the barriers set by the dominant growth-based system of global trade. © The Editor(s) (if applicable) and The Author(s), under exclusive license to Springer Nature Switzerland AG 2022, corrected publication 2022.</t>
+  </si>
+  <si>
+    <t>Environmental-racism</t>
+  </si>
+  <si>
+    <t>‘When you heal the soil…’: Environmental racism and socioecological repair in contemporary urban agriculture</t>
+  </si>
+  <si>
+    <t>Shostak, Sara</t>
+  </si>
+  <si>
+    <t>Environmental Sociology</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1080/23251042.2022.2073626</t>
+  </si>
+  <si>
+    <t>Drawing on data from an ethnographic study of urban agriculture in Massachusetts, this paper investigates the multiple meanings of soil for contemporary urban farmers and gardeners. I first consider how urban farmers speak for and with the soil in their neighborhoods to call attention to historical and ongoing environmental racism. These narratives highlight how racialized social processes–including redlining, blockbusting, white flight and disinvestment–have harmed the health of both people and the environment in urban communities of color. I then describe how urban farmers and gardeners articulate the importance of soil for health and well-being, especially for people whose relationships with the earth have been disrupted by capitalism, colonialism and racism. These narratives draw on both scientific and spiritual frameworks to highlight the healing potential of re-establishing direct relationships with nature, reclaiming ancestral knowledge about the healing properties of plants, and reconnecting with the ancestors themselves. Analysis of these interlinked narratives contributes to an emerging cross-disciplinary scholarship on the situatedness of ways of conceptualizing and interacting with soils, calling attention especially to the role of racialized inequities in the creation of harmful soil materialities and the possibilities of socioecological repair. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+  </si>
+  <si>
+    <t>critique-of-anthropocentrism</t>
+  </si>
+  <si>
+    <t>In critique of anthropocentrism: a more-than-human ethical framework for antimicrobial resistance</t>
+  </si>
+  <si>
+    <t>Cañada, Jose A; Sariola, Salla; Butcher, Andrea</t>
+  </si>
+  <si>
+    <t>Medical Humanities</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1136/medhum-2021-012309</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\critique-of-anthropocentrism.txt</t>
+  </si>
+  <si>
+    <t>Animals; Anti-Bacterial Agents; Drug Resistance, Bacterial; Humans; antiinfective agent; animal; antibiotic resistance; human</t>
+  </si>
+  <si>
+    <t>Antimicrobial resistance (AMR) is often framed as a One Health issue, premised on the interdependence between human, animal and environmental health. Despite this framing, the focus across policymaking, implementation and the ethics of AMR remains anthropocentric in practice, with human health taking priority over the health of non-human animals and the environment, both of which mostly appear as secondary elements to be adjusted to minimise impact on human populations. This perpetuates cross-sectoral asymmetries whereby human health institutions have access to bigger budgets and technical support, limiting the ability of agricultural, animal health or environmental institutions to effectively implement policy initiatives. In this article, we review these asymmetries from an ethical perspective. Through a review and analysis of contemporary literature on the ethics of AMR, we demonstrate how the ethical challenges and tensions raised still emerge from an anthropocentric framing, and argue that such literature fails to address the problematic health hierarchies that underlie policies and ethics of AMR. As a consequence, they fail to provide the necessary tools to ethically evaluate the more-than-human challenges that the long list of actors involved in managing AMR face in their everyday practices. In response to such shortcomings, and to make sense of these challenges and tensions, this article develops an ethical framework based on relationality, care ethics and ambivalence that attends to the more-than-human character of AMR. We formulate this approach without overlooking everyday challenges of implementation by putting the framework in conversation with concrete situations from precarious settings in West Africa. This article concludes by arguing that a useful AMR ethics framework needs to consider and take seriously non-human others as an integral part of both health and disease in any given ecology.  © 2022 BMJ Publishing Group. All rights reserved.</t>
+  </si>
+  <si>
+    <t>Vegan-food-geographies</t>
+  </si>
+  <si>
+    <t>Vegan food geographies and the rise of Big Veganism</t>
+  </si>
+  <si>
+    <t>Sexton, Alexandra E; Garnett, Tara; Lorimer, Jamie</t>
+  </si>
+  <si>
+    <t>Progress in Human Geography</t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1177/03091325211051021</t>
+  </si>
+  <si>
+    <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vegan-food-geographies.txt</t>
+  </si>
+  <si>
+    <t>culture; diet; food consumption; human geography</t>
+  </si>
+  <si>
+    <t>Veganism is the subject of an increasingly diverse body of social scientific research, yet it remains relatively understudied in geography. Meanwhile, contemporary cultural commentaries note how veganism has gone mainstream, with critics warning of veganism’s corporate nature – expressed in the rise of what we term ‘Big Veganism’. We argue that food geographers are well placed to examine these trends. We first review vegan studies work beyond geography that examines and critiques the mainstreaming of veganism. We focus on literature that explores multiple contested modes of veganism, veganism as praxis in place and the rise of corporate veganism as useful foundations for geographers to build on, particularly in light of currently unfolding developments in vegan cultures and practice. Taking this work forward, we identify four conceptual traditions from research in food geographies – following foodways, alternative food networks and the cultural and material politics of eating – to develop a ‘vegan food geographies’ programme that aims to advance critical geographic work on veganism and the emerging implications of its contemporary mainstreaming. © The Author(s) 2022.</t>
   </si>
 </sst>
 </file>
@@ -1153,18 +2180,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q35"/>
+  <dimension ref="A1:Q85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
-    </sheetView>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="55.28515625" customWidth="1"/>
-    <col min="7" max="7" width="58.7109375" customWidth="1"/>
-    <col min="8" max="8" width="39" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
@@ -1229,1047 +2249,2811 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2">
+        <v>2024</v>
+      </c>
+      <c r="E2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>21</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>22</v>
       </c>
-      <c r="G2" t="s">
+      <c r="N2" t="s">
         <v>23</v>
-      </c>
-      <c r="N2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3" t="s">
         <v>25</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>26</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3">
+        <v>2024</v>
+      </c>
+      <c r="E3" t="s">
         <v>27</v>
       </c>
-      <c r="D3" t="s">
-        <v>20</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>28</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" t="s">
         <v>29</v>
       </c>
-      <c r="G3" t="s">
-        <v>23</v>
-      </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>30</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>31</v>
       </c>
-      <c r="J3" t="s">
+      <c r="N3" t="s">
         <v>32</v>
       </c>
-      <c r="N3" t="s">
-        <v>33</v>
-      </c>
       <c r="Q3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>34</v>
+      </c>
+      <c r="B4" t="s">
         <v>35</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>36</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4">
+        <v>2023</v>
+      </c>
+      <c r="E4" t="s">
         <v>37</v>
       </c>
-      <c r="D4" t="s">
+      <c r="F4" t="s">
         <v>38</v>
       </c>
-      <c r="E4" t="s">
+      <c r="G4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H4" t="s">
         <v>39</v>
       </c>
-      <c r="F4" t="s">
+      <c r="I4" t="s">
         <v>40</v>
       </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>41</v>
       </c>
-      <c r="I4" t="s">
+      <c r="N4" t="s">
         <v>42</v>
       </c>
-      <c r="J4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
       <c r="Q4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" t="s">
         <v>45</v>
       </c>
-      <c r="B5" t="s">
+      <c r="D5">
+        <v>2023</v>
+      </c>
+      <c r="E5" t="s">
         <v>46</v>
       </c>
-      <c r="C5" t="s">
+      <c r="F5" t="s">
         <v>47</v>
       </c>
-      <c r="D5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5" t="s">
         <v>48</v>
       </c>
-      <c r="F5" t="s">
+      <c r="I5" t="s">
         <v>49</v>
       </c>
-      <c r="G5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" t="s">
         <v>50</v>
       </c>
-      <c r="I5" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="N5" t="s">
-        <v>52</v>
-      </c>
       <c r="Q5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>51</v>
+      </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" t="s">
         <v>53</v>
       </c>
-      <c r="B6" t="s">
+      <c r="D6">
+        <v>2022</v>
+      </c>
+      <c r="E6" t="s">
         <v>54</v>
       </c>
-      <c r="C6" t="s">
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="D6" t="s">
+      <c r="G6" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
+      <c r="I6" t="s">
         <v>57</v>
       </c>
-      <c r="F6" t="s">
+      <c r="J6" t="s">
         <v>58</v>
       </c>
-      <c r="G6" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="N6" t="s">
         <v>59</v>
       </c>
-      <c r="I6" t="s">
-        <v>60</v>
-      </c>
-      <c r="J6" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" t="s">
-        <v>62</v>
-      </c>
       <c r="Q6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7">
+        <v>2022</v>
+      </c>
+      <c r="E7" t="s">
         <v>63</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>64</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
+        <v>22</v>
+      </c>
+      <c r="N7" t="s">
         <v>65</v>
-      </c>
-      <c r="D7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>66</v>
-      </c>
-      <c r="F7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G7" t="s">
-        <v>23</v>
-      </c>
-      <c r="N7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8" t="s">
         <v>69</v>
       </c>
-      <c r="B8" t="s">
+      <c r="F8" t="s">
         <v>70</v>
       </c>
-      <c r="C8" t="s">
+      <c r="G8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H8" t="s">
         <v>71</v>
       </c>
-      <c r="D8" t="s">
+      <c r="I8" t="s">
         <v>72</v>
       </c>
-      <c r="E8" t="s">
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
         <v>73</v>
       </c>
-      <c r="F8" t="s">
-        <v>74</v>
-      </c>
-      <c r="G8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H8" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" t="s">
-        <v>76</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>77</v>
-      </c>
       <c r="Q8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D9">
         <v>2015</v>
       </c>
       <c r="E9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" t="s">
+        <v>22</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>80</v>
+      </c>
+      <c r="J9" t="s">
         <v>81</v>
       </c>
-      <c r="F9" t="s">
+      <c r="N9" t="s">
         <v>82</v>
       </c>
-      <c r="G9" t="s">
-        <v>23</v>
-      </c>
-      <c r="H9" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" t="s">
-        <v>84</v>
-      </c>
-      <c r="J9" t="s">
-        <v>85</v>
-      </c>
-      <c r="N9" t="s">
-        <v>86</v>
-      </c>
       <c r="Q9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s">
+        <v>85</v>
+      </c>
+      <c r="D10">
+        <v>2015</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
         <v>87</v>
       </c>
-      <c r="B10" t="s">
+      <c r="G10" t="s">
+        <v>22</v>
+      </c>
+      <c r="N10" t="s">
         <v>88</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
-      <c r="D10" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" t="s">
-        <v>91</v>
-      </c>
-      <c r="F10" t="s">
-        <v>92</v>
-      </c>
-      <c r="G10" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11" t="s">
+        <v>91</v>
+      </c>
+      <c r="D11">
+        <v>2015</v>
+      </c>
+      <c r="E11" t="s">
+        <v>92</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+      <c r="G11" t="s">
+        <v>22</v>
+      </c>
+      <c r="N11" t="s">
         <v>94</v>
-      </c>
-      <c r="B11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C11" t="s">
-        <v>96</v>
-      </c>
-      <c r="D11" t="s">
-        <v>90</v>
-      </c>
-      <c r="E11" t="s">
-        <v>97</v>
-      </c>
-      <c r="F11" t="s">
-        <v>98</v>
-      </c>
-      <c r="G11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N11" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C12" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12">
+        <v>2014</v>
+      </c>
+      <c r="E12" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12" t="s">
         <v>100</v>
-      </c>
-      <c r="B12" t="s">
-        <v>101</v>
-      </c>
-      <c r="C12" t="s">
-        <v>102</v>
-      </c>
-      <c r="D12" t="s">
-        <v>103</v>
-      </c>
-      <c r="E12" t="s">
-        <v>104</v>
-      </c>
-      <c r="F12" t="s">
-        <v>105</v>
-      </c>
-      <c r="G12" t="s">
-        <v>23</v>
-      </c>
-      <c r="N12" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" t="s">
+        <v>102</v>
+      </c>
+      <c r="C13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13">
+        <v>2025</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13" t="s">
+        <v>106</v>
+      </c>
+      <c r="N13" t="s">
         <v>107</v>
-      </c>
-      <c r="B13" t="s">
-        <v>108</v>
-      </c>
-      <c r="C13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D13" t="s">
-        <v>110</v>
-      </c>
-      <c r="E13" t="s">
-        <v>111</v>
-      </c>
-      <c r="F13" t="s">
-        <v>112</v>
-      </c>
-      <c r="G13" t="s">
-        <v>113</v>
-      </c>
-      <c r="N13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>108</v>
+      </c>
+      <c r="B14" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" t="s">
+        <v>110</v>
+      </c>
+      <c r="D14">
+        <v>2024</v>
+      </c>
+      <c r="E14" t="s">
+        <v>111</v>
+      </c>
+      <c r="F14" t="s">
+        <v>112</v>
+      </c>
+      <c r="G14" t="s">
+        <v>113</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
         <v>115</v>
       </c>
-      <c r="B14" t="s">
+      <c r="J14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
         <v>116</v>
       </c>
-      <c r="C14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14" t="s">
-        <v>118</v>
-      </c>
-      <c r="F14" t="s">
-        <v>119</v>
-      </c>
-      <c r="G14" t="s">
-        <v>120</v>
-      </c>
-      <c r="H14" t="s">
-        <v>121</v>
-      </c>
-      <c r="I14" t="s">
-        <v>122</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="N14" t="s">
-        <v>123</v>
-      </c>
       <c r="Q14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
+        <v>117</v>
+      </c>
+      <c r="B15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+      <c r="D15">
+        <v>2025</v>
+      </c>
+      <c r="E15" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" t="s">
+        <v>121</v>
+      </c>
+      <c r="G15" t="s">
+        <v>106</v>
+      </c>
+      <c r="H15" t="s">
+        <v>122</v>
+      </c>
+      <c r="I15" t="s">
+        <v>123</v>
+      </c>
+      <c r="J15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
         <v>124</v>
       </c>
-      <c r="B15" t="s">
-        <v>125</v>
-      </c>
-      <c r="C15" t="s">
-        <v>126</v>
-      </c>
-      <c r="D15" t="s">
-        <v>110</v>
-      </c>
-      <c r="E15" t="s">
-        <v>127</v>
-      </c>
-      <c r="F15" t="s">
-        <v>128</v>
-      </c>
-      <c r="G15" t="s">
-        <v>113</v>
-      </c>
-      <c r="H15" t="s">
-        <v>129</v>
-      </c>
-      <c r="I15" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" t="s">
-        <v>32</v>
-      </c>
-      <c r="N15" t="s">
-        <v>131</v>
-      </c>
       <c r="Q15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
       <c r="G16" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>127</v>
       </c>
       <c r="J16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>135</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="C17" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
+        <v>130</v>
+      </c>
+      <c r="D17">
+        <v>2024</v>
       </c>
       <c r="E17" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="F17" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="G17" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="N17" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
+        <v>134</v>
+      </c>
+      <c r="B18" t="s">
+        <v>135</v>
+      </c>
+      <c r="C18" t="s">
+        <v>136</v>
+      </c>
+      <c r="D18">
+        <v>2024</v>
+      </c>
+      <c r="E18" t="s">
+        <v>137</v>
+      </c>
+      <c r="F18" t="s">
+        <v>138</v>
+      </c>
+      <c r="G18" t="s">
+        <v>106</v>
+      </c>
+      <c r="H18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I18" t="s">
+        <v>140</v>
+      </c>
+      <c r="J18" t="s">
         <v>141</v>
       </c>
-      <c r="B18" t="s">
+      <c r="N18" t="s">
         <v>142</v>
       </c>
-      <c r="C18" t="s">
-        <v>143</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E18" t="s">
-        <v>144</v>
-      </c>
-      <c r="F18" t="s">
-        <v>145</v>
-      </c>
-      <c r="G18" t="s">
-        <v>113</v>
-      </c>
-      <c r="H18" t="s">
-        <v>146</v>
-      </c>
-      <c r="I18" t="s">
-        <v>147</v>
-      </c>
-      <c r="J18" t="s">
-        <v>148</v>
-      </c>
-      <c r="N18" t="s">
-        <v>149</v>
-      </c>
       <c r="Q18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" t="s">
+        <v>144</v>
+      </c>
+      <c r="C19" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19">
+        <v>2024</v>
+      </c>
+      <c r="E19" t="s">
+        <v>146</v>
+      </c>
+      <c r="F19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" t="s">
+        <v>106</v>
+      </c>
+      <c r="H19" t="s">
+        <v>148</v>
+      </c>
+      <c r="I19" t="s">
+        <v>149</v>
+      </c>
+      <c r="J19" t="s">
+        <v>58</v>
+      </c>
+      <c r="N19" t="s">
         <v>150</v>
       </c>
-      <c r="B19" t="s">
-        <v>151</v>
-      </c>
-      <c r="C19" t="s">
-        <v>152</v>
-      </c>
-      <c r="D19" t="s">
-        <v>20</v>
-      </c>
-      <c r="E19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F19" t="s">
-        <v>154</v>
-      </c>
-      <c r="G19" t="s">
-        <v>113</v>
-      </c>
-      <c r="H19" t="s">
-        <v>155</v>
-      </c>
-      <c r="I19" t="s">
-        <v>156</v>
-      </c>
-      <c r="J19" t="s">
-        <v>61</v>
-      </c>
-      <c r="N19" t="s">
-        <v>157</v>
-      </c>
       <c r="Q19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" t="s">
+        <v>153</v>
+      </c>
+      <c r="D20">
+        <v>2023</v>
+      </c>
+      <c r="E20" t="s">
+        <v>154</v>
+      </c>
+      <c r="F20" t="s">
+        <v>155</v>
+      </c>
+      <c r="G20" t="s">
+        <v>106</v>
+      </c>
+      <c r="H20" t="s">
+        <v>156</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
         <v>158</v>
       </c>
-      <c r="B20" t="s">
+      <c r="N20" t="s">
         <v>159</v>
       </c>
-      <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" t="s">
-        <v>161</v>
-      </c>
-      <c r="F20" t="s">
-        <v>162</v>
-      </c>
-      <c r="G20" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" t="s">
-        <v>163</v>
-      </c>
-      <c r="I20" t="s">
-        <v>164</v>
-      </c>
-      <c r="J20" t="s">
-        <v>165</v>
-      </c>
-      <c r="N20" t="s">
-        <v>166</v>
-      </c>
       <c r="Q20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>160</v>
+      </c>
+      <c r="B21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C21" t="s">
+        <v>162</v>
+      </c>
+      <c r="D21">
+        <v>2022</v>
+      </c>
+      <c r="E21" t="s">
+        <v>163</v>
+      </c>
+      <c r="F21" t="s">
+        <v>164</v>
+      </c>
+      <c r="G21" t="s">
+        <v>106</v>
+      </c>
+      <c r="H21" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" t="s">
+        <v>166</v>
+      </c>
+      <c r="J21" t="s">
+        <v>81</v>
+      </c>
+      <c r="N21" t="s">
         <v>167</v>
       </c>
-      <c r="B21" t="s">
-        <v>168</v>
-      </c>
-      <c r="C21" t="s">
-        <v>169</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>170</v>
-      </c>
-      <c r="F21" t="s">
-        <v>171</v>
-      </c>
-      <c r="G21" t="s">
-        <v>113</v>
-      </c>
-      <c r="H21" t="s">
-        <v>172</v>
-      </c>
-      <c r="I21" t="s">
-        <v>173</v>
-      </c>
-      <c r="J21" t="s">
-        <v>85</v>
-      </c>
-      <c r="N21" t="s">
-        <v>174</v>
-      </c>
       <c r="Q21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B22" t="s">
+        <v>169</v>
+      </c>
+      <c r="C22" t="s">
+        <v>170</v>
+      </c>
+      <c r="D22">
+        <v>2022</v>
+      </c>
+      <c r="E22" t="s">
+        <v>171</v>
+      </c>
+      <c r="F22" t="s">
+        <v>172</v>
+      </c>
+      <c r="G22" t="s">
+        <v>106</v>
+      </c>
+      <c r="H22" t="s">
+        <v>173</v>
+      </c>
+      <c r="I22" t="s">
+        <v>174</v>
+      </c>
+      <c r="J22" t="s">
+        <v>141</v>
+      </c>
+      <c r="N22" t="s">
         <v>175</v>
       </c>
-      <c r="B22" t="s">
-        <v>176</v>
-      </c>
-      <c r="C22" t="s">
-        <v>177</v>
-      </c>
-      <c r="D22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" t="s">
-        <v>178</v>
-      </c>
-      <c r="F22" t="s">
-        <v>179</v>
-      </c>
-      <c r="G22" t="s">
-        <v>113</v>
-      </c>
-      <c r="H22" t="s">
-        <v>180</v>
-      </c>
-      <c r="I22" t="s">
-        <v>181</v>
-      </c>
-      <c r="J22" t="s">
-        <v>148</v>
-      </c>
-      <c r="N22" t="s">
-        <v>182</v>
-      </c>
       <c r="Q22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="B23" t="s">
-        <v>184</v>
+        <v>177</v>
       </c>
       <c r="C23" t="s">
-        <v>185</v>
-      </c>
-      <c r="D23" t="s">
-        <v>38</v>
+        <v>178</v>
+      </c>
+      <c r="D23">
+        <v>2023</v>
       </c>
       <c r="E23" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="N23" t="s">
-        <v>188</v>
+        <v>181</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="B24" t="s">
-        <v>190</v>
+        <v>183</v>
       </c>
       <c r="C24" t="s">
-        <v>191</v>
-      </c>
-      <c r="D24" t="s">
-        <v>38</v>
+        <v>184</v>
+      </c>
+      <c r="D24">
+        <v>2023</v>
       </c>
       <c r="E24" t="s">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="F24" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="G24" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N24" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="B25" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C25" t="s">
-        <v>198</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
+        <v>191</v>
+      </c>
+      <c r="D25">
+        <v>2020</v>
       </c>
       <c r="E25" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="F25" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="G25" t="s">
+        <v>187</v>
+      </c>
+      <c r="N25" t="s">
         <v>194</v>
-      </c>
-      <c r="N25" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" t="s">
+        <v>144</v>
+      </c>
+      <c r="C26" t="s">
+        <v>145</v>
+      </c>
+      <c r="D26">
+        <v>2024</v>
+      </c>
+      <c r="E26" t="s">
+        <v>146</v>
+      </c>
+      <c r="F26" t="s">
+        <v>147</v>
+      </c>
+      <c r="G26" t="s">
+        <v>195</v>
+      </c>
+      <c r="H26" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" t="s">
+        <v>196</v>
+      </c>
+      <c r="J26" t="s">
+        <v>58</v>
+      </c>
+      <c r="N26" t="s">
         <v>150</v>
       </c>
-      <c r="B26" t="s">
-        <v>151</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
-      </c>
-      <c r="D26" t="s">
-        <v>20</v>
-      </c>
-      <c r="E26" t="s">
-        <v>153</v>
-      </c>
-      <c r="F26" t="s">
-        <v>154</v>
-      </c>
-      <c r="G26" t="s">
-        <v>202</v>
-      </c>
-      <c r="H26" t="s">
-        <v>155</v>
-      </c>
-      <c r="I26" t="s">
-        <v>203</v>
-      </c>
-      <c r="J26" t="s">
-        <v>61</v>
-      </c>
-      <c r="N26" t="s">
-        <v>157</v>
-      </c>
       <c r="Q26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
+        <v>197</v>
+      </c>
+      <c r="B27" t="s">
+        <v>198</v>
+      </c>
+      <c r="C27" t="s">
+        <v>199</v>
+      </c>
+      <c r="D27">
+        <v>2023</v>
+      </c>
+      <c r="E27" t="s">
+        <v>200</v>
+      </c>
+      <c r="F27" t="s">
+        <v>201</v>
+      </c>
+      <c r="G27" t="s">
+        <v>195</v>
+      </c>
+      <c r="H27" t="s">
+        <v>202</v>
+      </c>
+      <c r="I27" t="s">
+        <v>203</v>
+      </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
+      <c r="N27" t="s">
         <v>204</v>
       </c>
-      <c r="B27" t="s">
-        <v>205</v>
-      </c>
-      <c r="C27" t="s">
-        <v>206</v>
-      </c>
-      <c r="D27" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" t="s">
-        <v>207</v>
-      </c>
-      <c r="F27" t="s">
-        <v>208</v>
-      </c>
-      <c r="G27" t="s">
-        <v>202</v>
-      </c>
-      <c r="H27" t="s">
-        <v>209</v>
-      </c>
-      <c r="I27" t="s">
-        <v>210</v>
-      </c>
-      <c r="J27" t="s">
-        <v>148</v>
-      </c>
-      <c r="N27" t="s">
-        <v>211</v>
-      </c>
       <c r="Q27" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
       <c r="B28" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="C28" t="s">
-        <v>214</v>
-      </c>
-      <c r="D28" t="s">
-        <v>215</v>
+        <v>207</v>
+      </c>
+      <c r="D28">
+        <v>2016</v>
       </c>
       <c r="E28" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="F28" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="N28" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="G29" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
+        <v>212</v>
+      </c>
+      <c r="B30" t="s">
+        <v>213</v>
+      </c>
+      <c r="C30" t="s">
+        <v>214</v>
+      </c>
+      <c r="D30">
+        <v>2023</v>
+      </c>
+      <c r="E30" t="s">
+        <v>215</v>
+      </c>
+      <c r="F30" t="s">
+        <v>216</v>
+      </c>
+      <c r="G30" t="s">
+        <v>187</v>
+      </c>
+      <c r="H30" t="s">
+        <v>217</v>
+      </c>
+      <c r="I30" t="s">
+        <v>218</v>
+      </c>
+      <c r="J30" t="s">
+        <v>219</v>
+      </c>
+      <c r="N30" t="s">
         <v>220</v>
       </c>
-      <c r="B30" t="s">
-        <v>221</v>
-      </c>
-      <c r="C30" t="s">
-        <v>222</v>
-      </c>
-      <c r="D30" t="s">
-        <v>38</v>
-      </c>
-      <c r="E30" t="s">
-        <v>223</v>
-      </c>
-      <c r="F30" t="s">
-        <v>224</v>
-      </c>
-      <c r="G30" t="s">
-        <v>194</v>
-      </c>
-      <c r="H30" t="s">
-        <v>225</v>
-      </c>
-      <c r="I30" t="s">
-        <v>226</v>
-      </c>
-      <c r="J30" t="s">
-        <v>227</v>
-      </c>
-      <c r="N30" t="s">
-        <v>228</v>
-      </c>
       <c r="Q30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
+        <v>101</v>
+      </c>
+      <c r="B31" t="s">
+        <v>102</v>
+      </c>
+      <c r="C31" t="s">
+        <v>103</v>
+      </c>
+      <c r="D31">
+        <v>2025</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+      <c r="F31" t="s">
+        <v>105</v>
+      </c>
+      <c r="G31" t="s">
+        <v>195</v>
+      </c>
+      <c r="N31" t="s">
         <v>107</v>
-      </c>
-      <c r="B31" t="s">
-        <v>108</v>
-      </c>
-      <c r="C31" t="s">
-        <v>109</v>
-      </c>
-      <c r="D31" t="s">
-        <v>110</v>
-      </c>
-      <c r="E31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F31" t="s">
-        <v>112</v>
-      </c>
-      <c r="G31" t="s">
-        <v>202</v>
-      </c>
-      <c r="N31" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="B32" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C32" t="s">
-        <v>231</v>
-      </c>
-      <c r="D32" t="s">
-        <v>20</v>
+        <v>223</v>
+      </c>
+      <c r="D32">
+        <v>2024</v>
       </c>
       <c r="E32" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F32" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="G32" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N32" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="B33" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="C33" t="s">
-        <v>237</v>
-      </c>
-      <c r="D33" t="s">
-        <v>20</v>
+        <v>229</v>
+      </c>
+      <c r="D33">
+        <v>2024</v>
       </c>
       <c r="E33" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="F33" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="G33" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="N33" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D34">
         <v>2018</v>
       </c>
       <c r="G34" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="H34" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I34" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="J34" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q34" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
+        <v>235</v>
+      </c>
+      <c r="B35" t="s">
+        <v>236</v>
+      </c>
+      <c r="C35" t="s">
+        <v>237</v>
+      </c>
+      <c r="D35">
+        <v>2017</v>
+      </c>
+      <c r="E35" t="s">
+        <v>238</v>
+      </c>
+      <c r="F35" t="s">
+        <v>239</v>
+      </c>
+      <c r="G35" t="s">
+        <v>240</v>
+      </c>
+      <c r="N35" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>242</v>
+      </c>
+      <c r="B36" t="s">
         <v>243</v>
       </c>
-      <c r="B35" t="s">
+      <c r="C36" t="s">
         <v>244</v>
       </c>
-      <c r="C35" t="s">
+      <c r="D36">
+        <v>2025</v>
+      </c>
+      <c r="E36" t="s">
         <v>245</v>
       </c>
-      <c r="D35" t="s">
+      <c r="F36" t="s">
         <v>246</v>
       </c>
-      <c r="E35" t="s">
+      <c r="G36" t="s">
         <v>247</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H36" t="s">
         <v>248</v>
       </c>
-      <c r="G35" t="s">
-        <v>249</v>
-      </c>
-      <c r="N35" t="s">
+      <c r="I36" t="s">
+        <v>249</v>
+      </c>
+      <c r="J36" t="s">
+        <v>249</v>
+      </c>
+      <c r="N36" t="s">
         <v>250</v>
       </c>
+      <c r="Q36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>251</v>
+      </c>
+      <c r="B37" t="s">
+        <v>252</v>
+      </c>
+      <c r="C37" t="s">
+        <v>253</v>
+      </c>
+      <c r="D37">
+        <v>2025</v>
+      </c>
+      <c r="E37" t="s">
+        <v>254</v>
+      </c>
+      <c r="F37" t="s">
+        <v>255</v>
+      </c>
+      <c r="G37" t="s">
+        <v>247</v>
+      </c>
+      <c r="H37" t="s">
+        <v>256</v>
+      </c>
+      <c r="I37" t="s">
+        <v>249</v>
+      </c>
+      <c r="J37" t="s">
+        <v>249</v>
+      </c>
+      <c r="M37" t="s">
+        <v>257</v>
+      </c>
+      <c r="N37" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>259</v>
+      </c>
+      <c r="B38" t="s">
+        <v>260</v>
+      </c>
+      <c r="C38" t="s">
+        <v>261</v>
+      </c>
+      <c r="D38">
+        <v>2025</v>
+      </c>
+      <c r="E38" t="s">
+        <v>262</v>
+      </c>
+      <c r="F38" t="s">
+        <v>263</v>
+      </c>
+      <c r="G38" t="s">
+        <v>247</v>
+      </c>
+      <c r="H38" t="s">
+        <v>264</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>249</v>
+      </c>
+      <c r="N38" t="s">
+        <v>265</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>266</v>
+      </c>
+      <c r="B39" t="s">
+        <v>267</v>
+      </c>
+      <c r="C39" t="s">
+        <v>268</v>
+      </c>
+      <c r="D39">
+        <v>2025</v>
+      </c>
+      <c r="E39" t="s">
+        <v>269</v>
+      </c>
+      <c r="F39" t="s">
+        <v>270</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
+        <v>271</v>
+      </c>
+      <c r="I39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" t="s">
+        <v>249</v>
+      </c>
+      <c r="N39" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>273</v>
+      </c>
+      <c r="B40" t="s">
+        <v>274</v>
+      </c>
+      <c r="C40" t="s">
+        <v>275</v>
+      </c>
+      <c r="D40">
+        <v>2025</v>
+      </c>
+      <c r="E40" t="s">
+        <v>276</v>
+      </c>
+      <c r="F40" t="s">
+        <v>277</v>
+      </c>
+      <c r="G40" t="s">
+        <v>247</v>
+      </c>
+      <c r="H40" t="s">
+        <v>278</v>
+      </c>
+      <c r="I40" t="s">
+        <v>249</v>
+      </c>
+      <c r="J40" t="s">
+        <v>249</v>
+      </c>
+      <c r="M40" t="s">
+        <v>279</v>
+      </c>
+      <c r="N40" t="s">
+        <v>280</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>281</v>
+      </c>
+      <c r="B41" t="s">
+        <v>282</v>
+      </c>
+      <c r="C41" t="s">
+        <v>283</v>
+      </c>
+      <c r="D41">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="s">
+        <v>284</v>
+      </c>
+      <c r="F41" t="s">
+        <v>285</v>
+      </c>
+      <c r="G41" t="s">
+        <v>247</v>
+      </c>
+      <c r="H41" t="s">
+        <v>286</v>
+      </c>
+      <c r="I41" t="s">
+        <v>249</v>
+      </c>
+      <c r="J41" t="s">
+        <v>249</v>
+      </c>
+      <c r="M41" t="s">
+        <v>287</v>
+      </c>
+      <c r="N41" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>289</v>
+      </c>
+      <c r="B42" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" t="s">
+        <v>291</v>
+      </c>
+      <c r="D42">
+        <v>2025</v>
+      </c>
+      <c r="E42" t="s">
+        <v>276</v>
+      </c>
+      <c r="F42" t="s">
+        <v>292</v>
+      </c>
+      <c r="G42" t="s">
+        <v>247</v>
+      </c>
+      <c r="H42" t="s">
+        <v>293</v>
+      </c>
+      <c r="I42" t="s">
+        <v>249</v>
+      </c>
+      <c r="J42" t="s">
+        <v>249</v>
+      </c>
+      <c r="N42" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>295</v>
+      </c>
+      <c r="B43" t="s">
+        <v>296</v>
+      </c>
+      <c r="C43" t="s">
+        <v>297</v>
+      </c>
+      <c r="D43">
+        <v>2025</v>
+      </c>
+      <c r="E43" t="s">
+        <v>298</v>
+      </c>
+      <c r="F43" t="s">
+        <v>299</v>
+      </c>
+      <c r="G43" t="s">
+        <v>247</v>
+      </c>
+      <c r="M43" t="s">
+        <v>300</v>
+      </c>
+      <c r="N43" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>302</v>
+      </c>
+      <c r="B44" t="s">
+        <v>303</v>
+      </c>
+      <c r="C44" t="s">
+        <v>304</v>
+      </c>
+      <c r="D44">
+        <v>2025</v>
+      </c>
+      <c r="E44" t="s">
+        <v>305</v>
+      </c>
+      <c r="F44" t="s">
+        <v>306</v>
+      </c>
+      <c r="G44" t="s">
+        <v>247</v>
+      </c>
+      <c r="H44" t="s">
+        <v>307</v>
+      </c>
+      <c r="I44" t="s">
+        <v>249</v>
+      </c>
+      <c r="J44" t="s">
+        <v>249</v>
+      </c>
+      <c r="M44" t="s">
+        <v>308</v>
+      </c>
+      <c r="N44" t="s">
+        <v>309</v>
+      </c>
+      <c r="Q44" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>310</v>
+      </c>
+      <c r="B45" t="s">
+        <v>311</v>
+      </c>
+      <c r="C45" t="s">
+        <v>312</v>
+      </c>
+      <c r="D45">
+        <v>2025</v>
+      </c>
+      <c r="E45" t="s">
+        <v>313</v>
+      </c>
+      <c r="F45" t="s">
+        <v>314</v>
+      </c>
+      <c r="G45" t="s">
+        <v>247</v>
+      </c>
+      <c r="H45" t="s">
+        <v>315</v>
+      </c>
+      <c r="I45" t="s">
+        <v>249</v>
+      </c>
+      <c r="J45" t="s">
+        <v>249</v>
+      </c>
+      <c r="N45" t="s">
+        <v>316</v>
+      </c>
+      <c r="Q45" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>317</v>
+      </c>
+      <c r="B46" t="s">
+        <v>318</v>
+      </c>
+      <c r="C46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D46">
+        <v>2024</v>
+      </c>
+      <c r="E46" t="s">
+        <v>269</v>
+      </c>
+      <c r="F46" t="s">
+        <v>320</v>
+      </c>
+      <c r="G46" t="s">
+        <v>247</v>
+      </c>
+      <c r="H46" t="s">
+        <v>321</v>
+      </c>
+      <c r="I46" t="s">
+        <v>249</v>
+      </c>
+      <c r="J46" t="s">
+        <v>249</v>
+      </c>
+      <c r="N46" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q46" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>323</v>
+      </c>
+      <c r="B47" t="s">
+        <v>324</v>
+      </c>
+      <c r="C47" t="s">
+        <v>325</v>
+      </c>
+      <c r="D47">
+        <v>2024</v>
+      </c>
+      <c r="E47" t="s">
+        <v>326</v>
+      </c>
+      <c r="F47" t="s">
+        <v>327</v>
+      </c>
+      <c r="G47" t="s">
+        <v>247</v>
+      </c>
+      <c r="H47" t="s">
+        <v>328</v>
+      </c>
+      <c r="I47" t="s">
+        <v>249</v>
+      </c>
+      <c r="J47" t="s">
+        <v>249</v>
+      </c>
+      <c r="M47" t="s">
+        <v>329</v>
+      </c>
+      <c r="N47" t="s">
+        <v>330</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>331</v>
+      </c>
+      <c r="B48" t="s">
+        <v>332</v>
+      </c>
+      <c r="C48" t="s">
+        <v>333</v>
+      </c>
+      <c r="D48">
+        <v>2024</v>
+      </c>
+      <c r="E48" t="s">
+        <v>334</v>
+      </c>
+      <c r="F48" t="s">
+        <v>335</v>
+      </c>
+      <c r="G48" t="s">
+        <v>247</v>
+      </c>
+      <c r="H48" t="s">
+        <v>336</v>
+      </c>
+      <c r="I48" t="s">
+        <v>249</v>
+      </c>
+      <c r="J48" t="s">
+        <v>249</v>
+      </c>
+      <c r="M48" t="s">
+        <v>337</v>
+      </c>
+      <c r="N48" t="s">
+        <v>338</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>339</v>
+      </c>
+      <c r="B49" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" t="s">
+        <v>341</v>
+      </c>
+      <c r="D49">
+        <v>2024</v>
+      </c>
+      <c r="E49" t="s">
+        <v>342</v>
+      </c>
+      <c r="F49" t="s">
+        <v>343</v>
+      </c>
+      <c r="G49" t="s">
+        <v>247</v>
+      </c>
+      <c r="H49" t="s">
+        <v>344</v>
+      </c>
+      <c r="I49" t="s">
+        <v>249</v>
+      </c>
+      <c r="J49" t="s">
+        <v>249</v>
+      </c>
+      <c r="N49" t="s">
+        <v>345</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>346</v>
+      </c>
+      <c r="B50" t="s">
+        <v>347</v>
+      </c>
+      <c r="C50" t="s">
+        <v>348</v>
+      </c>
+      <c r="D50">
+        <v>2024</v>
+      </c>
+      <c r="E50" t="s">
+        <v>245</v>
+      </c>
+      <c r="F50" t="s">
+        <v>349</v>
+      </c>
+      <c r="G50" t="s">
+        <v>247</v>
+      </c>
+      <c r="N50" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>351</v>
+      </c>
+      <c r="B51" t="s">
+        <v>352</v>
+      </c>
+      <c r="C51" t="s">
+        <v>353</v>
+      </c>
+      <c r="D51">
+        <v>2024</v>
+      </c>
+      <c r="E51" t="s">
+        <v>354</v>
+      </c>
+      <c r="F51" t="s">
+        <v>355</v>
+      </c>
+      <c r="G51" t="s">
+        <v>247</v>
+      </c>
+      <c r="H51" t="s">
+        <v>356</v>
+      </c>
+      <c r="I51" t="s">
+        <v>249</v>
+      </c>
+      <c r="J51" t="s">
+        <v>249</v>
+      </c>
+      <c r="N51" t="s">
+        <v>357</v>
+      </c>
+      <c r="Q51" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>358</v>
+      </c>
+      <c r="B52" t="s">
+        <v>359</v>
+      </c>
+      <c r="C52" t="s">
+        <v>360</v>
+      </c>
+      <c r="D52">
+        <v>2024</v>
+      </c>
+      <c r="E52" t="s">
+        <v>361</v>
+      </c>
+      <c r="F52" t="s">
+        <v>362</v>
+      </c>
+      <c r="G52" t="s">
+        <v>247</v>
+      </c>
+      <c r="H52" t="s">
+        <v>363</v>
+      </c>
+      <c r="I52" t="s">
+        <v>249</v>
+      </c>
+      <c r="J52" t="s">
+        <v>249</v>
+      </c>
+      <c r="N52" t="s">
+        <v>364</v>
+      </c>
+      <c r="Q52" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>365</v>
+      </c>
+      <c r="B53" t="s">
+        <v>366</v>
+      </c>
+      <c r="C53" t="s">
+        <v>367</v>
+      </c>
+      <c r="D53">
+        <v>2025</v>
+      </c>
+      <c r="E53" t="s">
+        <v>368</v>
+      </c>
+      <c r="F53" t="s">
+        <v>369</v>
+      </c>
+      <c r="G53" t="s">
+        <v>247</v>
+      </c>
+      <c r="H53" t="s">
+        <v>370</v>
+      </c>
+      <c r="I53" t="s">
+        <v>249</v>
+      </c>
+      <c r="J53" t="s">
+        <v>249</v>
+      </c>
+      <c r="N53" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>372</v>
+      </c>
+      <c r="B54" t="s">
+        <v>373</v>
+      </c>
+      <c r="C54" t="s">
+        <v>374</v>
+      </c>
+      <c r="D54">
+        <v>2025</v>
+      </c>
+      <c r="E54" t="s">
+        <v>375</v>
+      </c>
+      <c r="F54" t="s">
+        <v>376</v>
+      </c>
+      <c r="G54" t="s">
+        <v>247</v>
+      </c>
+      <c r="N54" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>378</v>
+      </c>
+      <c r="B55" t="s">
+        <v>379</v>
+      </c>
+      <c r="C55" t="s">
+        <v>380</v>
+      </c>
+      <c r="D55">
+        <v>2025</v>
+      </c>
+      <c r="E55" t="s">
+        <v>381</v>
+      </c>
+      <c r="F55" t="s">
+        <v>382</v>
+      </c>
+      <c r="G55" t="s">
+        <v>247</v>
+      </c>
+      <c r="H55" t="s">
+        <v>383</v>
+      </c>
+      <c r="I55" t="s">
+        <v>249</v>
+      </c>
+      <c r="J55" t="s">
+        <v>249</v>
+      </c>
+      <c r="M55" t="s">
+        <v>384</v>
+      </c>
+      <c r="N55" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>386</v>
+      </c>
+      <c r="B56" t="s">
+        <v>387</v>
+      </c>
+      <c r="C56" t="s">
+        <v>388</v>
+      </c>
+      <c r="D56">
+        <v>2024</v>
+      </c>
+      <c r="E56" t="s">
+        <v>389</v>
+      </c>
+      <c r="F56" t="s">
+        <v>390</v>
+      </c>
+      <c r="G56" t="s">
+        <v>247</v>
+      </c>
+      <c r="H56" t="s">
+        <v>391</v>
+      </c>
+      <c r="I56" t="s">
+        <v>249</v>
+      </c>
+      <c r="J56" t="s">
+        <v>249</v>
+      </c>
+      <c r="N56" t="s">
+        <v>392</v>
+      </c>
+      <c r="Q56" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>393</v>
+      </c>
+      <c r="B57" t="s">
+        <v>394</v>
+      </c>
+      <c r="C57" t="s">
+        <v>395</v>
+      </c>
+      <c r="D57">
+        <v>2024</v>
+      </c>
+      <c r="E57" t="s">
+        <v>396</v>
+      </c>
+      <c r="F57" t="s">
+        <v>397</v>
+      </c>
+      <c r="G57" t="s">
+        <v>247</v>
+      </c>
+      <c r="M57" t="s">
+        <v>398</v>
+      </c>
+      <c r="N57" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>400</v>
+      </c>
+      <c r="B58" t="s">
+        <v>401</v>
+      </c>
+      <c r="C58" t="s">
+        <v>402</v>
+      </c>
+      <c r="D58">
+        <v>2024</v>
+      </c>
+      <c r="E58" t="s">
+        <v>403</v>
+      </c>
+      <c r="F58" t="s">
+        <v>404</v>
+      </c>
+      <c r="G58" t="s">
+        <v>247</v>
+      </c>
+      <c r="M58" t="s">
+        <v>405</v>
+      </c>
+      <c r="N58" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>407</v>
+      </c>
+      <c r="B59" t="s">
+        <v>408</v>
+      </c>
+      <c r="C59" t="s">
+        <v>291</v>
+      </c>
+      <c r="D59">
+        <v>2024</v>
+      </c>
+      <c r="E59" t="s">
+        <v>276</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>247</v>
+      </c>
+      <c r="H59" t="s">
+        <v>410</v>
+      </c>
+      <c r="I59" t="s">
+        <v>249</v>
+      </c>
+      <c r="J59" t="s">
+        <v>249</v>
+      </c>
+      <c r="N59" t="s">
+        <v>411</v>
+      </c>
+      <c r="Q59" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>412</v>
+      </c>
+      <c r="B60" t="s">
+        <v>413</v>
+      </c>
+      <c r="C60" t="s">
+        <v>414</v>
+      </c>
+      <c r="D60">
+        <v>2024</v>
+      </c>
+      <c r="E60" t="s">
+        <v>415</v>
+      </c>
+      <c r="F60" t="s">
+        <v>416</v>
+      </c>
+      <c r="G60" t="s">
+        <v>247</v>
+      </c>
+      <c r="H60" t="s">
+        <v>417</v>
+      </c>
+      <c r="I60" t="s">
+        <v>249</v>
+      </c>
+      <c r="J60" t="s">
+        <v>249</v>
+      </c>
+      <c r="N60" t="s">
+        <v>418</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>419</v>
+      </c>
+      <c r="B61" t="s">
+        <v>420</v>
+      </c>
+      <c r="C61" t="s">
+        <v>421</v>
+      </c>
+      <c r="D61">
+        <v>2024</v>
+      </c>
+      <c r="E61" t="s">
+        <v>422</v>
+      </c>
+      <c r="F61" t="s">
+        <v>423</v>
+      </c>
+      <c r="G61" t="s">
+        <v>247</v>
+      </c>
+      <c r="H61" t="s">
+        <v>424</v>
+      </c>
+      <c r="I61" t="s">
+        <v>249</v>
+      </c>
+      <c r="J61" t="s">
+        <v>249</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>426</v>
+      </c>
+      <c r="B62" t="s">
+        <v>427</v>
+      </c>
+      <c r="C62" t="s">
+        <v>428</v>
+      </c>
+      <c r="D62">
+        <v>2024</v>
+      </c>
+      <c r="E62" t="s">
+        <v>269</v>
+      </c>
+      <c r="F62" t="s">
+        <v>429</v>
+      </c>
+      <c r="G62" t="s">
+        <v>247</v>
+      </c>
+      <c r="H62" t="s">
+        <v>430</v>
+      </c>
+      <c r="I62" t="s">
+        <v>249</v>
+      </c>
+      <c r="J62" t="s">
+        <v>249</v>
+      </c>
+      <c r="N62" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>432</v>
+      </c>
+      <c r="B63" t="s">
+        <v>433</v>
+      </c>
+      <c r="C63" t="s">
+        <v>434</v>
+      </c>
+      <c r="D63">
+        <v>2024</v>
+      </c>
+      <c r="E63" t="s">
+        <v>435</v>
+      </c>
+      <c r="F63" t="s">
+        <v>436</v>
+      </c>
+      <c r="G63" t="s">
+        <v>247</v>
+      </c>
+      <c r="H63" t="s">
+        <v>437</v>
+      </c>
+      <c r="I63" t="s">
+        <v>249</v>
+      </c>
+      <c r="J63" t="s">
+        <v>249</v>
+      </c>
+      <c r="M63" t="s">
+        <v>438</v>
+      </c>
+      <c r="N63" t="s">
+        <v>439</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>440</v>
+      </c>
+      <c r="B64" t="s">
+        <v>441</v>
+      </c>
+      <c r="C64" t="s">
+        <v>442</v>
+      </c>
+      <c r="D64">
+        <v>2024</v>
+      </c>
+      <c r="E64" t="s">
+        <v>269</v>
+      </c>
+      <c r="F64" t="s">
+        <v>443</v>
+      </c>
+      <c r="G64" t="s">
+        <v>247</v>
+      </c>
+      <c r="H64" t="s">
+        <v>444</v>
+      </c>
+      <c r="I64" t="s">
+        <v>249</v>
+      </c>
+      <c r="J64" t="s">
+        <v>249</v>
+      </c>
+      <c r="N64" t="s">
+        <v>445</v>
+      </c>
+      <c r="Q64" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>446</v>
+      </c>
+      <c r="B65" t="s">
+        <v>447</v>
+      </c>
+      <c r="C65" t="s">
+        <v>448</v>
+      </c>
+      <c r="D65">
+        <v>2024</v>
+      </c>
+      <c r="E65" t="s">
+        <v>449</v>
+      </c>
+      <c r="F65" t="s">
+        <v>450</v>
+      </c>
+      <c r="G65" t="s">
+        <v>247</v>
+      </c>
+      <c r="N65" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>452</v>
+      </c>
+      <c r="B66" t="s">
+        <v>453</v>
+      </c>
+      <c r="C66" t="s">
+        <v>454</v>
+      </c>
+      <c r="D66">
+        <v>2023</v>
+      </c>
+      <c r="E66" t="s">
+        <v>435</v>
+      </c>
+      <c r="F66" t="s">
+        <v>455</v>
+      </c>
+      <c r="G66" t="s">
+        <v>247</v>
+      </c>
+      <c r="H66" t="s">
+        <v>456</v>
+      </c>
+      <c r="I66" t="s">
+        <v>249</v>
+      </c>
+      <c r="J66" t="s">
+        <v>249</v>
+      </c>
+      <c r="M66" t="s">
+        <v>457</v>
+      </c>
+      <c r="N66" t="s">
+        <v>458</v>
+      </c>
+      <c r="Q66" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>459</v>
+      </c>
+      <c r="B67" t="s">
+        <v>460</v>
+      </c>
+      <c r="C67" t="s">
+        <v>461</v>
+      </c>
+      <c r="D67">
+        <v>2022</v>
+      </c>
+      <c r="E67" t="s">
+        <v>462</v>
+      </c>
+      <c r="F67" t="s">
+        <v>463</v>
+      </c>
+      <c r="G67" t="s">
+        <v>247</v>
+      </c>
+      <c r="N67" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>465</v>
+      </c>
+      <c r="B68" t="s">
+        <v>466</v>
+      </c>
+      <c r="C68" t="s">
+        <v>467</v>
+      </c>
+      <c r="D68">
+        <v>2022</v>
+      </c>
+      <c r="E68" t="s">
+        <v>468</v>
+      </c>
+      <c r="F68" t="s">
+        <v>469</v>
+      </c>
+      <c r="G68" t="s">
+        <v>247</v>
+      </c>
+      <c r="H68" t="s">
+        <v>470</v>
+      </c>
+      <c r="I68" t="s">
+        <v>249</v>
+      </c>
+      <c r="J68" t="s">
+        <v>249</v>
+      </c>
+      <c r="N68" t="s">
+        <v>471</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>472</v>
+      </c>
+      <c r="B69" t="s">
+        <v>473</v>
+      </c>
+      <c r="C69" t="s">
+        <v>474</v>
+      </c>
+      <c r="D69">
+        <v>2023</v>
+      </c>
+      <c r="E69" t="s">
+        <v>473</v>
+      </c>
+      <c r="F69" t="s">
+        <v>475</v>
+      </c>
+      <c r="G69" t="s">
+        <v>247</v>
+      </c>
+      <c r="N69" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>477</v>
+      </c>
+      <c r="B70" t="s">
+        <v>478</v>
+      </c>
+      <c r="C70" t="s">
+        <v>479</v>
+      </c>
+      <c r="D70">
+        <v>2023</v>
+      </c>
+      <c r="E70" t="s">
+        <v>480</v>
+      </c>
+      <c r="F70" t="s">
+        <v>481</v>
+      </c>
+      <c r="G70" t="s">
+        <v>247</v>
+      </c>
+      <c r="N70" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>483</v>
+      </c>
+      <c r="B71" t="s">
+        <v>484</v>
+      </c>
+      <c r="C71" t="s">
+        <v>485</v>
+      </c>
+      <c r="D71">
+        <v>2023</v>
+      </c>
+      <c r="E71" t="s">
+        <v>486</v>
+      </c>
+      <c r="F71" t="s">
+        <v>487</v>
+      </c>
+      <c r="G71" t="s">
+        <v>247</v>
+      </c>
+      <c r="M71" t="s">
+        <v>488</v>
+      </c>
+      <c r="N71" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>490</v>
+      </c>
+      <c r="B72" t="s">
+        <v>491</v>
+      </c>
+      <c r="C72" t="s">
+        <v>492</v>
+      </c>
+      <c r="D72">
+        <v>2023</v>
+      </c>
+      <c r="E72" t="s">
+        <v>69</v>
+      </c>
+      <c r="F72" t="s">
+        <v>493</v>
+      </c>
+      <c r="G72" t="s">
+        <v>247</v>
+      </c>
+      <c r="H72" t="s">
+        <v>494</v>
+      </c>
+      <c r="I72" t="s">
+        <v>249</v>
+      </c>
+      <c r="J72" t="s">
+        <v>249</v>
+      </c>
+      <c r="M72" t="s">
+        <v>495</v>
+      </c>
+      <c r="N72" t="s">
+        <v>496</v>
+      </c>
+      <c r="Q72" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>497</v>
+      </c>
+      <c r="B73" t="s">
+        <v>498</v>
+      </c>
+      <c r="C73" t="s">
+        <v>499</v>
+      </c>
+      <c r="D73">
+        <v>2023</v>
+      </c>
+      <c r="E73" t="s">
+        <v>500</v>
+      </c>
+      <c r="F73" t="s">
+        <v>501</v>
+      </c>
+      <c r="G73" t="s">
+        <v>247</v>
+      </c>
+      <c r="H73" t="s">
+        <v>502</v>
+      </c>
+      <c r="I73" t="s">
+        <v>249</v>
+      </c>
+      <c r="J73" t="s">
+        <v>249</v>
+      </c>
+      <c r="N73" t="s">
+        <v>503</v>
+      </c>
+      <c r="Q73" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>504</v>
+      </c>
+      <c r="B74" t="s">
+        <v>505</v>
+      </c>
+      <c r="C74" t="s">
+        <v>506</v>
+      </c>
+      <c r="D74">
+        <v>2023</v>
+      </c>
+      <c r="E74" t="s">
+        <v>500</v>
+      </c>
+      <c r="F74" t="s">
+        <v>507</v>
+      </c>
+      <c r="G74" t="s">
+        <v>247</v>
+      </c>
+      <c r="H74" t="s">
+        <v>508</v>
+      </c>
+      <c r="I74" t="s">
+        <v>249</v>
+      </c>
+      <c r="J74" t="s">
+        <v>249</v>
+      </c>
+      <c r="N74" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>510</v>
+      </c>
+      <c r="B75" t="s">
+        <v>511</v>
+      </c>
+      <c r="C75" t="s">
+        <v>512</v>
+      </c>
+      <c r="D75">
+        <v>2023</v>
+      </c>
+      <c r="E75" t="s">
+        <v>69</v>
+      </c>
+      <c r="F75" t="s">
+        <v>513</v>
+      </c>
+      <c r="G75" t="s">
+        <v>247</v>
+      </c>
+      <c r="H75" t="s">
+        <v>514</v>
+      </c>
+      <c r="I75" t="s">
+        <v>249</v>
+      </c>
+      <c r="J75" t="s">
+        <v>249</v>
+      </c>
+      <c r="M75" t="s">
+        <v>515</v>
+      </c>
+      <c r="N75" t="s">
+        <v>516</v>
+      </c>
+      <c r="Q75" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>517</v>
+      </c>
+      <c r="B76" t="s">
+        <v>518</v>
+      </c>
+      <c r="C76" t="s">
+        <v>519</v>
+      </c>
+      <c r="D76">
+        <v>2020</v>
+      </c>
+      <c r="E76" t="s">
+        <v>520</v>
+      </c>
+      <c r="F76" t="s">
+        <v>521</v>
+      </c>
+      <c r="G76" t="s">
+        <v>247</v>
+      </c>
+      <c r="H76" t="s">
+        <v>522</v>
+      </c>
+      <c r="I76" t="s">
+        <v>249</v>
+      </c>
+      <c r="J76" t="s">
+        <v>249</v>
+      </c>
+      <c r="N76" t="s">
+        <v>523</v>
+      </c>
+      <c r="Q76" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>524</v>
+      </c>
+      <c r="B77" t="s">
+        <v>525</v>
+      </c>
+      <c r="C77" t="s">
+        <v>526</v>
+      </c>
+      <c r="D77">
+        <v>2021</v>
+      </c>
+      <c r="E77" t="s">
+        <v>276</v>
+      </c>
+      <c r="F77" t="s">
+        <v>527</v>
+      </c>
+      <c r="G77" t="s">
+        <v>247</v>
+      </c>
+      <c r="M77" t="s">
+        <v>528</v>
+      </c>
+      <c r="N77" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>530</v>
+      </c>
+      <c r="B78" t="s">
+        <v>531</v>
+      </c>
+      <c r="C78" t="s">
+        <v>532</v>
+      </c>
+      <c r="D78">
+        <v>2021</v>
+      </c>
+      <c r="E78" t="s">
+        <v>533</v>
+      </c>
+      <c r="F78" t="s">
+        <v>534</v>
+      </c>
+      <c r="G78" t="s">
+        <v>247</v>
+      </c>
+      <c r="H78" t="s">
+        <v>535</v>
+      </c>
+      <c r="I78" t="s">
+        <v>249</v>
+      </c>
+      <c r="J78" t="s">
+        <v>249</v>
+      </c>
+      <c r="M78" t="s">
+        <v>536</v>
+      </c>
+      <c r="N78" t="s">
+        <v>537</v>
+      </c>
+      <c r="Q78" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>538</v>
+      </c>
+      <c r="B79" t="s">
+        <v>539</v>
+      </c>
+      <c r="C79" t="s">
+        <v>540</v>
+      </c>
+      <c r="D79">
+        <v>2021</v>
+      </c>
+      <c r="E79" t="s">
+        <v>245</v>
+      </c>
+      <c r="F79" t="s">
+        <v>541</v>
+      </c>
+      <c r="G79" t="s">
+        <v>247</v>
+      </c>
+      <c r="N79" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>543</v>
+      </c>
+      <c r="B80" t="s">
+        <v>544</v>
+      </c>
+      <c r="C80" t="s">
+        <v>545</v>
+      </c>
+      <c r="D80">
+        <v>2022</v>
+      </c>
+      <c r="E80" t="s">
+        <v>546</v>
+      </c>
+      <c r="F80" t="s">
+        <v>547</v>
+      </c>
+      <c r="G80" t="s">
+        <v>247</v>
+      </c>
+      <c r="N80" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>549</v>
+      </c>
+      <c r="B81" t="s">
+        <v>550</v>
+      </c>
+      <c r="C81" t="s">
+        <v>551</v>
+      </c>
+      <c r="D81">
+        <v>2022</v>
+      </c>
+      <c r="E81" t="s">
+        <v>552</v>
+      </c>
+      <c r="F81" t="s">
+        <v>553</v>
+      </c>
+      <c r="G81" t="s">
+        <v>247</v>
+      </c>
+      <c r="N81" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>555</v>
+      </c>
+      <c r="B82" t="s">
+        <v>556</v>
+      </c>
+      <c r="C82" t="s">
+        <v>557</v>
+      </c>
+      <c r="D82">
+        <v>2022</v>
+      </c>
+      <c r="E82" t="s">
+        <v>558</v>
+      </c>
+      <c r="F82" t="s">
+        <v>559</v>
+      </c>
+      <c r="G82" t="s">
+        <v>247</v>
+      </c>
+      <c r="N82" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>561</v>
+      </c>
+      <c r="B83" t="s">
+        <v>562</v>
+      </c>
+      <c r="C83" t="s">
+        <v>563</v>
+      </c>
+      <c r="D83">
+        <v>2022</v>
+      </c>
+      <c r="E83" t="s">
+        <v>564</v>
+      </c>
+      <c r="F83" t="s">
+        <v>565</v>
+      </c>
+      <c r="G83" t="s">
+        <v>247</v>
+      </c>
+      <c r="N83" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>567</v>
+      </c>
+      <c r="B84" t="s">
+        <v>568</v>
+      </c>
+      <c r="C84" t="s">
+        <v>569</v>
+      </c>
+      <c r="D84">
+        <v>2022</v>
+      </c>
+      <c r="E84" t="s">
+        <v>570</v>
+      </c>
+      <c r="F84" t="s">
+        <v>571</v>
+      </c>
+      <c r="G84" t="s">
+        <v>247</v>
+      </c>
+      <c r="H84" t="s">
+        <v>572</v>
+      </c>
+      <c r="I84" t="s">
+        <v>249</v>
+      </c>
+      <c r="J84" t="s">
+        <v>249</v>
+      </c>
+      <c r="M84" t="s">
+        <v>573</v>
+      </c>
+      <c r="N84" t="s">
+        <v>574</v>
+      </c>
+      <c r="Q84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>575</v>
+      </c>
+      <c r="B85" t="s">
+        <v>576</v>
+      </c>
+      <c r="C85" t="s">
+        <v>577</v>
+      </c>
+      <c r="D85">
+        <v>2022</v>
+      </c>
+      <c r="E85" t="s">
+        <v>578</v>
+      </c>
+      <c r="F85" t="s">
+        <v>579</v>
+      </c>
+      <c r="G85" t="s">
+        <v>247</v>
+      </c>
+      <c r="H85" t="s">
+        <v>580</v>
+      </c>
+      <c r="I85" t="s">
+        <v>249</v>
+      </c>
+      <c r="J85" t="s">
+        <v>249</v>
+      </c>
+      <c r="M85" t="s">
+        <v>581</v>
+      </c>
+      <c r="N85" t="s">
+        <v>582</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>33</v>
+      </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:Q35" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -536,10 +536,8 @@
           <t>Kendig, Catherine</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D2" t="n">
+        <v>2024</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -587,10 +585,8 @@
           <t>Sun, Hongshuo; Dai, Hongtao</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D3" t="n">
+        <v>2024</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -654,10 +650,8 @@
           <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D4" t="n">
+        <v>2023</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -722,10 +716,8 @@
           <t>Murali, E.; Anouncia, S. Margret</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D5" t="n">
+        <v>2023</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -790,10 +782,8 @@
           <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D6" t="n">
+        <v>2022</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -858,10 +848,8 @@
           <t>Chandramouli, Aparna; Deepak, Gerard</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D7" t="n">
+        <v>2022</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -909,10 +897,8 @@
           <t>Krzywoszynska, Anna; Marchesi, Greta</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D8" t="n">
+        <v>2020</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1043,10 +1029,8 @@
           <t>Shu, Yanfeng; Liu, Qing</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="D10" t="n">
+        <v>2015</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1094,10 +1078,8 @@
           <t>Deb, C.K.; Marwaha, S.; Malhotra, P.K.; Wahi, S.D.; Pandey, R.N.</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>2015</t>
-        </is>
+      <c r="D11" t="n">
+        <v>2015</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1145,10 +1127,8 @@
           <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2014</t>
-        </is>
+      <c r="D12" t="n">
+        <v>2014</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1196,10 +1176,8 @@
           <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D13" t="n">
+        <v>2025</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1247,10 +1225,8 @@
           <t>Sanjay, D.; Devarsh, V.; Murali, E.; Antony, J Cruz; Vignesh, R.</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D14" t="n">
+        <v>2024</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1315,10 +1291,8 @@
           <t>Zhou, Kai; Yu, Junyuan; Shi, Haotong; Hou, Rui; Wu, Huarui; Hou, Jialin</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D15" t="n">
+        <v>2025</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1426,10 +1400,8 @@
           <t>Lin, Shuyang</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D17" t="n">
+        <v>2024</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1477,10 +1449,8 @@
           <t>Alharbi, Amani Falah; Aslam, Muhammad Ahtisham; Asiry, Khalid Ali; Aljohani, Naif Radi; Glikman, Yury</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D18" t="n">
+        <v>2024</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1545,10 +1515,8 @@
           <t>Bhattacharya, Saurabh; Pandey, Manju</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D19" t="n">
+        <v>2024</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1612,10 +1580,8 @@
           <t>Gupta, Shruti; Singh, Dharmendra; Kumar, Sandeep</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D20" t="n">
+        <v>2023</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1680,10 +1646,8 @@
           <t>Agárdi, Anita; Kovács, László</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D21" t="n">
+        <v>2022</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1748,10 +1712,8 @@
           <t>Murali, E.; Anouncia, S.Margret</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D22" t="n">
+        <v>2022</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1816,10 +1778,8 @@
           <t>Valecha, Aastha; Deepak, Gerard; Surya, Deep ak</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D23" t="n">
+        <v>2023</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1867,10 +1827,8 @@
           <t>Marwaha, Sudeep; Deb, Chandan Kumar; Haque, Md. Ashraful; Naha, Sanchita; Maji, Arpan Kumar</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D24" t="n">
+        <v>2023</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1918,10 +1876,8 @@
           <t>Onkov, Kolyo</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
+      <c r="D25" t="n">
+        <v>2020</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1969,10 +1925,8 @@
           <t>Bhattacharya, Saurabh; Pandey, Manju</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D26" t="n">
+        <v>2024</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -2037,10 +1991,8 @@
           <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli; Ramachandra, Divakar Harohally</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D27" t="n">
+        <v>2023</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2105,10 +2057,8 @@
           <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>2016</t>
-        </is>
+      <c r="D28" t="n">
+        <v>2016</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2183,10 +2133,8 @@
           <t>Stoyanova-Doycheva, Asya; Madanska, Sebiha; Bilyanov, Sheban</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D30" t="n">
+        <v>2023</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2251,10 +2199,8 @@
           <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D31" t="n">
+        <v>2025</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2302,10 +2248,8 @@
           <t>Kumar, Rajeev; Abdul Hamid, Abu Bakar; Binti Ya'akub, Noor Inayah; Gaur, Madhu Sharma; Kumar, Sanjeev</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D32" t="n">
+        <v>2024</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2353,10 +2297,8 @@
           <t>Sharma, Iti; Kumar, Nimish; Verma, Himanshu</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D33" t="n">
+        <v>2024</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2450,10 +2392,8 @@
           <t>Chen, Zhongdu; Ti, Jin-song; Chen, Fu</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>2017</t>
-        </is>
+      <c r="D35" t="n">
+        <v>2017</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2501,10 +2441,8 @@
           <t>Ng, Huiying; Jing, Toh Han; Lee, Wuan See Vivian; George, Edgar Raeben; Philip, Varughese</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D36" t="n">
+        <v>2025</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2565,45 +2503,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr"/>
@@ -2636,10 +2536,8 @@
           <t>Holmstedt, Janna; Lindblad, Jenny; Fredengren, Christina; Åsberg, Cecilia; Lobell, Malin; Wegsjö, Karin</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D37" t="n">
+        <v>2025</v>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2700,7 +2598,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Abiotic; Ecosystems; Soils; Ecosystem services; Embodied CO; Practice theories; Service focus; Socio-ecological; Uncertainty; Urban ecology; Urban environments; Well being; Urban growth</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>This chapter suggests that the notion of cultivating ecosystem conviviality helps bring attention to nourishing sites of local empowerment and ecological belonging that often go unnoticed in urban environments. We offer this notion as a complement to ongoing efforts of invigorating cultural ecosystem services (CES) with relational and embodied approaches. Through a transdisciplinary and mixed methodology of soil arts that includes artist-led open stages, ecosystem conviviality is explored through soil-centered practices in urban gardening and art. The chapter attends to how gardeners situate themselves not as receivers or producers of services but as entangled co-creators of open-ended ecosystems. This in turn calls attention to a needed shift in CES focus, from benefits and human well-being to considering ecosystem relations and values as embodied co-becomings, with consequences for sites, people, and soils alike. The aim of the situated practice-theory of soil arts that this chapter presents, is to offer new perspectives and methods for those involved with planning and management of urban ecologies, and others seeking more integrative ways of grappling with socioecological challenges and uncertainties. © 2025 selection and editorial matter, Pamela D. McElwee, Karen E. Allen, Rachelle K. Gould, Minna Hsu and Jun He. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr"/>
+      <c r="P37" t="inlineStr"/>
+      <c r="Q37" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Contestations-in-the-emerging-soil</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Contestations in the emerging soil-based carbon economy: towards a research agenda</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Ingram, Julie; Maye, Damian; Reed, Mark</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>Sustainability Science</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11625-024-01609-z</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Contestations-in-the-emerging-soil.txt</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -2739,145 +2697,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>Abiotic; Ecosystems; Soils; Ecosystem services; Embodied CO; Practice theories; Service focus; Socio-ecological; Uncertainty; Urban ecology; Urban environments; Well being; Urban growth</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>This chapter suggests that the notion of cultivating ecosystem conviviality helps bring attention to nourishing sites of local empowerment and ecological belonging that often go unnoticed in urban environments. We offer this notion as a complement to ongoing efforts of invigorating cultural ecosystem services (CES) with relational and embodied approaches. Through a transdisciplinary and mixed methodology of soil arts that includes artist-led open stages, ecosystem conviviality is explored through soil-centered practices in urban gardening and art. The chapter attends to how gardeners situate themselves not as receivers or producers of services but as entangled co-creators of open-ended ecosystems. This in turn calls attention to a needed shift in CES focus, from benefits and human well-being to considering ecosystem relations and values as embodied co-becomings, with consequences for sites, people, and soils alike. The aim of the situated practice-theory of soil arts that this chapter presents, is to offer new perspectives and methods for those involved with planning and management of urban ecologies, and others seeking more integrative ways of grappling with socioecological challenges and uncertainties. © 2025 selection and editorial matter, Pamela D. McElwee, Karen E. Allen, Rachelle K. Gould, Minna Hsu and Jun He. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr"/>
-      <c r="P37" t="inlineStr"/>
-      <c r="Q37" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Contestations-in-the-emerging-soil</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Contestations in the emerging soil-based carbon economy: towards a research agenda</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Ingram, Julie; Maye, Damian; Reed, Mark</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>Sustainability Science</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1007/s11625-024-01609-z</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Contestations-in-the-emerging-soil.txt</t>
-        </is>
-      </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="inlineStr"/>
@@ -2910,10 +2730,8 @@
           <t>Savelli, Elisa; Rusca, Maria; Cloke, Hannah; Flügel, Tyrel J; Karriem, Abdulrazak; Di Baldassarre, Giuliano</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D39" t="n">
+        <v>2025</v>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2974,45 +2792,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
       <c r="K39" t="inlineStr"/>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
@@ -3045,10 +2825,8 @@
           <t>Fredengren, Christina</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D40" t="n">
+        <v>2025</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -3109,7 +2887,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Sweden; cultural heritage; landscape; perception; soil; sustainability</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t>This paper explores what could be learned ‘by thinking with soil’ in heritage matters, and ‘thinking with heritage’ in soil matters. Soil is connected to major sustainability issues as it is life-essential to a wide range of beings. Soil is rarely thought of as heritage, despite becoming a scarce resource over time. It is argued that heritage as ‘landscapes of human perception’ is not enough to meet the challenges at hand, whereas the alternative ‘heritage as phenomena’ allows for discussing the long-term material/immaterial multi-species interrelations that build up in situated soils. It gives better positions to discuss justice and care between generations and convivial re-generation of landscapes. The paper works with a case study from mid-Sweden to show how different ‘agential-cuts’ of soil give rise to stakeholder tensions as different worlds are produced. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr"/>
+      <c r="P40" t="inlineStr"/>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Learning-with-compost</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Learning with compost: digging down into food waste, urban soils and community</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Turner, Bethaney; Hill, Ann; Abramovic, Jessica</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Local Environment</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13549839.2024.2380853</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Learning-with-compost.txt</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -3148,68 +2986,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr"/>
-      <c r="L40" t="inlineStr"/>
-      <c r="M40" t="inlineStr">
-        <is>
-          <t>Sweden; cultural heritage; landscape; perception; soil; sustainability</t>
-        </is>
-      </c>
-      <c r="N40" t="inlineStr">
-        <is>
-          <t>This paper explores what could be learned ‘by thinking with soil’ in heritage matters, and ‘thinking with heritage’ in soil matters. Soil is connected to major sustainability issues as it is life-essential to a wide range of beings. Soil is rarely thought of as heritage, despite becoming a scarce resource over time. It is argued that heritage as ‘landscapes of human perception’ is not enough to meet the challenges at hand, whereas the alternative ‘heritage as phenomena’ allows for discussing the long-term material/immaterial multi-species interrelations that build up in situated soils. It gives better positions to discuss justice and care between generations and convivial re-generation of landscapes. The paper works with a case study from mid-Sweden to show how different ‘agential-cuts’ of soil give rise to stakeholder tensions as different worlds are produced. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
-        </is>
-      </c>
-      <c r="O40" t="inlineStr"/>
-      <c r="P40" t="inlineStr"/>
-      <c r="Q40" t="inlineStr">
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Australia; Australian Capital Territory; Canberra; New South Wales; Sydney [New South Wales]; compost; environmental impact; ethics; food waste; local participation; urban area</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t>This paper explores human, soil, compost and food waste interactions in a community composting initiative in Australia. Drawing on an ethnographic study in 2 Australian cities–Sydney and Canberra, this paper identifies the emergence of a “composting ethic” among participants that is animated by three forms of learning and doing: (1) noticing and attending, (2) embodying and (3) experimentation. Fieldwork analysis is contextualised in relation to literature from the environmental humanities, discard studies and learnings from First Nations Australians and their ontologies. By bringing these empirics, key literature and ontologies together, this paper aims to deepen understanding of the opportunities and challenges of community composting to reduce negative environmental impacts and support anti-colonial practices of discard. It does this by identifying the characteristics of a composting ethic and the contexts and skills capable of nurturing its emergence. Attention is also paid to what may limit realisation of such an ethic. Overall, this paper aims to generate further applied academic understanding about the unique role–and possibilities–of efforts to revitalise and grow city soils and advance anti-colonial food waste management through community composting. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr"/>
+      <c r="P41" t="inlineStr"/>
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Learning-with-compost</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Learning with compost: digging down into food waste, urban soils and community</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Turner, Bethaney; Hill, Ann; Abramovic, Jessica</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>Local Environment</t>
-        </is>
-      </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/13549839.2024.2380853</t>
-        </is>
-      </c>
-      <c r="G41" t="inlineStr">
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Soils-in-motion-NY</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Soils in motion: the metabolism of New York City’s urban grounds</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Harris, Luke</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Landscape Research</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/01426397.2025.2526498</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
         <is>
           <t>snowballing Toward-relational-materiality</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Learning-with-compost.txt</t>
-        </is>
-      </c>
-      <c r="I41" t="inlineStr">
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soils-in-motion-NY.txt</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -3248,184 +3085,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K41" t="inlineStr"/>
-      <c r="L41" t="inlineStr"/>
-      <c r="M41" t="inlineStr">
-        <is>
-          <t>Australia; Australian Capital Territory; Canberra; New South Wales; Sydney [New South Wales]; compost; environmental impact; ethics; food waste; local participation; urban area</t>
-        </is>
-      </c>
-      <c r="N41" t="inlineStr">
-        <is>
-          <t>This paper explores human, soil, compost and food waste interactions in a community composting initiative in Australia. Drawing on an ethnographic study in 2 Australian cities–Sydney and Canberra, this paper identifies the emergence of a “composting ethic” among participants that is animated by three forms of learning and doing: (1) noticing and attending, (2) embodying and (3) experimentation. Fieldwork analysis is contextualised in relation to literature from the environmental humanities, discard studies and learnings from First Nations Australians and their ontologies. By bringing these empirics, key literature and ontologies together, this paper aims to deepen understanding of the opportunities and challenges of community composting to reduce negative environmental impacts and support anti-colonial practices of discard. It does this by identifying the characteristics of a composting ethic and the contexts and skills capable of nurturing its emergence. Attention is also paid to what may limit realisation of such an ethic. Overall, this paper aims to generate further applied academic understanding about the unique role–and possibilities–of efforts to revitalise and grow city soils and advance anti-colonial food waste management through community composting. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
-        </is>
-      </c>
-      <c r="O41" t="inlineStr"/>
-      <c r="P41" t="inlineStr"/>
-      <c r="Q41" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Soils-in-motion-NY</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Soils in motion: the metabolism of New York City’s urban grounds</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Harris, Luke</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>Landscape Research</t>
-        </is>
-      </c>
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/01426397.2025.2526498</t>
-        </is>
-      </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soils-in-motion-NY.txt</t>
-        </is>
-      </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
       <c r="K42" t="inlineStr"/>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="inlineStr"/>
@@ -3458,10 +3118,8 @@
           <t>Laurent, Brice; Merlin, Julien; Meulemans, Germain</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D43" t="n">
+        <v>2025</v>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3513,10 +3171,8 @@
           <t>Barrineau, Susanna</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D44" t="n">
+        <v>2025</v>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3577,7 +3233,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Sweden; agricultural soil; carbon emission; farming system</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>This article works with the idea that radical solutions in agri-food systems require multiple ways of knowing soils beyond the dominant scientific practices. Using a relational lens that invites us to think with soils, this article lifts our gaze to human-soil relationships in creating post-growth food systems. In the context of a grassroots initiative in Sweden that advances regenerative carbon farming as a transformational pathway to food systems within planetary boundaries, poetic inquiry is used to bring the often-unheard perspectives of “knowing soils” to the fore; how we know about soils matters. © (2025), (University of Arizona Libraries). All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr"/>
+      <c r="P44" t="inlineStr"/>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Soil-and-Organization-Studies</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Soil and Organization Studies: Unearthing a ‘more-than-relational’ ethics towards non-humans</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Sage, Daniel</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Organization Studies</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/01708406251317257</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-and-Organization-Studies.txt</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -3616,145 +3332,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr"/>
-      <c r="L44" t="inlineStr"/>
-      <c r="M44" t="inlineStr">
-        <is>
-          <t>Sweden; agricultural soil; carbon emission; farming system</t>
-        </is>
-      </c>
-      <c r="N44" t="inlineStr">
-        <is>
-          <t>This article works with the idea that radical solutions in agri-food systems require multiple ways of knowing soils beyond the dominant scientific practices. Using a relational lens that invites us to think with soils, this article lifts our gaze to human-soil relationships in creating post-growth food systems. In the context of a grassroots initiative in Sweden that advances regenerative carbon farming as a transformational pathway to food systems within planetary boundaries, poetic inquiry is used to bring the often-unheard perspectives of “knowing soils” to the fore; how we know about soils matters. © (2025), (University of Arizona Libraries). All rights reserved.</t>
-        </is>
-      </c>
-      <c r="O44" t="inlineStr"/>
-      <c r="P44" t="inlineStr"/>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Soil-and-Organization-Studies</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Soil and Organization Studies: Unearthing a ‘more-than-relational’ ethics towards non-humans</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Sage, Daniel</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>Organization Studies</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/01708406251317257</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-and-Organization-Studies.txt</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
       <c r="K45" t="inlineStr"/>
       <c r="L45" t="inlineStr"/>
       <c r="M45" t="inlineStr"/>
@@ -3787,10 +3365,8 @@
           <t>Hugøy, Isabelle</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D46" t="n">
+        <v>2024</v>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3851,45 +3427,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
       <c r="K46" t="inlineStr"/>
       <c r="L46" t="inlineStr"/>
       <c r="M46" t="inlineStr"/>
@@ -3922,10 +3460,8 @@
           <t>Saifuddin, Mustafa; Abramoff, Rose Z; Foster, Erika J; McClelland, Shelby C</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D47" t="n">
+        <v>2024</v>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3986,7 +3522,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>carbon sequestration; climate change; combustion; environmental justice; fossil fuel; perturbation; soil carbon</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>There is growing interest in enhancing soil carbon sequestration (SCS) as a climate mitigation strategy, including neutralizing atmospheric emissions from fossil-fuel combustion through the development of soil carbon offset markets. Several studies have focused on refining estimates of the magnitude of potential SCS or on developing methods for soil carbon quantification in markets. We call on scientists and policy makers to resist assimilating soils into carbon offset markets due to not only fundamental flaws in the logic of these markets to reach climate neutrality but also environmental justice concerns. Here, we first highlight how carbon offset markets rely on an inappropriate substitution of inert fossil carbon with dynamic stocks of soil carbon. We then note the failure of these markets to account for intersecting anthropogenic perturbations to the carbon cycle, including the soil carbon debt and ongoing agricultural emissions. Next, we invite scientists to consider soil functions beyond productivity and profitability. Finally, we describe and support historical opposition to offset markets by environmental justice advocates. We encourage scientists to consider how their research and communications can promote diverse soil functions and just climate-change mitigation. © 2024 The Author(s). Frontiers in Ecology and the Environment published by Wiley Periodicals LLC on behalf of The Ecological Society of America.</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr"/>
+      <c r="P47" t="inlineStr"/>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Farming-for-the-patchy-Anthropocene</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Farming for the patchy Anthropocene: The spatial imaginaries of regenerative agriculture</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Cusworth, George; Lorimer, Jamie; Welden, E.A.</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Geographical Journal</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/geoj.12558</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Farming-for-the-patchy-Anthropocene.txt</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -4025,68 +3621,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr"/>
-      <c r="L47" t="inlineStr"/>
-      <c r="M47" t="inlineStr">
-        <is>
-          <t>carbon sequestration; climate change; combustion; environmental justice; fossil fuel; perturbation; soil carbon</t>
-        </is>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>There is growing interest in enhancing soil carbon sequestration (SCS) as a climate mitigation strategy, including neutralizing atmospheric emissions from fossil-fuel combustion through the development of soil carbon offset markets. Several studies have focused on refining estimates of the magnitude of potential SCS or on developing methods for soil carbon quantification in markets. We call on scientists and policy makers to resist assimilating soils into carbon offset markets due to not only fundamental flaws in the logic of these markets to reach climate neutrality but also environmental justice concerns. Here, we first highlight how carbon offset markets rely on an inappropriate substitution of inert fossil carbon with dynamic stocks of soil carbon. We then note the failure of these markets to account for intersecting anthropogenic perturbations to the carbon cycle, including the soil carbon debt and ongoing agricultural emissions. Next, we invite scientists to consider soil functions beyond productivity and profitability. Finally, we describe and support historical opposition to offset markets by environmental justice advocates. We encourage scientists to consider how their research and communications can promote diverse soil functions and just climate-change mitigation. © 2024 The Author(s). Frontiers in Ecology and the Environment published by Wiley Periodicals LLC on behalf of The Ecological Society of America.</t>
-        </is>
-      </c>
-      <c r="O47" t="inlineStr"/>
-      <c r="P47" t="inlineStr"/>
-      <c r="Q47" t="inlineStr">
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>United Kingdom; agricultural management; Anthropocene; empirical analysis; farming system; plantation; spatiotemporal analysis</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>With its focus on the species level of the Anthropos, there is growing concern that the Anthropocene analytic lacks the conceptual nuance needed to grapple with the unevenly distributed harms and responsibilities tied up with issues of biodiversity loss, global warming, and land use change. Conceptual variants like the patchy Anthropocene have been proposed to better capture the justice implications of these socio-ecological crises, directing attention to their spatially ubiquitous yet context-specific character. The figure of the plantation has come to play an important role in this scholarship due to the contribution intensive agriculture had made to these interlinking crises. Through empirical study of the regenerative agricultural movement, this paper reflects on how regenerative farmers use different sites (fields, soils, livestock stomachs) to apprehend their agro-ethical responsibilities to more-than-human actors both near to and far from the landscapes they manage. Our aims here are two-fold. First, we provide a more affirmative account of agricultural management than is currently offered by plantation farming: a model of food production that is not just ‘in’ the Anthropocene, but ‘for’ it. Second, we contribute to ongoing discussions unfolding in the social sciences around the tools needed to conceptualise the interlinking spatial and justice aspects of the Anthropocene transition. By bringing the patchy analytic into conversation with more established geographic writing on scale, volume, and horizontal connections, we show the merit of juxtaposing multiple models of spatial relation as a way of gaining ethical and conceptual traction on complex socio-ecological issues. We argue that the ‘polymorphic’ spatial imaginaries of regenerative agriculturalists can offer some guidance on the tools needed to attend to the specificity of local Anthropocene outcomes in relation to socio-ecological forces actuating the world at much greater spatio-temporal scales. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2023 The Authors. The Geographical Journal published by John Wiley &amp; Sons Ltd on behalf of Royal Geographical Society (with the Institute of British Geographers).</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr"/>
+      <c r="P48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Farming-for-the-patchy-Anthropocene</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Farming for the patchy Anthropocene: The spatial imaginaries of regenerative agriculture</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Cusworth, George; Lorimer, Jamie; Welden, E.A.</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>Geographical Journal</t>
-        </is>
-      </c>
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/geoj.12558</t>
-        </is>
-      </c>
-      <c r="G48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>A-simple-definition-of-soil</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>A simple definition of soil</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Cahyana, Destika; Mulyanto, Budi</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Soil Security</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.soisec.2024.100146</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>snowballing Toward-relational-materiality</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Farming-for-the-patchy-Anthropocene.txt</t>
-        </is>
-      </c>
-      <c r="I48" t="inlineStr">
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A-simple-definition-of-soil.txt</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -4125,184 +3720,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K48" t="inlineStr"/>
-      <c r="L48" t="inlineStr"/>
-      <c r="M48" t="inlineStr">
-        <is>
-          <t>United Kingdom; agricultural management; Anthropocene; empirical analysis; farming system; plantation; spatiotemporal analysis</t>
-        </is>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>With its focus on the species level of the Anthropos, there is growing concern that the Anthropocene analytic lacks the conceptual nuance needed to grapple with the unevenly distributed harms and responsibilities tied up with issues of biodiversity loss, global warming, and land use change. Conceptual variants like the patchy Anthropocene have been proposed to better capture the justice implications of these socio-ecological crises, directing attention to their spatially ubiquitous yet context-specific character. The figure of the plantation has come to play an important role in this scholarship due to the contribution intensive agriculture had made to these interlinking crises. Through empirical study of the regenerative agricultural movement, this paper reflects on how regenerative farmers use different sites (fields, soils, livestock stomachs) to apprehend their agro-ethical responsibilities to more-than-human actors both near to and far from the landscapes they manage. Our aims here are two-fold. First, we provide a more affirmative account of agricultural management than is currently offered by plantation farming: a model of food production that is not just ‘in’ the Anthropocene, but ‘for’ it. Second, we contribute to ongoing discussions unfolding in the social sciences around the tools needed to conceptualise the interlinking spatial and justice aspects of the Anthropocene transition. By bringing the patchy analytic into conversation with more established geographic writing on scale, volume, and horizontal connections, we show the merit of juxtaposing multiple models of spatial relation as a way of gaining ethical and conceptual traction on complex socio-ecological issues. We argue that the ‘polymorphic’ spatial imaginaries of regenerative agriculturalists can offer some guidance on the tools needed to attend to the specificity of local Anthropocene outcomes in relation to socio-ecological forces actuating the world at much greater spatio-temporal scales. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2023 The Authors. The Geographical Journal published by John Wiley &amp; Sons Ltd on behalf of Royal Geographical Society (with the Institute of British Geographers).</t>
-        </is>
-      </c>
-      <c r="O48" t="inlineStr"/>
-      <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>A-simple-definition-of-soil</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>A simple definition of soil</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Cahyana, Destika; Mulyanto, Budi</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Soil Security</t>
-        </is>
-      </c>
-      <c r="F49" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.soisec.2024.100146</t>
-        </is>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A-simple-definition-of-soil.txt</t>
-        </is>
-      </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr"/>
@@ -4335,10 +3753,8 @@
           <t>Snorek, Julie; Freidberg, Susanne; Smith, Geneva</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D50" t="n">
+        <v>2024</v>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -4386,10 +3802,8 @@
           <t>Tozzi, Arianna; Leonardelli, Irene</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D51" t="n">
+        <v>2024</v>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -4450,45 +3864,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr"/>
@@ -4521,10 +3897,8 @@
           <t>Davidson, Joe P. L.; Carreira da Silva, Filipe</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D52" t="n">
+        <v>2024</v>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -4585,45 +3959,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
       <c r="K52" t="inlineStr"/>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="inlineStr"/>
@@ -4656,10 +3992,8 @@
           <t>Clark, Janine Natalya</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D53" t="n">
+        <v>2025</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4720,45 +4054,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="inlineStr"/>
       <c r="M53" t="inlineStr"/>
@@ -4791,10 +4087,8 @@
           <t>Blidstein, Moshe</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D54" t="n">
+        <v>2025</v>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4842,10 +4136,8 @@
           <t>Barrineau, Susanna; Do, Thao; Powell, Neil</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D55" t="n">
+        <v>2025</v>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4906,7 +4198,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J55" t="inlineStr">
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Sweden; carbon; ecological impact; European Union; farming system; social change; stakeholder; sustainability</t>
+        </is>
+      </c>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>This paper investigates how futures thinking and relational thinking may expand practices and strategies in agriculture that aim for sustainability. Using carbon farming as a case where relational thinking is brought into conversation with futures thinking, we explore how imaginaries of sustainability transformations can be further expanded to include ways of knowing, being, and doing that imagine more radical, relational, and ethical futures. Based on the analysis of a diverse empirical material including European Union reports, focus group discussions, and workshops with carbon farming stakeholders in Sweden using the futures method Causal Layered Analysis, this paper offers a critical relational lens for approaching and evaluating strategies and practices that aim for sustainability transformations in agricultural systems. © 2025 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O55" t="inlineStr"/>
+      <c r="P55" t="inlineStr"/>
+      <c r="Q55" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Amphibious-Land-Repair</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Amphibious Land Repair Restoration, Infrastructure and Accumulation in Southeast Asia’s Wetlands</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Law, Tamar; Goldstein, Jenny</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>Environment and Society: Advances in Research</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3167/ares.2024.150106</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Amphibious-Land-Repair.txt</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -4945,145 +4297,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr"/>
-      <c r="L55" t="inlineStr"/>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>Sweden; carbon; ecological impact; European Union; farming system; social change; stakeholder; sustainability</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>This paper investigates how futures thinking and relational thinking may expand practices and strategies in agriculture that aim for sustainability. Using carbon farming as a case where relational thinking is brought into conversation with futures thinking, we explore how imaginaries of sustainability transformations can be further expanded to include ways of knowing, being, and doing that imagine more radical, relational, and ethical futures. Based on the analysis of a diverse empirical material including European Union reports, focus group discussions, and workshops with carbon farming stakeholders in Sweden using the futures method Causal Layered Analysis, this paper offers a critical relational lens for approaching and evaluating strategies and practices that aim for sustainability transformations in agricultural systems. © 2025 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr"/>
-      <c r="P55" t="inlineStr"/>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Amphibious-Land-Repair</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Amphibious Land Repair Restoration, Infrastructure and Accumulation in Southeast Asia’s Wetlands</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>Law, Tamar; Goldstein, Jenny</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>Environment and Society: Advances in Research</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3167/ares.2024.150106</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Amphibious-Land-Repair.txt</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
       <c r="K56" t="inlineStr"/>
       <c r="L56" t="inlineStr"/>
       <c r="M56" t="inlineStr"/>
@@ -5116,10 +4330,8 @@
           <t>Krupar, Shiloh</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D57" t="n">
+        <v>2024</v>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -5171,10 +4383,8 @@
           <t>Ofstehage, Andrew</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D58" t="n">
+        <v>2024</v>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -5226,10 +4436,8 @@
           <t>Harris, Luke</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D59" t="n">
+        <v>2024</v>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -5290,45 +4498,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="inlineStr"/>
       <c r="M59" t="inlineStr"/>
@@ -5361,10 +4531,8 @@
           <t>Turner, Marie F.; Szymanski, Erika A.</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D60" t="n">
+        <v>2024</v>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -5425,45 +4593,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
       <c r="K60" t="inlineStr"/>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="inlineStr"/>
@@ -5496,10 +4626,8 @@
           <t>Cusworth, George</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D61" t="n">
+        <v>2024</v>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -5560,45 +4688,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
       <c r="K61" t="inlineStr"/>
       <c r="L61" t="inlineStr"/>
       <c r="M61" t="inlineStr"/>
@@ -5631,10 +4721,8 @@
           <t>Wang, Chi-Mao; Chien, Ker-Hsuan</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D62" t="n">
+        <v>2024</v>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -5695,45 +4783,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
       <c r="K62" t="inlineStr"/>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="inlineStr"/>
@@ -5766,10 +4816,8 @@
           <t>Hokkanen, Saana</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D63" t="n">
+        <v>2024</v>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -5830,7 +4878,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Europe; agricultural production; biodiversity; Common Agricultural Policy; conceptual framework; European Union</t>
+        </is>
+      </c>
+      <c r="N63" t="inlineStr">
+        <is>
+          <t>This article examines how specific (non-relational) political ontological understandings of soils are incorporated into industrial agricultural politics in the European Union and introduces a complementary contribution to existing literature with the concept of soil extractivism. The concept is used to describe current institutionalized ways of relating to soils and their dynamics of power. Through an integrative literature review, the article links existing research on soils with the development of modern agriculture in Europe. The theoretical contribution of soil extractivism provides a conceptual tool for understanding currently dominant ways of treating soils as a key part of modernity and industrial capitalism as well as part of wider destructions of multispecies relations. © 2024 The Author</t>
+        </is>
+      </c>
+      <c r="O63" t="inlineStr"/>
+      <c r="P63" t="inlineStr"/>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Reimagining-the-governance-water</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Reimagining the governance of water from the ground up: On the ‘worlding-practices’ of grassroots movements building alternative ‘water worlds’</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Tozzi, Arianna</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/25148486231223627</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Reimagining-the-governance-water.txt</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -5869,145 +4977,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr"/>
-      <c r="L63" t="inlineStr"/>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>Europe; agricultural production; biodiversity; Common Agricultural Policy; conceptual framework; European Union</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>This article examines how specific (non-relational) political ontological understandings of soils are incorporated into industrial agricultural politics in the European Union and introduces a complementary contribution to existing literature with the concept of soil extractivism. The concept is used to describe current institutionalized ways of relating to soils and their dynamics of power. Through an integrative literature review, the article links existing research on soils with the development of modern agriculture in Europe. The theoretical contribution of soil extractivism provides a conceptual tool for understanding currently dominant ways of treating soils as a key part of modernity and industrial capitalism as well as part of wider destructions of multispecies relations. © 2024 The Author</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr"/>
-      <c r="P63" t="inlineStr"/>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Reimagining-the-governance-water</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>Reimagining the governance of water from the ground up: On the ‘worlding-practices’ of grassroots movements building alternative ‘water worlds’</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Tozzi, Arianna</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>Environment and Planning E: Nature and Space</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/25148486231223627</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Reimagining-the-governance-water.txt</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
@@ -6040,10 +5010,8 @@
           <t>Meloni, Maurizio; Maller, Cecily</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D65" t="n">
+        <v>2024</v>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -6091,10 +5059,8 @@
           <t>Kallio, Galina; LaFleur, Will</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D66" t="n">
+        <v>2023</v>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -6155,45 +5121,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J66" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
       <c r="K66" t="inlineStr"/>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
@@ -6230,10 +5158,8 @@
           <t>Rautio, Pauliina; Hohti, Riikka; Tammi, Tuure; Ylirisku, Henrika</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D67" t="n">
+        <v>2022</v>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -6281,10 +5207,8 @@
           <t>Teuber, Sandra; Bartelheim, Martin; Hardenberg, Roland; Knopf, Monica; Knopf, Thomas; Kühn, Peter; Schade, Tobias; Schmidt, Karsten; Scholten, Thomas</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D68" t="n">
+        <v>2022</v>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -6345,45 +5269,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
       <c r="K68" t="inlineStr"/>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="inlineStr"/>
@@ -6416,10 +5302,8 @@
           <t>Gobo, Giampietro; Marcheselli, Valentina</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D69" t="n">
+        <v>2023</v>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -6467,10 +5351,8 @@
           <t>Turner, Bethaney</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D70" t="n">
+        <v>2023</v>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -6518,10 +5400,8 @@
           <t>Millner, Naomi</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D71" t="n">
+        <v>2023</v>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -6573,10 +5453,8 @@
           <t>Tam, Mankei</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D72" t="n">
+        <v>2023</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -6637,7 +5515,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Fukushima [Tohoku]; Honshu; Japan; Tohoku; inorganic matter; nuclear accident; radioactive pollution; soil analysis; soil pollution; topsoil</t>
+        </is>
+      </c>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>This article explores soil and the multiple pathways it has provided for the coconstitution of forms of life that might be possible following the Fukushima nuclear fallout. In Iitate, a former evacuation zone where radiation still lingers, farmers and concerned citizens deploy a coproduction framework that involves experts in making their own science. Incorporating tactile knowledge of the environment, they make life-strengthening claims on the future amid state promises of revival and progress. Soil becomes alive in madei, which emerges from the processes of separating radiocesium from topsoil, growing rice, and other improvisations for relating to soils that cascade to regenerate a livable world. This article discusses how the Japanese state utilizes temporal scales that orient its citizenry to a future associated with accelerated and intensified productivity as a sign of progress, incorporating decontamination technologies to assert control over organic lives and inorganic matter to make them productive for humans. Through madei, this article addresses how soil guides human attention to the rediscovery of interspecies temporalities, paces, and rhythms, reconfiguring radioactivity to create what I conceptualize as a regenerative time to underscore how actors reanimate the future(s) in the here and now. © 2023 Mankei Tam.</t>
+        </is>
+      </c>
+      <c r="O72" t="inlineStr"/>
+      <c r="P72" t="inlineStr"/>
+      <c r="Q72" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Antipodean-more-than-human</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Antipodean more-than-human geographies: From the edges</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Siimes, Nikolai; Yee, Kenzi; McSherry, Alice; Sharp, Emma L.</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>New Zealand Geographer</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/nzg.12371</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Antipodean-more-than-human.txt</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -6676,145 +5614,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr">
-        <is>
-          <t>Fukushima [Tohoku]; Honshu; Japan; Tohoku; inorganic matter; nuclear accident; radioactive pollution; soil analysis; soil pollution; topsoil</t>
-        </is>
-      </c>
-      <c r="N72" t="inlineStr">
-        <is>
-          <t>This article explores soil and the multiple pathways it has provided for the coconstitution of forms of life that might be possible following the Fukushima nuclear fallout. In Iitate, a former evacuation zone where radiation still lingers, farmers and concerned citizens deploy a coproduction framework that involves experts in making their own science. Incorporating tactile knowledge of the environment, they make life-strengthening claims on the future amid state promises of revival and progress. Soil becomes alive in madei, which emerges from the processes of separating radiocesium from topsoil, growing rice, and other improvisations for relating to soils that cascade to regenerate a livable world. This article discusses how the Japanese state utilizes temporal scales that orient its citizenry to a future associated with accelerated and intensified productivity as a sign of progress, incorporating decontamination technologies to assert control over organic lives and inorganic matter to make them productive for humans. Through madei, this article addresses how soil guides human attention to the rediscovery of interspecies temporalities, paces, and rhythms, reconfiguring radioactivity to create what I conceptualize as a regenerative time to underscore how actors reanimate the future(s) in the here and now. © 2023 Mankei Tam.</t>
-        </is>
-      </c>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Antipodean-more-than-human</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>Antipodean more-than-human geographies: From the edges</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Siimes, Nikolai; Yee, Kenzi; McSherry, Alice; Sharp, Emma L.</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="E73" t="inlineStr">
-        <is>
-          <t>New Zealand Geographer</t>
-        </is>
-      </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1111/nzg.12371</t>
-        </is>
-      </c>
-      <c r="G73" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Antipodean-more-than-human.txt</t>
-        </is>
-      </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
       <c r="K73" t="inlineStr"/>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="inlineStr"/>
@@ -6847,10 +5647,8 @@
           <t>Goburdhone, Sasha; Dombroski, Kelly</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D74" t="n">
+        <v>2023</v>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -6911,45 +5709,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
       <c r="K74" t="inlineStr"/>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="inlineStr"/>
@@ -6982,10 +5742,8 @@
           <t>Shenk, Linda; Franz, Kristie J.; Gutowski, William J.</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
+      <c r="D75" t="n">
+        <v>2023</v>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -7046,7 +5804,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>climate change; decision making; literature review; methodology; simulation; student</t>
+        </is>
+      </c>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Increasingly, researchers share climate information as narratives to support decision-making and public action. In these contexts, however, scientists remain the focal storytellers. This article offers our methodology for researchers and communities to share narratives with each other and then to engage in collaborative storytelling. At the center of this work is how the humanities embrace the importance of narratives having gaps—narrative lacunae into which individuals can insert their experiences, needs, and values. Our storytelling- and gaps-based methodology allows communities and researchers to enter and transform each other’s stories. We offer a simulation model that fosters collaborative storytelling and give examples from the storytelling and social-environmental action projects that have emerged over three years of partnership with communities and university students. © 2023 Linda Shenk, Kristie J. Franz, and William J. Gutowski, Jr.</t>
+        </is>
+      </c>
+      <c r="O75" t="inlineStr"/>
+      <c r="P75" t="inlineStr"/>
+      <c r="Q75" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Vivendo-no-mundo-deles</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Vivendo no mundo deles: Currículo a partir de um apelo geontológico</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Ranniery, Thiago</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>2020</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>Curriculo sem Fronteiras</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35786/1645-1384.v20.n3.07</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vivendo-no-mundo-deles.txt</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -7085,145 +5903,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>climate change; decision making; literature review; methodology; simulation; student</t>
-        </is>
-      </c>
-      <c r="N75" t="inlineStr">
-        <is>
-          <t>Increasingly, researchers share climate information as narratives to support decision-making and public action. In these contexts, however, scientists remain the focal storytellers. This article offers our methodology for researchers and communities to share narratives with each other and then to engage in collaborative storytelling. At the center of this work is how the humanities embrace the importance of narratives having gaps—narrative lacunae into which individuals can insert their experiences, needs, and values. Our storytelling- and gaps-based methodology allows communities and researchers to enter and transform each other’s stories. We offer a simulation model that fosters collaborative storytelling and give examples from the storytelling and social-environmental action projects that have emerged over three years of partnership with communities and university students. © 2023 Linda Shenk, Kristie J. Franz, and William J. Gutowski, Jr.</t>
-        </is>
-      </c>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Vivendo-no-mundo-deles</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>Vivendo no mundo deles: Currículo a partir de um apelo geontológico</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Ranniery, Thiago</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>2020</t>
-        </is>
-      </c>
-      <c r="E76" t="inlineStr">
-        <is>
-          <t>Curriculo sem Fronteiras</t>
-        </is>
-      </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.35786/1645-1384.v20.n3.07</t>
-        </is>
-      </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vivendo-no-mundo-deles.txt</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
       <c r="K76" t="inlineStr"/>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="inlineStr"/>
@@ -7256,10 +5936,8 @@
           <t>Cho, Leena</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D77" t="n">
+        <v>2021</v>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -7311,10 +5989,8 @@
           <t>McElwee, Pamela</t>
         </is>
       </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D78" t="n">
+        <v>2021</v>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -7375,45 +6051,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="inlineStr">
@@ -7450,10 +6088,8 @@
           <t>Ureta, Sebastián; Otaegui, Alvaro</t>
         </is>
       </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>2021</t>
-        </is>
+      <c r="D79" t="n">
+        <v>2021</v>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -7501,10 +6137,8 @@
           <t>Jones, Emily; Klumbytė, Goda; Braidotti, Rosi</t>
         </is>
       </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D80" t="n">
+        <v>2022</v>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -7552,10 +6186,8 @@
           <t>Ana, Daniela</t>
         </is>
       </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D81" t="n">
+        <v>2022</v>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -7603,10 +6235,8 @@
           <t>Smith, Tone; Ehrnström-Fuentes, Maria; Hagolani-Albov, Sophia E.; Klepp, Ingun Grimstad; Tobiasson, Tone Skårdal</t>
         </is>
       </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D82" t="n">
+        <v>2022</v>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -7654,10 +6284,8 @@
           <t>Shostak, Sara</t>
         </is>
       </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D83" t="n">
+        <v>2022</v>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -7705,10 +6333,8 @@
           <t>Cañada, Jose A; Sariola, Salla; Butcher, Andrea</t>
         </is>
       </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
+      <c r="D84" t="n">
+        <v>2022</v>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -7769,7 +6395,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Animals; Anti-Bacterial Agents; Drug Resistance, Bacterial; Humans; antiinfective agent; animal; antibiotic resistance; human</t>
+        </is>
+      </c>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>Antimicrobial resistance (AMR) is often framed as a One Health issue, premised on the interdependence between human, animal and environmental health. Despite this framing, the focus across policymaking, implementation and the ethics of AMR remains anthropocentric in practice, with human health taking priority over the health of non-human animals and the environment, both of which mostly appear as secondary elements to be adjusted to minimise impact on human populations. This perpetuates cross-sectoral asymmetries whereby human health institutions have access to bigger budgets and technical support, limiting the ability of agricultural, animal health or environmental institutions to effectively implement policy initiatives. In this article, we review these asymmetries from an ethical perspective. Through a review and analysis of contemporary literature on the ethics of AMR, we demonstrate how the ethical challenges and tensions raised still emerge from an anthropocentric framing, and argue that such literature fails to address the problematic health hierarchies that underlie policies and ethics of AMR. As a consequence, they fail to provide the necessary tools to ethically evaluate the more-than-human challenges that the long list of actors involved in managing AMR face in their everyday practices. In response to such shortcomings, and to make sense of these challenges and tensions, this article develops an ethical framework based on relationality, care ethics and ambivalence that attends to the more-than-human character of AMR. We formulate this approach without overlooking everyday challenges of implementation by putting the framework in conversation with concrete situations from precarious settings in West Africa. This article concludes by arguing that a useful AMR ethics framework needs to consider and take seriously non-human others as an integral part of both health and disease in any given ecology.  © 2022 BMJ Publishing Group. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O84" t="inlineStr"/>
+      <c r="P84" t="inlineStr"/>
+      <c r="Q84" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>Vegan-food-geographies</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Vegan food geographies and the rise of Big Veganism</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Sexton, Alexandra E; Garnett, Tara; Lorimer, Jamie</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>2022</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Progress in Human Geography</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/03091325211051021</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>snowballing Toward-relational-materiality</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vegan-food-geographies.txt</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -7808,68 +6494,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr">
-        <is>
-          <t>Animals; Anti-Bacterial Agents; Drug Resistance, Bacterial; Humans; antiinfective agent; animal; antibiotic resistance; human</t>
-        </is>
-      </c>
-      <c r="N84" t="inlineStr">
-        <is>
-          <t>Antimicrobial resistance (AMR) is often framed as a One Health issue, premised on the interdependence between human, animal and environmental health. Despite this framing, the focus across policymaking, implementation and the ethics of AMR remains anthropocentric in practice, with human health taking priority over the health of non-human animals and the environment, both of which mostly appear as secondary elements to be adjusted to minimise impact on human populations. This perpetuates cross-sectoral asymmetries whereby human health institutions have access to bigger budgets and technical support, limiting the ability of agricultural, animal health or environmental institutions to effectively implement policy initiatives. In this article, we review these asymmetries from an ethical perspective. Through a review and analysis of contemporary literature on the ethics of AMR, we demonstrate how the ethical challenges and tensions raised still emerge from an anthropocentric framing, and argue that such literature fails to address the problematic health hierarchies that underlie policies and ethics of AMR. As a consequence, they fail to provide the necessary tools to ethically evaluate the more-than-human challenges that the long list of actors involved in managing AMR face in their everyday practices. In response to such shortcomings, and to make sense of these challenges and tensions, this article develops an ethical framework based on relationality, care ethics and ambivalence that attends to the more-than-human character of AMR. We formulate this approach without overlooking everyday challenges of implementation by putting the framework in conversation with concrete situations from precarious settings in West Africa. This article concludes by arguing that a useful AMR ethics framework needs to consider and take seriously non-human others as an integral part of both health and disease in any given ecology.  © 2022 BMJ Publishing Group. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr">
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>culture; diet; food consumption; human geography</t>
+        </is>
+      </c>
+      <c r="N85" t="inlineStr">
+        <is>
+          <t>Veganism is the subject of an increasingly diverse body of social scientific research, yet it remains relatively understudied in geography. Meanwhile, contemporary cultural commentaries note how veganism has gone mainstream, with critics warning of veganism’s corporate nature – expressed in the rise of what we term ‘Big Veganism’. We argue that food geographers are well placed to examine these trends. We first review vegan studies work beyond geography that examines and critiques the mainstreaming of veganism. We focus on literature that explores multiple contested modes of veganism, veganism as praxis in place and the rise of corporate veganism as useful foundations for geographers to build on, particularly in light of currently unfolding developments in vegan cultures and practice. Taking this work forward, we identify four conceptual traditions from research in food geographies – following foodways, alternative food networks and the cultural and material politics of eating – to develop a ‘vegan food geographies’ programme that aims to advance critical geographic work on veganism and the emerging implications of its contemporary mainstreaming. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O85" t="inlineStr"/>
+      <c r="P85" t="inlineStr"/>
+      <c r="Q85" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Vegan-food-geographies</t>
-        </is>
-      </c>
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>Vegan food geographies and the rise of Big Veganism</t>
-        </is>
-      </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Sexton, Alexandra E; Garnett, Tara; Lorimer, Jamie</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>2022</t>
-        </is>
-      </c>
-      <c r="E85" t="inlineStr">
-        <is>
-          <t>Progress in Human Geography</t>
-        </is>
-      </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/03091325211051021</t>
-        </is>
-      </c>
-      <c r="G85" t="inlineStr">
-        <is>
-          <t>snowballing Toward-relational-materiality</t>
-        </is>
-      </c>
-      <c r="H85" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vegan-food-geographies.txt</t>
-        </is>
-      </c>
-      <c r="I85" t="inlineStr">
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Sufficiency-matter-care</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Sufficiency as a matter of care: Practices to provide for needs</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Beyeler, Laura; Jaeger-Erben, Melanie</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Ecological Economics</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ecolecon.2025.108737</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Sufficiency-matter-care.txt</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -7908,7 +6593,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J85" t="inlineStr">
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>business; ecological economics; empirical analysis; ethics; profitability; sustainability</t>
+        </is>
+      </c>
+      <c r="N86" t="inlineStr">
+        <is>
+          <t>Sufficiency can be understood as the endeavors of economic actors to fulfill needs by delivering only what is necessary. This interpretation reveals a relationship between sufficiency and care economics, as both advocate for a need-centered economy. This study demonstrates the influence and support of care on the performance of sufficiency. It is divided into two parts: (1) the development of a care framework that describes the meanings and enablers of care, and (2) the analysis of empirical data from 14 sufficiency-oriented businesses from a care perspective using the care framework. The findings indicate that from a care perspective, the world is a network of vulnerable and interconnected beings who require individuals to engage in care relationships and activities. Time, financial resources, knowledge, collaboration, technologies, and narratives are essential enablers of care and, as the findings demonstrate, contribute to the implementation of sufficiency. This study proposes a novel narrative of sufficiency as a matter of care and encourages future scholars and practitioners to understand sufficiency orientation as part of a care economy—one that fulfils the needs of society over targeting profit maximization. © 2024</t>
+        </is>
+      </c>
+      <c r="O86" t="inlineStr"/>
+      <c r="P86" t="inlineStr"/>
+      <c r="Q86" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Rethinking-trade-offs-in-nature-based</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>Rethinking trade-offs in nature-based solutions from a multispecies justice perspective</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Wijsman, Katinka; Pineda-Pinto, Melissa; Sarkki, Simo; Stijnen, Charlotte; den Dekker-Arlain, Janneke; Raymond, Christopher M.</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>npj Urban Sustainability</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1038/s42949-025-00261-5</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Rethinking-trade-offs-in-nature-based.txt</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -7947,284 +6692,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr">
-        <is>
-          <t>culture; diet; food consumption; human geography</t>
-        </is>
-      </c>
-      <c r="N85" t="inlineStr">
-        <is>
-          <t>Veganism is the subject of an increasingly diverse body of social scientific research, yet it remains relatively understudied in geography. Meanwhile, contemporary cultural commentaries note how veganism has gone mainstream, with critics warning of veganism’s corporate nature – expressed in the rise of what we term ‘Big Veganism’. We argue that food geographers are well placed to examine these trends. We first review vegan studies work beyond geography that examines and critiques the mainstreaming of veganism. We focus on literature that explores multiple contested modes of veganism, veganism as praxis in place and the rise of corporate veganism as useful foundations for geographers to build on, particularly in light of currently unfolding developments in vegan cultures and practice. Taking this work forward, we identify four conceptual traditions from research in food geographies – following foodways, alternative food networks and the cultural and material politics of eating – to develop a ‘vegan food geographies’ programme that aims to advance critical geographic work on veganism and the emerging implications of its contemporary mainstreaming. © The Author(s) 2022.</t>
-        </is>
-      </c>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Sufficiency-matter-care</t>
-        </is>
-      </c>
-      <c r="B86" t="inlineStr">
-        <is>
-          <t>Sufficiency as a matter of care: Practices to provide for needs</t>
-        </is>
-      </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Beyeler, Laura; Jaeger-Erben, Melanie</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E86" t="inlineStr">
-        <is>
-          <t>Ecological Economics</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.ecolecon.2025.108737</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Sufficiency-matter-care.txt</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr">
-        <is>
-          <t>business; ecological economics; empirical analysis; ethics; profitability; sustainability</t>
-        </is>
-      </c>
-      <c r="N86" t="inlineStr">
-        <is>
-          <t>Sufficiency can be understood as the endeavors of economic actors to fulfill needs by delivering only what is necessary. This interpretation reveals a relationship between sufficiency and care economics, as both advocate for a need-centered economy. This study demonstrates the influence and support of care on the performance of sufficiency. It is divided into two parts: (1) the development of a care framework that describes the meanings and enablers of care, and (2) the analysis of empirical data from 14 sufficiency-oriented businesses from a care perspective using the care framework. The findings indicate that from a care perspective, the world is a network of vulnerable and interconnected beings who require individuals to engage in care relationships and activities. Time, financial resources, knowledge, collaboration, technologies, and narratives are essential enablers of care and, as the findings demonstrate, contribute to the implementation of sufficiency. This study proposes a novel narrative of sufficiency as a matter of care and encourages future scholars and practitioners to understand sufficiency orientation as part of a care economy—one that fulfils the needs of society over targeting profit maximization. © 2024</t>
-        </is>
-      </c>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Rethinking-trade-offs-in-nature-based</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>Rethinking trade-offs in nature-based solutions from a multispecies justice perspective</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Wijsman, Katinka; Pineda-Pinto, Melissa; Sarkki, Simo; Stijnen, Charlotte; den Dekker-Arlain, Janneke; Raymond, Christopher M.</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>npj Urban Sustainability</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1038/s42949-025-00261-5</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Rethinking-trade-offs-in-nature-based.txt</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
       <c r="K87" t="inlineStr"/>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="inlineStr"/>
@@ -8257,10 +6725,8 @@
           <t>Ng, Huiying; Jing, Toh Han; Lee, Wuan See Vivian; George, Edgar Raeben; Philip, Varughese</t>
         </is>
       </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D88" t="n">
+        <v>2025</v>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -8321,45 +6787,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
       <c r="K88" t="inlineStr"/>
       <c r="L88" t="inlineStr"/>
       <c r="M88" t="inlineStr"/>
@@ -8436,45 +6864,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
       <c r="K89" t="inlineStr"/>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="inlineStr"/>
@@ -8503,10 +6893,8 @@
           <t>Sage, Daniel</t>
         </is>
       </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D90" t="n">
+        <v>2025</v>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -8567,45 +6955,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
       <c r="K90" t="inlineStr"/>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="inlineStr"/>
@@ -8638,10 +6988,8 @@
           <t>Sharp, Emma L.; Yee, Kenzi; Makey, Leane; Fisher, Karen</t>
         </is>
       </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D91" t="n">
+        <v>2025</v>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -8693,10 +7041,8 @@
           <t>Shaw, Jamie</t>
         </is>
       </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D92" t="n">
+        <v>2025</v>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -8748,10 +7094,8 @@
           <t>Simone, Abdoumaliq</t>
         </is>
       </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D93" t="n">
+        <v>2025</v>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -8812,7 +7156,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J93" t="inlineStr">
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>housing conditions; infrastructural development; space use; uncertainty analysis; urban area; urban geography</t>
+        </is>
+      </c>
+      <c r="N93" t="inlineStr">
+        <is>
+          <t>Compassion in urban settings is manifested less as a definitive practice than as a panoply of spatial and temporal orientations that lend uncertainty to the dispositions of actions and events. This is an uncertainty that can be either generative or debilitating, and it is difficult to predict which in advance. Thus, apertures and opportunities can appear beyond the consideration of eligibility or preparedness, and there can be a refusal of the terms on offer. In this way, the intersections of bodies, materials, built environments and political structures can generate unanticipated opportunities amid what otherwise seem to be innumerable foreclosures. © 2025 The Author(s). International Journal of Urban and Regional Research published by John Wiley &amp; Sons Ltd on behalf of Urban Research Publications Limited.</t>
+        </is>
+      </c>
+      <c r="O93" t="inlineStr"/>
+      <c r="P93" t="inlineStr"/>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>The-Ruined-Seascapes-Wasteocene</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>The Ruined Seascapes of the Wasteocene On the Lives of Fishers and Gravid Fish in Coastal Ecuador</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Vina, Michael A.</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Environmental Humanities</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/22011919-11713486</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-Ruined-Seascapes-Wasteocene.txt</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -8851,68 +7255,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr"/>
-      <c r="L93" t="inlineStr"/>
-      <c r="M93" t="inlineStr">
-        <is>
-          <t>housing conditions; infrastructural development; space use; uncertainty analysis; urban area; urban geography</t>
-        </is>
-      </c>
-      <c r="N93" t="inlineStr">
-        <is>
-          <t>Compassion in urban settings is manifested less as a definitive practice than as a panoply of spatial and temporal orientations that lend uncertainty to the dispositions of actions and events. This is an uncertainty that can be either generative or debilitating, and it is difficult to predict which in advance. Thus, apertures and opportunities can appear beyond the consideration of eligibility or preparedness, and there can be a refusal of the terms on offer. In this way, the intersections of bodies, materials, built environments and political structures can generate unanticipated opportunities amid what otherwise seem to be innumerable foreclosures. © 2025 The Author(s). International Journal of Urban and Regional Research published by John Wiley &amp; Sons Ltd on behalf of Urban Research Publications Limited.</t>
-        </is>
-      </c>
-      <c r="O93" t="inlineStr"/>
-      <c r="P93" t="inlineStr"/>
-      <c r="Q93" t="inlineStr">
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Ecuador; Anthropocene; coastal fishery; concealment behavior; environmental history; Eocene; ethnography; fish</t>
+        </is>
+      </c>
+      <c r="N94" t="inlineStr">
+        <is>
+          <t>Along the south-central coast of Ecuador, the shifting seascape and broader economic processes bind inhabitants with the unique sociomaterial qualities of fish and their commodified products, such as fishmeal. Based on ethnographic fieldwork, this article argues that the vitality contained within fish eggs is not located within the fish itself but rather within the relationship between fish bodies and the specific human knowledges that coproduce the subjective life of fish and its commodified forms. By examining the concealment of fish from industrial boats to fishers’ households as a form of “marginal gain,” this work connects hope and anxiety with fishers’ notions of decline and indeterminacy. Fishers’ reappropriation of fish forms a critique of fishmeal economies through shifting environmental histories of the sea that are sensed through nonhuman bodies and experienced simultaneously as beneficial and detrimental. Rather than viewing these human and nonhuman configurations as another example of human hubris in the Anthropocene, this article proposes that such relations are better understood within the Wasteocene, a logic that exposes the ways that human and nonhuman bodies are rendered physically and conceptually wasted through fishers and corporate instances of caring and killing. © 2025 Michael A. Vina.</t>
+        </is>
+      </c>
+      <c r="O94" t="inlineStr"/>
+      <c r="P94" t="inlineStr"/>
+      <c r="Q94" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>The-Ruined-Seascapes-Wasteocene</t>
-        </is>
-      </c>
-      <c r="B94" t="inlineStr">
-        <is>
-          <t>The Ruined Seascapes of the Wasteocene On the Lives of Fishers and Gravid Fish in Coastal Ecuador</t>
-        </is>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Vina, Michael A.</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Environmental Humanities</t>
-        </is>
-      </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1215/22011919-11713486</t>
-        </is>
-      </c>
-      <c r="G94" t="inlineStr">
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Garden-time-and-market-time</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>Garden time and market time: Finding seasonality in diverse food economies</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Sovová, Lucie; Jehlička, Petr</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Geoforum</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.geoforum.2025.104322</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
         </is>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-Ruined-Seascapes-Wasteocene.txt</t>
-        </is>
-      </c>
-      <c r="I94" t="inlineStr">
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Garden-time-and-market-time.txt</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -8951,7 +7354,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Czech Republic; food market; food provisioning; food quality; home garden; modernity; seasonality; urban agriculture</t>
+        </is>
+      </c>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>This paper combines two fast-developing perspectives on food provision: diverse economies and temporality. Building on an in-depth study of urban gardening in Czechia, we show that non-market economies play a central role in household food practices and that their specific temporality shapes how other parts of a household's diverse food economy are mobilised at certain times and for certain purposes. Following the diverse economies approach of reading for difference and not dominance, this paper investigates the interrelations and hierarchies among market, alternative market, and non-market food economies on the household level. We decentre the presumed dominance of market-based provisioning by showing that gardeners’ food behaviours are crucially shaped by their engagement with food self-provisioning (FSP), which creates particular understandings of food quality. What is more, the cyclical, natural time of gardening seasons determines the social rhythm of food provisioning in a contemporary urban context. This provides a counter-narrative to the dominant account about the dislodging of cyclical time embedded in natural processes by modern, accelerated time, with the former carrying a lower value than the latter. Finally, we engage with temporality on a discursive level as we counterpose our case of traditional FSP against the fascination with novelty permeating much of the search for alternative foodways. With this, we contribute to the debate on the temporality underpinning the ideas of capitalist modernity as well as post-capitalist prefiguration. © 2025 The Authors</t>
+        </is>
+      </c>
+      <c r="O95" t="inlineStr"/>
+      <c r="P95" t="inlineStr"/>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>We-dont-have-a-time</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>“We don't have time”: How imaginaries of urgent energy system change marginalise locally driven pathways</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Unsworth, Sam; Ahlborg, Helene; Hellberg, Sofie</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Energy Research and Social Science</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.erss.2024.103888</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\We-dont-have-a-time.txt</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -8990,284 +7453,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr"/>
-      <c r="L94" t="inlineStr"/>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>Ecuador; Anthropocene; coastal fishery; concealment behavior; environmental history; Eocene; ethnography; fish</t>
-        </is>
-      </c>
-      <c r="N94" t="inlineStr">
-        <is>
-          <t>Along the south-central coast of Ecuador, the shifting seascape and broader economic processes bind inhabitants with the unique sociomaterial qualities of fish and their commodified products, such as fishmeal. Based on ethnographic fieldwork, this article argues that the vitality contained within fish eggs is not located within the fish itself but rather within the relationship between fish bodies and the specific human knowledges that coproduce the subjective life of fish and its commodified forms. By examining the concealment of fish from industrial boats to fishers’ households as a form of “marginal gain,” this work connects hope and anxiety with fishers’ notions of decline and indeterminacy. Fishers’ reappropriation of fish forms a critique of fishmeal economies through shifting environmental histories of the sea that are sensed through nonhuman bodies and experienced simultaneously as beneficial and detrimental. Rather than viewing these human and nonhuman configurations as another example of human hubris in the Anthropocene, this article proposes that such relations are better understood within the Wasteocene, a logic that exposes the ways that human and nonhuman bodies are rendered physically and conceptually wasted through fishers and corporate instances of caring and killing. © 2025 Michael A. Vina.</t>
-        </is>
-      </c>
-      <c r="O94" t="inlineStr"/>
-      <c r="P94" t="inlineStr"/>
-      <c r="Q94" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Garden-time-and-market-time</t>
-        </is>
-      </c>
-      <c r="B95" t="inlineStr">
-        <is>
-          <t>Garden time and market time: Finding seasonality in diverse food economies</t>
-        </is>
-      </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Sovová, Lucie; Jehlička, Petr</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Geoforum</t>
-        </is>
-      </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.geoforum.2025.104322</t>
-        </is>
-      </c>
-      <c r="G95" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Garden-time-and-market-time.txt</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K95" t="inlineStr"/>
-      <c r="L95" t="inlineStr"/>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>Czech Republic; food market; food provisioning; food quality; home garden; modernity; seasonality; urban agriculture</t>
-        </is>
-      </c>
-      <c r="N95" t="inlineStr">
-        <is>
-          <t>This paper combines two fast-developing perspectives on food provision: diverse economies and temporality. Building on an in-depth study of urban gardening in Czechia, we show that non-market economies play a central role in household food practices and that their specific temporality shapes how other parts of a household's diverse food economy are mobilised at certain times and for certain purposes. Following the diverse economies approach of reading for difference and not dominance, this paper investigates the interrelations and hierarchies among market, alternative market, and non-market food economies on the household level. We decentre the presumed dominance of market-based provisioning by showing that gardeners’ food behaviours are crucially shaped by their engagement with food self-provisioning (FSP), which creates particular understandings of food quality. What is more, the cyclical, natural time of gardening seasons determines the social rhythm of food provisioning in a contemporary urban context. This provides a counter-narrative to the dominant account about the dislodging of cyclical time embedded in natural processes by modern, accelerated time, with the former carrying a lower value than the latter. Finally, we engage with temporality on a discursive level as we counterpose our case of traditional FSP against the fascination with novelty permeating much of the search for alternative foodways. With this, we contribute to the debate on the temporality underpinning the ideas of capitalist modernity as well as post-capitalist prefiguration. © 2025 The Authors</t>
-        </is>
-      </c>
-      <c r="O95" t="inlineStr"/>
-      <c r="P95" t="inlineStr"/>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>We-dont-have-a-time</t>
-        </is>
-      </c>
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>“We don't have time”: How imaginaries of urgent energy system change marginalise locally driven pathways</t>
-        </is>
-      </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Unsworth, Sam; Ahlborg, Helene; Hellberg, Sofie</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Energy Research and Social Science</t>
-        </is>
-      </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.erss.2024.103888</t>
-        </is>
-      </c>
-      <c r="G96" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H96" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\We-dont-have-a-time.txt</t>
-        </is>
-      </c>
-      <c r="I96" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J96" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="inlineStr"/>
       <c r="M96" t="inlineStr"/>
@@ -9300,10 +7486,8 @@
           <t>Jopling, Michael; Stewart, Georgina Tuari; Orchard, Shane; Suoranta, Juha; Tolbert, Sara; Cheilan, Laurène; Yan, Fei; Price, Catherine; Hayes, Sarah; Scott, Howard; Latham, Annabel; Bhatt, Ibrar; Dodonov, Vyacheslav; Matthews, Adam; Muhtaseb, Rami; MacKenzie, Alison; Owaineh, Mohamed; Earle, Sarah; Simmons, Ben; Clarke, Zoë; la Velle, Linda; Green, Benjamin J.; Brown, Cheryl; Watermeyer, Richard; Jandrić, Petar</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D97" t="n">
+        <v>2025</v>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -9364,45 +7548,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="inlineStr"/>
       <c r="M97" t="inlineStr"/>
@@ -9435,10 +7581,8 @@
           <t>Tran, Trang C.; Penuel, William R.; Singleton, Corinne; Bell, Philip; Leonhart, Sarah</t>
         </is>
       </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D98" t="n">
+        <v>2025</v>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -9486,10 +7630,8 @@
           <t>Aare, Ane Kirstine; Umantseva, Anna; Sørensen, Laura Brandt</t>
         </is>
       </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D99" t="n">
+        <v>2025</v>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -9550,45 +7692,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="inlineStr"/>
@@ -9621,10 +7725,8 @@
           <t>Schönbauer, Sarah Maria</t>
         </is>
       </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D100" t="n">
+        <v>2025</v>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -9685,45 +7787,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J100" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="inlineStr"/>
@@ -9756,10 +7820,8 @@
           <t>Bruckermann, Charlotte</t>
         </is>
       </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D101" t="n">
+        <v>2025</v>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -9820,45 +7882,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J101" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
       <c r="K101" t="inlineStr"/>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="inlineStr"/>
@@ -9891,10 +7915,8 @@
           <t>Schönbauer, Sarah Maria</t>
         </is>
       </c>
-      <c r="D102" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D102" t="n">
+        <v>2025</v>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -9955,45 +7977,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
       <c r="K102" t="inlineStr"/>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="inlineStr"/>
@@ -10026,10 +8010,8 @@
           <t>Ejsing, Mads; Tønder, Lars; Jensen, Ingrid Helene Brandt; Hansen, Janus</t>
         </is>
       </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D103" t="n">
+        <v>2025</v>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -10077,10 +8059,8 @@
           <t>Kraftl, Peter; Ambreen, Samyia; Armson, David; Badwan, Khawla; Curtis, Elizabeth; Pahl, Kate; Schofield, J. Edward</t>
         </is>
       </c>
-      <c r="D104" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D104" t="n">
+        <v>2025</v>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -10141,45 +8121,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J104" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
       <c r="K104" t="inlineStr"/>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="inlineStr"/>
@@ -10212,10 +8154,8 @@
           <t>Smith, Geneva M.; Smith, Lindsay A.</t>
         </is>
       </c>
-      <c r="D105" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D105" t="n">
+        <v>2025</v>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -10263,10 +8203,8 @@
           <t>Carabelli, Giulia; Lyon, Dawn</t>
         </is>
       </c>
-      <c r="D106" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D106" t="n">
+        <v>2025</v>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -10327,45 +8265,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J106" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
       <c r="K106" t="inlineStr"/>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="inlineStr"/>
@@ -10398,10 +8298,8 @@
           <t>Bolivar, Sarah</t>
         </is>
       </c>
-      <c r="D107" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D107" t="n">
+        <v>2025</v>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -10462,45 +8360,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J107" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
       <c r="K107" t="inlineStr"/>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="inlineStr"/>
@@ -10533,10 +8393,8 @@
           <t>Laurent, Brice; Merlin, Julien; Meulemans, Germain</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D108" t="n">
+        <v>2025</v>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -10588,10 +8446,8 @@
           <t>Stenbacka, Susanne</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D109" t="n">
+        <v>2025</v>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -10652,45 +8508,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
       <c r="K109" t="inlineStr"/>
       <c r="L109" t="inlineStr"/>
       <c r="M109" t="inlineStr"/>
@@ -10723,10 +8541,8 @@
           <t>Chann, Sopheak; Beban, Alice; Wisesjindawat-Fink, Wisa</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D110" t="n">
+        <v>2025</v>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -10774,10 +8590,8 @@
           <t>Ashley, Louisa; Rodríguez Herrera, Diana María; Hummel, Agata</t>
         </is>
       </c>
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D111" t="n">
+        <v>2025</v>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -10838,45 +8652,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J111" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="inlineStr"/>
       <c r="M111" t="inlineStr"/>
@@ -10909,10 +8685,8 @@
           <t>Milazzo, Enrico</t>
         </is>
       </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D112" t="n">
+        <v>2025</v>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -10973,45 +8747,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J112" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="inlineStr"/>
       <c r="M112" t="inlineStr"/>
@@ -11044,10 +8780,8 @@
           <t>Milligan, Brett</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D113" t="n">
+        <v>2025</v>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -11108,45 +8842,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J113" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
       <c r="K113" t="inlineStr"/>
       <c r="L113" t="inlineStr"/>
       <c r="M113" t="inlineStr"/>
@@ -11179,10 +8875,8 @@
           <t>Shah, Rhea; Maru, Natasha</t>
         </is>
       </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D114" t="n">
+        <v>2025</v>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -11230,10 +8924,8 @@
           <t>Szafonova, Tatyjana</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D115" t="n">
+        <v>2025</v>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -11281,10 +8973,8 @@
           <t>Baya-Laffite, Nicolas; Boudia, Soraya; Granjou, Céline</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D116" t="n">
+        <v>2025</v>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -11336,10 +9026,8 @@
           <t>Straatsma, Gerben</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D117" t="n">
+        <v>2025</v>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -11387,10 +9075,8 @@
           <t>Barrineau, Susanna; Do, Thao; Powell, Neil</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D118" t="n">
+        <v>2025</v>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -11451,45 +9137,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J118" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
       <c r="K118" t="inlineStr"/>
       <c r="L118" t="inlineStr"/>
       <c r="M118" t="inlineStr">
@@ -11526,10 +9174,8 @@
           <t>Cazzuffi, Chiara; Retamal, Patricia</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D119" t="n">
+        <v>2025</v>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -11577,10 +9223,8 @@
           <t>Barrineau, Susanna</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D120" t="n">
+        <v>2025</v>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -11641,45 +9285,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J120" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="inlineStr"/>
       <c r="M120" t="inlineStr">
@@ -11716,10 +9322,8 @@
           <t>Hackfort, Sarah; Saave, Anna; Wichterich, Christa</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D121" t="n">
+        <v>2025</v>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -11767,10 +9371,8 @@
           <t>Falkenberg, Ruth; Sigl, Lisa; Fochler, Maximilian</t>
         </is>
       </c>
-      <c r="D122" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D122" t="n">
+        <v>2025</v>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -11831,45 +9433,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J122" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
       <c r="K122" t="inlineStr"/>
       <c r="L122" t="inlineStr"/>
       <c r="M122" t="inlineStr"/>
@@ -11902,10 +9466,8 @@
           <t>Rigkos-Zitthen, Ioannis; Kapitsinis, Nikos</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D123" t="n">
+        <v>2025</v>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -11953,10 +9515,8 @@
           <t>Mahecha-Groot, Ana Maria; Leichenko, Robin</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D124" t="n">
+        <v>2025</v>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -12008,10 +9568,8 @@
           <t>Michael, Carolan</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D125" t="n">
+        <v>2025</v>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -12059,10 +9617,8 @@
           <t>Oktay, Gizem; Lee, Minha; Barati, Bahareh; Wakkary, Ron</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D126" t="n">
+        <v>2024</v>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -12123,7 +9679,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J126" t="inlineStr">
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Caring through; Design with care; Human design; More-than-human design; Temporality; Temporality of care; Design for manufacturability</t>
+        </is>
+      </c>
+      <c r="N126" t="inlineStr">
+        <is>
+          <t>Care is a political and ethical everyday practice with nested processes and relationships. In more-than-human design, care is a practice that allows a deep engagement with time and temporality. Existing terms such as caring for and about fall short in accounting for this engagement by not bringing to the fore the diverse temporal frames embedded in care relations and the fluidity of agency between caregiver and receiver roles. This paper provides a typology informed by different kinds of care based on engagement with time and labor, such as caring for, about, and through. Specifically, we contribute caring through as a concept emphasizing the role of more-than-human temporality in care practice. Caring through accounts for plural engagements with time, the interdependence between caregiver and care receiver, and mediated aspects of care where care becomes making time for the other. © 2024 Copyright held by the owner/author(s).</t>
+        </is>
+      </c>
+      <c r="O126" t="inlineStr"/>
+      <c r="P126" t="inlineStr"/>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Communication-about-soil-biodiversity</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Communicating about soil biodiversity: Insights from science editorials and future recommendations</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Pressler, Yamina; McClymonds, Bailey M.; Balgopal, Meena M.</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>Pedobiologia</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.pedobi.2024.151003</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Communication-about-soil-biodiversity.txt</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -12162,68 +9778,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr"/>
-      <c r="L126" t="inlineStr"/>
-      <c r="M126" t="inlineStr">
-        <is>
-          <t>Caring through; Design with care; Human design; More-than-human design; Temporality; Temporality of care; Design for manufacturability</t>
-        </is>
-      </c>
-      <c r="N126" t="inlineStr">
-        <is>
-          <t>Care is a political and ethical everyday practice with nested processes and relationships. In more-than-human design, care is a practice that allows a deep engagement with time and temporality. Existing terms such as caring for and about fall short in accounting for this engagement by not bringing to the fore the diverse temporal frames embedded in care relations and the fluidity of agency between caregiver and receiver roles. This paper provides a typology informed by different kinds of care based on engagement with time and labor, such as caring for, about, and through. Specifically, we contribute caring through as a concept emphasizing the role of more-than-human temporality in care practice. Caring through accounts for plural engagements with time, the interdependence between caregiver and care receiver, and mediated aspects of care where care becomes making time for the other. © 2024 Copyright held by the owner/author(s).</t>
-        </is>
-      </c>
-      <c r="O126" t="inlineStr"/>
-      <c r="P126" t="inlineStr"/>
-      <c r="Q126" t="inlineStr">
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>biodiversity; climate change; food production; shape; soil conservation; soil degradation; soil science</t>
+        </is>
+      </c>
+      <c r="N127" t="inlineStr">
+        <is>
+          <t>Given the urgency of the global soil degradation crisis, soil scientists must communicate the importance of soil as being part of nature and the critical need for conserving soil biodiversity. Drawing on a thematic analysis of editorials related to soil conservation and management, we analyzed common themes, key messages, and frames that authors used to advocate for change. Soil biodiversity was referred to in 8 of the 11 editorials, but it was less emphasized and discussed in less detail than messages centered around food production, water resources, and climate change. Editorials structured arguments around economic development, scientific and technical uncertainty, and morality and ethics. We believe future editorials should apply other persuasive frames including social progress, public accountability, and working-towards-compromise when advocating for soil biodiversity conservation. Soil ecologists can improve communications about soil biodiversity by (1) identifying an audience and selecting relevant key messages, (2) strategically applying a persuasive frame, and (3) amplifying diverse voices with a consistent message. We provide a guide for developing essays that encourages soil ecologists to shape discourse, advance policy priorities, and enable non-soil ecologists to communicate about soil biodiversity conservation. © 2024 The Authors</t>
+        </is>
+      </c>
+      <c r="O127" t="inlineStr"/>
+      <c r="P127" t="inlineStr"/>
+      <c r="Q127" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t>Communication-about-soil-biodiversity</t>
-        </is>
-      </c>
-      <c r="B127" t="inlineStr">
-        <is>
-          <t>Communicating about soil biodiversity: Insights from science editorials and future recommendations</t>
-        </is>
-      </c>
-      <c r="C127" t="inlineStr">
-        <is>
-          <t>Pressler, Yamina; McClymonds, Bailey M.; Balgopal, Meena M.</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E127" t="inlineStr">
-        <is>
-          <t>Pedobiologia</t>
-        </is>
-      </c>
-      <c r="F127" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1016/j.pedobi.2024.151003</t>
-        </is>
-      </c>
-      <c r="G127" t="inlineStr">
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The-diversity-of-ignorance-and-the-ignorance-of-diversity</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>The diversity of ignorance and the ignorance of diversity: origins and implications of “shadow diversity” for conservation biology and extinction</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Turton-Hughes, Serena; Holmes, George; Hassall, Christopher</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>Cambridge Prisms: Extinction</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1017/ext.2024.21</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Communication-about-soil-biodiversity.txt</t>
-        </is>
-      </c>
-      <c r="I127" t="inlineStr">
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-diversity-of-ignorance-and-the-ignorance-of-diversity.txt</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -12262,184 +9877,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J127" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K127" t="inlineStr"/>
-      <c r="L127" t="inlineStr"/>
-      <c r="M127" t="inlineStr">
-        <is>
-          <t>biodiversity; climate change; food production; shape; soil conservation; soil degradation; soil science</t>
-        </is>
-      </c>
-      <c r="N127" t="inlineStr">
-        <is>
-          <t>Given the urgency of the global soil degradation crisis, soil scientists must communicate the importance of soil as being part of nature and the critical need for conserving soil biodiversity. Drawing on a thematic analysis of editorials related to soil conservation and management, we analyzed common themes, key messages, and frames that authors used to advocate for change. Soil biodiversity was referred to in 8 of the 11 editorials, but it was less emphasized and discussed in less detail than messages centered around food production, water resources, and climate change. Editorials structured arguments around economic development, scientific and technical uncertainty, and morality and ethics. We believe future editorials should apply other persuasive frames including social progress, public accountability, and working-towards-compromise when advocating for soil biodiversity conservation. Soil ecologists can improve communications about soil biodiversity by (1) identifying an audience and selecting relevant key messages, (2) strategically applying a persuasive frame, and (3) amplifying diverse voices with a consistent message. We provide a guide for developing essays that encourages soil ecologists to shape discourse, advance policy priorities, and enable non-soil ecologists to communicate about soil biodiversity conservation. © 2024 The Authors</t>
-        </is>
-      </c>
-      <c r="O127" t="inlineStr"/>
-      <c r="P127" t="inlineStr"/>
-      <c r="Q127" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>The-diversity-of-ignorance-and-the-ignorance-of-diversity</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>The diversity of ignorance and the ignorance of diversity: origins and implications of “shadow diversity” for conservation biology and extinction</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>Turton-Hughes, Serena; Holmes, George; Hassall, Christopher</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>Cambridge Prisms: Extinction</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1017/ext.2024.21</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-diversity-of-ignorance-and-the-ignorance-of-diversity.txt</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="inlineStr"/>
       <c r="M128" t="inlineStr"/>
@@ -12472,10 +9910,8 @@
           <t>Snorek, Julie; Freidberg, Susanne; Smith, Geneva</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D129" t="n">
+        <v>2024</v>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -12550,10 +9986,8 @@
           <t>Ciobanu, Patricia; Fernaeus, Ylva</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D131" t="n">
+        <v>2024</v>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -12614,45 +10048,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J131" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
       <c r="K131" t="inlineStr"/>
       <c r="L131" t="inlineStr"/>
       <c r="M131" t="inlineStr">
@@ -12689,10 +10085,8 @@
           <t>Chan, Anita Say</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D132" t="n">
+        <v>2025</v>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -12740,10 +10134,8 @@
           <t>Paterson, Eddie; Stevens, Lara</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D133" t="n">
+        <v>2025</v>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -12804,7 +10196,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J133" t="inlineStr">
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Element compositions; Literals; Performance; Performance study</t>
+        </is>
+      </c>
+      <c r="N133" t="inlineStr">
+        <is>
+          <t>Performing Climates features 14 interconnected chapters exploring theatre and performance’s relationship with more-than-human elements at a time of climate emergency. The book argues that Western performance – how we conceive of it, as well as how we train and educate people in and about it – needs to reorient its ways of making and thinking about itself to reconsider patterns of breakdown, decay and renewal happening on and off stage in a literal play of cells and particles. Performing Climates examines live performance as a uniquely compostable artform, formed by sonic vibrations and movements of air and matter, more-than-human elements, composition and decomposition. This book will appeal to undergraduate audiences, postgraduate scholars and performance studies colleagues, offering exciting possibilities for reconsidering theatre and performing in an age of crisis. © 2025 Eddie Paterson and Lara Stevens.</t>
+        </is>
+      </c>
+      <c r="O133" t="inlineStr"/>
+      <c r="P133" t="inlineStr"/>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Environmental-Harms-and-Entangled-Lifeworlds</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Environmental Harms and Entangled Lifeworlds in the Russia-Ukraine War: A Relational Reframing of Transitional Justice</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Clark, Janine Natalya</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>2025</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>Journal of Intervention and Statebuilding</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17502977.2025.2533716</t>
+        </is>
+      </c>
+      <c r="G134" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Environmental-Harms-and-Entangled-Lifeworlds.txt</t>
+        </is>
+      </c>
+      <c r="I134" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -12843,145 +10295,7 @@
 ]</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr"/>
-      <c r="L133" t="inlineStr"/>
-      <c r="M133" t="inlineStr">
-        <is>
-          <t>Element compositions; Literals; Performance; Performance study</t>
-        </is>
-      </c>
-      <c r="N133" t="inlineStr">
-        <is>
-          <t>Performing Climates features 14 interconnected chapters exploring theatre and performance’s relationship with more-than-human elements at a time of climate emergency. The book argues that Western performance – how we conceive of it, as well as how we train and educate people in and about it – needs to reorient its ways of making and thinking about itself to reconsider patterns of breakdown, decay and renewal happening on and off stage in a literal play of cells and particles. Performing Climates examines live performance as a uniquely compostable artform, formed by sonic vibrations and movements of air and matter, more-than-human elements, composition and decomposition. This book will appeal to undergraduate audiences, postgraduate scholars and performance studies colleagues, offering exciting possibilities for reconsidering theatre and performing in an age of crisis. © 2025 Eddie Paterson and Lara Stevens.</t>
-        </is>
-      </c>
-      <c r="O133" t="inlineStr"/>
-      <c r="P133" t="inlineStr"/>
-      <c r="Q133" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>Environmental-Harms-and-Entangled-Lifeworlds</t>
-        </is>
-      </c>
-      <c r="B134" t="inlineStr">
-        <is>
-          <t>Environmental Harms and Entangled Lifeworlds in the Russia-Ukraine War: A Relational Reframing of Transitional Justice</t>
-        </is>
-      </c>
-      <c r="C134" t="inlineStr">
-        <is>
-          <t>Clark, Janine Natalya</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
-      </c>
-      <c r="E134" t="inlineStr">
-        <is>
-          <t>Journal of Intervention and Statebuilding</t>
-        </is>
-      </c>
-      <c r="F134" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1080/17502977.2025.2533716</t>
-        </is>
-      </c>
-      <c r="G134" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H134" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Environmental-Harms-and-Entangled-Lifeworlds.txt</t>
-        </is>
-      </c>
-      <c r="I134" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J134" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
       <c r="K134" t="inlineStr"/>
       <c r="L134" t="inlineStr"/>
       <c r="M134" t="inlineStr"/>
@@ -13014,10 +10328,8 @@
           <t>Heitlinger, Sara; Light, Ann; Akama, Yoko; Lindström, Kristina; Stahl, Asa</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr">
-        <is>
-          <t>2025</t>
-        </is>
+      <c r="D135" t="n">
+        <v>2025</v>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -13065,10 +10377,8 @@
           <t>Krzywoszynska, Anna</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D136" t="n">
+        <v>2024</v>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -13129,45 +10439,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J136" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
       <c r="K136" t="inlineStr"/>
       <c r="L136" t="inlineStr"/>
       <c r="M136" t="inlineStr"/>
@@ -13200,10 +10472,8 @@
           <t>Pandey, Poonam; Kuruganti, Kavitha</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D137" t="n">
+        <v>2024</v>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -13247,10 +10517,8 @@
           <t>Saifuddin, Mustafa; Abramoff, Rose Z; Foster, Erika J; McClelland, Shelby C</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D138" t="n">
+        <v>2024</v>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -13311,7 +10579,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J138" t="inlineStr">
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>carbon sequestration; climate change; combustion; environmental justice; fossil fuel; perturbation; soil carbon</t>
+        </is>
+      </c>
+      <c r="N138" t="inlineStr">
+        <is>
+          <t>There is growing interest in enhancing soil carbon sequestration (SCS) as a climate mitigation strategy, including neutralizing atmospheric emissions from fossil-fuel combustion through the development of soil carbon offset markets. Several studies have focused on refining estimates of the magnitude of potential SCS or on developing methods for soil carbon quantification in markets. We call on scientists and policy makers to resist assimilating soils into carbon offset markets due to not only fundamental flaws in the logic of these markets to reach climate neutrality but also environmental justice concerns. Here, we first highlight how carbon offset markets rely on an inappropriate substitution of inert fossil carbon with dynamic stocks of soil carbon. We then note the failure of these markets to account for intersecting anthropogenic perturbations to the carbon cycle, including the soil carbon debt and ongoing agricultural emissions. Next, we invite scientists to consider soil functions beyond productivity and profitability. Finally, we describe and support historical opposition to offset markets by environmental justice advocates. We encourage scientists to consider how their research and communications can promote diverse soil functions and just climate-change mitigation. © 2024 The Author(s). Frontiers in Ecology and the Environment published by Wiley Periodicals LLC on behalf of The Ecological Society of America.</t>
+        </is>
+      </c>
+      <c r="O138" t="inlineStr"/>
+      <c r="P138" t="inlineStr"/>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Constructing-Soils-to-Mitigate-Land-Occupation</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>Constructing Soils to Mitigate Land Occupation by Urban Expansion and Metabolism to Improve Healthy Cities</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Rodríguez-Espinosa, Teresa; Pérez-Gimeno, Ana; Almendro-Candel, María Belén; Navarro-Pedreño, Jose</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/land13091383</t>
+        </is>
+      </c>
+      <c r="G139" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Constructing-Soils-to-Mitigate-Land-Occupation.txt</t>
+        </is>
+      </c>
+      <c r="I139" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -13350,68 +10678,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr"/>
-      <c r="L138" t="inlineStr"/>
-      <c r="M138" t="inlineStr">
-        <is>
-          <t>carbon sequestration; climate change; combustion; environmental justice; fossil fuel; perturbation; soil carbon</t>
-        </is>
-      </c>
-      <c r="N138" t="inlineStr">
-        <is>
-          <t>There is growing interest in enhancing soil carbon sequestration (SCS) as a climate mitigation strategy, including neutralizing atmospheric emissions from fossil-fuel combustion through the development of soil carbon offset markets. Several studies have focused on refining estimates of the magnitude of potential SCS or on developing methods for soil carbon quantification in markets. We call on scientists and policy makers to resist assimilating soils into carbon offset markets due to not only fundamental flaws in the logic of these markets to reach climate neutrality but also environmental justice concerns. Here, we first highlight how carbon offset markets rely on an inappropriate substitution of inert fossil carbon with dynamic stocks of soil carbon. We then note the failure of these markets to account for intersecting anthropogenic perturbations to the carbon cycle, including the soil carbon debt and ongoing agricultural emissions. Next, we invite scientists to consider soil functions beyond productivity and profitability. Finally, we describe and support historical opposition to offset markets by environmental justice advocates. We encourage scientists to consider how their research and communications can promote diverse soil functions and just climate-change mitigation. © 2024 The Author(s). Frontiers in Ecology and the Environment published by Wiley Periodicals LLC on behalf of The Ecological Society of America.</t>
-        </is>
-      </c>
-      <c r="O138" t="inlineStr"/>
-      <c r="P138" t="inlineStr"/>
-      <c r="Q138" t="inlineStr">
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>carbon sink; ecosystem service; land management; metabolism; quality of life; soil; urban ecosystem; urban policy; waste management</t>
+        </is>
+      </c>
+      <c r="N139" t="inlineStr">
+        <is>
+          <t>The number of city residents worldwide is increasing at the same that soil consumption around cities, which can be mitigated using technosols. Urban areas need to provide a healthy environment for residents, but this is threatened by climate change. Mitigating the adverse impacts of climate change does not involve one-size-fits-all global solutions; cities face varying economic and social contexts. Cities need to offer ecosystem services in order to operate as healthy urban ecosystems. The urban soils’ environmental services are often overlooked, leading to public administrations having little to no awareness about land management policies and ecosystem services. Technosols, artificial or human altered soils, have the potential to provide the same ecosystem benefits as natural soils and do not require as much time to develop in order to perform their functions. Additionally, technosols have the potential to enhance the circular economy using waste materials. In this sense, policy makers should incorporate urban technosols as a strategy to enhance the health of cities and address climate change. Our perspective on soils in urban areas needs to be altered, as technosols should be included in urban policies, have the potential to serve as a crucial component in providing ecosystem services and acting as a carbon sink and enhance urban well-being. © 2024 by the authors.</t>
+        </is>
+      </c>
+      <c r="O139" t="inlineStr"/>
+      <c r="P139" t="inlineStr"/>
+      <c r="Q139" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t>Constructing-Soils-to-Mitigate-Land-Occupation</t>
-        </is>
-      </c>
-      <c r="B139" t="inlineStr">
-        <is>
-          <t>Constructing Soils to Mitigate Land Occupation by Urban Expansion and Metabolism to Improve Healthy Cities</t>
-        </is>
-      </c>
-      <c r="C139" t="inlineStr">
-        <is>
-          <t>Rodríguez-Espinosa, Teresa; Pérez-Gimeno, Ana; Almendro-Candel, María Belén; Navarro-Pedreño, Jose</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E139" t="inlineStr">
-        <is>
-          <t>Land</t>
-        </is>
-      </c>
-      <c r="F139" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/land13091383</t>
-        </is>
-      </c>
-      <c r="G139" t="inlineStr">
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>SIRSD-S-or-the-danger-of-a-productivist</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>SIRSD-S or the danger of a productivist problematization of degraded soils; [El SIRSD-S o los riesgos de una problematización productivista de los suelos degradados]</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Ureta, Sebastián; Oteagui, Álvaro; Llona, Miriam</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>Revista de Geografia Norte Grande</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4067/S0718-34022024000200104</t>
+        </is>
+      </c>
+      <c r="G140" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
         </is>
       </c>
-      <c r="H139" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Constructing-Soils-to-Mitigate-Land-Occupation.txt</t>
-        </is>
-      </c>
-      <c r="I139" t="inlineStr">
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\SIRSD-S-or-the-danger-of-a-productivist.txt</t>
+        </is>
+      </c>
+      <c r="I140" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -13450,184 +10777,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J139" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K139" t="inlineStr"/>
-      <c r="L139" t="inlineStr"/>
-      <c r="M139" t="inlineStr">
-        <is>
-          <t>carbon sink; ecosystem service; land management; metabolism; quality of life; soil; urban ecosystem; urban policy; waste management</t>
-        </is>
-      </c>
-      <c r="N139" t="inlineStr">
-        <is>
-          <t>The number of city residents worldwide is increasing at the same that soil consumption around cities, which can be mitigated using technosols. Urban areas need to provide a healthy environment for residents, but this is threatened by climate change. Mitigating the adverse impacts of climate change does not involve one-size-fits-all global solutions; cities face varying economic and social contexts. Cities need to offer ecosystem services in order to operate as healthy urban ecosystems. The urban soils’ environmental services are often overlooked, leading to public administrations having little to no awareness about land management policies and ecosystem services. Technosols, artificial or human altered soils, have the potential to provide the same ecosystem benefits as natural soils and do not require as much time to develop in order to perform their functions. Additionally, technosols have the potential to enhance the circular economy using waste materials. In this sense, policy makers should incorporate urban technosols as a strategy to enhance the health of cities and address climate change. Our perspective on soils in urban areas needs to be altered, as technosols should be included in urban policies, have the potential to serve as a crucial component in providing ecosystem services and acting as a carbon sink and enhance urban well-being. © 2024 by the authors.</t>
-        </is>
-      </c>
-      <c r="O139" t="inlineStr"/>
-      <c r="P139" t="inlineStr"/>
-      <c r="Q139" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t>SIRSD-S-or-the-danger-of-a-productivist</t>
-        </is>
-      </c>
-      <c r="B140" t="inlineStr">
-        <is>
-          <t>SIRSD-S or the danger of a productivist problematization of degraded soils; [El SIRSD-S o los riesgos de una problematización productivista de los suelos degradados]</t>
-        </is>
-      </c>
-      <c r="C140" t="inlineStr">
-        <is>
-          <t>Ureta, Sebastián; Oteagui, Álvaro; Llona, Miriam</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E140" t="inlineStr">
-        <is>
-          <t>Revista de Geografia Norte Grande</t>
-        </is>
-      </c>
-      <c r="F140" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4067/S0718-34022024000200104</t>
-        </is>
-      </c>
-      <c r="G140" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H140" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\SIRSD-S-or-the-danger-of-a-productivist.txt</t>
-        </is>
-      </c>
-      <c r="I140" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J140" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
       <c r="K140" t="inlineStr"/>
       <c r="L140" t="inlineStr"/>
       <c r="M140" t="inlineStr">
@@ -13664,10 +10814,8 @@
           <t>Takeuchi, Miwa Aoki; Dadkhahfard, Shima; Kopparla, Mahati; Elhowari, Raneem</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D141" t="n">
+        <v>2024</v>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -13715,10 +10863,8 @@
           <t>Moscatelli, M.C.; Marinari, S.</t>
         </is>
       </c>
-      <c r="D142" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D142" t="n">
+        <v>2024</v>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -13779,45 +10925,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J142" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="inlineStr"/>
       <c r="M142" t="inlineStr"/>
@@ -13850,10 +10958,8 @@
           <t>Valve, Helena; Valkama, Pasi</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D143" t="n">
+        <v>2024</v>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -13914,45 +11020,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J143" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
       <c r="K143" t="inlineStr"/>
       <c r="L143" t="inlineStr"/>
       <c r="M143" t="inlineStr"/>
@@ -13985,10 +11053,8 @@
           <t>Galvão-Ferreira, Pedro; Fearns, Vera; Nunes, Nuno; Nisi, Valentina</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D144" t="n">
+        <v>2024</v>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -14049,7 +11115,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J144" t="inlineStr">
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Ethical technology; Care; Cultural heritages; Feminist ethic; Heritage; Human nature; Locative game; Natural landscapes; Nature; Posthumanism; Qualitative method; Abiotic</t>
+        </is>
+      </c>
+      <c r="N144" t="inlineStr">
+        <is>
+          <t>HCI nature:culture dialogues have recently gained traction, highlighting ample opportunities for investigation. In this paper we look at the potential of locative games in fostering caring engagement with natural/cultural heritage. We present the results of a contextual study that explores the nature:culture duality of the Levada walks on Madeira Island and their intrinsic playfulness as a natural landscape. Through a combination of narrative self-reports and cultural probes, we conducted an on-site investigation of the motivations and embodied experiences of hiking these trails, distilling an empirical epistemology of human-nature interactions. By unpacking the various realities and tensions on the ground through a feminist ethics of care and posthuman lens, we provide insight into the design of future locative interactive technologies to support and encourage human-nature interaction. Our findings address and promote values of engagement and conservation in cultural and natural heritage through a nature:culture continuum. © 2024 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O144" t="inlineStr"/>
+      <c r="P144" t="inlineStr"/>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Agroecology-as-a-practice-of-care</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Agroecology as a Practice of Care supported by Blockchain and DAOs -The speculative case of Murcia's Mar Menor Lagoon.</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Inglezaki, Katerina; Katsikis, Nikos; Sepulveda Carmona, Diego; Pestana, Mariana; Jardim Nunes, Nuno</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>ACM International Conference Proceeding Series</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3681716.3681737</t>
+        </is>
+      </c>
+      <c r="G145" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Agroecology-as-a-practice-of-care.txt</t>
+        </is>
+      </c>
+      <c r="I145" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -14088,68 +11214,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr"/>
-      <c r="L144" t="inlineStr"/>
-      <c r="M144" t="inlineStr">
-        <is>
-          <t>Ethical technology; Care; Cultural heritages; Feminist ethic; Heritage; Human nature; Locative game; Natural landscapes; Nature; Posthumanism; Qualitative method; Abiotic</t>
-        </is>
-      </c>
-      <c r="N144" t="inlineStr">
-        <is>
-          <t>HCI nature:culture dialogues have recently gained traction, highlighting ample opportunities for investigation. In this paper we look at the potential of locative games in fostering caring engagement with natural/cultural heritage. We present the results of a contextual study that explores the nature:culture duality of the Levada walks on Madeira Island and their intrinsic playfulness as a natural landscape. Through a combination of narrative self-reports and cultural probes, we conducted an on-site investigation of the motivations and embodied experiences of hiking these trails, distilling an empirical epistemology of human-nature interactions. By unpacking the various realities and tensions on the ground through a feminist ethics of care and posthuman lens, we provide insight into the design of future locative interactive technologies to support and encourage human-nature interaction. Our findings address and promote values of engagement and conservation in cultural and natural heritage through a nature:culture continuum. © 2024 Owner/Author.</t>
-        </is>
-      </c>
-      <c r="O144" t="inlineStr"/>
-      <c r="P144" t="inlineStr"/>
-      <c r="Q144" t="inlineStr">
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Abiotic; Blockchain; Actor-network; Agro ecologies; Block-chain; Care; Contextualize; Decentralised; Decentralized autonomous organization; Human actor; Mar Menor; Non-human; Nitrogen fixation</t>
+        </is>
+      </c>
+      <c r="N145" t="inlineStr">
+        <is>
+          <t>This paper speculates on using blockchain and Decentralized Autonomous Organizations (DAOs) in agroecological regeneration, focusing on the case of Spain's Mar Menor. It highlights the ecological challenges of intensive agriculture, drawing on theories like Haraway's cyborg metaphor and Latour's actor-network theory to contextualize the crisis within the interplay of human and non-human actors. The study introduces a conceptual blockchain-based prototype to automate ecosystem resilience through DAOs that manage land and agricultural practices. It proposes strategic interventions such as reforestation with nitrogen-fixing trees, cultivating flood-resistant crops, and the creation of new agro-settlements. The paper argues that blockchain technologies can optimize these strategies by enabling precise monitoring and management, thus enhancing soil fertility, sustainable agriculture, and community sustainability. It presents a vision of agroecosystems as resilient, autonomous entities capable of addressing ecological and economic challenges. © 2024 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O145" t="inlineStr"/>
+      <c r="P145" t="inlineStr"/>
+      <c r="Q145" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t>Agroecology-as-a-practice-of-care</t>
-        </is>
-      </c>
-      <c r="B145" t="inlineStr">
-        <is>
-          <t>Agroecology as a Practice of Care supported by Blockchain and DAOs -The speculative case of Murcia's Mar Menor Lagoon.</t>
-        </is>
-      </c>
-      <c r="C145" t="inlineStr">
-        <is>
-          <t>Inglezaki, Katerina; Katsikis, Nikos; Sepulveda Carmona, Diego; Pestana, Mariana; Jardim Nunes, Nuno</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E145" t="inlineStr">
-        <is>
-          <t>ACM International Conference Proceeding Series</t>
-        </is>
-      </c>
-      <c r="F145" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1145/3681716.3681737</t>
-        </is>
-      </c>
-      <c r="G145" t="inlineStr">
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Reimagining-the-governance-of-water-from-the-ground-up</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Reimagining the governance of water from the ground up: On the ‘worlding-practices’ of grassroots movements building alternative ‘water worlds’</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Tozzi, Arianna</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/25148486231223627</t>
+        </is>
+      </c>
+      <c r="G146" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
         </is>
       </c>
-      <c r="H145" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Agroecology-as-a-practice-of-care.txt</t>
-        </is>
-      </c>
-      <c r="I145" t="inlineStr">
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Reimagining-the-governance-of-water-from-the-ground-up.txt</t>
+        </is>
+      </c>
+      <c r="I146" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -14188,184 +11313,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J145" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K145" t="inlineStr"/>
-      <c r="L145" t="inlineStr"/>
-      <c r="M145" t="inlineStr">
-        <is>
-          <t>Abiotic; Blockchain; Actor-network; Agro ecologies; Block-chain; Care; Contextualize; Decentralised; Decentralized autonomous organization; Human actor; Mar Menor; Non-human; Nitrogen fixation</t>
-        </is>
-      </c>
-      <c r="N145" t="inlineStr">
-        <is>
-          <t>This paper speculates on using blockchain and Decentralized Autonomous Organizations (DAOs) in agroecological regeneration, focusing on the case of Spain's Mar Menor. It highlights the ecological challenges of intensive agriculture, drawing on theories like Haraway's cyborg metaphor and Latour's actor-network theory to contextualize the crisis within the interplay of human and non-human actors. The study introduces a conceptual blockchain-based prototype to automate ecosystem resilience through DAOs that manage land and agricultural practices. It proposes strategic interventions such as reforestation with nitrogen-fixing trees, cultivating flood-resistant crops, and the creation of new agro-settlements. The paper argues that blockchain technologies can optimize these strategies by enabling precise monitoring and management, thus enhancing soil fertility, sustainable agriculture, and community sustainability. It presents a vision of agroecosystems as resilient, autonomous entities capable of addressing ecological and economic challenges. © 2024 Owner/Author.</t>
-        </is>
-      </c>
-      <c r="O145" t="inlineStr"/>
-      <c r="P145" t="inlineStr"/>
-      <c r="Q145" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t>Reimagining-the-governance-of-water-from-the-ground-up</t>
-        </is>
-      </c>
-      <c r="B146" t="inlineStr">
-        <is>
-          <t>Reimagining the governance of water from the ground up: On the ‘worlding-practices’ of grassroots movements building alternative ‘water worlds’</t>
-        </is>
-      </c>
-      <c r="C146" t="inlineStr">
-        <is>
-          <t>Tozzi, Arianna</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E146" t="inlineStr">
-        <is>
-          <t>Environment and Planning E: Nature and Space</t>
-        </is>
-      </c>
-      <c r="F146" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/25148486231223627</t>
-        </is>
-      </c>
-      <c r="G146" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H146" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Reimagining-the-governance-of-water-from-the-ground-up.txt</t>
-        </is>
-      </c>
-      <c r="I146" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J146" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
       <c r="K146" t="inlineStr"/>
       <c r="L146" t="inlineStr"/>
       <c r="M146" t="inlineStr"/>
@@ -14442,45 +11390,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J147" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
       <c r="K147" t="inlineStr"/>
       <c r="L147" t="inlineStr"/>
       <c r="M147" t="inlineStr"/>
@@ -14509,10 +11419,8 @@
           <t>Enticott, Gareth; O’Mahony, Kieran</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D148" t="n">
+        <v>2024</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -14573,45 +11481,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J148" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
       <c r="K148" t="inlineStr"/>
       <c r="L148" t="inlineStr"/>
       <c r="M148" t="inlineStr"/>
@@ -14644,10 +11514,8 @@
           <t>Harvey, Penny; Lien, Marianne Elisabeth; Nyquist, Jon Rasmus</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D149" t="n">
+        <v>2024</v>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -14708,45 +11576,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J149" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
       <c r="K149" t="inlineStr"/>
       <c r="L149" t="inlineStr"/>
       <c r="M149" t="inlineStr"/>
@@ -14823,45 +11653,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J150" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
       <c r="K150" t="inlineStr"/>
       <c r="L150" t="inlineStr"/>
       <c r="M150" t="inlineStr"/>
@@ -14890,10 +11682,8 @@
           <t>Hopman, Roos</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D151" t="n">
+        <v>2024</v>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -14954,45 +11744,7 @@
 ]</t>
         </is>
       </c>
-      <c r="J151" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
       <c r="K151" t="inlineStr"/>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="inlineStr">
@@ -15029,10 +11781,8 @@
           <t>Wiersma, W.; Lopez, D.E.</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D152" t="n">
+        <v>2024</v>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -15084,10 +11834,8 @@
           <t>Wessolek, Gerd; Toland, Alexandra</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D153" t="n">
+        <v>2024</v>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -15148,7 +11896,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J153" t="inlineStr">
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Agriculture; Groundwater; Porous materials; Water pollution; Brownfields; Cultural identity; Demographic shifts; Environmental action; Human soil; Living bodies; Nutrients cycling; Physical artifacts; Vadose Zone; Water cycling; artifact; buffering; cultural identity; nutrient cycling; soil pollution; urbanization; vadose zone; Soils</t>
+        </is>
+      </c>
+      <c r="N153" t="inlineStr">
+        <is>
+          <t>The rise of industrialized agriculture, coupled with a global demographic shift toward urbanization, has marginalized every-day connections between individuals and soils. This societal shift has led to a decline in the appreciation of and cultural identity with soils. Amid a broader movement aimed at fostering soil awareness and environmental action, many artists and designers have been instrumental in bringing soils to the cultural mainstream, figuring their esthetic, social, political, and ecological dimensions. Contemporary artists place great importance on the underlying idea of animating soils through artistic practice, often transcending the physical artifact itself to assign agency to soils and the myriad beings that occupy them. Artists harness a multitude of media to articulate human-soil relationships. From the early environmental art movements of the 1960s and 1970s to contemporary works centered on urban and industrial brownfields, soils’ multifaceted roles in CO2 transformation, water and nutrient cycling, agriculture, and as living bodies buffering against pollution have become ground for public discourse. What could this mean for the vadose zone in terms of reflecting on material flows in porous media beyond understandings of soil physics? In this paper, we draw on over 20 years of experience in studying the portrayal of soil in various arts genres to deliberate the potential of creative thinking about and thinking with the vadose zone. © 2024 The Authors. Vadose Zone Journal published by Wiley Periodicals LLC on behalf of Soil Science Society of America.</t>
+        </is>
+      </c>
+      <c r="O153" t="inlineStr"/>
+      <c r="P153" t="inlineStr"/>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Everyday-agri-environmental-governance</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>Everyday agri-environmental governance: The emergence of sustainability through assemblage thinking</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Forney, Jérémie; Bentia, Dana; Dwiartama, Angga</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>Everyday Agri-Environmental Governance: The Emergence of Sustainability through Assemblage Thinking</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9781003271260</t>
+        </is>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Everyday-agri-environmental-governance.txt</t>
+        </is>
+      </c>
+      <c r="I154" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -15187,68 +11995,67 @@
 ]</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
-      <c r="M153" t="inlineStr">
-        <is>
-          <t>Agriculture; Groundwater; Porous materials; Water pollution; Brownfields; Cultural identity; Demographic shifts; Environmental action; Human soil; Living bodies; Nutrients cycling; Physical artifacts; Vadose Zone; Water cycling; artifact; buffering; cultural identity; nutrient cycling; soil pollution; urbanization; vadose zone; Soils</t>
-        </is>
-      </c>
-      <c r="N153" t="inlineStr">
-        <is>
-          <t>The rise of industrialized agriculture, coupled with a global demographic shift toward urbanization, has marginalized every-day connections between individuals and soils. This societal shift has led to a decline in the appreciation of and cultural identity with soils. Amid a broader movement aimed at fostering soil awareness and environmental action, many artists and designers have been instrumental in bringing soils to the cultural mainstream, figuring their esthetic, social, political, and ecological dimensions. Contemporary artists place great importance on the underlying idea of animating soils through artistic practice, often transcending the physical artifact itself to assign agency to soils and the myriad beings that occupy them. Artists harness a multitude of media to articulate human-soil relationships. From the early environmental art movements of the 1960s and 1970s to contemporary works centered on urban and industrial brownfields, soils’ multifaceted roles in CO2 transformation, water and nutrient cycling, agriculture, and as living bodies buffering against pollution have become ground for public discourse. What could this mean for the vadose zone in terms of reflecting on material flows in porous media beyond understandings of soil physics? In this paper, we draw on over 20 years of experience in studying the portrayal of soil in various arts genres to deliberate the potential of creative thinking about and thinking with the vadose zone. © 2024 The Authors. Vadose Zone Journal published by Wiley Periodicals LLC on behalf of Soil Science Society of America.</t>
-        </is>
-      </c>
-      <c r="O153" t="inlineStr"/>
-      <c r="P153" t="inlineStr"/>
-      <c r="Q153" t="inlineStr">
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Agri-food; Agribusiness; Agriculture; Environmental management; Smart agriculture; Sustainable agriculture; Agriculture systems; Case-studies; Environmental governances; European union; Food system; Indonesia; Localised; Social process; Switzerland; Uncertainty; Sustainable development</t>
+        </is>
+      </c>
+      <c r="N154" t="inlineStr">
+        <is>
+          <t>Revitalising the way the social sciences question agri-environmental governance, this book introduces "the everyday governance approach" as a means to improving the sustainability of agriculture and food systems. The "everyday" refers to localised practices, specific networks, and practical norms that emerge in a process of interaction, translation, and reinterpretation. The authors build this approach on assemblage thinking and theory, which focuses on the collective production of the social through complex sets of connections. For this reason, assemblage thinking becomes a particularly productive guide in exploring how everyday governance is co-produced in the interaction between numerous social processes involving a diversity of actors and instruments. The authors navigate between original and contrasting case studies from Switzerland, Indonesia, and the European Union in order to reorient attention to the transformative nature of governance, which they locate along four different dimensions of the everyday: (1) the interdependence of instruments within a wider governance assemblage; (2) the uncertainty and unpredictability of effects in agrienvironmental governance; (3) the distributed nature of agency and its implication for power relations; (4) the importance of capacities in the transformation of agri-food systems. This book calls for a redesigning of agri-environmental governance that should move away from the setting of fix and precise objectives and solutions, and rather aim for a consolidation of sound foundations on which desirable futures can emerge. The book will be an essential read for students and scholars interested in sustainable agriculture and food systems, governance modes and approaches, and sustainability more broadly. © 2025 Jérémie Forney, Dana Bentia, and Angga Dwiartama. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O154" t="inlineStr"/>
+      <c r="P154" t="inlineStr"/>
+      <c r="Q154" t="inlineStr">
         <is>
           <t>Sim</t>
         </is>
       </c>
     </row>
-    <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t>Everyday-agri-environmental-governance</t>
-        </is>
-      </c>
-      <c r="B154" t="inlineStr">
-        <is>
-          <t>Everyday agri-environmental governance: The emergence of sustainability through assemblage thinking</t>
-        </is>
-      </c>
-      <c r="C154" t="inlineStr">
-        <is>
-          <t>Forney, Jérémie; Bentia, Dana; Dwiartama, Angga</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E154" t="inlineStr">
-        <is>
-          <t>Everyday Agri-Environmental Governance: The Emergence of Sustainability through Assemblage Thinking</t>
-        </is>
-      </c>
-      <c r="F154" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.4324/9781003271260</t>
-        </is>
-      </c>
-      <c r="G154" t="inlineStr">
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Digital-twins-and-the-digitallogics-of-biodiversity</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>Digital twins and the digital logics of biodiversity</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Westerlaken, Michelle</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>Social Studies of Science</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/03063127241236809</t>
+        </is>
+      </c>
+      <c r="G155" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
         </is>
       </c>
-      <c r="H154" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Everyday-agri-environmental-governance.txt</t>
-        </is>
-      </c>
-      <c r="I154" t="inlineStr">
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Digital-twins-and-the-digitallogics-of-biodiversity.txt</t>
+        </is>
+      </c>
+      <c r="I155" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -15287,7 +12094,67 @@
 ]</t>
         </is>
       </c>
-      <c r="J154" t="inlineStr">
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Biodiversity; Digital Technology; biodiversity; digital technology</t>
+        </is>
+      </c>
+      <c r="N155" t="inlineStr">
+        <is>
+          <t>Biodiversity is a multidimensional concept that can be understood and measured in many different ways. However, the next generation of digital technologies for biodiversity monitoring currently being funded and developed fail to engage its multidimensional and relational aspects. Based on empirical data from interviews, a conference visit, online meetings, webinars, and project reports, this study articulates four digital logics that structure how biodiversity becomes monitored and understood within recent technological developments. The four digital logics illustrate how intensified practices of capturing, connecting, simulating, and computing produce particular techno-scientific formats for creating biodiversity knowledge. While ongoing projects advance technological development in areas of automation, prediction, and the creation of large-scale species databases, their developmental processes structurally limit the future of biodiversity technology. To better address the complex challenges of the global biodiversity crisis, it is crucial to develop digital technologies and practices that can engage with a wider range of perspectives and understandings of relational and multidimensional approaches to biodiversity. © The Author(s) 2024.</t>
+        </is>
+      </c>
+      <c r="O155" t="inlineStr"/>
+      <c r="P155" t="inlineStr"/>
+      <c r="Q155" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Cultural-Attunements-and-Ecological-Wellbeing</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>Cultural Attunements and Ecological Wellbeing: Embodied Conditions for Mental Health Interventions</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Miller, Kara</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>2024</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>International Journal of Environmental Research and Public Health</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/ijerph21030287</t>
+        </is>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Cultural-Attunements-and-Ecological-Wellbeing.txt</t>
+        </is>
+      </c>
+      <c r="I156" t="inlineStr">
         <is>
           <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
 domain: "googleapis.com"
@@ -15326,207 +12193,6 @@
 ]</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
-      <c r="M154" t="inlineStr">
-        <is>
-          <t>Agri-food; Agribusiness; Agriculture; Environmental management; Smart agriculture; Sustainable agriculture; Agriculture systems; Case-studies; Environmental governances; European union; Food system; Indonesia; Localised; Social process; Switzerland; Uncertainty; Sustainable development</t>
-        </is>
-      </c>
-      <c r="N154" t="inlineStr">
-        <is>
-          <t>Revitalising the way the social sciences question agri-environmental governance, this book introduces "the everyday governance approach" as a means to improving the sustainability of agriculture and food systems. The "everyday" refers to localised practices, specific networks, and practical norms that emerge in a process of interaction, translation, and reinterpretation. The authors build this approach on assemblage thinking and theory, which focuses on the collective production of the social through complex sets of connections. For this reason, assemblage thinking becomes a particularly productive guide in exploring how everyday governance is co-produced in the interaction between numerous social processes involving a diversity of actors and instruments. The authors navigate between original and contrasting case studies from Switzerland, Indonesia, and the European Union in order to reorient attention to the transformative nature of governance, which they locate along four different dimensions of the everyday: (1) the interdependence of instruments within a wider governance assemblage; (2) the uncertainty and unpredictability of effects in agrienvironmental governance; (3) the distributed nature of agency and its implication for power relations; (4) the importance of capacities in the transformation of agri-food systems. This book calls for a redesigning of agri-environmental governance that should move away from the setting of fix and precise objectives and solutions, and rather aim for a consolidation of sound foundations on which desirable futures can emerge. The book will be an essential read for students and scholars interested in sustainable agriculture and food systems, governance modes and approaches, and sustainability more broadly. © 2025 Jérémie Forney, Dana Bentia, and Angga Dwiartama. All rights reserved.</t>
-        </is>
-      </c>
-      <c r="O154" t="inlineStr"/>
-      <c r="P154" t="inlineStr"/>
-      <c r="Q154" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t>Digital-twins-and-the-digitallogics-of-biodiversity</t>
-        </is>
-      </c>
-      <c r="B155" t="inlineStr">
-        <is>
-          <t>Digital twins and the digital logics of biodiversity</t>
-        </is>
-      </c>
-      <c r="C155" t="inlineStr">
-        <is>
-          <t>Westerlaken, Michelle</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E155" t="inlineStr">
-        <is>
-          <t>Social Studies of Science</t>
-        </is>
-      </c>
-      <c r="F155" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.1177/03063127241236809</t>
-        </is>
-      </c>
-      <c r="G155" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H155" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Digital-twins-and-the-digitallogics-of-biodiversity.txt</t>
-        </is>
-      </c>
-      <c r="I155" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="J155" t="inlineStr">
-        <is>
-          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
-domain: "googleapis.com"
-metadata {
-  key: "service"
-  value: "generativelanguage.googleapis.com"
-}
-metadata {
-  key: "quota_unit"
-  value: "1/min/{project}/{region}"
-}
-metadata {
-  key: "quota_metric"
-  value: "generativelanguage.googleapis.com/generate_content_requests"
-}
-metadata {
-  key: "quota_location"
-  value: "us-south1"
-}
-metadata {
-  key: "quota_limit"
-  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
-}
-metadata {
-  key: "quota_limit_value"
-  value: "0"
-}
-metadata {
-  key: "consumer"
-  value: "projects/736928802601"
-}
-, links {
-  description: "Request a higher quota limit."
-  url: "https://cloud.google.com/docs/quotas/help/request_increase"
-}
-]</t>
-        </is>
-      </c>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
-      <c r="M155" t="inlineStr">
-        <is>
-          <t>Biodiversity; Digital Technology; biodiversity; digital technology</t>
-        </is>
-      </c>
-      <c r="N155" t="inlineStr">
-        <is>
-          <t>Biodiversity is a multidimensional concept that can be understood and measured in many different ways. However, the next generation of digital technologies for biodiversity monitoring currently being funded and developed fail to engage its multidimensional and relational aspects. Based on empirical data from interviews, a conference visit, online meetings, webinars, and project reports, this study articulates four digital logics that structure how biodiversity becomes monitored and understood within recent technological developments. The four digital logics illustrate how intensified practices of capturing, connecting, simulating, and computing produce particular techno-scientific formats for creating biodiversity knowledge. While ongoing projects advance technological development in areas of automation, prediction, and the creation of large-scale species databases, their developmental processes structurally limit the future of biodiversity technology. To better address the complex challenges of the global biodiversity crisis, it is crucial to develop digital technologies and practices that can engage with a wider range of perspectives and understandings of relational and multidimensional approaches to biodiversity. © The Author(s) 2024.</t>
-        </is>
-      </c>
-      <c r="O155" t="inlineStr"/>
-      <c r="P155" t="inlineStr"/>
-      <c r="Q155" t="inlineStr">
-        <is>
-          <t>Sim</t>
-        </is>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t>Cultural-Attunements-and-Ecological-Wellbeing</t>
-        </is>
-      </c>
-      <c r="B156" t="inlineStr">
-        <is>
-          <t>Cultural Attunements and Ecological Wellbeing: Embodied Conditions for Mental Health Interventions</t>
-        </is>
-      </c>
-      <c r="C156" t="inlineStr">
-        <is>
-          <t>Miller, Kara</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
-      </c>
-      <c r="E156" t="inlineStr">
-        <is>
-          <t>International Journal of Environmental Research and Public Health</t>
-        </is>
-      </c>
-      <c r="F156" t="inlineStr">
-        <is>
-          <t>https://doi.org/10.3390/ijerph21030287</t>
-        </is>
-      </c>
-      <c r="G156" t="inlineStr">
-        <is>
-          <t>snowballing Making-time-for-soil</t>
-        </is>
-      </c>
-      <c r="H156" t="inlineStr">
-        <is>
-          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Cultural-Attunements-and-Ecological-Wellbeing.txt</t>
-        </is>
-      </c>
-      <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="inlineStr"/>
       <c r="L156" t="inlineStr"/>
@@ -15564,10 +12230,8 @@
           <t>Blickstein, Tamar</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D157" t="n">
+        <v>2024</v>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -15589,7 +12253,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-Seeds-and-Roses-Plantation-Afterlivesin-an-Argentine.txt</t>
         </is>
       </c>
-      <c r="I157" t="inlineStr"/>
+      <c r="I157" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="inlineStr"/>
       <c r="L157" t="inlineStr"/>
@@ -15623,10 +12325,8 @@
           <t>See, Justin; Cuaton, Ginbert Permejo; Placino, Pryor; Vunibola, Suliasi; Thi, Huong Do; Dombroski, Kelly; McKinnon, Katharine</t>
         </is>
       </c>
-      <c r="D158" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D158" t="n">
+        <v>2024</v>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -15648,7 +12348,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\From-absences-to-emergences-Indigenous-climate-change-adaptation.txt</t>
         </is>
       </c>
-      <c r="I158" t="inlineStr"/>
+      <c r="I158" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="inlineStr"/>
       <c r="L158" t="inlineStr"/>
@@ -15686,10 +12424,8 @@
           <t>Lancaster, K.; Gendera, S.; Treloar, C.; Rhodes, T.; Shahbazi, J.; Byrne, M.; Nielsen, S.; Degenhardt, L.; Farrell, M.</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D159" t="n">
+        <v>2024</v>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -15711,7 +12447,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Tinkering-with-care-treatment-for-opioid.txt</t>
         </is>
       </c>
-      <c r="I159" t="inlineStr"/>
+      <c r="I159" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="inlineStr"/>
       <c r="L159" t="inlineStr"/>
@@ -15749,10 +12523,8 @@
           <t>Wang, Chi-Mao; Chien, Ker-Hsuan</t>
         </is>
       </c>
-      <c r="D160" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D160" t="n">
+        <v>2024</v>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -15800,10 +12572,8 @@
           <t>Hokkanen, Saana</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D161" t="n">
+        <v>2024</v>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -15825,7 +12595,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-extractivism-Political-ontology-of-soil.txt</t>
         </is>
       </c>
-      <c r="I161" t="inlineStr"/>
+      <c r="I161" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="inlineStr"/>
       <c r="L161" t="inlineStr"/>
@@ -15863,10 +12671,8 @@
           <t>Rigkos-Zitthen, Ioannis; McGregor, Andrew; Williams, Miriam J.</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D162" t="n">
+        <v>2024</v>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -15888,7 +12694,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Commoning-in-the-Anthropocene.txt</t>
         </is>
       </c>
-      <c r="I162" t="inlineStr"/>
+      <c r="I162" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="inlineStr"/>
@@ -15926,10 +12770,8 @@
           <t>Szymanski, Erika Amethyst</t>
         </is>
       </c>
-      <c r="D163" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D163" t="n">
+        <v>2024</v>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -15951,7 +12793,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\When-Extracting-Is-Not-Subtracting.txt</t>
         </is>
       </c>
-      <c r="I163" t="inlineStr"/>
+      <c r="I163" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="inlineStr"/>
@@ -15985,10 +12865,8 @@
           <t>Beyeler, Laura</t>
         </is>
       </c>
-      <c r="D164" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D164" t="n">
+        <v>2024</v>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -16036,10 +12914,8 @@
           <t>Kendig, Catherine</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D165" t="n">
+        <v>2024</v>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -16061,7 +12937,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Human-managed-soils-and-soil-managed-humans.txt</t>
         </is>
       </c>
-      <c r="I165" t="inlineStr"/>
+      <c r="I165" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J165" t="inlineStr"/>
       <c r="K165" t="inlineStr"/>
       <c r="L165" t="inlineStr"/>
@@ -16095,10 +13009,8 @@
           <t>Ślosarski, Bartosz</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D166" t="n">
+        <v>2024</v>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -16120,7 +13032,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Data-phronesis-and-the-duality-of-care-in-the-air-quality.txt</t>
         </is>
       </c>
-      <c r="I166" t="inlineStr"/>
+      <c r="I166" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J166" t="inlineStr"/>
       <c r="K166" t="inlineStr"/>
       <c r="L166" t="inlineStr"/>
@@ -16154,10 +13104,8 @@
           <t>Lussem, Felix</t>
         </is>
       </c>
-      <c r="D167" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D167" t="n">
+        <v>2024</v>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -16179,7 +13127,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Negotiations-of-Justice-in-the-Anthropocene.txt</t>
         </is>
       </c>
-      <c r="I167" t="inlineStr"/>
+      <c r="I167" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J167" t="inlineStr"/>
       <c r="K167" t="inlineStr"/>
       <c r="L167" t="inlineStr"/>
@@ -16213,10 +13199,8 @@
           <t>Healy, Liam</t>
         </is>
       </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D168" t="n">
+        <v>2024</v>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -16264,10 +13248,8 @@
           <t>Oktay, Gizem; Lee, Minha; Barati, Bahareh; Wakkary, Ron</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D169" t="n">
+        <v>2024</v>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -16315,10 +13297,8 @@
           <t>Neyland, Daniel</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D170" t="n">
+        <v>2024</v>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -16340,7 +13320,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Futures-work-Liliana-Doganova.txt</t>
         </is>
       </c>
-      <c r="I170" t="inlineStr"/>
+      <c r="I170" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J170" t="inlineStr"/>
       <c r="K170" t="inlineStr"/>
       <c r="L170" t="inlineStr"/>
@@ -16378,10 +13396,8 @@
           <t>Biskupovic, Consuelo; Maurines, Béatrice; Antin, Mélanie</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D171" t="n">
+        <v>2024</v>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -16403,7 +13419,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Donner-lalerte-a-bas-bruit-Pour-une-ethique.txt</t>
         </is>
       </c>
-      <c r="I171" t="inlineStr"/>
+      <c r="I171" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J171" t="inlineStr"/>
       <c r="K171" t="inlineStr"/>
       <c r="L171" t="inlineStr"/>
@@ -16437,10 +13491,8 @@
           <t>Grimes, Jessica; Gordon, Paddy; Jobson, Sarah</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D172" t="n">
+        <v>2024</v>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -16488,10 +13540,8 @@
           <t>Sefkatli, Pinar</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D173" t="n">
+        <v>2024</v>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -16539,10 +13589,8 @@
           <t>Falkenberg, Ruth; Sigl, Lisa; Fochler, Maximilian</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D174" t="n">
+        <v>2024</v>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -16564,7 +13612,45 @@
           <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\From-making-lists-to-conducting-well-rounded-studies.txt</t>
         </is>
       </c>
-      <c r="I174" t="inlineStr"/>
+      <c r="I174" t="inlineStr">
+        <is>
+          <t>ERRO: 429 Quota exceeded for quota metric 'Generate Content API requests per minute' and limit 'GenerateContent request limit per minute for a region' of service 'generativelanguage.googleapis.com' for consumer 'project_number:736928802601'. [reason: "RATE_LIMIT_EXCEEDED"
+domain: "googleapis.com"
+metadata {
+  key: "service"
+  value: "generativelanguage.googleapis.com"
+}
+metadata {
+  key: "quota_unit"
+  value: "1/min/{project}/{region}"
+}
+metadata {
+  key: "quota_metric"
+  value: "generativelanguage.googleapis.com/generate_content_requests"
+}
+metadata {
+  key: "quota_location"
+  value: "us-south1"
+}
+metadata {
+  key: "quota_limit"
+  value: "GenerateContentRequestsPerMinutePerProjectPerRegion"
+}
+metadata {
+  key: "quota_limit_value"
+  value: "0"
+}
+metadata {
+  key: "consumer"
+  value: "projects/736928802601"
+}
+, links {
+  description: "Request a higher quota limit."
+  url: "https://cloud.google.com/docs/quotas/help/request_increase"
+}
+]</t>
+        </is>
+      </c>
       <c r="J174" t="inlineStr"/>
       <c r="K174" t="inlineStr"/>
       <c r="L174" t="inlineStr"/>
@@ -16602,10 +13688,8 @@
           <t>Pihkala, Suvi; Karasti, Helena</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr">
-        <is>
-          <t>2024</t>
-        </is>
+      <c r="D175" t="n">
+        <v>2024</v>
       </c>
       <c r="E175" t="inlineStr">
         <is>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q175"/>
+  <dimension ref="A1:Q294"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -536,8 +536,10 @@
           <t>Kendig, Catherine</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>2024</v>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
@@ -585,8 +587,10 @@
           <t>Sun, Hongshuo; Dai, Hongtao</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>2024</v>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
@@ -650,8 +654,10 @@
           <t>Abdullah, Azween; Murali, E.; Sreeji, S.; Balusamy, Balamurugan; Rajashree, S.</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>2023</v>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
@@ -716,8 +722,10 @@
           <t>Murali, E.; Anouncia, S. Margret</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>2023</v>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
@@ -782,8 +790,10 @@
           <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>2022</v>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
@@ -848,8 +858,10 @@
           <t>Chandramouli, Aparna; Deepak, Gerard</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>2022</v>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
@@ -897,8 +909,10 @@
           <t>Krzywoszynska, Anna; Marchesi, Greta</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>2020</v>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
@@ -1029,8 +1043,10 @@
           <t>Shu, Yanfeng; Liu, Qing</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>2015</v>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
@@ -1078,8 +1094,10 @@
           <t>Deb, C.K.; Marwaha, S.; Malhotra, P.K.; Wahi, S.D.; Pandey, R.N.</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>2015</v>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
@@ -1127,8 +1145,10 @@
           <t>Das, Manoranjan; Malhotra, P.K.; Marwaha, Sudeep; Pandey, R.N.</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>2014</v>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
@@ -1176,8 +1196,10 @@
           <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>2025</v>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1225,8 +1247,10 @@
           <t>Sanjay, D.; Devarsh, V.; Murali, E.; Antony, J Cruz; Vignesh, R.</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>2024</v>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
@@ -1291,8 +1315,10 @@
           <t>Zhou, Kai; Yu, Junyuan; Shi, Haotong; Hou, Rui; Wu, Huarui; Hou, Jialin</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>2025</v>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
@@ -1400,8 +1426,10 @@
           <t>Lin, Shuyang</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>2024</v>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1449,8 +1477,10 @@
           <t>Alharbi, Amani Falah; Aslam, Muhammad Ahtisham; Asiry, Khalid Ali; Aljohani, Naif Radi; Glikman, Yury</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>2024</v>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -1515,8 +1545,10 @@
           <t>Bhattacharya, Saurabh; Pandey, Manju</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>2024</v>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
@@ -1580,8 +1612,10 @@
           <t>Gupta, Shruti; Singh, Dharmendra; Kumar, Sandeep</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>2023</v>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
@@ -1646,8 +1680,10 @@
           <t>Agárdi, Anita; Kovács, László</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>2022</v>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
@@ -1712,8 +1748,10 @@
           <t>Murali, E.; Anouncia, S.Margret</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2022</v>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -1778,8 +1816,10 @@
           <t>Valecha, Aastha; Deepak, Gerard; Surya, Deep ak</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>2023</v>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -1827,8 +1867,10 @@
           <t>Marwaha, Sudeep; Deb, Chandan Kumar; Haque, Md. Ashraful; Naha, Sanchita; Maji, Arpan Kumar</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>2023</v>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -1876,8 +1918,10 @@
           <t>Onkov, Kolyo</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>2020</v>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
@@ -1925,8 +1969,10 @@
           <t>Bhattacharya, Saurabh; Pandey, Manju</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>2024</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
@@ -1991,8 +2037,10 @@
           <t>Mummigatti, Kushala Vijaya Kumar; Chandramouli, Supriya Maganahalli; Ramachandra, Divakar Harohally</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>2023</v>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2057,8 +2105,10 @@
           <t>Du, Heshan; Dimitrova, Vania; Magee, Derek; Stirling, Ross; Curioni, Giulio; Reeves, Helen; Clarke, Barry; Cohn, Anthony</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>2016</v>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2133,8 +2183,10 @@
           <t>Stoyanova-Doycheva, Asya; Madanska, Sebiha; Bilyanov, Sheban</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>2023</v>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -2199,8 +2251,10 @@
           <t>Joshi, Manjushri Sanjay; Pangave, Vijaya Vijay</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>2025</v>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
@@ -2248,8 +2302,10 @@
           <t>Kumar, Rajeev; Abdul Hamid, Abu Bakar; Binti Ya'akub, Noor Inayah; Gaur, Madhu Sharma; Kumar, Sanjeev</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>2024</v>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -2297,8 +2353,10 @@
           <t>Sharma, Iti; Kumar, Nimish; Verma, Himanshu</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>2024</v>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -2392,8 +2450,10 @@
           <t>Chen, Zhongdu; Ti, Jin-song; Chen, Fu</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>2017</v>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
@@ -2441,8 +2501,10 @@
           <t>Ng, Huiying; Jing, Toh Han; Lee, Wuan See Vivian; George, Edgar Raeben; Philip, Varughese</t>
         </is>
       </c>
-      <c r="D36" t="n">
-        <v>2025</v>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
@@ -2536,8 +2598,10 @@
           <t>Holmstedt, Janna; Lindblad, Jenny; Fredengren, Christina; Åsberg, Cecilia; Lobell, Malin; Wegsjö, Karin</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>2025</v>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
@@ -2635,8 +2699,10 @@
           <t>Ingram, Julie; Maye, Damian; Reed, Mark</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>2025</v>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -2730,8 +2796,10 @@
           <t>Savelli, Elisa; Rusca, Maria; Cloke, Hannah; Flügel, Tyrel J; Karriem, Abdulrazak; Di Baldassarre, Giuliano</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>2025</v>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
@@ -2825,8 +2893,10 @@
           <t>Fredengren, Christina</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>2025</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -2924,8 +2994,10 @@
           <t>Turner, Bethaney; Hill, Ann; Abramovic, Jessica</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>2025</v>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
@@ -3023,8 +3095,10 @@
           <t>Harris, Luke</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>2025</v>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
@@ -3118,8 +3192,10 @@
           <t>Laurent, Brice; Merlin, Julien; Meulemans, Germain</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2025</v>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
@@ -3171,8 +3247,10 @@
           <t>Barrineau, Susanna</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>2025</v>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
@@ -3270,8 +3348,10 @@
           <t>Sage, Daniel</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>2025</v>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
@@ -3365,8 +3445,10 @@
           <t>Hugøy, Isabelle</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>2024</v>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
@@ -3460,8 +3542,10 @@
           <t>Saifuddin, Mustafa; Abramoff, Rose Z; Foster, Erika J; McClelland, Shelby C</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>2024</v>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
@@ -3559,8 +3643,10 @@
           <t>Cusworth, George; Lorimer, Jamie; Welden, E.A.</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>2024</v>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
@@ -3658,8 +3744,10 @@
           <t>Cahyana, Destika; Mulyanto, Budi</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>2024</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
@@ -3753,8 +3841,10 @@
           <t>Snorek, Julie; Freidberg, Susanne; Smith, Geneva</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2024</v>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
@@ -3802,8 +3892,10 @@
           <t>Tozzi, Arianna; Leonardelli, Irene</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2024</v>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
@@ -3897,8 +3989,10 @@
           <t>Davidson, Joe P. L.; Carreira da Silva, Filipe</t>
         </is>
       </c>
-      <c r="D52" t="n">
-        <v>2024</v>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
@@ -3992,8 +4086,10 @@
           <t>Clark, Janine Natalya</t>
         </is>
       </c>
-      <c r="D53" t="n">
-        <v>2025</v>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
@@ -4087,8 +4183,10 @@
           <t>Blidstein, Moshe</t>
         </is>
       </c>
-      <c r="D54" t="n">
-        <v>2025</v>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
@@ -4136,8 +4234,10 @@
           <t>Barrineau, Susanna; Do, Thao; Powell, Neil</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>2025</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
@@ -4235,8 +4335,10 @@
           <t>Law, Tamar; Goldstein, Jenny</t>
         </is>
       </c>
-      <c r="D56" t="n">
-        <v>2024</v>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
@@ -4330,8 +4432,10 @@
           <t>Krupar, Shiloh</t>
         </is>
       </c>
-      <c r="D57" t="n">
-        <v>2024</v>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
@@ -4383,8 +4487,10 @@
           <t>Ofstehage, Andrew</t>
         </is>
       </c>
-      <c r="D58" t="n">
-        <v>2024</v>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
@@ -4436,8 +4542,10 @@
           <t>Harris, Luke</t>
         </is>
       </c>
-      <c r="D59" t="n">
-        <v>2024</v>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
@@ -4531,8 +4639,10 @@
           <t>Turner, Marie F.; Szymanski, Erika A.</t>
         </is>
       </c>
-      <c r="D60" t="n">
-        <v>2024</v>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
@@ -4626,8 +4736,10 @@
           <t>Cusworth, George</t>
         </is>
       </c>
-      <c r="D61" t="n">
-        <v>2024</v>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
@@ -4721,8 +4833,10 @@
           <t>Wang, Chi-Mao; Chien, Ker-Hsuan</t>
         </is>
       </c>
-      <c r="D62" t="n">
-        <v>2024</v>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
@@ -4816,8 +4930,10 @@
           <t>Hokkanen, Saana</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>2024</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
@@ -4915,8 +5031,10 @@
           <t>Tozzi, Arianna</t>
         </is>
       </c>
-      <c r="D64" t="n">
-        <v>2024</v>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
@@ -5010,8 +5128,10 @@
           <t>Meloni, Maurizio; Maller, Cecily</t>
         </is>
       </c>
-      <c r="D65" t="n">
-        <v>2024</v>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
@@ -5059,8 +5179,10 @@
           <t>Kallio, Galina; LaFleur, Will</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>2023</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
@@ -5158,8 +5280,10 @@
           <t>Rautio, Pauliina; Hohti, Riikka; Tammi, Tuure; Ylirisku, Henrika</t>
         </is>
       </c>
-      <c r="D67" t="n">
-        <v>2022</v>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
@@ -5207,8 +5331,10 @@
           <t>Teuber, Sandra; Bartelheim, Martin; Hardenberg, Roland; Knopf, Monica; Knopf, Thomas; Kühn, Peter; Schade, Tobias; Schmidt, Karsten; Scholten, Thomas</t>
         </is>
       </c>
-      <c r="D68" t="n">
-        <v>2022</v>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
@@ -5302,8 +5428,10 @@
           <t>Gobo, Giampietro; Marcheselli, Valentina</t>
         </is>
       </c>
-      <c r="D69" t="n">
-        <v>2023</v>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
@@ -5351,8 +5479,10 @@
           <t>Turner, Bethaney</t>
         </is>
       </c>
-      <c r="D70" t="n">
-        <v>2023</v>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
@@ -5400,8 +5530,10 @@
           <t>Millner, Naomi</t>
         </is>
       </c>
-      <c r="D71" t="n">
-        <v>2023</v>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
@@ -5453,8 +5585,10 @@
           <t>Tam, Mankei</t>
         </is>
       </c>
-      <c r="D72" t="n">
-        <v>2023</v>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
@@ -5552,8 +5686,10 @@
           <t>Siimes, Nikolai; Yee, Kenzi; McSherry, Alice; Sharp, Emma L.</t>
         </is>
       </c>
-      <c r="D73" t="n">
-        <v>2023</v>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
@@ -5647,8 +5783,10 @@
           <t>Goburdhone, Sasha; Dombroski, Kelly</t>
         </is>
       </c>
-      <c r="D74" t="n">
-        <v>2023</v>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E74" t="inlineStr">
         <is>
@@ -5742,8 +5880,10 @@
           <t>Shenk, Linda; Franz, Kristie J.; Gutowski, William J.</t>
         </is>
       </c>
-      <c r="D75" t="n">
-        <v>2023</v>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
       </c>
       <c r="E75" t="inlineStr">
         <is>
@@ -5841,8 +5981,10 @@
           <t>Ranniery, Thiago</t>
         </is>
       </c>
-      <c r="D76" t="n">
-        <v>2020</v>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
       </c>
       <c r="E76" t="inlineStr">
         <is>
@@ -5936,8 +6078,10 @@
           <t>Cho, Leena</t>
         </is>
       </c>
-      <c r="D77" t="n">
-        <v>2021</v>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
@@ -5989,8 +6133,10 @@
           <t>McElwee, Pamela</t>
         </is>
       </c>
-      <c r="D78" t="n">
-        <v>2021</v>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
@@ -6088,8 +6234,10 @@
           <t>Ureta, Sebastián; Otaegui, Alvaro</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>2021</v>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
@@ -6137,8 +6285,10 @@
           <t>Jones, Emily; Klumbytė, Goda; Braidotti, Rosi</t>
         </is>
       </c>
-      <c r="D80" t="n">
-        <v>2022</v>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
@@ -6186,8 +6336,10 @@
           <t>Ana, Daniela</t>
         </is>
       </c>
-      <c r="D81" t="n">
-        <v>2022</v>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
@@ -6235,8 +6387,10 @@
           <t>Smith, Tone; Ehrnström-Fuentes, Maria; Hagolani-Albov, Sophia E.; Klepp, Ingun Grimstad; Tobiasson, Tone Skårdal</t>
         </is>
       </c>
-      <c r="D82" t="n">
-        <v>2022</v>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E82" t="inlineStr">
         <is>
@@ -6284,8 +6438,10 @@
           <t>Shostak, Sara</t>
         </is>
       </c>
-      <c r="D83" t="n">
-        <v>2022</v>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E83" t="inlineStr">
         <is>
@@ -6333,8 +6489,10 @@
           <t>Cañada, Jose A; Sariola, Salla; Butcher, Andrea</t>
         </is>
       </c>
-      <c r="D84" t="n">
-        <v>2022</v>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E84" t="inlineStr">
         <is>
@@ -6432,8 +6590,10 @@
           <t>Sexton, Alexandra E; Garnett, Tara; Lorimer, Jamie</t>
         </is>
       </c>
-      <c r="D85" t="n">
-        <v>2022</v>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
@@ -6531,8 +6691,10 @@
           <t>Beyeler, Laura; Jaeger-Erben, Melanie</t>
         </is>
       </c>
-      <c r="D86" t="n">
-        <v>2025</v>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
@@ -6630,8 +6792,10 @@
           <t>Wijsman, Katinka; Pineda-Pinto, Melissa; Sarkki, Simo; Stijnen, Charlotte; den Dekker-Arlain, Janneke; Raymond, Christopher M.</t>
         </is>
       </c>
-      <c r="D87" t="n">
-        <v>2025</v>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E87" t="inlineStr">
         <is>
@@ -6725,8 +6889,10 @@
           <t>Ng, Huiying; Jing, Toh Han; Lee, Wuan See Vivian; George, Edgar Raeben; Philip, Varughese</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>2025</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E88" t="inlineStr">
         <is>
@@ -6893,8 +7059,10 @@
           <t>Sage, Daniel</t>
         </is>
       </c>
-      <c r="D90" t="n">
-        <v>2025</v>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E90" t="inlineStr">
         <is>
@@ -6988,8 +7156,10 @@
           <t>Sharp, Emma L.; Yee, Kenzi; Makey, Leane; Fisher, Karen</t>
         </is>
       </c>
-      <c r="D91" t="n">
-        <v>2025</v>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E91" t="inlineStr">
         <is>
@@ -7041,8 +7211,10 @@
           <t>Shaw, Jamie</t>
         </is>
       </c>
-      <c r="D92" t="n">
-        <v>2025</v>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E92" t="inlineStr">
         <is>
@@ -7094,8 +7266,10 @@
           <t>Simone, Abdoumaliq</t>
         </is>
       </c>
-      <c r="D93" t="n">
-        <v>2025</v>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E93" t="inlineStr">
         <is>
@@ -7193,8 +7367,10 @@
           <t>Vina, Michael A.</t>
         </is>
       </c>
-      <c r="D94" t="n">
-        <v>2025</v>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E94" t="inlineStr">
         <is>
@@ -7292,8 +7468,10 @@
           <t>Sovová, Lucie; Jehlička, Petr</t>
         </is>
       </c>
-      <c r="D95" t="n">
-        <v>2025</v>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E95" t="inlineStr">
         <is>
@@ -7391,8 +7569,10 @@
           <t>Unsworth, Sam; Ahlborg, Helene; Hellberg, Sofie</t>
         </is>
       </c>
-      <c r="D96" t="n">
-        <v>2025</v>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E96" t="inlineStr">
         <is>
@@ -7486,8 +7666,10 @@
           <t>Jopling, Michael; Stewart, Georgina Tuari; Orchard, Shane; Suoranta, Juha; Tolbert, Sara; Cheilan, Laurène; Yan, Fei; Price, Catherine; Hayes, Sarah; Scott, Howard; Latham, Annabel; Bhatt, Ibrar; Dodonov, Vyacheslav; Matthews, Adam; Muhtaseb, Rami; MacKenzie, Alison; Owaineh, Mohamed; Earle, Sarah; Simmons, Ben; Clarke, Zoë; la Velle, Linda; Green, Benjamin J.; Brown, Cheryl; Watermeyer, Richard; Jandrić, Petar</t>
         </is>
       </c>
-      <c r="D97" t="n">
-        <v>2025</v>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E97" t="inlineStr">
         <is>
@@ -7581,8 +7763,10 @@
           <t>Tran, Trang C.; Penuel, William R.; Singleton, Corinne; Bell, Philip; Leonhart, Sarah</t>
         </is>
       </c>
-      <c r="D98" t="n">
-        <v>2025</v>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E98" t="inlineStr">
         <is>
@@ -7630,8 +7814,10 @@
           <t>Aare, Ane Kirstine; Umantseva, Anna; Sørensen, Laura Brandt</t>
         </is>
       </c>
-      <c r="D99" t="n">
-        <v>2025</v>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E99" t="inlineStr">
         <is>
@@ -7725,8 +7911,10 @@
           <t>Schönbauer, Sarah Maria</t>
         </is>
       </c>
-      <c r="D100" t="n">
-        <v>2025</v>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E100" t="inlineStr">
         <is>
@@ -7820,8 +8008,10 @@
           <t>Bruckermann, Charlotte</t>
         </is>
       </c>
-      <c r="D101" t="n">
-        <v>2025</v>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E101" t="inlineStr">
         <is>
@@ -7915,8 +8105,10 @@
           <t>Schönbauer, Sarah Maria</t>
         </is>
       </c>
-      <c r="D102" t="n">
-        <v>2025</v>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E102" t="inlineStr">
         <is>
@@ -8010,8 +8202,10 @@
           <t>Ejsing, Mads; Tønder, Lars; Jensen, Ingrid Helene Brandt; Hansen, Janus</t>
         </is>
       </c>
-      <c r="D103" t="n">
-        <v>2025</v>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E103" t="inlineStr">
         <is>
@@ -8059,8 +8253,10 @@
           <t>Kraftl, Peter; Ambreen, Samyia; Armson, David; Badwan, Khawla; Curtis, Elizabeth; Pahl, Kate; Schofield, J. Edward</t>
         </is>
       </c>
-      <c r="D104" t="n">
-        <v>2025</v>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E104" t="inlineStr">
         <is>
@@ -8154,8 +8350,10 @@
           <t>Smith, Geneva M.; Smith, Lindsay A.</t>
         </is>
       </c>
-      <c r="D105" t="n">
-        <v>2025</v>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E105" t="inlineStr">
         <is>
@@ -8203,8 +8401,10 @@
           <t>Carabelli, Giulia; Lyon, Dawn</t>
         </is>
       </c>
-      <c r="D106" t="n">
-        <v>2025</v>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E106" t="inlineStr">
         <is>
@@ -8298,8 +8498,10 @@
           <t>Bolivar, Sarah</t>
         </is>
       </c>
-      <c r="D107" t="n">
-        <v>2025</v>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E107" t="inlineStr">
         <is>
@@ -8393,8 +8595,10 @@
           <t>Laurent, Brice; Merlin, Julien; Meulemans, Germain</t>
         </is>
       </c>
-      <c r="D108" t="n">
-        <v>2025</v>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
@@ -8446,8 +8650,10 @@
           <t>Stenbacka, Susanne</t>
         </is>
       </c>
-      <c r="D109" t="n">
-        <v>2025</v>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E109" t="inlineStr">
         <is>
@@ -8541,8 +8747,10 @@
           <t>Chann, Sopheak; Beban, Alice; Wisesjindawat-Fink, Wisa</t>
         </is>
       </c>
-      <c r="D110" t="n">
-        <v>2025</v>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E110" t="inlineStr">
         <is>
@@ -8590,8 +8798,10 @@
           <t>Ashley, Louisa; Rodríguez Herrera, Diana María; Hummel, Agata</t>
         </is>
       </c>
-      <c r="D111" t="n">
-        <v>2025</v>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E111" t="inlineStr">
         <is>
@@ -8685,8 +8895,10 @@
           <t>Milazzo, Enrico</t>
         </is>
       </c>
-      <c r="D112" t="n">
-        <v>2025</v>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
@@ -8780,8 +8992,10 @@
           <t>Milligan, Brett</t>
         </is>
       </c>
-      <c r="D113" t="n">
-        <v>2025</v>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E113" t="inlineStr">
         <is>
@@ -8875,8 +9089,10 @@
           <t>Shah, Rhea; Maru, Natasha</t>
         </is>
       </c>
-      <c r="D114" t="n">
-        <v>2025</v>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
@@ -8924,8 +9140,10 @@
           <t>Szafonova, Tatyjana</t>
         </is>
       </c>
-      <c r="D115" t="n">
-        <v>2025</v>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
@@ -8973,8 +9191,10 @@
           <t>Baya-Laffite, Nicolas; Boudia, Soraya; Granjou, Céline</t>
         </is>
       </c>
-      <c r="D116" t="n">
-        <v>2025</v>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
@@ -9026,8 +9246,10 @@
           <t>Straatsma, Gerben</t>
         </is>
       </c>
-      <c r="D117" t="n">
-        <v>2025</v>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E117" t="inlineStr">
         <is>
@@ -9075,8 +9297,10 @@
           <t>Barrineau, Susanna; Do, Thao; Powell, Neil</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>2025</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
@@ -9174,8 +9398,10 @@
           <t>Cazzuffi, Chiara; Retamal, Patricia</t>
         </is>
       </c>
-      <c r="D119" t="n">
-        <v>2025</v>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
@@ -9223,8 +9449,10 @@
           <t>Barrineau, Susanna</t>
         </is>
       </c>
-      <c r="D120" t="n">
-        <v>2025</v>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E120" t="inlineStr">
         <is>
@@ -9322,8 +9550,10 @@
           <t>Hackfort, Sarah; Saave, Anna; Wichterich, Christa</t>
         </is>
       </c>
-      <c r="D121" t="n">
-        <v>2025</v>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
@@ -9371,8 +9601,10 @@
           <t>Falkenberg, Ruth; Sigl, Lisa; Fochler, Maximilian</t>
         </is>
       </c>
-      <c r="D122" t="n">
-        <v>2025</v>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
@@ -9466,8 +9698,10 @@
           <t>Rigkos-Zitthen, Ioannis; Kapitsinis, Nikos</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>2025</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
@@ -9515,8 +9749,10 @@
           <t>Mahecha-Groot, Ana Maria; Leichenko, Robin</t>
         </is>
       </c>
-      <c r="D124" t="n">
-        <v>2025</v>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E124" t="inlineStr">
         <is>
@@ -9568,8 +9804,10 @@
           <t>Michael, Carolan</t>
         </is>
       </c>
-      <c r="D125" t="n">
-        <v>2025</v>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
@@ -9617,8 +9855,10 @@
           <t>Oktay, Gizem; Lee, Minha; Barati, Bahareh; Wakkary, Ron</t>
         </is>
       </c>
-      <c r="D126" t="n">
-        <v>2024</v>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E126" t="inlineStr">
         <is>
@@ -9716,8 +9956,10 @@
           <t>Pressler, Yamina; McClymonds, Bailey M.; Balgopal, Meena M.</t>
         </is>
       </c>
-      <c r="D127" t="n">
-        <v>2024</v>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E127" t="inlineStr">
         <is>
@@ -9815,8 +10057,10 @@
           <t>Turton-Hughes, Serena; Holmes, George; Hassall, Christopher</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>2024</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
@@ -9910,8 +10154,10 @@
           <t>Snorek, Julie; Freidberg, Susanne; Smith, Geneva</t>
         </is>
       </c>
-      <c r="D129" t="n">
-        <v>2024</v>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
@@ -9986,8 +10232,10 @@
           <t>Ciobanu, Patricia; Fernaeus, Ylva</t>
         </is>
       </c>
-      <c r="D131" t="n">
-        <v>2024</v>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E131" t="inlineStr">
         <is>
@@ -10085,8 +10333,10 @@
           <t>Chan, Anita Say</t>
         </is>
       </c>
-      <c r="D132" t="n">
-        <v>2025</v>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
@@ -10134,8 +10384,10 @@
           <t>Paterson, Eddie; Stevens, Lara</t>
         </is>
       </c>
-      <c r="D133" t="n">
-        <v>2025</v>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
@@ -10233,8 +10485,10 @@
           <t>Clark, Janine Natalya</t>
         </is>
       </c>
-      <c r="D134" t="n">
-        <v>2025</v>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
@@ -10328,8 +10582,10 @@
           <t>Heitlinger, Sara; Light, Ann; Akama, Yoko; Lindström, Kristina; Stahl, Asa</t>
         </is>
       </c>
-      <c r="D135" t="n">
-        <v>2025</v>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2025</t>
+        </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
@@ -10377,8 +10633,10 @@
           <t>Krzywoszynska, Anna</t>
         </is>
       </c>
-      <c r="D136" t="n">
-        <v>2024</v>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
@@ -10472,8 +10730,10 @@
           <t>Pandey, Poonam; Kuruganti, Kavitha</t>
         </is>
       </c>
-      <c r="D137" t="n">
-        <v>2024</v>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
@@ -10517,8 +10777,10 @@
           <t>Saifuddin, Mustafa; Abramoff, Rose Z; Foster, Erika J; McClelland, Shelby C</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>2024</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
@@ -10616,8 +10878,10 @@
           <t>Rodríguez-Espinosa, Teresa; Pérez-Gimeno, Ana; Almendro-Candel, María Belén; Navarro-Pedreño, Jose</t>
         </is>
       </c>
-      <c r="D139" t="n">
-        <v>2024</v>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
@@ -10715,8 +10979,10 @@
           <t>Ureta, Sebastián; Oteagui, Álvaro; Llona, Miriam</t>
         </is>
       </c>
-      <c r="D140" t="n">
-        <v>2024</v>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
@@ -10814,8 +11080,10 @@
           <t>Takeuchi, Miwa Aoki; Dadkhahfard, Shima; Kopparla, Mahati; Elhowari, Raneem</t>
         </is>
       </c>
-      <c r="D141" t="n">
-        <v>2024</v>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
@@ -10863,8 +11131,10 @@
           <t>Moscatelli, M.C.; Marinari, S.</t>
         </is>
       </c>
-      <c r="D142" t="n">
-        <v>2024</v>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
@@ -10958,8 +11228,10 @@
           <t>Valve, Helena; Valkama, Pasi</t>
         </is>
       </c>
-      <c r="D143" t="n">
-        <v>2024</v>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
@@ -11053,8 +11325,10 @@
           <t>Galvão-Ferreira, Pedro; Fearns, Vera; Nunes, Nuno; Nisi, Valentina</t>
         </is>
       </c>
-      <c r="D144" t="n">
-        <v>2024</v>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
@@ -11152,8 +11426,10 @@
           <t>Inglezaki, Katerina; Katsikis, Nikos; Sepulveda Carmona, Diego; Pestana, Mariana; Jardim Nunes, Nuno</t>
         </is>
       </c>
-      <c r="D145" t="n">
-        <v>2024</v>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
@@ -11251,8 +11527,10 @@
           <t>Tozzi, Arianna</t>
         </is>
       </c>
-      <c r="D146" t="n">
-        <v>2024</v>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
@@ -11419,8 +11697,10 @@
           <t>Enticott, Gareth; O’Mahony, Kieran</t>
         </is>
       </c>
-      <c r="D148" t="n">
-        <v>2024</v>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
@@ -11514,8 +11794,10 @@
           <t>Harvey, Penny; Lien, Marianne Elisabeth; Nyquist, Jon Rasmus</t>
         </is>
       </c>
-      <c r="D149" t="n">
-        <v>2024</v>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
@@ -11682,8 +11964,10 @@
           <t>Hopman, Roos</t>
         </is>
       </c>
-      <c r="D151" t="n">
-        <v>2024</v>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E151" t="inlineStr">
         <is>
@@ -11781,8 +12065,10 @@
           <t>Wiersma, W.; Lopez, D.E.</t>
         </is>
       </c>
-      <c r="D152" t="n">
-        <v>2024</v>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
@@ -11834,8 +12120,10 @@
           <t>Wessolek, Gerd; Toland, Alexandra</t>
         </is>
       </c>
-      <c r="D153" t="n">
-        <v>2024</v>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
@@ -11933,8 +12221,10 @@
           <t>Forney, Jérémie; Bentia, Dana; Dwiartama, Angga</t>
         </is>
       </c>
-      <c r="D154" t="n">
-        <v>2024</v>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
@@ -12032,8 +12322,10 @@
           <t>Westerlaken, Michelle</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>2024</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
@@ -12131,8 +12423,10 @@
           <t>Miller, Kara</t>
         </is>
       </c>
-      <c r="D156" t="n">
-        <v>2024</v>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
@@ -12230,8 +12524,10 @@
           <t>Blickstein, Tamar</t>
         </is>
       </c>
-      <c r="D157" t="n">
-        <v>2024</v>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E157" t="inlineStr">
         <is>
@@ -12325,8 +12621,10 @@
           <t>See, Justin; Cuaton, Ginbert Permejo; Placino, Pryor; Vunibola, Suliasi; Thi, Huong Do; Dombroski, Kelly; McKinnon, Katharine</t>
         </is>
       </c>
-      <c r="D158" t="n">
-        <v>2024</v>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E158" t="inlineStr">
         <is>
@@ -12424,8 +12722,10 @@
           <t>Lancaster, K.; Gendera, S.; Treloar, C.; Rhodes, T.; Shahbazi, J.; Byrne, M.; Nielsen, S.; Degenhardt, L.; Farrell, M.</t>
         </is>
       </c>
-      <c r="D159" t="n">
-        <v>2024</v>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
@@ -12523,8 +12823,10 @@
           <t>Wang, Chi-Mao; Chien, Ker-Hsuan</t>
         </is>
       </c>
-      <c r="D160" t="n">
-        <v>2024</v>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
@@ -12572,8 +12874,10 @@
           <t>Hokkanen, Saana</t>
         </is>
       </c>
-      <c r="D161" t="n">
-        <v>2024</v>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
@@ -12671,8 +12975,10 @@
           <t>Rigkos-Zitthen, Ioannis; McGregor, Andrew; Williams, Miriam J.</t>
         </is>
       </c>
-      <c r="D162" t="n">
-        <v>2024</v>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
@@ -12770,8 +13076,10 @@
           <t>Szymanski, Erika Amethyst</t>
         </is>
       </c>
-      <c r="D163" t="n">
-        <v>2024</v>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
@@ -12865,8 +13173,10 @@
           <t>Beyeler, Laura</t>
         </is>
       </c>
-      <c r="D164" t="n">
-        <v>2024</v>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
@@ -12914,8 +13224,10 @@
           <t>Kendig, Catherine</t>
         </is>
       </c>
-      <c r="D165" t="n">
-        <v>2024</v>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
@@ -13009,8 +13321,10 @@
           <t>Ślosarski, Bartosz</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>2024</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
@@ -13104,8 +13418,10 @@
           <t>Lussem, Felix</t>
         </is>
       </c>
-      <c r="D167" t="n">
-        <v>2024</v>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E167" t="inlineStr">
         <is>
@@ -13199,8 +13515,10 @@
           <t>Healy, Liam</t>
         </is>
       </c>
-      <c r="D168" t="n">
-        <v>2024</v>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E168" t="inlineStr">
         <is>
@@ -13248,8 +13566,10 @@
           <t>Oktay, Gizem; Lee, Minha; Barati, Bahareh; Wakkary, Ron</t>
         </is>
       </c>
-      <c r="D169" t="n">
-        <v>2024</v>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E169" t="inlineStr">
         <is>
@@ -13297,8 +13617,10 @@
           <t>Neyland, Daniel</t>
         </is>
       </c>
-      <c r="D170" t="n">
-        <v>2024</v>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E170" t="inlineStr">
         <is>
@@ -13396,8 +13718,10 @@
           <t>Biskupovic, Consuelo; Maurines, Béatrice; Antin, Mélanie</t>
         </is>
       </c>
-      <c r="D171" t="n">
-        <v>2024</v>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E171" t="inlineStr">
         <is>
@@ -13491,8 +13815,10 @@
           <t>Grimes, Jessica; Gordon, Paddy; Jobson, Sarah</t>
         </is>
       </c>
-      <c r="D172" t="n">
-        <v>2024</v>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E172" t="inlineStr">
         <is>
@@ -13540,8 +13866,10 @@
           <t>Sefkatli, Pinar</t>
         </is>
       </c>
-      <c r="D173" t="n">
-        <v>2024</v>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E173" t="inlineStr">
         <is>
@@ -13589,8 +13917,10 @@
           <t>Falkenberg, Ruth; Sigl, Lisa; Fochler, Maximilian</t>
         </is>
       </c>
-      <c r="D174" t="n">
-        <v>2024</v>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E174" t="inlineStr">
         <is>
@@ -13688,8 +14018,10 @@
           <t>Pihkala, Suvi; Karasti, Helena</t>
         </is>
       </c>
-      <c r="D175" t="n">
-        <v>2024</v>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
       </c>
       <c r="E175" t="inlineStr">
         <is>
@@ -13721,6 +14053,6531 @@
       <c r="P175" t="inlineStr"/>
       <c r="Q175" t="inlineStr"/>
     </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Negotiations-of-Justice-in-the-Anthropocene</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Negotiations of Justice in the Anthropocene: Mining Conflicts, Unacknowledged Loss and Responsibility for Absent Others</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Lussem, Felix</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>Zeitschrift fur Ethnologie</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.60827/zfe/jsca.v149i2.1924</t>
+        </is>
+      </c>
+      <c r="G176" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H176" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Negotiations-of-Justice-in-the-Anthropocene.txt</t>
+        </is>
+      </c>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+      <c r="N176" t="inlineStr">
+        <is>
+          <t>Starting from the premise that modern legal institutions are increasingly challenged by the temporal and spatial implications of Anthropocene phenomena, this article shows how various civil-society actors struggle for a more just approach to coal-exit policies in the Rhineland’s brown coal mining region. Contrary to general criticisms arguing that the Anthropocene narrative inherently disregards a differentiated perspective on issues of justice, I follow approaches that engage with the concept’s generative tensions and situate it ethnographically. The article goes on to suggest that growing awareness of the entanglements of industrial infrastructures with planetary crises has led to local protests against mining coinciding with an engagement for future planetary habitability. Whereas mining-induced losses were previously written off as a necessary sacrifice for growth and progress, I discuss how the affected inhabitants reframe them in this emerging context as injustices on a planetary scale. Motivated by a responsibility towards non-human others and coming generations, these coal-critical actors contest official transition measures that center on ‘green growth’ and instead call for situated policies that account for matters of concern related to accelerated planetary change. The article concludes by arguing that the pursuit of justice in the Anthropocene is fundamentally characterized by a responsibility towards absent others, spatially and temporally. © 2024 Dietrich Reimer Verlag.</t>
+        </is>
+      </c>
+      <c r="O176" t="inlineStr"/>
+      <c r="P176" t="inlineStr"/>
+      <c r="Q176" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Where-value-creation-meets-appreciation-Brandenburg-Germany</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Where value creation meets appreciation and care: motives of farmers for direct marketing in Brandenburg, Germany</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Brettin, Suse</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>Sustainability: Science, Practice, and Policy</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/15487733.2024.2420410</t>
+        </is>
+      </c>
+      <c r="G177" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H177" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Where-value-creation-meets-appreciation-Brandenburg-Germany.txt</t>
+        </is>
+      </c>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
+      <c r="N177" t="inlineStr">
+        <is>
+          <t>In recent years, the number of agricultural enterprises engaged in various forms of direct marketing has increased, both internationally and in Germany. To date, however, little is known about the farmers’ motives for selling their products directly to consumers. This knowledge gap seems particularly striking in light of the sociopolitical objective of fostering this mode of marketing and distribution. Given the hegemonic conceptualization of the farmer as a rational choice entrepreneur, the reasons for this could be purely economic, or a response to a seemingly growing demand for local produce. Nonetheless, the little research that exists on farmers’ motivations also points in other directions and emphasizes the importance of relationality and socioecological embeddedness, which are central characteristics of care. This article thus explores how logics of care provide a starting point for farmers’ motivation to direct marketing. Through the analysis of nine qualitative interviews with farmers in Brandenburg, Germany, who sell some or all of their products directly, it illustrates how they consider themselves within a structure of multifaceted responsibilities. The results further indicate that direct marketing seems to be a logical consequence of these responsibilities. By providing a more nuanced picture, the direct selling of produce can be seen as both a strategy for value creation and a means of appreciation and a set of practices of care toward the complex web of human and non-human beings contributing to agricultural production. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O177" t="inlineStr"/>
+      <c r="P177" t="inlineStr"/>
+      <c r="Q177" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Doing-Homework-Encountering-Indigenous</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>Doing Homework: Encountering Indigenous and New Materialist Onto- Epistemologies in Education Research</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Rotas, Nikki; Nxumalo, Fikile; Higgins, Marc; Madden, Brooke; Pacini-Ketchabaw, Veronica</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>Methods and Genealogies of New Materialisms</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85212714569&amp;partnerID=40&amp;md5=ce00c3486ce8027f37ef77820b475ae5</t>
+        </is>
+      </c>
+      <c r="G178" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H178" t="inlineStr"/>
+      <c r="I178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
+      <c r="M178" t="inlineStr"/>
+      <c r="N178" t="inlineStr"/>
+      <c r="O178" t="inlineStr"/>
+      <c r="P178" t="inlineStr"/>
+      <c r="Q178" t="inlineStr"/>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Dirt-Jumps-are-Matter-Carefully-Placed</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>Dirt Jumps are Matter Carefully Placed, Maintained, and Governed; [Los saltos de tierra para BMX son materia cuidadosamente colocada, mantenida y gobernada]</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Healy, Liam</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>Disena</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7764/disena.24.Article.6</t>
+        </is>
+      </c>
+      <c r="G179" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H179" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Dirt-Jumps-are-Matter-Carefully-Placed.txt</t>
+        </is>
+      </c>
+      <c r="I179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
+      <c r="M179" t="inlineStr"/>
+      <c r="N179" t="inlineStr">
+        <is>
+          <t>This article draws on research produced with DIY bike trail and dirt jump builders to unpack the forms of repair and care that they employ in maintaining their spaces. I begin by describing the mundane practices involved in keeping bike trails running, such as shoveling, watering, and compacting, and conceptualize these activities as repairing the ‘ruins’ of the often squatted spaces that they occupy. Second, I draw from literature in feminist science and technology studies (STS) and commons to argue for a thickening of care, finding that these spaces alert me to the ways that ‘neglect’, and exclusion from participation-in, and research-on, are often a requirement of their subsistence. In conclusion, I find that in these spaces forms of repair and maintenance are multiple and layered―from mundane practices to their forms of governance—and in recent years, have involved practices to ‘repair’ the pervasive and dominating macho, heteronormative cultures of these social worlds. © 2024, Pontificia Universidad Catolica de Chile. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O179" t="inlineStr"/>
+      <c r="P179" t="inlineStr"/>
+      <c r="Q179" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Toward-a-caring-and-reproductive-bioeconomy</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>Toward a caring and (re)productive bioeconomy? A feminist analysis of socio-technical innovations and sustainability shortcomings</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Hackfort, Sarah; Saave, Anna</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>Sustainability: Science, Practice, and Policy</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/15487733.2024.2375808</t>
+        </is>
+      </c>
+      <c r="G180" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H180" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Toward-a-caring-and-reproductive-bioeconomy.txt</t>
+        </is>
+      </c>
+      <c r="I180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
+      <c r="M180" t="inlineStr"/>
+      <c r="N180" t="inlineStr">
+        <is>
+          <t>The bioeconomy is touted as an innovative economic approach to make economies more sustainable through the use of biological resources and processes. In many bioeconomy policies, the expansion of biomass is key and is enabled by new biotechnologies and precision agriculture (PA). We respond to the demand for critical approaches to sustainability and ask: How can feminist (sustainability) research–specifically feminist ecological economics and feminist science and technology studies–help to assess the sustainability shortcomings of socio-technical innovations in the bioeconomy? We have drawn from these two fields to construct a framework of analysis and illustrate its application by looking at the field of PA, which has emblematic socio-technical innovations for biomass production in the agricultural bioeconomy. We illustrate how this analytical framework can reveal manifold sustainability shortcomings linked to these innovations, such as the reinforcement of power relations; the promotion of productivism; the undermining of precaution, sufficiency, and cooperation in technology development; the fetishization of data; and the delegitimization of local knowledge. While the application of the analytical framework is only exemplary, it shows how such an analysis allows for a fine-grained and multifaceted assessment of a specific field of innovations in the bioeconomy and how it can draw attention to structural and systemic sustainability shortcomings which are often overlooked. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O180" t="inlineStr"/>
+      <c r="P180" t="inlineStr"/>
+      <c r="Q180" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>More-than-transactional-circular-economies-the-cafe-urban</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>More-than-transactional circular economies: the café-urban farm nexus and emergent regional food waste circuits</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Quirk, Sam; Gibson, Chris; Cook, Nicole</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>Local Environment</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13549839.2024.2330399</t>
+        </is>
+      </c>
+      <c r="G181" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H181" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\More-than-transactional-circular-economies-the-cafe-urban.txt</t>
+        </is>
+      </c>
+      <c r="I181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
+      <c r="M181" t="inlineStr">
+        <is>
+          <t>Australia; consumption behavior; food waste; local government; recirculating system; sustainability; waste disposal; waste management</t>
+        </is>
+      </c>
+      <c r="N181" t="inlineStr">
+        <is>
+          <t>As governments encourage circular economy (CE) initiatives, markets for waste recirculation are taking shape. But implementation is in its infancy and material circuits are emergent. Early food waste CEs shaped by commercial players emphasise capital investment, routinised forms of waged labour, processing sites distant from food waste sources, and transactional relationships. Less well understood is the potential for vernacular circularity beyond market-based, transactional frames. This paper reports from a collaborative research exercise with a non-profit community farm in nonmetropolitan Australia, seeking to connect with cafés to access food waste for composting. Cafés are a nexus of production and consumption, ubiquitous in the contemporary multicultural Australian context, and therefore ideal for grassroots CEs. Ten local cafes participated, reviewing existing food waste practices, motivations for circularity, and contextual factors including the regional setting. We found that food waste circularity emerges via divergent pathways related to enterprise type and scale, environmental values of actors, place embeddedness, and local relationships. These pathways reflect the place-based attributes and diverse sustainability values of residents and businesses in the coastal, industrial city of Wollongong, where the study is based. Contrasting distant, transactional circuits, are more-than-transactional food waste pathways, developed by microscale actors shaping vernacular material flows and “hacking” public provision of Food Organic and Garden Organic (FOGO) waste services to mobilise environmental values and community relationships. Overlooked by “big policy” more-than-transactional relationships bind producers, intermediaries and consumers in closer loops and, in so doing, enrich place and facilitate an ethic of care for soil and land. © 2024 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O181" t="inlineStr"/>
+      <c r="P181" t="inlineStr"/>
+      <c r="Q181" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Ontological-overflows-and-the-politics-of-absence-Zika</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>Ontological overflows and the politics of absence: Zika, disease surveillance, and mosquitos</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Lee, Francis</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>Science as Culture</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09505431.2023.2291046</t>
+        </is>
+      </c>
+      <c r="G182" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H182" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Ontological-overflows-and-the-politics-of-absence-Zika.txt</t>
+        </is>
+      </c>
+      <c r="I182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
+      <c r="M182" t="inlineStr"/>
+      <c r="N182" t="inlineStr">
+        <is>
+          <t>In STS, there has long existed an unease about the analysis of powerful actors and dominant technoscientific narratives. A core concern for the field has been how particular objects, phenomena, and people are excluded from technoscientific realities. However, a key problem in dealing with exclusion in STS is that our methods call us to ‘follow the actors,’ which often leads to reifying our interlocutors’ matters of concern. This paper proposes an analytical strategy that turns our analytical attention to the actors’ work rendering things absent—a strategy of analyzing ontological overflows. The aim of this analytical move is to shift focus from construction to de-construction and to highlight the importance of processes of exclusion. By exploring the actors’ making of the absence of Zika—and by extension, the construction of the absence of various technoscientific phenomena—an analytical strategy is outlined that allows us to attend to the overflows of technoscience. Four types of overflows are analyzed: conglomeration, exclusion, scarcity, and indeterminacy, each illustrating how the making of absences shapes technoscientific objects. For instance, the decision of what counts as a thing, the handling of absent data, and the translation of computational uncertainties into absence of prediction. This analytical strategy highlights where there exist spaces for power and choice—where choices can be made, by whom, and by what means. By analyzing the making of absence, we can explore how objects, phenomena, and people are marginalized or rendered absent in technoscientific processes. © 2023 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O182" t="inlineStr"/>
+      <c r="P182" t="inlineStr"/>
+      <c r="Q182" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Beyond-Crisis-Talk-Making-Time</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Beyond Crisis Talk: Making Time for Re-Searching New Narratives of Human Relations With Soil</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Giuffredi, Rita; Caretto, Andrea; Colella, Christian; Spagna, Raffaella; Colucci-Gray, Laura; L’Astorina, Alba</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>Tecnoscienza</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.6092/issn.2038-3460/18076</t>
+        </is>
+      </c>
+      <c r="G183" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H183" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Beyond-Crisis-Talk-Making-Time.txt</t>
+        </is>
+      </c>
+      <c r="I183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
+      <c r="M183" t="inlineStr"/>
+      <c r="N183" t="inlineStr">
+        <is>
+          <t>In this paper, we focus on soil as a “contested terrain” emerging from the interplay of competing socio-political and cultural frames. Starting from the analysis of international reports on soil, we show how the urgency frame acts as a powerful discursive device that progressively reduces the inherent complexity of soil as a socio-ecological system, compressing the temporality of future perspectives and demarcating the inclusion/exclusion of non-human actors in soil communities. In the second part, we draw on examples of practice from our project BRIDGES to highlight possibilities for re-framing research as a “practice of attention” and experimenting with different temporalities and modes of relation with soil. Findings point to the need to address the fundamental questions that such an approach poses for all research communities. Bringing sedimented attitudes, perceptions, and ways approaching research to the surface, our experiences cast light on the importance of methodological choices for thinking differently about soil and about slowing down the narratives of research: not as a tool or resource, but as a shared process of crafting mutual relations amongst all kinds of practitioners, including more than humans. © The Author(s) 2025.</t>
+        </is>
+      </c>
+      <c r="O183" t="inlineStr"/>
+      <c r="P183" t="inlineStr"/>
+      <c r="Q183" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Ackern-gegen-das-Anthropozan</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr"/>
+      <c r="C184" t="inlineStr"/>
+      <c r="D184" t="inlineStr"/>
+      <c r="E184" t="inlineStr"/>
+      <c r="F184" t="inlineStr"/>
+      <c r="G184" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H184" t="inlineStr"/>
+      <c r="I184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
+      <c r="M184" t="inlineStr"/>
+      <c r="N184" t="inlineStr"/>
+      <c r="O184" t="inlineStr"/>
+      <c r="P184" t="inlineStr"/>
+      <c r="Q184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Studying-a-womens-collective-from-a-politics</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>Studying a women’s collective from a politics of commoning perspective: the case of Skouries, Greece</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Rigkos-Zitthen, Ioannis; Kapitsinis, Nikos</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>Journal of Cultural Geography</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/08873631.2024.2411928</t>
+        </is>
+      </c>
+      <c r="G185" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H185" t="inlineStr"/>
+      <c r="I185" t="inlineStr"/>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
+      <c r="M185" t="inlineStr">
+        <is>
+          <t>Greece; collective action; community organization; environmental politics; mining; political participation; womens organization</t>
+        </is>
+      </c>
+      <c r="N185" t="inlineStr">
+        <is>
+          <t>We live in a period of multiple crises, including economic, environmental, and social emergencies. The prioritisation of capitalist economic growth by most political institutions is among the most critical drivers of these crises in a never-ending loop. Against this context, commoning, perceived as collective care, presents an alternative political strategy to respond to those crises. In this paper, we investigate how an anti-mining community in Skouries, Greece, opposes the imposition of a large-scale mining project by forming a commons. Our commons is a women’s collective that sought a sustainable economic alternative to large-scale mining and a model that could influence different political values much needed for politics in a crisis-ridden framework. We argue that commoning can enrich the politics of our times. Commoning highlights the importance of caring collectively for developing collective identities and relations between humans and the environment, which can benefit local, national, and international politics. © 2024 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O185" t="inlineStr"/>
+      <c r="P185" t="inlineStr"/>
+      <c r="Q185" t="inlineStr"/>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>On-Disease-Configurations-Black-Grass</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>On Disease Configurations, Black-Grass Blowback, and Probiotic Pest Management</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Cusworth, George; Lorimer, Jamie</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>Annals of the American Association of Geographers</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/24694452.2023.2289984</t>
+        </is>
+      </c>
+      <c r="G186" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H186" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\On-Disease-Configurations-Black-Grass.txt</t>
+        </is>
+      </c>
+      <c r="I186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
+      <c r="M186" t="inlineStr">
+        <is>
+          <t>Europe; disease; endemic species; grass; integrated pest management; intensive agriculture; pest control</t>
+        </is>
+      </c>
+      <c r="N186" t="inlineStr">
+        <is>
+          <t>This article explores approaches to managing pests that are being developed in response to the faltering effectiveness of antibiotic regimes of chemical control. It focuses on black-grass (Alopecurus myosuroides), an endemic plant in European agriculture that has emerged as a serious yield-robber with increasing levels of herbicidal resistance. Following farmers and agronomists who have developed “integrated” approaches to black-grass management, the article identifies approaches to biosecurity that do not target unwanted life so much as they modulate ecological systems in their entirety. Pathogenesis, in this relational understanding, follows not from breaches of dangerous life into healthy space, but from ecological intra-actions that enable the proliferation of some life to compromise the multispecies livability of the body in question. The article contributes to the literature by detailing how this configurational approach works in the world. It traces the polymorphic spatial imaginaries required to map pests well; the process of knowledge intensification needed to reveal which configurations can resist pathogenesis; and the probiotic biopolitical interventions used to safeguard farmland productivity. The article uses black-grass to present a temporal metanarrative of intensive farming causing ecological blowback, leading to the development of approaches to pest management predicated on a pragmatic tolerance toward unwanted life. © 2024 The Author(s). Published with license by Taylor &amp; Francis Group, LLC.</t>
+        </is>
+      </c>
+      <c r="O186" t="inlineStr"/>
+      <c r="P186" t="inlineStr"/>
+      <c r="Q186" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Caring-for-Groundwater</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Caring for Groundwater: How Care Can Expand and Transform Groundwater Governance</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Zwarteveen, Margreet; Domínguez-Guzmán, Carolina; Kuper, Marcel; Saidani, Amine; Kemerink-Seyoum, Jeltsje; Cleaver, Frances; Kulkarni, Himanshu; Bossenbroek, Lisa; Ftouhi, Hind; Verzijl, Andres; Aslekar, Uma; Kadiri, Zakaria; Chitata, Tavengwa; Leonardelli, Irene; Kulkarni, Seema; Bhat, Sneha</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>International Journal of the Commons</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5334/ijc.1350</t>
+        </is>
+      </c>
+      <c r="G187" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H187" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Caring-for-Groundwater.txt</t>
+        </is>
+      </c>
+      <c r="I187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
+      <c r="M187" t="inlineStr"/>
+      <c r="N187" t="inlineStr">
+        <is>
+          <t>Efforts to measure and regulate groundwaters and irrigators are notoriously ineffective. The starting point of this article, therefore, is to question the continued faith in techno-managerial solutions to groundwater depletion. We discuss the potential of the conceptual vocabulary of ‘care’ to complement, refresh and expand ways of talking about and doing groundwater governance. Mobilizing a diverse range of examples from places where pressures on aquifers are particularly acute, we do this by exploring what care entails in everyday practices of groundwater use and management. We show that foregrounding care nuances and sometimes challenges stories of users unavoidably depleting aquifers when given the chance and means to do so. Irrigators may display concern about the longer-term sustainability of the aquifers on which their livelihoods depend, even when their own pumping practices are unsustainable. In spite of pressures to intensify and individualize, farmers sometimes do hold on to or creatively develop collective rules to fairly share groundwater and use it sustainably, complementing strategies to make do with what is available with investments in conservation and recharge. Attention to care, moreover, highlights the ongoing processes of tinkering that governing groundwater always entails. The ability to tinker hinges on intimate and often embodied knowledge of a watery place. Accepting the care involved in governing groundwater, our analysis therefore concludes, prompts a re-consideration of what is and who has water expertise, with important implications for the role of ‘outside’ experts. More than a new theory, we propose embracing care as an analytical sensibility, with the study of practices of care serving as one promising way to widen the conceptual and political space for understanding and doing human-groundwater relations. © 2024 The Author(s).</t>
+        </is>
+      </c>
+      <c r="O187" t="inlineStr"/>
+      <c r="P187" t="inlineStr"/>
+      <c r="Q187" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Inhabit-consume-and-cultivate-Madrid</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Inhabit, consume, and cultivate. Processes and initiatives for ecosocial transition in Catalonia and Madrid; [Habitar, consumir y cultivar. Procesos e iniciativas para la transición ecosocial en Cataluña y Madrid]</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Serna, David Berná; Acedo, Sara Sama; de la Piscina, Patricia Homs Ramírez</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>Revista Espanola de Sociologia</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.22325/fes/res.2024.236</t>
+        </is>
+      </c>
+      <c r="G188" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H188" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Inhabit-consume-and-cultivate-Madrid.txt</t>
+        </is>
+      </c>
+      <c r="I188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
+      <c r="M188" t="inlineStr"/>
+      <c r="N188" t="inlineStr">
+        <is>
+          <t>In this context of eco-social crisis, eco-transformation narratives currently imbue institutional programs and the agendas of social organizations and movements. These narratives set out to promote practices to guarantee sustainable living and redefine the relationships between society and nature, based on interdependence and eco-dependence. This article first explores the sociopolitical context in which these narratives take place, and the ecotransformation processes involved. It then analyses the "eco-transformative capability" of specific collective initiatives, presenting three case studies: neo-ruralisation processes and organic wine production in the Sierra Oeste of Madrid and the southern Sierra de Gredos, agroecological provisioning systems in Catalonia, and the urban community gardens integrated into the Madrid Municipal Program. This analysis focusses on the motivations, challenges, and limitations that stakeholders find in putting into practice sustainable living, production and consumption, and in their relationships with public institutional agendas regarding eco-social transition. © 2024 Federacion Espanola de Sociologia. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O188" t="inlineStr"/>
+      <c r="P188" t="inlineStr"/>
+      <c r="Q188" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Landscapes-of-care-politics-practices</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Landscapes of care: politics, practices, and possibilities</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Jacobs, Sara; Wiens, Taryn</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Landscape Research</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/01426397.2023.2266394</t>
+        </is>
+      </c>
+      <c r="G189" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H189" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Landscapes-of-care-politics-practices.txt</t>
+        </is>
+      </c>
+      <c r="I189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
+      <c r="M189" t="inlineStr">
+        <is>
+          <t>architecture; environmental justice; landscape planning; power relations; social justice</t>
+        </is>
+      </c>
+      <c r="N189" t="inlineStr">
+        <is>
+          <t>Care offers a framework to shift relations with land and suggest alternative possibilities to dominant, and often extractive, landscape practices. With increasing attention to inequities in labour, histories of erasure and exclusion, ongoing harms of colonisation, and the uneven impacts of how climate change reshapes landscapes, care has come to describe hopeful ideas for how landscapes are researched, maintained, and designed. Yet, care is not a simple solution to complex problems. In reviewing landscapes of care through politics, practices, and possibilities, we assert that care situated in landscape must acknowledge the relationship between the control of land and power, and resist paternalistic modes of care which normalise social and environmental injustices manifest in landscapes. As landscape scholars increasingly engage topics of care, we urge for a more critical politics of care that is reflective of how landscape relations generated through care reveal and remake relationships to power. © 2023 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O189" t="inlineStr"/>
+      <c r="P189" t="inlineStr"/>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Exploring-Democracy-in-the-Anthropocene</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Exploring Democracy in the Anthropocene: The Case of Practices of Collective Care</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Rigkos-Zitthen, Ioannis; Granberg, Mikael</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Socialism and Democracy</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/08854300.2024.2378397</t>
+        </is>
+      </c>
+      <c r="G190" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H190" t="inlineStr"/>
+      <c r="I190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
+      <c r="M190" t="inlineStr"/>
+      <c r="N190" t="inlineStr"/>
+      <c r="O190" t="inlineStr"/>
+      <c r="P190" t="inlineStr"/>
+      <c r="Q190" t="inlineStr"/>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Revitalizing-Air-More-than-Human-Relations</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Revitalizing Air: More-than-Human Relations in Urban Health Beyond the Modern-Premodern Binary</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Meloni, Maurizio; Maller, Cecily</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Geohumanities</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/2373566X.2023.2280570</t>
+        </is>
+      </c>
+      <c r="G191" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H191" t="inlineStr"/>
+      <c r="I191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
+      <c r="M191" t="inlineStr"/>
+      <c r="N191" t="inlineStr">
+        <is>
+          <t>The cleanliness, mobility and quality of urban air has regained political legibility in debates on post-pandemic cities. To contextualize the political and epistemological significance of air in urban contexts, we suggest looking at the under-researched experience of premodern cities and bodies, how they developed a complex ecological imagination and solutions guided by findings from Hippocratic-Galenic medicine. While we do not romanticize these efforts, we argue that they represent an overlooked archive through which the post-Enlightenment mechanization, securitization and abstraction of air can be challenged. Turning to recent findings from both more-than-human thinking and microbiology as applied to air (aerobiome), we acknowledge that microbiome science is a result of laboratory science; however, we argue that findings from microbiome science point to a reanimation of air as something that cannot be fully instrumentalized or securitized as in modernistic programs of biopolitical control. By drawing on the on the experience of the Hippocratic tradition as a catalyst and a proxy for wider ontologies of flows and corporeal porosity across the Eurasian landmass, we suggest arriving at an affirmative reconceptualization of human-environment entanglement based on notions of permeability and a non-binary ontology of flows. This more-than-human approach may not only complicate the alleged simplistic view of the “West” as a dualistic monolith but act also as bridge and companion to Indigenous and Southern ontologies and experiences of life, non-life, matter and nature. © 2024 American Association of Geographers Published by Taylor &amp; Francis Group, LLC.</t>
+        </is>
+      </c>
+      <c r="O191" t="inlineStr"/>
+      <c r="P191" t="inlineStr"/>
+      <c r="Q191" t="inlineStr"/>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>On-the-Ground-Terrestrial-Theopoetics</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr"/>
+      <c r="C192" t="inlineStr"/>
+      <c r="D192" t="inlineStr"/>
+      <c r="E192" t="inlineStr"/>
+      <c r="F192" t="inlineStr"/>
+      <c r="G192" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H192" t="inlineStr"/>
+      <c r="I192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
+      <c r="M192" t="inlineStr"/>
+      <c r="N192" t="inlineStr"/>
+      <c r="O192" t="inlineStr"/>
+      <c r="P192" t="inlineStr"/>
+      <c r="Q192" t="inlineStr"/>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Making-time-for-and-with-honeybees</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Making time for and with honeybees</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Phillips, Catherine</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>The Routledge International Handbook of More-than-Human Studies</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9781003262619-22</t>
+        </is>
+      </c>
+      <c r="G193" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H193" t="inlineStr"/>
+      <c r="I193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
+      <c r="M193" t="inlineStr"/>
+      <c r="N193" t="inlineStr"/>
+      <c r="O193" t="inlineStr"/>
+      <c r="P193" t="inlineStr"/>
+      <c r="Q193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Soil-as-a-transdisciplinary-research-catalyst</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Soil as a transdisciplinary research catalyst: from bioprospecting to biorespecting</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Tarnowski, Matthew J.; Varliero, Gilda; Scown, Jim; Phelps, Emily; Gorochowski, Thomas E.</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Royal Society Open Science</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1098/rsos.230963</t>
+        </is>
+      </c>
+      <c r="G194" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H194" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-as-a-transdisciplinary-research-catalyst.txt</t>
+        </is>
+      </c>
+      <c r="I194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
+      <c r="M194" t="inlineStr"/>
+      <c r="N194" t="inlineStr">
+        <is>
+          <t>The vast microbial biodiversity of soils is beginning to be observed and understood by applying modern DNA sequencing techniques. However, ensuring this potentially valuable information is used in a fair and equitable way remains a challenge. Here, we present a public engagement project that explores this topic through collaborative research of soil microbiomes at six urban locations using nanopore-based DNA sequencing. The project brought together researchers from the disciplines of synthetic biology, environmental humanities and microbial ecology, as well as school students aged 14-16 years old, to gain a broader understanding of views on the use of data from the environment. Discussions led to the transformation of 'bioprospecting', a metaphor with extractive connotations which is often used to frame environmental DNA sequencing studies, towards a more collaborative approach - 'biorespecting'. This shift in terminology acknowledges that genetic information contained in soil arises as a result of entire ecosystems, including the people involved in its creation. Therefore, any use of sequence information should be accountable to the ecosystems from which it arose. As knowledge can arise from ecosystems and communities, science and technology should acknowledge this link and reciprocate with care and benefit-sharing to help improve the wellbeing of future generations.  © 2023 The Authors.</t>
+        </is>
+      </c>
+      <c r="O194" t="inlineStr"/>
+      <c r="P194" t="inlineStr"/>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Careful-Interventions-On-Care</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Careful Interventions: On Care and Participation in Design for Migration and Arrival</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Krüger, Maximilian</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2024</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Careful Interventions: On Care and Participation in Design for Migration and Arrival</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-658-44009-1</t>
+        </is>
+      </c>
+      <c r="G195" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H195" t="inlineStr"/>
+      <c r="I195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
+      <c r="M195" t="inlineStr">
+        <is>
+          <t>Conceptual design; Design for manufacturability; Engineering education; Maintainability; Sociology; Assistive technology; Care; Design-process; Informatics; It focus; Larger networks; Long-term maintenances; Migration; Participatory design; Repair</t>
+        </is>
+      </c>
+      <c r="N195" t="inlineStr">
+        <is>
+          <t>In 2015 and 2016 more than a million people sought refuge from conflict and hardships in Germany. While the response was ambivalent, across the country large networks of supporters formed, offering various kinds of assistance to the arriving persons. This book takes these developments as a starting point. It reports on an HCI project, building on the emancipatory traditions of Participatory Design and the Socio-Informatics approach, aiming to develop assistive technologies for forced migrants as well as their supporters. It focusses on the design process and reflects on the nature of intervening through participatory design in matters of migration and arrival. The work draws on feminist conceptualisations of care and outlines how care and participation interacted in this context to support the longterm maintenance of the design results, but also how care relations between the different participant groups undermined the democratic aims of participation. It draws out preliminary lessonsfor an interventionist HCI practice. © The Editor(s) (if applicable) and The Author(s), under exclusive license to Springer Fachmedien Wiesbaden GmbH, part of Springer Nature 2024.</t>
+        </is>
+      </c>
+      <c r="O195" t="inlineStr"/>
+      <c r="P195" t="inlineStr"/>
+      <c r="Q195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Soilkin</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Soilkin</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Toland, Alexandra Regan</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Environmental Humanities</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/22011919-10746023</t>
+        </is>
+      </c>
+      <c r="G196" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H196" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soilkin.txt</t>
+        </is>
+      </c>
+      <c r="I196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
+      <c r="M196" t="inlineStr">
+        <is>
+          <t>knowledge; pedogenesis; permafrost; reciprocity; soil science; weathering profile</t>
+        </is>
+      </c>
+      <c r="N196" t="inlineStr">
+        <is>
+          <t>Drawing on ideas from the history and philosophy of soil science, Fluxus performance, and queer-feminist STS, this article responds to a question posed by environmental researcher Hugo Reinert: “What modes of passionate immersion—or love, or intimacy—could a stone afford?” Situated in a fluid space between environmental humanities and artistic research, the Soilkin project develops a series of relational exercises to frame three basic propositions: (1) a non-normative, animistic understanding of geologic subjectivity could trouble accepted criteria for life on earth, leading to kinship with geogenic entities; (2) soil formation (pedogenesis) could be interpreted as a performative process of learning and becoming, rather than simply weathering and aging, with appreciable ontological implications; and (3) soil kinship is situated within a dynamic interplay of resistance and consent, demanding that the terms of reciprocity between humans and soils be mutually beneficial and appropriate to the slowed-down timescale of events in which soil-beings live and operate. The article integrates theoretical provocations with performative scores to expand and sensitize soil-scientific knowledge while, at the same time, contributing to multispecies scholarship on kin-making with geogenic and pedogenic others. © 2020 Journal of Drugs in Dermatology. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O196" t="inlineStr"/>
+      <c r="P196" t="inlineStr"/>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Cultivating-Altruism-Around-Computing-Resources</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Cultivating Altruism Around Computing Resources: Anticipation Work in a Scholarly Community</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>Cohoon, Johanna; Kabir, Kazi Sinthia; Motahar, Tamanna; Wiese, Jason</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3610185</t>
+        </is>
+      </c>
+      <c r="G197" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Cultivating-Altruism-Around-Computing-Resources.txt</t>
+        </is>
+      </c>
+      <c r="I197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
+      <c r="M197" t="inlineStr">
+        <is>
+          <t>User interfaces; Cloud-computing; Computing resource; Coordination; Cyberinfrastructure; Science studies; Scientific collaboration; Scientific softwares; Temporal rhythm; Time; User research; Cloud computing</t>
+        </is>
+      </c>
+      <c r="N197" t="inlineStr">
+        <is>
+          <t>User research for scientific software can inform design and account for the unique concerns of academic researchers. In this study, we explored the user experience on a testbed for cloud computing research, CloudLab. Through 15 semi-structured interviews and observation, we observed the importance of time as a resource to system users. We observed CloudLab users strategically coordinating their time on the platform with other users, navigating the constraints of publication and other academic deadlines. Surprisingly, we found that this coordination may involve altruistic behaviors where users share time on CloudLab that had been allocated for personal use. In light of prior CSCW literature on how actors seek to harness time, we propose concrete opportunities for design interventions. Our strategy across all possible interventions is to increase users' awareness of the rhythms affecting their peers' platform use, allowing coordination based not just on knowledge of CloudLab reservations but also users' progress toward deadlines. The implications of this work inform the design of other similar cyberinfrastructure systems in science where users independently coordinate use of resources.  © 2023 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O197" t="inlineStr"/>
+      <c r="P197" t="inlineStr"/>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>A-democracy-of-compost</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>A 'democracy of compost': Neo-materialist encounters in urban spaces</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>Wing, Monique; Sharp, Emma L.</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Urban Natures: Living the More-than-Human City</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85169166965&amp;partnerID=40&amp;md5=0afebb8842a9579b42dacf83db7e933e</t>
+        </is>
+      </c>
+      <c r="G198" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H198" t="inlineStr"/>
+      <c r="I198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
+      <c r="M198" t="inlineStr"/>
+      <c r="N198" t="inlineStr"/>
+      <c r="O198" t="inlineStr"/>
+      <c r="P198" t="inlineStr"/>
+      <c r="Q198" t="inlineStr"/>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Dairy-farmer-and-farm-staff-attitudes-and-percepti</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Dairy farmer and farm staff attitudes and perceptions regarding daily milk allowance to calves</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>Svensson, C.; Hegrestad, A.-L.; Lindblom, J.</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Journal of Dairy Science</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3168/jds.2023-23499</t>
+        </is>
+      </c>
+      <c r="G199" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Dairy-farmer-and-farm-staff-attitudes-and-percepti.txt</t>
+        </is>
+      </c>
+      <c r="I199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
+      <c r="M199" t="inlineStr">
+        <is>
+          <t>Animal Welfare; Animals; Attitude of Health Personnel; Cattle; Farmers; Farms; Female; Humans; Male; Milk; agricultural worker; animal; animal welfare; bovine; female; health personnel attitude; human; male; milk</t>
+        </is>
+      </c>
+      <c r="N199" t="inlineStr">
+        <is>
+          <t>The benefits of feeding calves more milk are increasingly being recognized by dairy farmers. However, most producers have still not implemented higher feeding plans. The aim of the present study was to gain a deeper understanding of farmer and farm staff attitudes, and the perceptions and factors considered in their decision-making regarding daily milk allowances. We collected data through focus group interviews with dairy farmers, farm managers, and calf-care workers who were selected using purposive and snowball sampling. In total, 40 persons (24 women and 16 men) joined a focus group interview (6 in all, each with 5–8 participants). Interviews were recorded, and recordings were transcribed and analyzed thematically. Participants had contrasting opinions about the minimum, maximum, and recommended daily milk allowances to their calves. Their suggested lowest daily milk allowance to sustain animal welfare ranged from 4 to 8–10 L and the maximum allowance from 6 to 15 L. We found that farmers' and farm staff's choices and recommendations of milk-feeding protocols were influenced by a large number of factors that could be grouped into 4 themes: (1) Life beyond work, (2) Farm facilities and equipment, (3) Care of the calves, and (4) Profitability and production. Participants' considerations were similar and aimed to maximize daily milk allowance based on farm conditions. However, the allowances they described as optimal for their calves often differed from what they considered practically feasible. We found that the care of the calves and the well-being of the owners and the staff was central in the participants' decision-making, but that this care perspective was challenged by the social and economic sustainability of the farm. Most participants fed their calves twice daily and did not think that increasing that number would be practically feasible. Our results indicate that the participants' viewpoints regarding calves were important for their decision-making about milk allowances. We suggest that a more holistic perspective should be used when advising farmers about milk allowances, putting particular emphasis on the caring and social sustainability aspects of the individual farm. © 2023 American Dairy Science Association</t>
+        </is>
+      </c>
+      <c r="O199" t="inlineStr"/>
+      <c r="P199" t="inlineStr"/>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Labour-regime-unionism-and-social-reproduction</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Labour regime, unionism and social reproduction. How trade unions articulate the productive and reproductive space in Chilean salmon farming; [Régimen laboral, sindicalismo y reproducción social. Cómo los sindicatos articulan el espacio productivo y reproductivo en la salmonicultura chilena]</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>Velásquez, Diego; Retamal, Patricia</t>
+        </is>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Paginas</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.35305/rp.v15i39.807</t>
+        </is>
+      </c>
+      <c r="G200" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H200" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Labour-regime-unionism-and-social-reproduction.txt</t>
+        </is>
+      </c>
+      <c r="I200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
+      <c r="M200" t="inlineStr"/>
+      <c r="N200" t="inlineStr">
+        <is>
+          <t>Historically, trade unions have been considered organisations belonging to the production space, so their role in the reproductive sphere has been understudied. In order to contribute to this issue, this study analyses how trade unions articulate the demands of the productive and reproductive spheres in a largely feminised industry. Through the case of the Chilean salmon farming industry, it is observed that women have increased their participation in labour unions since the 1990s, which has made it possible to include a gender perspective in their demands. In these contexts, the discussions about production are extendeded to issues of the reproductive sphere, such as maternity, care work, domestic violence and the obstacles they experience in their increased insertion into the labour market. Therefore, the trade union acts as a space that articulates the productive and reproductive spheres, where women who participate in the union leadership play a central role. © 2023 Universidad Nacional de Rosario - Facultad de Humanidades y Artes, Escuela de Historia. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O200" t="inlineStr"/>
+      <c r="P200" t="inlineStr"/>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Industrializing-Bacterial-Workus</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Industrializing Bacterial Work: Microbiopolitics, Biogas Alchemy, and the French Waste Management Sector</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>Daniel, François-Joseph</t>
+        </is>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Science Technology and Human Values</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/01622439221119851</t>
+        </is>
+      </c>
+      <c r="G201" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H201" t="inlineStr"/>
+      <c r="I201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
+      <c r="M201" t="inlineStr"/>
+      <c r="N201" t="inlineStr">
+        <is>
+          <t>Biological waste recycling has recently attracted widespread interest and investment. Large industrial plants that use microbiological engineering to process municipal waste and produce biogas have been established in different countries including Germany, France, Portugal, Brazil, Canada, and China, to name a few. These biowaste facilities are not simply classical energy infrastructures, as they are commonly described, but rather rely on the power of bacteria, archaea, and fungi at several levels to accomplish the work of waste metamorphosis. Such an appropriation of microbes’ vital force is based on specific and complex human–microbe relations, or microbiopolitics, that rely on practices of attention, care, and proximity with waste material. However, in these industrial attempts of upgrading the metabolic work of bacteria, the need for more hands-on daily care of waste materials and biological processes is being superseded by the automation of waste processing. Close examination of the French context shows that this shift produces ignorance regarding the growth and evolution of bacterial colonies and reduces humans’ attention and proximity to the industrial process, thereby depriving the microbes of elements that hitherto kept them domesticated. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O201" t="inlineStr"/>
+      <c r="P201" t="inlineStr"/>
+      <c r="Q201" t="inlineStr"/>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Ethical-issues-involving-long-term-land-leases</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Ethical issues involving long-term land leases: A soil sciences perspective</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>Timmermann, C.; Félix, G.F.</t>
+        </is>
+      </c>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Sustainable governance and management of food systems: Ethical perspectives</t>
+        </is>
+      </c>
+      <c r="F202" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3920/978-90-8686-892-6_40</t>
+        </is>
+      </c>
+      <c r="G202" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H202" t="inlineStr"/>
+      <c r="I202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
+      <c r="M202" t="inlineStr">
+        <is>
+          <t>Agriculture; Costs; Environmental impact; Investments; Product liability; Soil erosion; Soil quality; Sustainable development; Agricultural industries; Arable land; Conservation duty; Ethical issues; Farm management; Financial resources; Large amounts; Large-scales; Soil science; Sustainable stewardship; Soil conservation</t>
+        </is>
+      </c>
+      <c r="N202" t="inlineStr">
+        <is>
+          <t>As populations grow and arable land becomes increasingly scarce, large-scale long-term land leases are signed at a growing rate. Countries and investors with large amounts of financial resources and a strong agricultural industry seek long-term land leases for agricultural exploitation or investment purposes. Leaders of financially poorer countries often advertise such deals as a fast way to attract foreign capital. Much has been said about the short-term social costs these types of leases involve, however, less has been said about the normative dimension of their long-term environmental impact. We therefore will focus on the likely impact such deals have for soil conservation, by: (1) briefly introducing the basics of longterm leasing arrangements by comparing land leases to the renting of buildings; (2) explaining from a soil sciences perspective the difficulties in assessing the current value of an estate and in calculating the damages of soil erosion and degradation; and (3) show how difficult it is to incentivize the conservation of soil quality when one cannot sufficiently and cost-effectively valorise existing environmental capital and eventual future damages. Attempting to oblige tenants through contracts to invest in sustainable stewardship has limited potential when liability payments do not reflect true costs and are hard to enforce. © Wageningen Academic Publishers The Netherlands, 2019. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O202" t="inlineStr"/>
+      <c r="P202" t="inlineStr"/>
+      <c r="Q202" t="inlineStr"/>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Humans-in-of-are-nature</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Humans in/of/are nature: Re-embedding reality in sustainability sciences</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>Morgan, Caitlin B.; Brevik, Kristian; Barbieri, Lindsay; Ament, Joe</t>
+        </is>
+      </c>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Elementa</t>
+        </is>
+      </c>
+      <c r="F203" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1525/elementa.2021.00083</t>
+        </is>
+      </c>
+      <c r="G203" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H203" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Humans-in-of-are-nature.txt</t>
+        </is>
+      </c>
+      <c r="I203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
+      <c r="M203" t="inlineStr">
+        <is>
+          <t>food availability; social theory; soil science; sustainability</t>
+        </is>
+      </c>
+      <c r="N203" t="inlineStr">
+        <is>
+          <t>Behind the facades of humanity's technological advances and urban lifestyles, there is in fact no real wall that separates us from the web of life. Biology, physics, Western social theory, and Indigenous scholarship all tell us that we are embedded in the natural world; to operate otherwise is a dangerous misconception and leads to the human-centered ecological crises we currently face. And yet many scientific communities, including those concerned with the environment and sustainability, continue to incorporate human-first, human-separate mental models into their disciplines. In this article, we use the method of Bohmian dialogue to explore the “imagined wall” of false separation and how it manifests in 4 distinct fields: entomology, soil science, food systems, and monetary policy. We ask: How would deconstructing the imagined wall function as the basis for interdisciplinary sustainability research? We lay out where the wall can appear, its consequences, academic and practical resistances, and how each field might move toward truer sustainability without this mental model. We offer suggestions for this process of unlearning and relearning, particularly to those scientists who may have begun to question human supremacy in ontology and epistemology but who have not actively applied such critical social theory to their own work. Copyright: © 2023 The Author(s). This is an open-access article distributed under the terms of the Creative Commons Attribution 4.0 International License (CC-BY 4.0), which permits unrestricted use, distribution, and reproduction in any medium, provided the original author and source are credited. See http://creativecommons.org/licenses/by/4.0/.</t>
+        </is>
+      </c>
+      <c r="O203" t="inlineStr"/>
+      <c r="P203" t="inlineStr"/>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>All we want is the earth</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr"/>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr"/>
+      <c r="E204" t="inlineStr"/>
+      <c r="F204" t="inlineStr"/>
+      <c r="G204" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H204" t="inlineStr"/>
+      <c r="I204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
+      <c r="M204" t="inlineStr"/>
+      <c r="N204" t="inlineStr"/>
+      <c r="O204" t="inlineStr"/>
+      <c r="P204" t="inlineStr"/>
+      <c r="Q204" t="inlineStr"/>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Narcofeminism-and-its-multiples</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Narcofeminism and its multiples: From activism to everyday minoritarian worldbuilding</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>Dennis, Fay; Pienaar, Kiran; Rosengarten, Marsha</t>
+        </is>
+      </c>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Sociological Review</t>
+        </is>
+      </c>
+      <c r="F205" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/00380261231174962</t>
+        </is>
+      </c>
+      <c r="G205" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H205" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Narcofeminism-and-its-multiples.txt</t>
+        </is>
+      </c>
+      <c r="I205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
+      <c r="M205" t="inlineStr"/>
+      <c r="N205" t="inlineStr">
+        <is>
+          <t>Sociology has a long-standing interest in the consumption of licit and illicit drugs, particularly as a feminist concern with scholars highlighting the ways in which drugs are used as regulatory technologies to control the conduct and subjectivities of women and other marginalised groups. This monograph flips the focus from a feminist sociological concern with drugs as a means of confining minoritised peoples, to explore what they can do as a feminist practice. Employing the drug-user activist concept of ‘narcofeminism’, it aims to rethink how drugs are conceived in sociology and chart their role in shaping selves and worlds. This article introduces the guiding philosophy of the narcofeminist movement as articulated in an interview we conducted with founding narcofeminist activists from Eastern Europe and Central Asia. Threaded through the interview are vivid examples of the ingrained and overlapping hostilities that differentially constitute drug consumption practices for women and gender minorities, and the brave acts of resistance they perform in response. In introducing the collection, we foreground a key aim that has guided its development: thinking with the insights of narcofeminism, we have sought to address the complexities of drug use and to hold in focus its potentialities both in terms of its harms and benefits, risks and rewards and, importantly, to reflect on how people navigate these counterposing forces in their situated practices of drug use. We also discuss how the collection advances the sociology of drugs by bridging disciplinary divides and disrupting binary distinctions between licit and illicit drugs, volition and compulsion, pleasure and pain, and discourse and practice, among others. This article provides an overview of the contributions that comprise the monograph, highlighting how they grapple with the ethico-political commitments of narcofeminism to rethink drug consumption as a mode of living, capable of transforming social worlds. © The Author(s) 2023.</t>
+        </is>
+      </c>
+      <c r="O205" t="inlineStr"/>
+      <c r="P205" t="inlineStr"/>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Skin-of-the-Earth-On-Soil</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>“Skin of the Earth” On Soil, Collaboration, and Temporality after Fukushima</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>Tam, Mankei</t>
+        </is>
+      </c>
+      <c r="D206" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E206" t="inlineStr">
+        <is>
+          <t>Environmental Humanities</t>
+        </is>
+      </c>
+      <c r="F206" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/22011919-10422278</t>
+        </is>
+      </c>
+      <c r="G206" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H206" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Skin-of-the-Earth-On-Soil.txt</t>
+        </is>
+      </c>
+      <c r="I206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
+      <c r="M206" t="inlineStr">
+        <is>
+          <t>Fukushima [Tohoku]; Honshu; Japan; Tohoku; inorganic matter; nuclear accident; radioactive pollution; soil analysis; soil pollution; topsoil</t>
+        </is>
+      </c>
+      <c r="N206" t="inlineStr">
+        <is>
+          <t>This article explores soil and the multiple pathways it has provided for the coconstitution of forms of life that might be possible following the Fukushima nuclear fallout. In Iitate, a former evacuation zone where radiation still lingers, farmers and concerned citizens deploy a coproduction framework that involves experts in making their own science. Incorporating tactile knowledge of the environment, they make life-strengthening claims on the future amid state promises of revival and progress. Soil becomes alive in madei, which emerges from the processes of separating radiocesium from topsoil, growing rice, and other improvisations for relating to soils that cascade to regenerate a livable world. This article discusses how the Japanese state utilizes temporal scales that orient its citizenry to a future associated with accelerated and intensified productivity as a sign of progress, incorporating decontamination technologies to assert control over organic lives and inorganic matter to make them productive for humans. Through madei, this article addresses how soil guides human attention to the rediscovery of interspecies temporalities, paces, and rhythms, reconfiguring radioactivity to create what I conceptualize as a regenerative time to underscore how actors reanimate the future(s) in the here and now. © 2023 Mankei Tam.</t>
+        </is>
+      </c>
+      <c r="O206" t="inlineStr"/>
+      <c r="P206" t="inlineStr"/>
+      <c r="Q206" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>THINKING-INSIDE-the-BOX-On-Container-Aquaculture</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>THINKING INSIDE the BOX On Container Aquaculture and the Datafication of Life</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>Zhang, Yuxing</t>
+        </is>
+      </c>
+      <c r="D207" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E207" t="inlineStr">
+        <is>
+          <t>Cultural Politics</t>
+        </is>
+      </c>
+      <c r="F207" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/17432197-10434321</t>
+        </is>
+      </c>
+      <c r="G207" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H207" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\THINKING-INSIDE-the-BOX-On-Container-Aquaculture.txt</t>
+        </is>
+      </c>
+      <c r="I207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
+      <c r="M207" t="inlineStr"/>
+      <c r="N207" t="inlineStr">
+        <is>
+          <t>Container aquaculture — a method that uses shipping boxes equipped with information technologies — is presented in China as an emblem of smart farming, and as a technological solution to the environmental degradation in natural water resources resulting from intensified aquacultural production. Container aquaculture aims at creating an orderly, self-contained ecosystem wherein the fish are managed in tandem with the water milieu via data governance. Its infrastructure operatively automates aquacultural practices into optimizable modules and programs biological and mechanical processes into interlocked components bearing distinctive functionalities within the artificial ecosystem. This article argues that the case of container aquaculture shows that algorithmically regulated and automated ecosystematic management does not always fulfill its promise; one still needs to navigate a dense web of interspecies associations filled with gaps and crossings between modes of being and values. Datafication is just one way to know and organize. An algorithmically controlled ecosystem cannot always accommodate the open-endedness of more-than-human ecologies. Drawing on works by Tsing, Stengers, and Satsuka, this article reappropriates what should be counted as the “smart” in farming by resituating it as a world-making practice in ecological collectives rather than in an abstract ecosystem, eschewing the fantasy of a singular criterion of evaluation and control. © 2023 Duke University Press.</t>
+        </is>
+      </c>
+      <c r="O207" t="inlineStr"/>
+      <c r="P207" t="inlineStr"/>
+      <c r="Q207" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ways-of-unknowing-landscapes</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Ways of (un)knowing landscapes: Tracing more-than-human relations in regenerative agriculture</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>Kallio, Galina; LaFleur, Will</t>
+        </is>
+      </c>
+      <c r="D208" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E208" t="inlineStr">
+        <is>
+          <t>Journal of Rural Studies</t>
+        </is>
+      </c>
+      <c r="F208" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jrurstud.2023.103059</t>
+        </is>
+      </c>
+      <c r="G208" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H208" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Ways-of-unknowing-landscapes.txt</t>
+        </is>
+      </c>
+      <c r="I208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
+      <c r="M208" t="inlineStr">
+        <is>
+          <t>Finland; Italy; Norway; agricultural land; agriculture; empirical analysis; ethnography; landscape; rural landscape; soil carbon</t>
+        </is>
+      </c>
+      <c r="N208" t="inlineStr">
+        <is>
+          <t>In the face of diverse socio-ecological crises, regenerative agriculture promises to enliven rural landscapes by positioning farmers as key actors in mitigating the ‘carbon problem’ on the one hand, and adapting to it on the other. This article troubles ways of knowing regenerative agriculture through soil-and-carbon centered representational knowledge practices. Conceptually, we build on relational scholarship and use the concept of (un)knowing landscapes to suggest that agricultural landscapes both become, and become (un)known in and through diverse more-than-human relations. Empirically, we draw from ethnographic fieldwork independently conducted at farms in Finland, Norway and Italy practicing diversified regenerative agriculture. By focusing specifically on the practices of composting and processes of decomposition, we show how farmers come to know and reciprocate the aliveness of their landscapes through both proximate and distant relational dynamics: balancing between control and cohabitation, caring for and taking care of, and attending to multiple rhythms of (re)production. We argue that placing a deeper focus on soils — even when representing them differently — not only risks making proximate relations in diversified regenerative agricultural landscapes unknown, but also permits these landscapes to become known primarily through relations of distance. This, in turn, enables the commensurability of regenerative agricultural landscapes into tradable units for carbon markets. We conclude that transformation towards ecological livelihoods requires a radical reevaluation of, and accounting for, diverse more-than-human landscape relations. © 2023 The Authors</t>
+        </is>
+      </c>
+      <c r="O208" t="inlineStr"/>
+      <c r="P208" t="inlineStr"/>
+      <c r="Q208" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Observe-It-Draw-It-Scaffolding</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Observe It, Draw It: Scaffolding Children's Observations of Plant Biodiversity with an Interactive Drawing Tool</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>Zhang, Chao; Zhou, Zili; Hu, Yajing; Liu, Lanjing; Wu, Jiayi; Shao, Yaping; Liu, Jianhui; Zhang, Lingyan; Liu, Lijuan; Chen, Hangyue; Ying, Fangtian; Yao, Cheng</t>
+        </is>
+      </c>
+      <c r="D209" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E209" t="inlineStr">
+        <is>
+          <t>Proceedings of IDC 2023 - 22nd Annual ACM Interaction Design and Children Conference: Rediscovering Childhood</t>
+        </is>
+      </c>
+      <c r="F209" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3585088.3589380</t>
+        </is>
+      </c>
+      <c r="G209" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H209" t="inlineStr"/>
+      <c r="I209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
+      <c r="M209" t="inlineStr">
+        <is>
+          <t>Balancing; Drawing (graphics); Scaffolds; Child; Drawing tools; Interactive drawing tool; Multi dimensional; Nature education; Observation; Observational learning; Outdoor setting technology; Outdoors settings; Plant species; Biodiversity</t>
+        </is>
+      </c>
+      <c r="N209" t="inlineStr">
+        <is>
+          <t>Observation is common for children to connect with nature, increasing their knowledge and awareness of biodiversity. However, it is challenging for them to make and document their observations due to a lack of observation and drawing skills. Therefore, we designed an interactive drawing tool, Bio Sketchbook, which scaffolds children in systematic observation, observational drawing, and knowledge acquisition. It can recognize plant species and generate contour drawings from children's photographs, guiding them to observe and draw multi-dimensional plant features with a digital magnifier and in-context biological information. Our in-situ user study with 19 children revealed that Bio Sketchbook provided an engaging experience and effectively supported children in recording and retaining biodiversity information and in balancing observations with screen time. Additionally, Bio Sketchbook intervened in children's interaction with plants by prompting observational behaviors, encouraging them to directly touch and establish rapport with plants, and arousing their interest and knowledge of plants. © 2023 ACM.</t>
+        </is>
+      </c>
+      <c r="O209" t="inlineStr"/>
+      <c r="P209" t="inlineStr"/>
+      <c r="Q209" t="inlineStr"/>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>The-Coastal-Future-We-Want-Twain</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>The Coastal Future We Want: Implications of Coastal People’s Perceptions on Satoumi Actions and Sustainable Development in Northeastern Taiwan</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>Hsu, Kang; Chen, Jyun-Long</t>
+        </is>
+      </c>
+      <c r="D210" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E210" t="inlineStr">
+        <is>
+          <t>Sustainability (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F210" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/su15107919</t>
+        </is>
+      </c>
+      <c r="G210" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H210" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-Coastal-Future-We-Want-Twain.txt</t>
+        </is>
+      </c>
+      <c r="I210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
+      <c r="M210" t="inlineStr">
+        <is>
+          <t>New Taipei; Taiwan; biodiversity; coastal zone management; conservation status; fishing community; perception; questionnaire survey; stakeholder; Sustainable Development Goal</t>
+        </is>
+      </c>
+      <c r="N210" t="inlineStr">
+        <is>
+          <t>Satoumi is advocated for coastal sustainability under the Convention on Biological Diversity (CBD) and the International Partnership for the Satoyama Initiative (IPSI), and has provided a basis for countries around the world to formulate national biodiversity strategies and action plans. Given the significant impact of environmental changes and socio-economic decline, relevant policy directions and practices are urgently required to promote the sustainable development of fishing communities in Taiwan. However, local residents and communities are not sufficiently aware of or involved in this concept to facilitate the development of a holistic Satoumi implementation strategy. Therefore, this study integrates the concepts of Satoumi actions and Sustainable Development Goals (SDGs) and has adopted a questionnaire survey to investigate the perceptions of 202 fishing community residents in the Gongliao District of New Taipei City and Yilan County towards these concepts. The standpoint and perception of the fishing community residents regarding Satoumi actions and SDGs provided a valuable reference. The results of the perception of Satoumi actions revealed that all of the respondents recognized Satoumi actions. However, the ranking demonstrated the urgency for some actions (e.g., clear marine litter), and measures that have been implemented in Taiwan but still need improvement (e.g., fish stocking practices). Satoumi actions were associated with two key factors that affect the perception of residents at Satoumi: “Empowerment through community-based industry and environmental education”, and “Conservation of crucial biological resources and habitats”. For the SDGs perceptions, the two factors were “Marine socio-economic sustainability” and “The sustainable use of marine ecological resources”. This study also adopted cluster analysis and identified three characteristically different groups of residents: The Conservation Priority Group, Industry–Society Priority Group, and Balanced Development Group. According to the major research findings, policies implemented in coastal areas of Taiwan have aligned with global sustainability trends. However, the attitude of the Industry–Society Priority Group, which has the largest sample size, should be changed to that held by the Balanced Development Group, in order to formulate a strategy for a balanced development that secures existing livelihoods and aligns with expectations on environmental sustainability. This study suggests that methodologies that encourage stakeholder interactions, dialogues, and consensus-building should be utilized to develop strategies for future work. Furthermore, policy tools related to coastal management should be analyzed to establish a comprehensive toolkit for coastal governance. Finally, Satoumi requires public–private collaboration to achieve both biodiversity conservation and transformative change towards more sustainably and equitably social, environmental, and economic coastal development. © 2023 by the authors.</t>
+        </is>
+      </c>
+      <c r="O210" t="inlineStr"/>
+      <c r="P210" t="inlineStr"/>
+      <c r="Q210" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>The-material-politics-of-slurry</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>The material politics of slurry: Mobilisations and transformations along the waste–fertiliser continuum</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>Gesing, Friederike</t>
+        </is>
+      </c>
+      <c r="D211" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E211" t="inlineStr">
+        <is>
+          <t>Political Geography</t>
+        </is>
+      </c>
+      <c r="F211" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.polgeo.2023.102832</t>
+        </is>
+      </c>
+      <c r="G211" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H211" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-material-politics-of-slurry.txt</t>
+        </is>
+      </c>
+      <c r="I211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
+      <c r="M211" t="inlineStr">
+        <is>
+          <t>Germany; ethnography; livestock farming; manure; nitrogen; political relations; pollutant transport; pollution control; slurry; waste disposal</t>
+        </is>
+      </c>
+      <c r="N211" t="inlineStr">
+        <is>
+          <t>Agriculture is a major source of excess nitrogen inputs into the environment. In Germany's Weser Ems region, the extreme concentration of intensive livestock farming translates recent improvements in nitrogen regulation into a ‘slurry problem’ that makes manure disposal services increasingly vital for the beneficiaries of an agroeconomic production system based on ongoing intensification and externalisation. The paper uses ethnographic research to focus on the material politics of different sociomaterial assemblages of slurry. It shows how manure export and new technologies to materially transform slurry both facilitate a further integration of livestock farming by intermediaries such as nutrient brokers and feedstuff producers. As slurry is mobilised and transformed, the material politics of slurry hinges upon shifting material properties and ontological struggles that position slurry along a continuum between nutritious natural fertiliser and abject organic waste. While slurry export to arable regions is problematically framed as a circular economy approach, the aim to transform slurry instead of transforming the unsustainable agroeconomic structure is embodied in hopes set upon ‘full processing’ of slurry into products akin to mineral fertilisers. The disposal of excess slurry eventually depends on both material and ontological transformations. Emerging protest against central manure processing facilities shows that slurry and its odour make intensive livestock farming a material and ‘sensible’ presence that can be acted upon politically. Embodied reactions and abjections related to this material agency of slurry can potentially bridge everyday practice and structural questions of socioecological wellbeing and justice in a more-than-human world. © 2023 The Author</t>
+        </is>
+      </c>
+      <c r="O211" t="inlineStr"/>
+      <c r="P211" t="inlineStr"/>
+      <c r="Q211" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>Regenerative-agriculture-and-a-more-than-human-ethic-of-care</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>Regenerative agriculture and a more-than-human ethic of care: a relational approach to understanding transformation</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>Seymour, Madison; Connelly, Sean</t>
+        </is>
+      </c>
+      <c r="D212" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E212" t="inlineStr">
+        <is>
+          <t>Agriculture and Human Values</t>
+        </is>
+      </c>
+      <c r="F212" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10460-022-10350-1</t>
+        </is>
+      </c>
+      <c r="G212" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H212" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Regenerative-agriculture-and-a-more-than-human-ethic-of-care.txt</t>
+        </is>
+      </c>
+      <c r="I212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
+      <c r="M212" t="inlineStr"/>
+      <c r="N212" t="inlineStr">
+        <is>
+          <t>A growing body of literature argues that achieving radical change in the agri-food system requires a radical renegotiation of our relationship with the environment alongside a change in our thinking and approach to transformational food politics. This paper argues that relational approaches such as a more-than-human ethic of care (MTH EoC) can offer a different and constructive perspective to analyse agri-food system transformation because it emphasises social structures and relationships as the basis of environmental change. A MTH EoC has not yet been applied to regenerative agriculture, yet other literature on regenerative agriculture suggests that care may be present in these spaces and calls for the need for social science analysis of the regenerative movement. This paper uses a MTH EoC lens to reveal a diverse array of ways in which power is and can be deployed for change in the regenerative agriculture movement in Aotearoa, New Zealand. Globally, regenerative agriculture tends to be analysed through positivist, scientific approaches that focus on biophysical markers of ecological improvement. Yet, a relational approach reveals how engagement in regenerative agriculture is creating significant shifts in mindset towards more holistic and relational understandings of biological and social ecosystems. A regenerative mindset framework is suggested as a method of understanding the connection between a regenerative form of thinking, being and doing for farmers. Interviews suggested that this shift in farmers’ socio-ecological relations is crucial to the transformational potential of regenerative agriculture. This paper argues that relational analyses such as the MTH EoC approach used to analyse regenerative agriculture in this research, refresh the way we analyse agri-food system change. They also are critical to guiding and supporting on-the-ground socio-ecological shifts that are necessary to see agricultural transformation. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O212" t="inlineStr"/>
+      <c r="P212" t="inlineStr"/>
+      <c r="Q212" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Bringing-soils-to-life-in-the-human</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Bringing soils to life in the human and social sciences</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>Granjou, Céline; Meulemans, Germain</t>
+        </is>
+      </c>
+      <c r="D213" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E213" t="inlineStr">
+        <is>
+          <t>Soil Security</t>
+        </is>
+      </c>
+      <c r="F213" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.soisec.2022.100082</t>
+        </is>
+      </c>
+      <c r="G213" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H213" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Bringing-soils-to-life-in-the-human.txt</t>
+        </is>
+      </c>
+      <c r="I213" t="inlineStr"/>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
+      <c r="M213" t="inlineStr"/>
+      <c r="N213" t="inlineStr">
+        <is>
+          <t>Despite their key importance for ecosystems and societies, soils have long remained a peripheral topic in the human and social sciences. Our paper aims to account for the recent, fast-growing literature in human and social sciences on soils. We first highlight social sciences’ shared concern for unsettling common visions of soil as a surface, a background or a taken for granted stock of resources; then we show that the works at stake differ in terms of: (i) their linkage with soil science disciplines and fields, (ii) the social science theories they mobilise, (iii) their main contributions, and (iv) their approach to soil materialities and agencies. Following these criteria, we present three strands of research on soil-related issues: (1) Literature bearing on the politics of soil knowledge investigates how soil becomes an object of knowledge and management; (2) Soil new materialism addresses practices and ethics of caring for the living soil; (3) Soil decolonial studies unravel soils’ powers and the intertwined agencies of soils and societies. By examining these research agendas, we suggest that social and human thinkers have, in the past two decades, tended to shift from a focus on the socially constructed nature of soils, to a growing emphasis on soils’ own biophysical agency in shaping societies, also in line with soil sciences insights and works. We argue that the increasing uptake of soil in human and social sciences contributes to an increasing concern for achieving better theoretical and empirical accounts of the co-constitution of society and the material world. © 2022 The Authors</t>
+        </is>
+      </c>
+      <c r="O213" t="inlineStr"/>
+      <c r="P213" t="inlineStr"/>
+      <c r="Q213" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Resetting-urban-human-microbial-relations</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Resetting urban human-microbial relations in pandemic times</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>Maller, Cecily Jane</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>Geography Compass</t>
+        </is>
+      </c>
+      <c r="F214" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/gec3.12680</t>
+        </is>
+      </c>
+      <c r="G214" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H214" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Resetting-urban-human-microbial-relations.txt</t>
+        </is>
+      </c>
+      <c r="I214" t="inlineStr"/>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
+      <c r="M214" t="inlineStr">
+        <is>
+          <t>antimicrobial activity; COVID-19; epidemic; health status; indigenous population; microbial community; urban area</t>
+        </is>
+      </c>
+      <c r="N214" t="inlineStr">
+        <is>
+          <t>Microbes, particularly of the viral kind, are currently preoccupying human activity and concerns due to the COVID-19 pandemic. Although for a long time there has been fear associated with ‘germs’, notably viruses and bacteria and the diseases they cause, the pandemic has set these fears into overdrive. As serious as this ongoing event is, there are broader interests and important alternative narratives about the microbial world permeating current thinking, based on research that intersects with and includes biopolitical and relational research in geography. In an attempt at balancing the prevailingly negative discourses about microbes and the potential harms they can cause, and to encourage more geographers to contribute to understanding human-microbial relations, this paper draws together recent research across disciplines to discuss the prevalence and role of microbes in environments and in and on human bodies. Drawing on ideas of more-than-human care, the paper shows how geographers and other social scientists can and are already helping reset human-microbial relations, and where further work can productively be done. © 2023 The Authors. Geography Compass published by John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="O214" t="inlineStr"/>
+      <c r="P214" t="inlineStr"/>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Data-centers-and-the-infrastructural-temporalities-of-digital-media</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Data centers and the infrastructural temporalities of digital media: An introduction</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>Velkova, Julia; Plantin, Jean-Christophe</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>New Media and Society</t>
+        </is>
+      </c>
+      <c r="F215" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/14614448221149945</t>
+        </is>
+      </c>
+      <c r="G215" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H215" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Data-centers-and-the-infrastructural-temporalities-of-digital-media.txt</t>
+        </is>
+      </c>
+      <c r="I215" t="inlineStr"/>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
+      <c r="M215" t="inlineStr"/>
+      <c r="N215" t="inlineStr">
+        <is>
+          <t>While data centres are predominantly studied via their spatial and territorial dimensions, we investigate this critical part of the contemporary Internet infrastructures via its temporalities and their multiple mediations. With this introduction and the articles of this special issue, we collectively complement existing scholarship on critical data studies and media infrastructure by investigating the role that data infrastructure plays in shaping the temporalities of data. Focusing on data centres, the contributors analyze the vast infrastructural assemblage that supports such temporalities. The concept of timescapes (after Barbara Adam) guides us to organize the contributions to this special issue along the analysis of three infrastructural timescapes of data—socio-economic, elemental, and transitory—to reveal new facets of the politics of time in the data economy. © The Author(s) 2023.</t>
+        </is>
+      </c>
+      <c r="O215" t="inlineStr"/>
+      <c r="P215" t="inlineStr"/>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Permaculture</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Permaculture</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>Chakroun, Leila</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>Handbook of the Anthropocene: Humans between Heritage and Future</t>
+        </is>
+      </c>
+      <c r="F216" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/9783031259104_43</t>
+        </is>
+      </c>
+      <c r="G216" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H216" t="inlineStr"/>
+      <c r="I216" t="inlineStr"/>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
+      <c r="M216" t="inlineStr"/>
+      <c r="N216" t="inlineStr">
+        <is>
+          <t>Permaculture offers an ethical, pragmatic, philosophical and technical response to the daunting diagnosis of the Anthropocene. Its comprehension of the Earth draws upon the idea of “working with nature, rather than against it”. In that sense, permaculture radically departs from the fixist and homogenizing logics that prevail in agronomic sciences, and in modern territorial planning. By reengaging with the cycle of life and with our own finitude as living beings, permaculture conveys an earthly vision of human that resists the impertinent idea of an Earth becoming the scene solely for anthropos. © The Editor(s) (if applicable) and The Author(s), under exclusive license to Springer Nature Switzerland AG 2023.</t>
+        </is>
+      </c>
+      <c r="O216" t="inlineStr"/>
+      <c r="P216" t="inlineStr"/>
+      <c r="Q216" t="inlineStr"/>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>The-Sympoietic-Orchard</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>The Sympoietic Orchard: Everyday Ways of Co-creating an Orchard</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>Louw, Bronwyn</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>Urban Book Series</t>
+        </is>
+      </c>
+      <c r="F217" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-46580-2_4</t>
+        </is>
+      </c>
+      <c r="G217" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H217" t="inlineStr"/>
+      <c r="I217" t="inlineStr"/>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
+      <c r="M217" t="inlineStr"/>
+      <c r="N217" t="inlineStr">
+        <is>
+          <t>What can sympoiesis look like in the dappled light of an urban orchards’ everyday life? This chapter is an agripoetic inquiry in search of a sympoietic approach to orchard-making in a twenty-first century urban context. “Sympoiesis” is a twice-born neologism first forged by Dempster B: In: Allen JK and Wilby J (ed) Proceedings of the world congress of the systems sciences and ISSS), (2000) and then Haraway D: Staying With the Trouble. Making Kin in the Chthulucene, (2016) from the prefix sym (with) and the Greek root of poetry, poiesis (making). Sympoiesis is a way to name multispecies creation or (world)making. I will describe three approaches to sympoietic orchard-making I experimented in a communal orchard south of Paris: visiting, prolonging, and gardening possibilities. These immersive methods are not protocols I applied during fieldwork, but rather practices, or even postures, I came to embody in contact with the orchard, and then to name, with the help of orchard writing from poetry collections and gardening books, and in conversation with landscape thinkers such as Gilles Clément or Jean-Marc Besse and multispecies theorists in biology, ethology, philosophy, critical geography, and literature, including Donna Haraway, Vinciane Despret, Isabelle Stengers, Emanuele Coccia, Frédérique Aït Touati, and Marielle Macé. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2023.</t>
+        </is>
+      </c>
+      <c r="O217" t="inlineStr"/>
+      <c r="P217" t="inlineStr"/>
+      <c r="Q217" t="inlineStr"/>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Now-Live-from-Lagos-Tehran-and-Oceanside</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>“Now Live from Lagos, Tehran and Oceanside”: Three B7CC Leaders Reflect on Strategies for Cooperation After the Anthropocentric Purge</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>Müller, Franziska</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>The Palgrave Handbook of Global Politics in the 22nd Century</t>
+        </is>
+      </c>
+      <c r="F218" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-13722-8_17</t>
+        </is>
+      </c>
+      <c r="G218" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H218" t="inlineStr"/>
+      <c r="I218" t="inlineStr"/>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
+      <c r="M218" t="inlineStr"/>
+      <c r="N218" t="inlineStr">
+        <is>
+          <t>A videoscript from a documentary aired in 2100, this piece narrates how a new political institution formed in the aftermath of the “anthropocentric purge, " a climate change induced catastrophe that left vast areas uninhabitable. Three leaders of the organization based in Lagos/Nigeria, Tehran/Iran, and Oceanside/Colofornia(fka USA/Abya Yala) reflect how cooperation and solidarity-namely a new norm called “random ubuntu” have again materialized, while facing ecological trauma and long-lasting ecological destruction. © The Editor(s) (if applicable) and The Author(s), under exclusive license to Springer Nature Switzerland AG 2023.</t>
+        </is>
+      </c>
+      <c r="O218" t="inlineStr"/>
+      <c r="P218" t="inlineStr"/>
+      <c r="Q218" t="inlineStr"/>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Knittedness</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Knittedness: On the expressivity of knitting as metaphoric process</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>Kilpi, Linnea</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>Craft Research</t>
+        </is>
+      </c>
+      <c r="F219" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1386/crre_00108_1</t>
+        </is>
+      </c>
+      <c r="G219" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H219" t="inlineStr"/>
+      <c r="I219" t="inlineStr"/>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
+      <c r="M219" t="inlineStr"/>
+      <c r="N219" t="inlineStr">
+        <is>
+          <t>Knitted fabric is a part of everyday life for many, whether it be worn, made or metaphorically referenced. It can also be, when critically considered, an expressive practice with philosophical merit. The ostensibly simple looping of yarns into a continuous surface suggests conceptual depth through poetic comparisons to processes of living and storytelling, among others. The practice-led research project ‘Stranded colour-work: Meaning-making through experimental knitting practices’ worked to define the intrinsic qualities of knitting that make it meaningful, and to uncover its expressive potential as an experimental artistic practice. Through the creation of a series of figurative machine-knit artworks, the confluence of knitting and narrative created an opportunity to study the implications of stitched life. This article elucidates the theoretical framework behind the project and focuses on knittedness, a concept proposed through the research. Knittedness refers to the specific aesthetic and technical qualities inherent to the process, and how these qualities can become symbolically significant both in art making and in finding meaning and connection in life. The idea of pixelness is also proposed as an integral part of knitting and other pixelated processes, where the process and aesthetic quality is informed by a repetitive technical structure. These concepts can be expanded to advocate for a notion of craftedness, suggesting the value of determining the idiosyncratic expressivity of individual creative practices, and how a maker might use this knowledge to create technique-focused work and find new appreciation for the process. © 2023 Intellect Ltd.</t>
+        </is>
+      </c>
+      <c r="O219" t="inlineStr"/>
+      <c r="P219" t="inlineStr"/>
+      <c r="Q219" t="inlineStr"/>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Sustainability-conventions-in-a-local-organic</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>Sustainability conventions in a local organic consumer cooperative in Norway: Hope and trouble of participants</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>Torjusen, Hanne; Vittersø, Gunnar</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>Community Food Initiatives: A Critical Reparative Approach</t>
+        </is>
+      </c>
+      <c r="F220" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9781003195085-9</t>
+        </is>
+      </c>
+      <c r="G220" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H220" t="inlineStr"/>
+      <c r="I220" t="inlineStr"/>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
+      <c r="M220" t="inlineStr"/>
+      <c r="N220" t="inlineStr">
+        <is>
+          <t>In two lines of inquiry, this chapter aims at analysing how Consumer Food Initiatives, here exemplified by the Vestfold Kooperativ, may contribute to food system sustainability. First, the chapter analyses the importance of shared conventions related to environmental, economic, and social sustainability as a common basis for the outcomes of the activities within the CFI. The second line of inquiry is related to process, by investigating the functioning and development of Vestfold Kooperativ. The chapter draws on conventions theory to analyse how shared conventions (hope) and contested issues (trouble) are perceived within the cooperative and how troubles eventually might be overcome. The chapter concludes that, in spite of the troubles that Vestfold Kooperativ faced, there are important lessons to be learnt from their experiences. These are related to the holistic approach to sustainability that was shared within the cooperative and, when promoted externally, may contribute to broadening the debate about possible and sustainable transition pathways in the food system. © 2023 selection and editorial matter, Oona Morrow, Esther Veen, and Stefan Wahlen; individual chapters, the contributors.</t>
+        </is>
+      </c>
+      <c r="O220" t="inlineStr"/>
+      <c r="P220" t="inlineStr"/>
+      <c r="Q220" t="inlineStr"/>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Walk-spin-is-to-resist</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr"/>
+      <c r="C221" t="inlineStr"/>
+      <c r="D221" t="inlineStr"/>
+      <c r="E221" t="inlineStr"/>
+      <c r="F221" t="inlineStr"/>
+      <c r="G221" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H221" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Walk-spin-is-to-resist.txt</t>
+        </is>
+      </c>
+      <c r="I221" t="inlineStr"/>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
+      <c r="M221" t="inlineStr"/>
+      <c r="N221" t="inlineStr"/>
+      <c r="O221" t="inlineStr"/>
+      <c r="P221" t="inlineStr"/>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Deep-forensics-for-a-more-than-human-justice</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>Deep forensics for a more-than-human justice; [Investigação forense profunda para uma justiça mais que humana]; [Investigación forense profunda para una justicia más que humana]</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>Torres, María; Smith, Lindsay A.</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>Antipoda</t>
+        </is>
+      </c>
+      <c r="F222" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7440/antipoda50.2023.08</t>
+        </is>
+      </c>
+      <c r="G222" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H222" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Deep-forensics-for-a-more-than-human-justice.txt</t>
+        </is>
+      </c>
+      <c r="I222" t="inlineStr"/>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
+      <c r="M222" t="inlineStr"/>
+      <c r="N222" t="inlineStr">
+        <is>
+          <t>Buscadora collectives in Mexico have developed unique and transformative forensic practices to search for their disappeared loved ones. We examine the work of three collectives, each working in distinct political, ecological, and historical contexts to better understand emergent forms of local citizen-led forensic practice. Attending to spaces, that exist alongside but exceed contemporary forensic practice, we critically reexamine the practice of forensics in the context of the humanitarian and forensic ‘crisis’ in Mexico. Drawing on ethnographic fieldwork and interviews with forensic scientists and buscadora collectives between 2015-2022, we develop three case studies that analyze the collectives’ work in three registers: The (inter)relational, the geo-logic, and the more-than-human. We argue for the emergence of a deep forensics based on collective practices that privilege fragile, multi-valent forms of knowledge production, attend to slow violence, and move beyond an exclusively human-centered episteme. These alternative practices have the potential to displace the crisis time of contemporary state-led forensics and better document the entangled contexts of ‘stratigraphic violence’ in contemporary Mexico allowing for an emergent more-than-human justice. © 2023, Universidad de los Andes, Bogota Colombia. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O222" t="inlineStr"/>
+      <c r="P222" t="inlineStr"/>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hope-beyond-Hope-Farming</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Hope beyond Hope Farming One’s Way into a Better Today</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>Kallio, Galina</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>Ethnologia Fennica</t>
+        </is>
+      </c>
+      <c r="F223" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.23991/EF.V50I2.125134</t>
+        </is>
+      </c>
+      <c r="G223" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H223" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Hope-beyond-Hope-Farming.txt</t>
+        </is>
+      </c>
+      <c r="I223" t="inlineStr"/>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
+      <c r="M223" t="inlineStr"/>
+      <c r="N223" t="inlineStr">
+        <is>
+          <t>Hope for a better future has become a survival strategy within contemporary Western societies that are drifting through polycrises. The concept of hope evokes future orientedness, suggests positive emotions and creates spaces for dreaming. But what if, instead of hope, it is hopelessness that moves people to strive for living a better life and leads to, in the words of Macy and Johnstone, the great turning? In this article, I draw on my ethnographic fieldwork to bring forth journeys of regeneratively oriented farmers who (have started to) build a radically different life by pursuing livelihoods through diversified small-scale farming. By analysing how hope is manifested in the work and everyday lives of the farmers, I introduce an understanding of hope as action and show how hope in the context of the studied farming practices materialized through cultivating the lands, inspiring others, and reciprocating the hope of other species. I argue that conceptualizing hope as action suggests a different kind of temporality, one that is (literally) grounded in intergenerational farming landscapes: hope as action brings into play both the hope(s) and the hopelessness(es) of the past that impacts the actions of the present and of the future that orients the actions of today. As farmers and (their) soils are being rapidly mobilized into vessels of hope for their potential to sequester atmospheric carbon, understanding the kind of action hope materializes into (or doesn’t) is important to better understand whose hopes are being mobilized through regenerative agriculture and how and why these hopes are mobilized. © Galina Kallio.</t>
+        </is>
+      </c>
+      <c r="O223" t="inlineStr"/>
+      <c r="P223" t="inlineStr"/>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Designing-Down-to-Earth</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Designing “Down to Earth.” Lessons Learned from Transformative Social Innovation</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>Tassinari, Virginia; Manzini, Ezio</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>Design and Culture</t>
+        </is>
+      </c>
+      <c r="F224" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17547075.2023.2180904</t>
+        </is>
+      </c>
+      <c r="G224" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H224" t="inlineStr"/>
+      <c r="I224" t="inlineStr"/>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
+      <c r="M224" t="inlineStr"/>
+      <c r="N224" t="inlineStr">
+        <is>
+          <t>ABSTRACT The consequences of anthropocentric ways of thinking, designing, producing, and consuming are becoming painfully clear. Moving from this observation, several designers have become aware that design culture needs to reorient itself beyond anthropocentrism. In this article, we start with Bruno Latour’s proposal of coming “down to Earth,” which acknowledges that we are ultimately “terrestrials,” and connect it to Maria Puig de la Bellacasa’s idea of “care.” These concepts are pillars of the concrete guidelines we propose here: they are foundations for designing in a regenerative way, stepping beyond anthropocentrism. This paper traces a convergence between this emergent account of design and some recent social innovations, which are, in our opinion, making what it might mean to get down to Earth tangible. This convergence becomes particularly evident when introducing the concept of the “quality of complexity”: in other words, a qualitative dimension characteristic of those experimentations in which people re-orient their daily lives towards reweaving the web of life. While designing can strengthen its ability to be regenerative by exploring how to further engage with practices with this specific qualitative dimension, it might also provide philosophy with some concrete examples of a praxis taking further concrete steps down to Earth. © 2023 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O224" t="inlineStr"/>
+      <c r="P224" t="inlineStr"/>
+      <c r="Q224" t="inlineStr"/>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Living-with-deadly-mobilities</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Living with deadly mobilities: how art practice takes care of ethics when anthropomorphising a medically important parasite</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>Southern, Jen; Dillon, Rod</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>Mobilities</t>
+        </is>
+      </c>
+      <c r="F225" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17450101.2022.2111224</t>
+        </is>
+      </c>
+      <c r="G225" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H225" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Living-with-deadly-mobilities.txt</t>
+        </is>
+      </c>
+      <c r="I225" t="inlineStr"/>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
+      <c r="M225" t="inlineStr">
+        <is>
+          <t>art; biodiversity; COVID-19; mobility; parasite; social movement</t>
+        </is>
+      </c>
+      <c r="N225" t="inlineStr">
+        <is>
+          <t>We propose that art practice as mobilities research offers alternative methods of more-than-human storytelling that expand simplistic narratives and illustrations of good and bad organisms. The article uses the authors’ artwork Para-Site-Seeing (2018–2019) to explore how art practice can tell multi-scalar narratives of multispecies mobilities that fold in rather than leave out the social, cultural, colonial and scientific aspects of a disease. We use a fictionalised parasite’s eye view to engage wide audiences in following the movement within multiple narratives of the disease. By situating Para-Site-Seeing in the context of the politics of care, and more-than-human art, we demonstrate the need for a more significant consideration of deadliness within the liveliness of biodiverse ecosystems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O225" t="inlineStr"/>
+      <c r="P225" t="inlineStr"/>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>A-defense-of-waste-Sweden</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>A defense of waste: the case of municipal food recycling in Sweden</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>Abrahamsson, Sebastian</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>Environmental Sociology</t>
+        </is>
+      </c>
+      <c r="F226" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/23251042.2022.2124622</t>
+        </is>
+      </c>
+      <c r="G226" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H226" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A-defense-of-waste-Sweden.txt</t>
+        </is>
+      </c>
+      <c r="I226" t="inlineStr"/>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
+      <c r="M226" t="inlineStr"/>
+      <c r="N226" t="inlineStr">
+        <is>
+          <t>This article is an empirical analysis of food waste management and food recycling in Sweden. Currently, across Sweden, attempts are being made to achieve a circular economy whereby food wastes are transformed into resources. Food waste is used to produce biogas and bio fertilizer, and the enactment of food waste as a resource turns the waste into a raw material over which waste management organizations compete. Against this backdrop, the article interferes with research in ‘waste studies’ that highlight transformation of waste into something valuable, and proposes instead to ‘defend’ waste against the CE. The paper contributes to ‘waste studies’ and research on the circular economy by cautioning about the risks involved both in the establishment of a circular economy, and the treatment of waste as valuable. The empirical material used draws on a research project in which interviews were carried out with ‘waste workers’ in Swedish waste management organizations. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O226" t="inlineStr"/>
+      <c r="P226" t="inlineStr"/>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>LOVE-AND-CARE-FOR-PLACE-IN-AN-ARCTIC</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>LOVE AND CARE FOR PLACE IN AN ARCTIC COMMUNITY: Place development in Vardø, Norway</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>Larsen, Janike Kampevold</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>Design and the Built Environment of the Arctic</t>
+        </is>
+      </c>
+      <c r="F227" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9780429279874-10</t>
+        </is>
+      </c>
+      <c r="G227" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H227" t="inlineStr"/>
+      <c r="I227" t="inlineStr"/>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
+      <c r="M227" t="inlineStr"/>
+      <c r="N227" t="inlineStr">
+        <is>
+          <t>Historically the richest fishing town in the Norwegian north, the now post-Arctic city of Vardø has lost half its population due to the 1980s crises in the fishing industry and later, a failed policy on fishing quotas. The city’s on-land fishing infrastructure has fallen into ruin, and the city has become emblematic of a shrinking postindustrial community in Norway. Cultural entrepreneurs have been working intensely to save the city, starting with its architectural heritage as a material condition for development. While the Norwegian north is subject to national policies that favor petroleum extraction, the Northern Sea Route and tourism as strategies for development, the population in Vardø insists on basing its development on local resources such as fish, birding tourism and architectural heritage. Bottom-up efforts and collectives initiatives aim to build a robust local economy, one that is not dependent on external funding. This article argues that people in Vardø demonstrate place development based in love and performed as care. A new greenhouse is the result of a two-year collaborative building process, initially between local entrepreneurs and the Oslo School of Architecture and Design but ultimately by a dedicated group of locals who exercise care work at a profound level. By an adaptation of feminist care theory to a unique civic place work, the article argues that a practice of care may alleviate or even substitute a policy that is human-centered and profit-motivated. People in Vardø offer attention to things that cannot take care of themselves. They sacrifice free time and sleep to political activism, to build, to entertain and educate politicians from the south and to exercise a care ethics that can be read as ethical obligations that are recreated through everyday doings. The article builds upon several years of research and collaboration with local entrepreneurs in Vardø under the auspices of the research project Future North, 2012–2018. For the past three years, work has unfolded through a collaboration between Tine Hegli, circular architectures specialist AHO, and the author, who is a landscape researcher at AHO and their respective teams, under the auspices of a new project: Common Resources. Strategies for a circular, balanced and shared management of areas under pressure (2020–). © 2024 selection and editorial matter, Leena Cho and Matthew Jull; individual chapters, the contributors. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O227" t="inlineStr"/>
+      <c r="P227" t="inlineStr"/>
+      <c r="Q227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Waste-Improvement-and-Repair-on-Irelands-Peat-Bogs</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Waste, Improvement and Repair on Ireland’s Peat Bogs</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>Bresnihan, Patrick; Brodie, Patrick</t>
+        </is>
+      </c>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>Ecological Reparation: Repair, Remediation and Resurgence in Social and Environmental Conflict</t>
+        </is>
+      </c>
+      <c r="F228" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.51952/9781529239560.ch012</t>
+        </is>
+      </c>
+      <c r="G228" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H228" t="inlineStr"/>
+      <c r="I228" t="inlineStr"/>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
+      <c r="M228" t="inlineStr">
+        <is>
+          <t>18th century; 19th century; Bog; Carbon sequestration; Energy; Improvement; Ireland; Large-scales; Peat bogs; Renewable energies</t>
+        </is>
+      </c>
+      <c r="N228" t="inlineStr">
+        <is>
+          <t>Since the 1950s, the rural midlands of Ireland have been the site of large-scale industrial peat-cutting. With the phasing out of the peat industry, these post-industrial ‘waste’ landscapes are now being positioned as central to the country’s ‘green’ and ‘smart’ futures as sites for renewable energy, carbon sequestration and information services. Contemporary discourses of waste and bog landscapes resonate with discourses in the 18th and 19th centuries, when colonial efforts to drain and reclaim these semi-aqueous territories were driven by moral as well as economic imperatives. In this chapter, we aim to disrupt linear accounts of bog progress and ruination that rely on binaries of waste/value, to surface ‘submerged’ bog relations that pre-date and endure in spite of their designation as ‘un-valuable’ within colonial and post-colonial economies. Our contribution is that ‘repair’, rooted in maintenance, endurance and liveability, while not spectacular, resists the temporality of boom/bust, even if remaining ambivalent in political expression. © 2023 Bristol University Press.</t>
+        </is>
+      </c>
+      <c r="O228" t="inlineStr"/>
+      <c r="P228" t="inlineStr"/>
+      <c r="Q228" t="inlineStr"/>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Experiments-in-Situ-Soil-Repair-Practices</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Experiments in Situ: Soil Repair Practices as Part of Place- Based Action for Change in El Salvador</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>Millner, Naomi</t>
+        </is>
+      </c>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>Ecological Reparation: Repair, Remediation and Resurgence in Social and Environmental Conflict</t>
+        </is>
+      </c>
+      <c r="F229" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.51952/9781529239560.ch001</t>
+        </is>
+      </c>
+      <c r="G229" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H229" t="inlineStr"/>
+      <c r="I229" t="inlineStr"/>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
+      <c r="M229" t="inlineStr">
+        <is>
+          <t>Agronomy; Cultivation; Repair; Wastes; Agro ecologies; Biofertilizers; Campesino; Collective memory; El Salvador; Environmental damage; Organics; Place-based; Small scale farmers; Traditional techniques; Agricultural robots</t>
+        </is>
+      </c>
+      <c r="N229" t="inlineStr">
+        <is>
+          <t>Agroecological networks have long valorized the experience of small-scale farmers and have cultivated processes of in situ experimentation to systematically evaluate the effectiveness of traditional techniques. In this chapter I suggest that this focus on experience and experimentation is vital within broader ecologies of ‘mending’ environmental damage, and to the ideas of ecological reparation put forward by this book. Specifically, I suggest that the loop of collective reflection on experience afforded by the examples I document in El Salvador allow for a supplementation of official histories with small stories; with purposefully censored collective memory; and with everyday expertise. The case presented in this chapter is engaged in experimental soil repair through composting practices and the creation of ‘biofertilizers’ – recipes that use local organic ingredients to boost soil health. I show how agroecological approaches to soil repair place campesino expertise at the heart of agricultural innovation and ecological reparation. Together, these fuller archives allow for a wider array of possible solutions to soil damage, while also enabling contestation to take place over stories told over land, ownership, lives, and communities. © 2023 Bristol University Press.</t>
+        </is>
+      </c>
+      <c r="O229" t="inlineStr"/>
+      <c r="P229" t="inlineStr"/>
+      <c r="Q229" t="inlineStr"/>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>No-Commons-Without-Micropolitics</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>No Commons Without Micropolitics. Learning with Feminist and Municipalist Movements in Spain</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>Zechner, Manuela</t>
+        </is>
+      </c>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>International Journal of the Commons</t>
+        </is>
+      </c>
+      <c r="F230" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5334/ijc.1232</t>
+        </is>
+      </c>
+      <c r="G230" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\No-Commons-Without-Micropolitics.txt</t>
+        </is>
+      </c>
+      <c r="I230" t="inlineStr"/>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
+      <c r="M230" t="inlineStr"/>
+      <c r="N230" t="inlineStr">
+        <is>
+          <t>This article emphasizes the importance of micropolitical and feminist research into the commons, particularly for understanding and developing forms of articulation between the public and the commons. It draws on experiences of autonomist-feminist and municipalist commons in Barcelona, presenting a case study on childcare commoning, based on engaged and situated research conducted between 2015–20. Those years were a lively period of city based commons experimentation that coincides with the first mandate of the municipalist Barcelona en Comú government. Emphasizing feminist and micropolitical understandings for commons research as a matter of going beyond technical visions of commons, based in Spanish and Latin American commons thinking, this text emphasizes the contribution of micropolitics as activist analytical lens that places a focus on knowledge production across social movements and institutions, and on the role of the invisible others of organization. To do so, it analyzes childcare commons through three micropolitical-feminist terms: care, community and resurgence. It points to possible ways of thinking alliances across grassroots and public institutions, as a matter of micropolitical articulation between claims to self-governance and claims to universality, and between autonomy and interdependence. Feminism and micropolitics feature as indispensable lenses for developing lively and lasting commons practices here. © 2023 The Author(s).</t>
+        </is>
+      </c>
+      <c r="O230" t="inlineStr"/>
+      <c r="P230" t="inlineStr"/>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Complexities-of-care-in-a-college-microbiology-laboratory</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr"/>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr"/>
+      <c r="E231" t="inlineStr"/>
+      <c r="F231" t="inlineStr"/>
+      <c r="G231" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H231" t="inlineStr"/>
+      <c r="I231" t="inlineStr"/>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
+      <c r="M231" t="inlineStr"/>
+      <c r="N231" t="inlineStr"/>
+      <c r="O231" t="inlineStr"/>
+      <c r="P231" t="inlineStr"/>
+      <c r="Q231" t="inlineStr"/>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Take-Care-of-Soils-Toward-a-Pluralistic-Integral-Soil-Ethics</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Take Care of Soils: Toward a Pluralistic Integral Soil Ethics</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>Grunwald, Sabine</t>
+        </is>
+      </c>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>Cultural Understanding of Soils: The Importance of Cultural Diversity and of the Inner World</t>
+        </is>
+      </c>
+      <c r="F232" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-3-031-13169-1_21</t>
+        </is>
+      </c>
+      <c r="G232" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H232" t="inlineStr"/>
+      <c r="I232" t="inlineStr"/>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
+      <c r="M232" t="inlineStr"/>
+      <c r="N232" t="inlineStr">
+        <is>
+          <t>Although land ethics and ethics focused on agriculture have been formalized, an explicit general soil ethics is lacking. The human approach to nature has been one of ethical relativism. Human-centric ethics that justify in one way or another the primacy of human desires, needs, values, and benefits have caused soil degradation and some serious destruction of the soil environment and planet Earth. This chapter provides an overview of normative ethical strands applied to soils/nature/environment that include (1) natural ethics (Natural Law ethics) grounded either in (a) entelechy, vital natural principle or (b) religious moralities (ethics of Divine Commands); (2) virtue ethics associated with valuation of soils/nature/Earth; (3) deontological ethics that is duty, obligation, or rule ethics subdivided into (a) act deontological ethics, (b) rule deontological ethics, and (c) Kantian ethics; (4) consequentialist ethics focused on the consequences (such as soil carbon sequestration; well-being and flourishing of people) with (a) ethical egoism, (b) act utilitarianism, and (c) rule utilitarianism; (5) intuitionist theory that combines duty and consequential ethics; and (6) relational ethics with (a) stewardship ethics and (b) ethics of care. A novel integrative soil ethics-Pluralistic Integral Soil Ethics (PISE)-is presented. PISE synthesizes multiple ethical pillars into a coherent soil ethics that informs the use, management, preservation, conservation, security, health, quality, and sacredness of soils. This integrative soil ethics features three pillars. The first pillar is focused on soil and environmental valuation and people’s moral standards toward soil. This pillar explores the meaning of virtue, which is the quality of being morally good (“minimizing harm”) in regard to soil and environment. The second pillar is focused on soil and environmental literacy (i.e., observable data, facts, knowledge, maps, and models of soils) and assessment of the consequences of soil use and management through understanding of cause-effect relations. The third pillar is focused on soil and environmental competency and awareness. This pillar represents ethics of care that stresses the empathic subjective and intersubjective intimate relations with soil/nature. Soil care is associated with people’s closeness to personalize soils and making them one’s own through sensing, feeling, and experiences of soil and nature. PISE is an integrative ethics that reframes “soil care” as a noun into an active process, that is, “to take care of soils,” which is deliberately intentional to minimize soil degradation and honor soils in terms of their beauty and naturalness. © The Author(s), under exclusive license to Springer Nature Switzerland AG 2023.</t>
+        </is>
+      </c>
+      <c r="O232" t="inlineStr"/>
+      <c r="P232" t="inlineStr"/>
+      <c r="Q232" t="inlineStr"/>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>The-Work-of-Agroecological-Transition</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>The Work of Agroecological Transition; [Il lavoro della transizione agroecologica]</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>Ghelfi, Andrea</t>
+        </is>
+      </c>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>Sociologia del Lavoro</t>
+        </is>
+      </c>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3280/SL2023-165009</t>
+        </is>
+      </c>
+      <c r="G233" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H233" t="inlineStr"/>
+      <c r="I233" t="inlineStr"/>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
+      <c r="M233" t="inlineStr"/>
+      <c r="N233" t="inlineStr">
+        <is>
+          <t>In this article the concept of work comes into tension with some agroecological experiences that populate the Genuino Clandestino network. Three vectors of analysis are developed through an investigation of peasant practices: the unstable borders between productive and reproductive labour in favour of a “practicability of life”; the decentralisation of human exceptionalism in favour of the experimentation of agronomic practices that recognise the active role of multiple more-than-human entities; the commons as a community of practices in which social transformation is inseparable from material regeneration. Through the analysis of the agroecological practices developed by the commoners of Mondeggi Bene Comune, in this article the author situates the challenge of ecological transition within the work and the practices of care that characterise the back to the land movement in Italy. Copyright © FrancoAngeli.</t>
+        </is>
+      </c>
+      <c r="O233" t="inlineStr"/>
+      <c r="P233" t="inlineStr"/>
+      <c r="Q233" t="inlineStr"/>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Taking Soil Care Seriously</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr"/>
+      <c r="C234" t="inlineStr"/>
+      <c r="D234" t="inlineStr"/>
+      <c r="E234" t="inlineStr"/>
+      <c r="F234" t="inlineStr"/>
+      <c r="G234" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H234" t="inlineStr"/>
+      <c r="I234" t="inlineStr"/>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
+      <c r="M234" t="inlineStr"/>
+      <c r="N234" t="inlineStr"/>
+      <c r="O234" t="inlineStr"/>
+      <c r="P234" t="inlineStr"/>
+      <c r="Q234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Why-a-feminist-ethics-of-care</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Why a feminist ethics of care and socio-ecological justice lens matter for global, interdisciplinary research on water security</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>Narayanaswamy, Lata; Ferritto, Robert; Hillesland, Marya; Anker, Victoria; Singhal, Shivani; Maysels, Rachael Marjorie; Bantider, Amare; Charles, Katrina; Doss, Cheryl; Kumar, Ashok; Mdee, Anna; Neo, Sau-Mei; Pinzón, Federico; Mengistu, Bamlaku T.</t>
+        </is>
+      </c>
+      <c r="D235" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E235" t="inlineStr">
+        <is>
+          <t>Frontiers in Human Dynamics</t>
+        </is>
+      </c>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3389/fhumd.2023.1212188</t>
+        </is>
+      </c>
+      <c r="G235" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Why-a-feminist-ethics-of-care.txt</t>
+        </is>
+      </c>
+      <c r="I235" t="inlineStr"/>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
+      <c r="M235" t="inlineStr"/>
+      <c r="N235" t="inlineStr">
+        <is>
+          <t>In this conceptual analysis, we set out some of the negotiations and tensions that emerge when we try to build a shared understanding of water (in)security through the dual lenses of a feminist ethics of care and socio-ecological justice. We further reflect on how these theoretical lenses shape our work in practice—how do we actualise them in an international, interdisciplinary partnership? We actively seek to engage all our colleagues in how we understand the function of power and inequality in relation to the distribution of water resources and the ways in which intersectional inequalities shape access to, and availability of, water. We conclude that our international partnership will only add value to our understanding of water (in)security if we are able to identify not just how intersectional inequalities circumscribe differential access to water itself in a range of diverse contexts, but the ways socio-ecological justice and a feminist ethics of care are understood and in turn shape how we work together to achieve greater water security across diverse contexts. Copyright © 2023 Narayanaswamy, Ferritto, Hillesland, Anker, Singhal, Maysels, Bantider, Charles, Doss, Kumar, Mdee, Neo, Pinzón and Mengistu.</t>
+        </is>
+      </c>
+      <c r="O235" t="inlineStr"/>
+      <c r="P235" t="inlineStr"/>
+      <c r="Q235" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Politicizing-the-future-on-lithium-exploration-in-Portugal</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Politicizing the future: on lithium exploration in Portugal</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>Araújo, Emília; Bento, Sofia; Silva, Marcia</t>
+        </is>
+      </c>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E236" t="inlineStr">
+        <is>
+          <t>European Journal of Futures Research</t>
+        </is>
+      </c>
+      <c r="F236" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1186/s40309-022-00209-3</t>
+        </is>
+      </c>
+      <c r="G236" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Politicizing-the-future-on-lithium-exploration-in-Portugal.txt</t>
+        </is>
+      </c>
+      <c r="I236" t="inlineStr"/>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
+      <c r="M236" t="inlineStr"/>
+      <c r="N236" t="inlineStr">
+        <is>
+          <t>This text explores the meaning of the expression “mined future,” which has been used by local populations who oppose lithium production in Northern Portugal. We argue that the expression encapsulates the existence of a conflict for the “ownership” of future, unfolding a battle of visions of the future between local populations and governments. The local population sees the exploitation of lithium as a takeover of future. In contrast, the governments justify the project by promising a sociotechnical future in convergence with European green energy rhetoric. This article follows a grounded theory approach. It relies on information collected about the lithium exploration in Portugal, mainly through journalistic pieces and opinion articles disseminated between 2019 and 2020. In particular, the paper proposes that political action that involves large sociotechnical ventures with the potential of contamination needs to consider the local collective perceptions of the future. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O236" t="inlineStr"/>
+      <c r="P236" t="inlineStr"/>
+      <c r="Q236" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Ungovernable-Earth-Resurgence</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>Ungovernable Earth: Resurgence, Translocal Infrastructures and More-than-Social Movements</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>Ghelfi, Andrea; Papadopoulos, Dimitris</t>
+        </is>
+      </c>
+      <c r="D237" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E237" t="inlineStr">
+        <is>
+          <t>Environmental Values</t>
+        </is>
+      </c>
+      <c r="F237" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3197/096327121X16387842836968</t>
+        </is>
+      </c>
+      <c r="G237" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H237" t="inlineStr"/>
+      <c r="I237" t="inlineStr"/>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
+      <c r="M237" t="inlineStr">
+        <is>
+          <t>acquired immune deficiency syndrome; action plan; autonomy; governance approach; institutional framework; mobilization; political system; social movement</t>
+        </is>
+      </c>
+      <c r="N237" t="inlineStr">
+        <is>
+          <t>How do social movements respond to the ecological crisis? In this paper, we reframe social movements as ‘more-than-social movements’ to highlight the fact that many contemporary mobilisations do much more than target recog-nised social institutions and political governance; indeed, they are practically transforming eco-societies with and within both the human and the nonhuman world. What constitutes the core of more-than-social movements’ action is the capacity to set up alternative ecologies of existence, or ‘alterontologies’, as we call them in the paper. In what follows, we engage with the imaginaries and practices of agroecology, AIDS treatment activism and permaculture in order to rethink what autonomy and justice might look like in the context of today’s ecological crisis. © 2021 The White Horse Press.</t>
+        </is>
+      </c>
+      <c r="O237" t="inlineStr"/>
+      <c r="P237" t="inlineStr"/>
+      <c r="Q237" t="inlineStr"/>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Moving-Crops-and-the-Scales-of-History</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Moving Crops and the Scales of History</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>Bray, Francesca; Hahn, Barbara; Lourdusamy, John Bosco; Saraiva, Tiago</t>
+        </is>
+      </c>
+      <c r="D238" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E238" t="inlineStr">
+        <is>
+          <t>Moving Crops and the Scales of History</t>
+        </is>
+      </c>
+      <c r="F238" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85159409556&amp;partnerID=40&amp;md5=0c12aa0a87dcc1fb7c431db69571f4f5</t>
+        </is>
+      </c>
+      <c r="G238" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H238" t="inlineStr"/>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
+      <c r="M238" t="inlineStr"/>
+      <c r="N238" t="inlineStr">
+        <is>
+          <t>A bold redefinition of historical inquiry based on the “cropscape”—the people, creatures, technologies, ideas, and places that surround a crop. Human efforts to move crops from one place to another have been a key driving force in history. Crops have been on the move for millennia, from wildlands into fields, from wetlands to dry zones, from one imperial colony to another. This book is a bold but approachable attempt to redefine historical inquiry based on the “cropscape”: the assemblage of people, places, creatures, technologies, and other elements that form around a crop. The cropscape is a method of reconnecting the global with the local, the longue durée with microhistory, and people, plants, and places with abstract concepts such as tastes, ideas, skills, politics, and economic forces. Through investigating a range of contrasting cropscapes spanning millennia and the globe, the authors break open traditional historical structures of period, geography, and direction to glean insight into previously invisible actors and forces. © 2023 by Yale University. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O238" t="inlineStr"/>
+      <c r="P238" t="inlineStr"/>
+      <c r="Q238" t="inlineStr"/>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Caring-for-water-in-Northern-Peru</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Caring for water in Northern Peru: On fragile infrastructures and the diverse work involved in irrigation</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>Domínguez-Guzmán, Carolina; Verzijl, Andres; Zwarteveen, Margreet; Mol, Annemarie</t>
+        </is>
+      </c>
+      <c r="D239" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E239" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F239" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/25148486211052216</t>
+        </is>
+      </c>
+      <c r="G239" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H239" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Caring-for-water-in-Northern-Peru.txt</t>
+        </is>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
+      <c r="M239" t="inlineStr"/>
+      <c r="N239" t="inlineStr">
+        <is>
+          <t>The term control used to be central to the scholarship on modern water management. More recently, however, scholars have remarked that the world is too unstable and capricious for control to ever fully succeed. They propose that technologically facilitating water to flow depends instead on care. Building on this, we here propose that holding on to a single catch-all theoretical concept, even if it is ‘care’, does not suffice. Instead, analytical terms are better adapted – and re-adapted to local specificities. To exemplify this, we here present the case of the Huallabamba, a canal that makes horticulture possible in the arid valley of Motupe on the Pacific coast of northern Peru. In this case, while ‘control’ was hard to find, ‘care’ took different forms: the tinkering that compensates for the not-quite-modern character of the infrastructures; the adaptive managerial style necessary given the absence of information; the watchful, hands-on cuidar of the men who walk along the canal high up in the Andes, repairing what is broken, cautious lest they anger the spirits; the listening to and singing for water in the catchment area; and the activism that resists the invasion of mining companies. This open-ended list is not meant to travel as a theoretical grid, but rather to inspire others to propose locally salient analytical terms to explore the sites and situations in which they are involved. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O239" t="inlineStr"/>
+      <c r="P239" t="inlineStr"/>
+      <c r="Q239" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>The-Influence-of-Nonhuman-Assemblage-Interactions</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>The Influence of Nonhuman Assemblage Interactions on Small Farmers’ Perceptions of Weather in Oregon: A Social Network Analysis</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>Parks, Melissa</t>
+        </is>
+      </c>
+      <c r="D240" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E240" t="inlineStr">
+        <is>
+          <t>Human Ecology</t>
+        </is>
+      </c>
+      <c r="F240" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10745-022-00372-y</t>
+        </is>
+      </c>
+      <c r="G240" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H240" t="inlineStr"/>
+      <c r="I240" t="inlineStr"/>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
+      <c r="M240" t="inlineStr">
+        <is>
+          <t>Oregon; United States; climate change; extreme event; farmers knowledge; perception; social network</t>
+        </is>
+      </c>
+      <c r="N240" t="inlineStr">
+        <is>
+          <t>Farmers’ perceptions of weather play an important role in shaping their responses to climate change. I combine assemblage theory, which focuses on the interactions between nonhuman and human entities as they co-function in space, with social network analysis to explore how small farmers’ interactions with nonhuman plants and animals inform their perceptions of extreme and variable weather across Oregon. While assemblage theory and qualitative methods provide in-depth details on farmers’ nonhuman interactions, survey and social network analysis highlight broader patterns across farmers’ assemblages. My results illustrate the critical role that human-nonhuman interactions play in shaping common perceptions of weather extremes and variability among farmers, regardless of their beliefs about climate change, and the importance of diverse nonhuman interactions for shaping such perceptions. © 2022, The Author(s), under exclusive licence to Springer Science+Business Media, LLC, part of Springer Nature.</t>
+        </is>
+      </c>
+      <c r="O240" t="inlineStr"/>
+      <c r="P240" t="inlineStr"/>
+      <c r="Q240" t="inlineStr"/>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Challenges-in-the-Geo-Processing-of-Big-Soil-Spatial-Data</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Challenges in the Geo-Processing of Big Soil Spatial Data</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>Liakos, Leonidas; Panagos, Panos</t>
+        </is>
+      </c>
+      <c r="D241" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E241" t="inlineStr">
+        <is>
+          <t>Land</t>
+        </is>
+      </c>
+      <c r="F241" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/land11122287</t>
+        </is>
+      </c>
+      <c r="G241" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H241" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Challenges-in-the-Geo-Processing-of-Big-Soil-Spatial-Data.txt</t>
+        </is>
+      </c>
+      <c r="I241" t="inlineStr"/>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
+      <c r="M241" t="inlineStr"/>
+      <c r="N241" t="inlineStr">
+        <is>
+          <t>This study addressed a critical resource—soil—through the prism of processing big data at the continental scale. Rapid progress in technology and remote sensing has majorly improved data processing on extensive spatial and temporal scales. Here, the manuscript presents the results of a systematic effort to geo-process and analyze soil-relevant data. In addition, the main highlights include the difficulties associated with using data infrastructures, managing big geospatial data, decentralizing operations through remote access, mass processing, and automating the data-processing workflow using advanced programming languages. Challenges to this study included the reproducibility of the results, their presentation in a communicative way, and the harmonization of complex heterogeneous data in space and time based on high standards of accuracy. Accuracy was especially important as the results needed to be identical at all spatial scales (from point counts to aggregated countrywide data). The geospatial modeling of soil requires analysis at multiple spatial scales, from the pixel level, through multiple territorial units (national or regional), and river catchments, to the global scale. Advanced mapping methods (e.g., zonal statistics, map algebra, choropleth maps, and proportional symbols) were used to convey comprehensive and substantial information that would be of use to policymakers. More specifically, a variety of cartographic practices were employed, including vector and raster visualization and hexagon grid maps at the global or European scale and in several cartographic projections. The information was rendered in both grid format and as aggregated statistics per polygon (zonal statistics), combined with diagrams and an advanced graphical interface. The uncertainty was estimated and the results were validated in order to present the outputs in the most robust way. The study was also interdisciplinary in nature, requiring large-scale datasets to be integrated from different scientific domains, such as soil science, geography, hydrology, chemistry, climate change, and agriculture. © 2022 by the authors.</t>
+        </is>
+      </c>
+      <c r="O241" t="inlineStr"/>
+      <c r="P241" t="inlineStr"/>
+      <c r="Q241" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>a-Reasonable-Life-Rhythmic-Attunement</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>"a Reasonable Life" : Rhythmic Attunement and Sustainable Work at the Intersection of Farming and Knowledge Work</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>Steup, Rosemary; White, Paige; Dombrowski, Lynn; Su, Norman Makoto</t>
+        </is>
+      </c>
+      <c r="D242" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E242" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="F242" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3555577</t>
+        </is>
+      </c>
+      <c r="G242" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H242" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\a-Reasonable-Life-Rhythmic-Attunement.txt</t>
+        </is>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
+      <c r="M242" t="inlineStr">
+        <is>
+          <t>Farms; Groupware; Human engineering; Interactive computer systems; Attunement; Busyness; Ethnography; Farmer knowledge; Farming; Knowledge work; Rhythm; Sustainable work; Time; Value; Knowledge management</t>
+        </is>
+      </c>
+      <c r="N242" t="inlineStr">
+        <is>
+          <t>Past CSCW work has examined the role of temporal rhythms in cooperative work and has identified alignment work-the work required to bring dissonant rhythms into alignment-as an important aspect of large-scale collaboration. We ask instead how individual workers interact with temporal rhythms to sustain the conditions that make their work possible-not aligning rhythms, but attuning them. This paper draws on interviews with farmer-knowledge workers, people who engage with both farm work (the work of growing food or raising animals for food, on a commercial or non-commercial basis) and computer-based knowledge work. We identify three ways that farmer-knowledge workers interact with natural and structural rhythms to construct sustainable work-lives: Anchoring (tying oneself to a particular rhythm to create accountability and structure), decoupling (loosening or cutting ties with a rhythm to create flexibility), and gap-filling (interweaving complementary rhythms to create balance). Together, these practices constitute attunement work.  © 2022 ACM.</t>
+        </is>
+      </c>
+      <c r="O242" t="inlineStr"/>
+      <c r="P242" t="inlineStr"/>
+      <c r="Q242" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Sea-ice-out-of-time</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Sea ice out of time: Reckoning with environmental change</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>Yip, Julianne</t>
+        </is>
+      </c>
+      <c r="D243" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E243" t="inlineStr">
+        <is>
+          <t>Time and Society</t>
+        </is>
+      </c>
+      <c r="F243" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0961463X221111335</t>
+        </is>
+      </c>
+      <c r="G243" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H243" t="inlineStr"/>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
+      <c r="M243" t="inlineStr"/>
+      <c r="N243" t="inlineStr">
+        <is>
+          <t>In September 2007, Arctic sea ice plummeted to a shocking record minimum at the time. The amount of ice lost that summer was equal to that lost over the previous 25 years. As Arctic sea ice escapes scientists’ predictions, scholars in the social sciences and humanities have critically interrogated “nature”/“culture” divides that treat the time of nature as unchanging and distinct from human beings. This essay examines what concept of time emerges through Arctic sea ice as an analytic lens. By this, I mean scientific knowledge of sea ice and the conceptual possibilities for thinking ice temporalities and environmental time-reckoning that it opens up. Attending to these possibilities suggests different kinds of “clocks” to help reckon the time of environmental changes in the form of (1) climate anomalies (e.g., deviations in ice thickness), which offer a different way of telling environmental time that attends to the physical specificity of substances; and (2) the Arctic Oscillation, a semi-periodic world weather pattern that emerges from the thick of relationships among ice, atmosphere, ocean, and now humans, generating a collective planetary time. Finally, I argue that the relational human–nonhuman production of planetary time shifts the focus in social studies of time from collective time-reckoning, which assumes entities have a socioculturally determined concept of time, toward temporal coordination as a less anthropocentric mode of ordering shared realities. Coordination decenters “the Human” as an epistemic ordering principle and enlarges ordering to include a diversity of nonhuman ways of being. Through temporal coordination, environmental prediction would be the ordering of a collective reality that a multiplicity of human and nonhuman ways of being make together rather than the search for a more precise clock, or development of better technoscientific means to capture nonhuman temporalities external to human beings. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O243" t="inlineStr"/>
+      <c r="P243" t="inlineStr"/>
+      <c r="Q243" t="inlineStr"/>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Forms-of-Care-in-Human-Nature-Technology-Environments</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>Forms of Care in Human–Nature–Technology Environments</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>Ciobanu, Patricia; Juhlin, Oskar</t>
+        </is>
+      </c>
+      <c r="D244" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E244" t="inlineStr">
+        <is>
+          <t>Journal of Posthumanism</t>
+        </is>
+      </c>
+      <c r="F244" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.33182/joph.v2i3.1728</t>
+        </is>
+      </c>
+      <c r="G244" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H244" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Forms-of-Care-in-Human-Nature-Technology-Environments.txt</t>
+        </is>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
+      <c r="M244" t="inlineStr"/>
+      <c r="N244" t="inlineStr">
+        <is>
+          <t>With the ongoing environmental disruptions, designers are increasingly interested in exploring nature–technology entanglements that create sustainable and collaborative futures. Although largely unarticulated, these emerging design inquiries are motivated by care for nature, which indirectly depends on cultural and social human practices. Drawing on a broad set of works on care from feminist theory, science and technology studies, and human–computer interaction, this article introduces a care framework that focuses on revealing tensions in the interrelationship between humans and nonhumans. The framework is used to examine an initial study in which five participants engaged with a speculative design probe, specifically a combination of a device and a plant, envisioning a scenario in which plants generate electricity. We reveal how forms of care manifest differently in a human–plant–technology dynamic and identify tensions, such as plants being considered utilities, proxies, or humans. © 2022, Transnational Press London. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O244" t="inlineStr"/>
+      <c r="P244" t="inlineStr"/>
+      <c r="Q244" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>More-than-social-movements</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>More-than-social movements: Politics of matter, autonomy, alterontologies</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>Ghelfi, Andrea; Papadopoulos, Dimitris</t>
+        </is>
+      </c>
+      <c r="D245" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E245" t="inlineStr">
+        <is>
+          <t>Handbook of Critical Environmental Politics</t>
+        </is>
+      </c>
+      <c r="F245" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85160974337&amp;partnerID=40&amp;md5=417d003302374848e64f43d52e548afd</t>
+        </is>
+      </c>
+      <c r="G245" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H245" t="inlineStr"/>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
+      <c r="M245" t="inlineStr"/>
+      <c r="N245" t="inlineStr"/>
+      <c r="O245" t="inlineStr"/>
+      <c r="P245" t="inlineStr"/>
+      <c r="Q245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Me-the-Hill-and-My-Browser</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Me, the Hill and My Browser - Investigating the Role of Time in Posthuman Interaction</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>Ciobanu, Patricia; Juhlin, Oskar</t>
+        </is>
+      </c>
+      <c r="D246" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E246" t="inlineStr">
+        <is>
+          <t>ACM International Conference Proceeding Series</t>
+        </is>
+      </c>
+      <c r="F246" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3546155.3546651</t>
+        </is>
+      </c>
+      <c r="G246" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H246" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Me-the-Hill-and-My-Browser.txt</t>
+        </is>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
+      <c r="M246" t="inlineStr">
+        <is>
+          <t>Deforestation; Human engineering; Environmental disruption; Environmental sensor; Forest fires; Human design; More-than-human design; Nature; Posthuman interaction; Sensors data; Short periods; Time; Design</t>
+        </is>
+      </c>
+      <c r="N246" t="inlineStr">
+        <is>
+          <t>Despite the growing concerns related to environmental disruptions, such as forest fires and floods, our interaction with nature has become increasingly distant. The belief is that this is due to human attunement to quick changes over short periods, while natural changes seem slow-paced over the long term. We argue that rather than the problem lying with the pace of time, humans should further attune to the various temporalities within nature. To unpack this topic, we follow a two-fold process: Research through Design and Autobiographical Design. The resulting prototype takes environmental sensor data and visualises the changes happening over a short time. We complement this IT-supported process with think-aloud walks, a practice that is embodied and devoid of technology, for a plural perspective on time. We offer insights into how noticing the various temporalities in nature was enabled, finally arguing for designs that support progressive adjustments that sustain human-nonhuman mutualism.  © 2022 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O246" t="inlineStr"/>
+      <c r="P246" t="inlineStr"/>
+      <c r="Q246" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Creating-fairer-futures-for-sustainability-transitions</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Creating fairer futures for sustainability transitions</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>Fitzgerald, Louise M.; Davies, Anna R.</t>
+        </is>
+      </c>
+      <c r="D247" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E247" t="inlineStr">
+        <is>
+          <t>Geography Compass</t>
+        </is>
+      </c>
+      <c r="F247" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/gec3.12662</t>
+        </is>
+      </c>
+      <c r="G247" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H247" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Creating-fairer-futures-for-sustainability-transitions.txt</t>
+        </is>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
+      <c r="M247" t="inlineStr">
+        <is>
+          <t>feminism; future prospect; nature-society relations; political geography; power relations; sustainability</t>
+        </is>
+      </c>
+      <c r="N247" t="inlineStr">
+        <is>
+          <t>Futures thinking is an expanding interdisciplinary field which is seen as a key element of transitioning towards a more sustainable planet and society. Developing fairer futuring is increasingly urgent in the context of the radical reconfiguration of current systems needed to meet complex global sustainability challenges. However, explicit consideration of uneven power and participation and the nature-society relations that feature in contemporary futuring processes has been given little explicit attention to date. This deficit is addressed in this paper through a critical review of dominant futuring approaches and outlining insights from critical perspectives which (a) identify limitations of current futuring approaches and (b) provide important perspectives to help shape fairer futuring in geographical research. © 2022 The Authors. Geography Compass published by John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="O247" t="inlineStr"/>
+      <c r="P247" t="inlineStr"/>
+      <c r="Q247" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Achieving-societal-and-academic-impacts-of-research</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Achieving societal and academic impacts of research: A comparison of networks, values, and strategies</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>Brenninkmeijer, Jonna</t>
+        </is>
+      </c>
+      <c r="D248" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E248" t="inlineStr">
+        <is>
+          <t>Science and Public Policy</t>
+        </is>
+      </c>
+      <c r="F248" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/scipol/scac022</t>
+        </is>
+      </c>
+      <c r="G248" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H248" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Achieving-societal-and-academic-impacts-of-research.txt</t>
+        </is>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
+      <c r="M248" t="inlineStr">
+        <is>
+          <t>academic research; comparative study; ethnography; health care; social impact; social network</t>
+        </is>
+      </c>
+      <c r="N248" t="inlineStr">
+        <is>
+          <t>Science policymakers and funding agencies are increasingly interested in the societal impact of research. In practice, this means that, when applying for funding, researchers have to justify the academic impact (e.g. publications and conferences) and the societal impact (e.g. influence on policy and practice) of their proposed research. This paper aims to find out how these requirements relate by comparing two ethnographic case studies of research in health care and health assessment that aim to combine both forms of impact. I analyze the networks, values, and strategies in both research groups, and show that achieving societal and academic impacts are different research practices. Hence, I argue that academic and societal impacts should not simply be added up as requirements for research funding or academic career development but should be understood and appreciated on their own terms.  © 2022 The Author(s). Published by Oxford University Press.</t>
+        </is>
+      </c>
+      <c r="O248" t="inlineStr"/>
+      <c r="P248" t="inlineStr"/>
+      <c r="Q248" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Critique-as-Care-Disrupting-Narratives</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Critique as Care: Disrupting Narratives of the One-Shot Instruction Model</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>Pagowsky, Nicole</t>
+        </is>
+      </c>
+      <c r="D249" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E249" t="inlineStr">
+        <is>
+          <t>College and Research Libraries</t>
+        </is>
+      </c>
+      <c r="F249" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5860/crl.83.5.713</t>
+        </is>
+      </c>
+      <c r="G249" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H249" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Critique-as-Care-Disrupting-Narratives.txt</t>
+        </is>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
+      <c r="M249" t="inlineStr"/>
+      <c r="N249" t="inlineStr"/>
+      <c r="O249" t="inlineStr"/>
+      <c r="P249" t="inlineStr"/>
+      <c r="Q249" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Thinking-with-Kaipara</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>‘Thinking with Kaipara’: A decolonising methodological strategy to illuminate social heterogenous nature–culture relations in place</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>Makey, Leane</t>
+        </is>
+      </c>
+      <c r="D250" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E250" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F250" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/25148486211026845</t>
+        </is>
+      </c>
+      <c r="G250" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H250" t="inlineStr"/>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
+      <c r="M250" t="inlineStr"/>
+      <c r="N250" t="inlineStr">
+        <is>
+          <t>Decolonising methodologies continue to be critically developed to disrupt the marginalising approaches to knowledge production. By privileging Indigenous ways of knowing, being and doing, relations with nature are a more-than-human entanglement and a relational pursuit. Ecosystems such as estuaries and rivers are connected through kin-based relationships and treated as (or are) ancestors and family members. Such embodiment connects the body–mind–spirit to maintain relations with the mauri of ancestral beings and Deities. Within this ontology, nature is indistinguishable from culture. Our research responds to the call of how method might proceed to de-centre the human and make bodily and material encounters with the nonhuman matter. ‘Thinking with Kaipara’ is a methodological strategy that is a deliberate attempt to pursue embodied ways of producing knowledge. To work with situated knowledges, place and social difference to address the crisis of representation of such in ecosystem-based management, the problematising of ecosystem degradation and restoration practices. Research data produced is founded on human and nonhuman collaboration, an ethic of care, diverse epistemic nature–culture relations, social/nature/gender justice and equality, which makes for empirical evidence not enjoyed by scientific and technocratic methods utilised to inform and shape ecosystem-based management decisions and policy. Geo-creative practices are used by co-researchers/co-participants to recount their lived experiences and knowledges of ecosystem degradation and restoration. Storytelling, poetics, and painting, sculpting, whaikorero, waiata and writing were practices used. We argue that such geo-creative practices challenge the normative spaces and practices of disciplinary knowledge-making and enable the examination of social heterogeneous nature–culture relations in settler-colonial societies. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O250" t="inlineStr"/>
+      <c r="P250" t="inlineStr"/>
+      <c r="Q250" t="inlineStr"/>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>A-Political-Ecology-of-Desire-Between-Extinction-Anxiety-and-Flourishing</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>A Political Ecology of Desire Between Extinction, Anxiety, and Flourishing</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>Margulies, Jared</t>
+        </is>
+      </c>
+      <c r="D251" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E251" t="inlineStr">
+        <is>
+          <t>Environmental Humanities</t>
+        </is>
+      </c>
+      <c r="F251" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/22011919-9712357</t>
+        </is>
+      </c>
+      <c r="G251" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H251" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\A-Political-Ecology-of-Desire-Between-Extinction-Anxiety-and-Flourishing.txt</t>
+        </is>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
+      <c r="M251" t="inlineStr">
+        <is>
+          <t>Bahia; Brazil; anthropogenic effect; biodiversity; cactus; endangered species; extinction; global change; human geography</t>
+        </is>
+      </c>
+      <c r="N251" t="inlineStr">
+        <is>
+          <t>How does attention to exertion and absence of care illuminate possibilities for avoiding extinction amid global biodiversity declines? This article brings together feminist technoscience and more-than-human theory on care with Lacanian psychoanalytic theories of anxiety and desire. It does so to diagnose the threat of extinction anxieties and consider their material and political consequences for impedances to caring for nonhuman life and their flourishing. The article is developed through the empirical case of Arrojadoa marylanae, an endangered species of cactus in Bahia, Brazil, as a political ecology of desire. In bringing psychoanalytic thought into conversation with care, it considers how desire sits at the heart of morethan- human care and yet may be thwarted by anxiety. Contending with his own extinction anxieties as they became focused through an endangered cactus on a mountain destined for mining, the author excavates routes toward flourishing geographies: geographies of care-full interspecies alliances composed against Anthropocenic thinking. In concluding, the author urges for greater attention to the work of desire in studies of environmental change and the wider environmental humanities.  © 2022 Jared Margulies.</t>
+        </is>
+      </c>
+      <c r="O251" t="inlineStr"/>
+      <c r="P251" t="inlineStr"/>
+      <c r="Q251" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Circles-of-Care-for-Safety</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>Circles of Care for Safety: A Care Ethics Approach to Safe-by-Design</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>Baas, Lieke; Metselaar, Suzanne; Klaassen, Pim</t>
+        </is>
+      </c>
+      <c r="D252" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E252" t="inlineStr">
+        <is>
+          <t>NanoEthics</t>
+        </is>
+      </c>
+      <c r="F252" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11569-022-00419-w</t>
+        </is>
+      </c>
+      <c r="G252" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H252" t="inlineStr"/>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
+      <c r="M252" t="inlineStr"/>
+      <c r="N252" t="inlineStr">
+        <is>
+          <t>Safe-by-Design is an approach to engineering that aims to integrate the value of safety in the design and development of new technologies. It does so by integrating knowledge of potential dangers in the design process and developing methods to design undesirable effects out of the innovation. Recent discussions have highlighted several challenges in conceptualizing safety and integrating the value into the design process. Therefore, some have argued to design for the responsibility for safety, instead of for safety itself. However, this idea has not been developed further. In this article, we develop an approach to Safe-by-Design, grounded in care ethics, which builds on the idea of designing for responsibility and can deal with the complexity that is inherent to the conceptualization of safety. We describe five ways in which care ethics contributes to the conceptualization of Safe-by-Design: (1) It suggests the development of ‘circles of care’ in which stakeholders share the responsibility for safety; (2) it recognizes the importance of considering safety as something that is situated in the surroundings of a technology, instead of as a property of the technology itself; (3) it acknowledges that achieving safety is labour that requires an ongoing commitment; (4) it emphasizes that the way in which we relate to technology impacts its safety; and (5) it recognizes the role of emotions in assessing safety. All these elements combined lead to a broader understanding of safety and a philosophically more substantial and practically more appealing conceptualization of Safe-by-Design. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O252" t="inlineStr"/>
+      <c r="P252" t="inlineStr"/>
+      <c r="Q252" t="inlineStr"/>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>From-coping-strategy-tohopeful-everyday-practice</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>From coping strategy to hopeful everyday practice: Changing interpretations of food self-provisioning</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>Daněk, Petr; Sovová, Lucie; Jehlička, Petr; Vávra, Jan; Lapka, Miloslav</t>
+        </is>
+      </c>
+      <c r="D253" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E253" t="inlineStr">
+        <is>
+          <t>Sociologia Ruralis</t>
+        </is>
+      </c>
+      <c r="F253" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/soru.12395</t>
+        </is>
+      </c>
+      <c r="G253" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H253" t="inlineStr"/>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
+      <c r="M253" t="inlineStr">
+        <is>
+          <t>Central Europe; Eastern Europe; alternative agriculture; coping strategy; cultural tradition; environmental effect; environmental impact; food provisioning; social impact</t>
+        </is>
+      </c>
+      <c r="N253" t="inlineStr">
+        <is>
+          <t>While alternative food networks (AFNs) have become the leading conceptualisation of sustainable food systems, vibrant scholarship on food self-provisioning (FSP) in Central and Eastern Europe has remained confined to the geopolitical region it investigates. This article brings these two bodies of thought closer together in two steps. First, we trace four framings of FSP deployed over the last three decades—coping strategy, cultural practice, hobby and source of good food and reading FSP as transformative practice—to demonstrate its progressive affinity with AFNs. Second, we follow the most recent framing in highlighting the material reality of local food production as a feature shared by both FSP and AFNs. From this perspective, FSP can be understood as a more radical variant of AFNs given its more substantial environmental and social impact (FSP is more widespread and socially inclusive and less dependent on market transactions). By uncovering the epistemological underpinnings of these different framings of FSP and exploring their implications for food practices on the ground, this article draws general lessons for scholarship aiming to advance food system transformation. © 2022 European Society for Rural Sociology.</t>
+        </is>
+      </c>
+      <c r="O253" t="inlineStr"/>
+      <c r="P253" t="inlineStr"/>
+      <c r="Q253" t="inlineStr"/>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Planetary-food-regimes</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Planetary food regimes: Understanding the entanglement between human and planetary health in the Anthropocene</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>Beacham, Jonathan</t>
+        </is>
+      </c>
+      <c r="D254" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E254" t="inlineStr">
+        <is>
+          <t>Geographical Journal</t>
+        </is>
+      </c>
+      <c r="F254" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/geoj.12407</t>
+        </is>
+      </c>
+      <c r="G254" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H254" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Planetary-food-regimes.txt</t>
+        </is>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
+      <c r="M254" t="inlineStr">
+        <is>
+          <t>Anthropocene; dietary shift; food quality; public health</t>
+        </is>
+      </c>
+      <c r="N254" t="inlineStr">
+        <is>
+          <t>Food regime theory provides a framework of continued and recurring interest to geographical perspectives in charting the contours connecting agri-food and capitalist political economy. Drawing principally on Marxian regulation theory, the analytical framework of food regime theory outlines three periodised regimes from the starting point of 1870 to the present day. Yet there remains ongoing and unresolved debate as to how we characterise the contemporary third regime – and whether it is a regime on its own specific terms or merely an enduring hangover from the second. I argue that an underacknowledged dimension of attempts to characterise the third regime lies in the conjoined relationship between human and planetary health, which the diagnosis of the Anthropocene encourages us to recognise amid tumultuous global environmental change. Given food regime theory's evasive relationship with ecological dynamics within its explanatory framework, I suggest that a “planetary” retheorisation of its central contributions is increasingly prescient. In considering the growing tensions and contradictions afflicting the contemporary regime, and using soy as a working example, I work through three central arguments. First, that a planetary retheorisation serves to reveal the way in which planetary dynamics shape social life, enabling – albeit never wholly determining – food regimes. Second, that what and how people eat in their dietary practices are of planetary significance, which has been to some degree marginalised within the production-centric analyses of food regime theory. Third, that the conceptual Anthropocene highlights how planetary and human health are intricately and inextricably connected, which food regime theory must better account for. I conclude by proposing that the explanatory potential of the contemporary third regime is being stretched, with contested trajectories and nascent contours raising questions around how we might understand quite what we are living through today. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2021 The Authors. The Geographical Journal published by John Wiley &amp; Sons Ltd on behalf of Royal Geographical Society (with the Institute of British Geographers).</t>
+        </is>
+      </c>
+      <c r="O254" t="inlineStr"/>
+      <c r="P254" t="inlineStr"/>
+      <c r="Q254" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Relating-to-Soil-Chromatography-as-a-Tool</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>Relating to Soil: Chromatography as a Tool for Environmental Engagement</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>Rosén, Anton Poikolainen</t>
+        </is>
+      </c>
+      <c r="D255" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E255" t="inlineStr">
+        <is>
+          <t>DIS 2022 - Proceedings of the 2022 ACM Designing Interactive Systems Conference: Digital Wellbeing</t>
+        </is>
+      </c>
+      <c r="F255" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3532106.3533503</t>
+        </is>
+      </c>
+      <c r="G255" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H255" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Relating-to-Soil-Chromatography-as-a-Tool.txt</t>
+        </is>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
+      <c r="M255" t="inlineStr">
+        <is>
+          <t>Chromatography; Environmental technology; Human engineering; Soils; 'current; Chemical test method; Citizen science; Environmental crisis; Interactive technology; It focus; Limited capacity; More-than-human; Soil health; Urban community; Sustainable development</t>
+        </is>
+      </c>
+      <c r="N255" t="inlineStr">
+        <is>
+          <t>Due to the ongoing environmental crisis, there is an increased interest in technologies that strengthen relations to the environment. This pictorial contributes to a broader discussion in HCI on how technologies could create a different understanding of and relationship to the more-than-human world. It focuses on soil care practices, and how current (limited) capacities of digital sensing could be complemented with soil chromatography - a qualitative chemical test method for visually assessing soil health. The pictorial is based on a series of workshops conducted in an urban community farm. The discussion focuses on how interactive technologies may support the process of conducting and interpreting soil chromatography and what it means to study, care for, and design with the more-than-human.  © 2022 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O255" t="inlineStr"/>
+      <c r="P255" t="inlineStr"/>
+      <c r="Q255" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Feminist-Care-in-the-Anthropocene</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Feminist Care in the Anthropocene: Packing and Unpacking Tensions in Posthumanist HCI</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>Key, Cayla; Gatehouse, Cally; Taylor, Nick</t>
+        </is>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E256" t="inlineStr">
+        <is>
+          <t>DIS 2022 - Proceedings of the 2022 ACM Designing Interactive Systems Conference: Digital Wellbeing</t>
+        </is>
+      </c>
+      <c r="F256" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3532106.3533540</t>
+        </is>
+      </c>
+      <c r="G256" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H256" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Feminist-Care-in-the-Anthropocene.txt</t>
+        </is>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
+      <c r="M256" t="inlineStr">
+        <is>
+          <t>Human engineering; Additional keyword and phrase care; Anthropocene; Feminism; Feminist; Indigenous; Knowledge; Method; More-than-human; Posthumanism; Workshop; Philosophical aspects</t>
+        </is>
+      </c>
+      <c r="N256" t="inlineStr">
+        <is>
+          <t>As posthumanist or post-anthropocentric research in HCI and design proliferates and further commits to working with more-than-humans, design research practitioners are left with many open questions and uncertainties with how to productively engage with more-than-humans in their thinking and working. This paper present results from a workshop with 17 researchers working at the intersection of care ethics and posthumanism to highlight tensions in posthumanist engagement aimed at unpacking some of the challenges, obstacles, and questions encountered by researchers interested in more-than-human centered design. In foregrounding tensions with representation, legitimization, unseen labor, and material narratives we contribute to a design research agenda which seeks to explicate and challenge dominant anthropocentric forces from design. We conclude by discussing epistemological care and urge practitioners to take up new ways of imagining through truly messy methods which contribute to a feminist unsettling of HCI's methodological commitments, practices, and praxis.  © 2022 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O256" t="inlineStr"/>
+      <c r="P256" t="inlineStr"/>
+      <c r="Q256" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Gardening-in-an-urban-farm</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Gardening in an urban farm: A way to reconnect citizens with the soil</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>Scheromm, Pascale; Javelle, Aurélie</t>
+        </is>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E257" t="inlineStr">
+        <is>
+          <t>Urban Forestry and Urban Greening</t>
+        </is>
+      </c>
+      <c r="F257" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.ufug.2022.127590</t>
+        </is>
+      </c>
+      <c r="G257" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H257" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Gardening-in-an-urban-farm.txt</t>
+        </is>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
+      <c r="M257" t="inlineStr">
+        <is>
+          <t>France; garden; nature-society relations; soil cover; urban area</t>
+        </is>
+      </c>
+      <c r="N257" t="inlineStr">
+        <is>
+          <t>Simultaneously perceived as places of agriculture, of nature, and of social ties, urban collective gardens and farms enable city dwellers to immerse themselves in gardening, to recover forgotten skills, to learn from nature and the environment. They reinstate the soil as a feature of the city by making it visible to the urban population, to whom it is often unknown. In this article, we focus on urban gardeners’ representations of the soil in a city of south of France. These representations were analyzed through the lens of the relationships that gardeners develop with the soil as an element of nature. Our results highlight relations where the care ethic is central. They suggest that the practice and the extension of agroecological urban gardening, by placing city dwellers in physical, skilled contact with the soil, promise a reconfiguration of citizens’ relationship with soil. © 2022 Elsevier GmbH</t>
+        </is>
+      </c>
+      <c r="O257" t="inlineStr"/>
+      <c r="P257" t="inlineStr"/>
+      <c r="Q257" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Creating-careful-circularities-Community-composting-in-New-York-City</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Creating careful circularities: Community composting in New York City</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>Morrow, Oona; Davies, Anna</t>
+        </is>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E258" t="inlineStr">
+        <is>
+          <t>Transactions of the Institute of British Geographers</t>
+        </is>
+      </c>
+      <c r="F258" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/tran.12523</t>
+        </is>
+      </c>
+      <c r="G258" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H258" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Creating-careful-circularities-Community-composting-in-New-York-City.txt</t>
+        </is>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
+      <c r="M258" t="inlineStr">
+        <is>
+          <t>New York [New York (STT)]; New York [United States]; United States; economic policy; food waste; research work; sustainability; urban economy; urban policy</t>
+        </is>
+      </c>
+      <c r="N258" t="inlineStr">
+        <is>
+          <t>While matters of food waste and soil have become vital research arenas, compost remains the Cinderella of human geographical enquiry. In response, this paper brings compost to the centre of debates at the intersection of diverse economies and circular economy. In particular, the concept of community composting and the care involved in such practices is used to offset and problematise the technoscientific bias in circular economy discourses. Extending feminist perspectives on care in soil studies, this paper focuses on the careful circularities that are realised through community composting in New York City. This case study provides not only a material space for examining community composting but also a unique opportunity to consider the colliding worlds of worth that operate in and around urban sustainability transitions to zero waste. Drawing empirical insights from interviews, participant observation, and document analysis, this paper argues for a sensitisation of circular economy policy and research to matters of care and diverse economies as a means to better understand motivations, justifications, and outcomes of efforts to reorient food systems onto more sustainable pathways. We argue that privileging care in this way helps to shift focus away from dominant narratives of "scaling-up" towards sustainability to a more relational perspective that sees transformation in connecting, deepening, and even scaling-down. This means attending to the micro as well as macro transformations needed to enact the required sustainability transitions. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2021 The Authors. Transactions of the Institute of British Geographers published by John Wiley &amp; Sons Ltd on behalf of Royal Geographical Society (with The Institute of British Geographers).</t>
+        </is>
+      </c>
+      <c r="O258" t="inlineStr"/>
+      <c r="P258" t="inlineStr"/>
+      <c r="Q258" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Vegan-food-geographies</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Vegan food geographies and the rise of Big Veganism</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>Sexton, Alexandra E; Garnett, Tara; Lorimer, Jamie</t>
+        </is>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E259" t="inlineStr">
+        <is>
+          <t>Progress in Human Geography</t>
+        </is>
+      </c>
+      <c r="F259" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/03091325211051021</t>
+        </is>
+      </c>
+      <c r="G259" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H259" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Vegan-food-geographies.txt</t>
+        </is>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
+      <c r="M259" t="inlineStr">
+        <is>
+          <t>culture; diet; food consumption; human geography</t>
+        </is>
+      </c>
+      <c r="N259" t="inlineStr">
+        <is>
+          <t>Veganism is the subject of an increasingly diverse body of social scientific research, yet it remains relatively understudied in geography. Meanwhile, contemporary cultural commentaries note how veganism has gone mainstream, with critics warning of veganism’s corporate nature – expressed in the rise of what we term ‘Big Veganism’. We argue that food geographers are well placed to examine these trends. We first review vegan studies work beyond geography that examines and critiques the mainstreaming of veganism. We focus on literature that explores multiple contested modes of veganism, veganism as praxis in place and the rise of corporate veganism as useful foundations for geographers to build on, particularly in light of currently unfolding developments in vegan cultures and practice. Taking this work forward, we identify four conceptual traditions from research in food geographies – following foodways, alternative food networks and the cultural and material politics of eating – to develop a ‘vegan food geographies’ programme that aims to advance critical geographic work on veganism and the emerging implications of its contemporary mainstreaming. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O259" t="inlineStr"/>
+      <c r="P259" t="inlineStr"/>
+      <c r="Q259" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Grounds</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Grounds</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>Aston, Rhys; Davies, Margaret</t>
+        </is>
+      </c>
+      <c r="D260" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E260" t="inlineStr">
+        <is>
+          <t>Research Handbook on Law and Literature</t>
+        </is>
+      </c>
+      <c r="F260" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85140160848&amp;partnerID=40&amp;md5=964383a7112d53a6a7a5b6dbb9569c6b</t>
+        </is>
+      </c>
+      <c r="G260" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H260" t="inlineStr"/>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
+      <c r="M260" t="inlineStr"/>
+      <c r="N260" t="inlineStr"/>
+      <c r="O260" t="inlineStr"/>
+      <c r="P260" t="inlineStr"/>
+      <c r="Q260" t="inlineStr"/>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Advancing-the-intersection-of-soil-and-well-being-systems-science</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>Advancing the intersection of soil and well-being systems science</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>Friedrichsen, Claire N.; Mizuta, Katsutoshi; Wulfhorst, J.D.</t>
+        </is>
+      </c>
+      <c r="D261" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E261" t="inlineStr">
+        <is>
+          <t>Soil Security</t>
+        </is>
+      </c>
+      <c r="F261" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.soisec.2022.100036</t>
+        </is>
+      </c>
+      <c r="G261" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H261" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Advancing-the-intersection-of-soil-and-well-being-systems-science.txt</t>
+        </is>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
+      <c r="M261" t="inlineStr"/>
+      <c r="N261" t="inlineStr">
+        <is>
+          <t>Innovation for soil research can advance multidimensional outcomes for production and environmental quality through consideration of human well-being components. Integrating components from social and soil sciences builds the capacity to foster research and innovations that promote human well-being in conjunction with soil health. We propose The Integrated Soil Well-being Framework to understand the linkages between individual and social well-being related to soil science research and innovation. To facilitate transformative research, we present lines of inquiry of human dimensions research that may support well-being outcomes of soil research and innovation. We then present opportunities in the area of human dimensions of soil science to innovate ways of transformative research that can integrate well-being and soil health: recognizing and fostering a universe of soil knowledge, enabling soil connectivity to increase well-being, and evaluating capability. Finally, we propose three steps to promote soil and well-being integration: multi-disciplinary soil science training, a normative change in the identity of a soil scientist, and diverse methodologies. We aim to create a broader dialogue and open the conversation between scholars from various disciplines and methods studying soils to formulate research agendas with the advancement of human well-being for soil security. © 2022</t>
+        </is>
+      </c>
+      <c r="O261" t="inlineStr"/>
+      <c r="P261" t="inlineStr"/>
+      <c r="Q261" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Regenerating-soil-regenerating-soul</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>Regenerating soil, regenerating soul: an integral approach to understanding agricultural transformation</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>Gosnell, Hannah</t>
+        </is>
+      </c>
+      <c r="D262" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E262" t="inlineStr">
+        <is>
+          <t>Sustainability Science</t>
+        </is>
+      </c>
+      <c r="F262" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s11625-021-00993-0</t>
+        </is>
+      </c>
+      <c r="G262" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H262" t="inlineStr"/>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
+      <c r="M262" t="inlineStr"/>
+      <c r="N262" t="inlineStr">
+        <is>
+          <t>Understanding what motivates farmers to adopt “climate-smart” regenerative practices is critical for developing the right policies, incentives, outreach, and support mechanisms. This article explores factors that motivated farmers in NSW Australia to transition from conventional to regenerative agriculture (RA), focusing on the role that their perceptions of agrochemicals and the microbiome played. Drawing on integral theory, the article takes a holistic approach to analyzing how farmer interiorities in personal and collective realms interacted with external behavior and the larger social-ecological system in which food and fiber is produced. A key finding is that negative experiences with agrochemicals associated with increasing costs and declining results were an important driver of change. Conversely, positive experiences learning about the microbiome and practicing ecological approaches to fertilization and pest control engendered enthusiasm and commitment to a transition away from high-input agriculture and a transformation in mindset. Further, conviviality associated with communities of practice, e.g. microscope groups, played an important role in the transition process, as farmers solidified new identities and participated in ongoing social learning. Based on these results, I argue that farmers’ feelings of kinship with nature (animals, plants, microbes) resulting from learning about and working with soil are underappreciated drivers of behavioral change and powerful leverage points for larger-scale social-ecological transformation. The integral model facilitates recognition of the connections between soil condition, farmers’ perceptions of and feelings about its condition, ensuing behavior including participation in new networks, and the creation of new norms, all of which create space for the emergence of institutional and systemic change. © 2021, The Author(s), under exclusive licence to Springer Japan KK, part of Springer Nature.</t>
+        </is>
+      </c>
+      <c r="O262" t="inlineStr"/>
+      <c r="P262" t="inlineStr"/>
+      <c r="Q262" t="inlineStr"/>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>Implicated-by-scale</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>Implicated by scale: Anthropochemicals and the experience of ecology</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>Papadopoulos, Dimitris</t>
+        </is>
+      </c>
+      <c r="D263" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E263" t="inlineStr">
+        <is>
+          <t>Sociological Review</t>
+        </is>
+      </c>
+      <c r="F263" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/00380261221084780</t>
+        </is>
+      </c>
+      <c r="G263" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H263" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Implicated-by-scale.txt</t>
+        </is>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
+      <c r="M263" t="inlineStr"/>
+      <c r="N263" t="inlineStr">
+        <is>
+          <t>If our worlds are unimaginable, or, ironically, perhaps even unsustainable without anthropogenic chemicals, what does it mean to live and navigate the toxic regime, this historical moment where human-made substances are so entangled with ecologies and societies that a clean up and an ‘after’ to our polluted worlds is almost unthinkable? Anthropogenic chemicals are produced and used at such scale that humans need a tremendous scale of alternative chemicals to replace them. Scale, the organising principle of growth, is the source of ecological degradation and, simultaneously, is a necessary component of many remediation attempts. As life is becoming more and more chemical, chemical practice is gradually becoming conscious of its flagrant disregard of its own ecological boundaries. The attempt to restore a holistic experience of ecology shapes many current attempts to develop alternative chemical practices. When chemical practice becomes obliged by ecology to respond to the environmental crisis, the search for a different approach to scale emerges. With obligation comes the quest for reparation, both as repair and as compensation for the social and ecological damage done. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O263" t="inlineStr"/>
+      <c r="P263" t="inlineStr"/>
+      <c r="Q263" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Automating-Agroecology</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>Automating Agroecology: How to Design a Farming Robot Without a Monocultural Mindset?</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>Ditzler, Lenora; Driessen, Clemens</t>
+        </is>
+      </c>
+      <c r="D264" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E264" t="inlineStr">
+        <is>
+          <t>Journal of Agricultural and Environmental Ethics</t>
+        </is>
+      </c>
+      <c r="F264" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10806-021-09876-x</t>
+        </is>
+      </c>
+      <c r="G264" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H264" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Automating-Agroecology.txt</t>
+        </is>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
+      <c r="M264" t="inlineStr">
+        <is>
+          <t>agricultural technology; agricultural worker; agroecology; automation; design; farming system; pest control; robotics; technology adoption</t>
+        </is>
+      </c>
+      <c r="N264" t="inlineStr">
+        <is>
+          <t>Robots are widely expected—and pushed—to transform open-field agriculture, but these visions remain wedded to optimizing monocultural farming systems. Meanwhile there is little pull for automation from ecology-based, diversified farming realms. Noting this gap, we here explore the potential for robots to foster an agroecological approach to crop production. The research was situated in The Netherlands within the case of pixel cropping, a nascent farming method in which multiple food and service crops are planted together in diverse assemblages employing agroecological practices such as intercropping and biological pest control. Around this case we engaged with a variety of specialists in discussion groups, workshops, and design challenges to explore the potential of field robots to meet the multifaceted demands of highly diverse agroecological cropping systems. This generated a spectrum of imaginations for how automated tools might—or might not—be appropriately used, ranging from fully automated visions, to collaborative scenarios, to fully analogue prototypes. We found that automating agroecological cropping systems requires finding ways to imbue the ethos of agroecology into designed tools, thereby seeking to overcome tensions between production aims and other forms of social and ecological care. We conclude that a rethinking of automation is necessary for agroecological contexts: not as a blueprint for replacing humans, but making room for analogue and hybrid forms of agricultural work. These findings highlight a need for design processes which include a diversity of actors, involve iterative design cycles, and incorporate feedback between designers, practitioners, tools, and cropping systems. © 2022, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O264" t="inlineStr"/>
+      <c r="P264" t="inlineStr"/>
+      <c r="Q264" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>A-matter-of-time-Evidence-making-temporalities-COVID-19</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>“A matter of time”: Evidence-making temporalities of vaccine development in the COVID-19 media landscape</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>Harrison, Mia; Lancaster, Kari; Rhodes, Tim</t>
+        </is>
+      </c>
+      <c r="D265" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E265" t="inlineStr">
+        <is>
+          <t>Time and Society</t>
+        </is>
+      </c>
+      <c r="F265" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0961463X211032201</t>
+        </is>
+      </c>
+      <c r="G265" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H265" t="inlineStr"/>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
+      <c r="M265" t="inlineStr"/>
+      <c r="N265" t="inlineStr">
+        <is>
+          <t>This article investigates how evidence of the safety and efficacy of COVID-19 vaccines is enacted in news media via a focus on the temporality of vaccine development. We argue that time constitutes a crucial object of and mechanism for knowledge production in such media and investigate how time comes to matter in vaccine evidence-making communication practices. In science communication on vaccine development, the vaccine object (along with the practices through which it is produced) undergoes a material-discursive shift from an imagined “rushed” product to being many years in the making and uninhibited by unnecessarily lengthy processes. In both these enactments of vaccine development, time itself is constituted as evidence of vaccine efficacy and safety. This article traces how time (performed as both calendar time and as a series of relational events) is materialized as an affective and epistemic object of evidence within public science communication by analyzing the material-discursive techniques through which temporality is enacted within news media focused on the timeline of COVID-19 vaccine development. We contend that time (as evidence) is remade through these techniques as an ontopolitical concern within the COVID-19 vaccine assemblage. We furthermore argue that science communication itself is an important actor in the hinterland of public health practices with performative effects and vital evidence-making capacities. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O265" t="inlineStr"/>
+      <c r="P265" t="inlineStr"/>
+      <c r="Q265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Weeds-in-action-Vegetal-political-ecology</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>Weeds in action: Vegetal political ecology of unwanted plants</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>Argüelles, Lucía; March, Hug</t>
+        </is>
+      </c>
+      <c r="D266" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E266" t="inlineStr">
+        <is>
+          <t>Progress in Human Geography</t>
+        </is>
+      </c>
+      <c r="F266" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/03091325211054966</t>
+        </is>
+      </c>
+      <c r="G266" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H266" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Weeds-in-action-Vegetal-political-ecology.txt</t>
+        </is>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
+      <c r="M266" t="inlineStr">
+        <is>
+          <t>agricultural ecosystem; invasive species; pesticide; politics; research work; weed; weed control</t>
+        </is>
+      </c>
+      <c r="N266" t="inlineStr">
+        <is>
+          <t>This paper presents a vegetal political ecology of weeds. Weeds have barely been analysed in the burgeoning field of ‘more-than-human’ scholarship, this despite their ubiquity and considerable impact on human social life. We review how geographical scholarship has represented weeds’ material and political status: mostly as invasive plants, annoying species in private gardens and spontaneous vegetation in urbanized landscapes. Then, bringing together weed science, agronomic science and the critical geography of agriculture, we show how weeds ecology, weeds management and the environmental problems which weeds are entangled have critically shaped the industrial agriculture paradigm. Three main arguments emerging from our analysis open up new research avenues: weeds’ disruptive character might shape our understanding of human-plant relationships; human-weeds relation in agriculture have non-trivial socio-economic and political implications; and more-than-human approaches, such as vegetal political ecology, might challenge dominant modes of considering and practicing agriculture. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O266" t="inlineStr"/>
+      <c r="P266" t="inlineStr"/>
+      <c r="Q266" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Gender-and-race-southern-transits-in-perspective</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr"/>
+      <c r="C267" t="inlineStr"/>
+      <c r="D267" t="inlineStr"/>
+      <c r="E267" t="inlineStr"/>
+      <c r="F267" t="inlineStr"/>
+      <c r="G267" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H267" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Gender-and-race-southern-transits-in-perspective.txt</t>
+        </is>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
+      <c r="M267" t="inlineStr"/>
+      <c r="N267" t="inlineStr"/>
+      <c r="O267" t="inlineStr"/>
+      <c r="P267" t="inlineStr"/>
+      <c r="Q267" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Going-Against-the-Grain-in-the-West-Australian-Wheatbelt</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>Going Against the Grain in the West Australian Wheatbelt</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>Donati, Kelly</t>
+        </is>
+      </c>
+      <c r="D268" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E268" t="inlineStr">
+        <is>
+          <t>Beyond Global Food Supply Chains: Crisis, Disruption, Regeneration</t>
+        </is>
+      </c>
+      <c r="F268" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/978-981-19-3155-0_5</t>
+        </is>
+      </c>
+      <c r="G268" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H268" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Going-Against-the-Grain-in-the-West-Australian-Wheatbelt.txt</t>
+        </is>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
+      <c r="M268" t="inlineStr"/>
+      <c r="N268" t="inlineStr">
+        <is>
+          <t>The vast wheatbelt of Western Australia marks a disruptive force on an ancient landscape, an upheaval wrought by the dispossessive ecologies of sheep and wheat (Mayes, Unsettling Food Politics: Agriculture, Dispossession and Sovereignty. London: Rowman &amp; Littlefield, 2018). This chapter asks what transformational possibilities might emerge in this context through a case study of a broad-acre regenerative-farming couple, Di and Ian Haggerty, and their experiments with new ways of knowing, living and farming in the wheatbelt. The Haggertys seek to reconfigure ecological relations within regimes of large-scale production. On the one hand, these regimes of production look much like their neighbours’, as they use the same logistical chains, infrastructure and financial systems as other wheatbelt producers. On the other, their farming practice—informed by a probiotic and more-than-human epistemology the Haggertys call “natural intelligence”—suggests a potential disruption to extractivist commodity agriculture in the wheatbelt and the hegemony of its technoscientific institutions. While regenerative farming at scale could be dismissed as a greener form of settler-colonial agriculture, this case study suggests, or at least creates space for, a cautious optimism that more diverse ways of knowing and doing food might be constructed from within the cracks of global supply chains and that new alliances might emerge from the ground up. © The Author(s) 2022.</t>
+        </is>
+      </c>
+      <c r="O268" t="inlineStr"/>
+      <c r="P268" t="inlineStr"/>
+      <c r="Q268" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Writing-the-Unwritable-Raveling-Worlds</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>Writing the Unwritable: Raveling Worlds</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>Vulcan, Julie</t>
+        </is>
+      </c>
+      <c r="D269" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E269" t="inlineStr">
+        <is>
+          <t>New Perspectives on Academic Writing: the Thing that Wouldn’t Die</t>
+        </is>
+      </c>
+      <c r="F269" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5040/9781350231665.ch-008</t>
+        </is>
+      </c>
+      <c r="G269" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H269" t="inlineStr"/>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
+      <c r="M269" t="inlineStr"/>
+      <c r="N269" t="inlineStr"/>
+      <c r="O269" t="inlineStr"/>
+      <c r="P269" t="inlineStr"/>
+      <c r="Q269" t="inlineStr"/>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Kumida-di-tera</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>Kumida di tera: food and care relationships in Cape Verde; [Kumida di tera: relações de cuidado e alimentação em Cabo Verde]</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>Velloso, Natalia; Ferreira, Vladmir</t>
+        </is>
+      </c>
+      <c r="D270" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E270" t="inlineStr">
+        <is>
+          <t>Sociologias</t>
+        </is>
+      </c>
+      <c r="F270" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1590/15174522-120601</t>
+        </is>
+      </c>
+      <c r="G270" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H270" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Kumida-di-tera.txt</t>
+        </is>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
+      <c r="M270" t="inlineStr"/>
+      <c r="N270" t="inlineStr">
+        <is>
+          <t>The article presents some reflections on how relationships involving cultivation of a community garden organized by young residents in the outskirts of the city of Praia challenge both historical processes of colonial agricultural production in Cape Verde, and the logic of modernizing development that marks contemporary understandings of food. Based on literature review and field research carried out in rural and urban contexts, the ethnographic notion of kumida di tera is taken as an expression that connects different insurgent food practices and knowledge, which are taken as references and reactivated through the relationships engendered in the community garden. Relationships that are considered here from the perspective of care, in the sense it has been conceived in contemporary sociology, as relationships that include aspects that have been neglected in the context of the dominant logics of food production and consumption. © 2022. Sociologias. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="O270" t="inlineStr"/>
+      <c r="P270" t="inlineStr"/>
+      <c r="Q270" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Beyond-burnout-culture</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr"/>
+      <c r="C271" t="inlineStr"/>
+      <c r="D271" t="inlineStr"/>
+      <c r="E271" t="inlineStr"/>
+      <c r="F271" t="inlineStr"/>
+      <c r="G271" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H271" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Beyond-burnout-culture.txt</t>
+        </is>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
+      <c r="M271" t="inlineStr"/>
+      <c r="N271" t="inlineStr"/>
+      <c r="O271" t="inlineStr"/>
+      <c r="P271" t="inlineStr"/>
+      <c r="Q271" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Dawn-of-the-lively-dead</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>Dawn of the lively dead: Living queerly with rot in the sustainable city</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>Shcheglovitova, Mariya</t>
+        </is>
+      </c>
+      <c r="D272" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E272" t="inlineStr">
+        <is>
+          <t>Social and Cultural Geography</t>
+        </is>
+      </c>
+      <c r="F272" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/14649365.2020.1861643</t>
+        </is>
+      </c>
+      <c r="G272" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H272" t="inlineStr"/>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
+      <c r="M272" t="inlineStr">
+        <is>
+          <t>Baltimore; Maryland; United States; knowledge based system; sustainable development; urban area; urban development</t>
+        </is>
+      </c>
+      <c r="N272" t="inlineStr">
+        <is>
+          <t>This paper presents stories of living with dead trees in Baltimore, MD, USA to explore where, how, and with whom tree remains become lively through art, farming, and sustainability practices. These stories serve as a lens into the diverse ways practitioners produce knowledge about death, healing, disease, and decay as they encounter and transform dead nonhuman bodies. I find that practitioners who work with dead trees develop a circular understanding of death, and propose that decay is needed to heal bodies and remediate land. However, when these everyday embodied knowledges are translated from the level of body to the city, death does not become lively for all. When circular ways of knowing death are applied to the city, death is displaced into vulnerable human and tree bodies showing that the sustainable city both relies on and (re)produces the binaries of life and death. As a contrast, practitioner knowledges of tree death suggest sustainabilities that trouble established notions of life and death, bodies and environments, health and disease, and decay and beauty. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O272" t="inlineStr"/>
+      <c r="P272" t="inlineStr"/>
+      <c r="Q272" t="inlineStr"/>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Long-term-sustainability-of-ecological-monitoring</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>Long-term sustainability of ecological monitoring: perspectives from the Multi-Agency Rocky Intertidal Network</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>Gilbane, Lisa; Ambrose, Richard F.; Burnaford, Jennifer L.; Helix, Mary Elaine; Miner, C. Melissa; Murray, Steven; Sullivan, Kathleen M.; Whitaker, Stephen G.</t>
+        </is>
+      </c>
+      <c r="D273" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E273" t="inlineStr">
+        <is>
+          <t>Partnerships in Marine Research: Case Studies, Lessons Learned, and Policy Implications</t>
+        </is>
+      </c>
+      <c r="F273" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/B978-0-323-90427-8.00007-1</t>
+        </is>
+      </c>
+      <c r="G273" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H273" t="inlineStr"/>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
+      <c r="M273" t="inlineStr"/>
+      <c r="N273" t="inlineStr">
+        <is>
+          <t>The Multi-Agency Rocky Intertidal Network (MARINe) is structured around a thoughtfully crafted set of sustainable practices, or culture of care, which includes equal partnership among its members and member organizations and a collaborative decision-making process. MARINe prioritizes the use of rigorous, standardized protocols, maintains a shared central database, and keeps costs low and consistent through a diversified funding approach. Because long-term sustainability was MARINe's goal from the beginning, every aspect of the program was established to ensure continuity. MARINe's founders understood the importance of long-term, continuous ecological data, and today this thirty-year-old network is invaluable for informing management decisions and alerting scientists to changing conditions in rocky shore habitats along the Pacific coast of North America. © 2022 Elsevier Inc. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O273" t="inlineStr"/>
+      <c r="P273" t="inlineStr"/>
+      <c r="Q273" t="inlineStr"/>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Futuring-a-world-without-disease</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>Futuring a world without disease: visualising the elimination of hepatitis C</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>Lancaster, Kari; Rhodes, Tim</t>
+        </is>
+      </c>
+      <c r="D274" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E274" t="inlineStr">
+        <is>
+          <t>Critical Public Health</t>
+        </is>
+      </c>
+      <c r="F274" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/09581596.2020.1787347</t>
+        </is>
+      </c>
+      <c r="G274" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H274" t="inlineStr"/>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
+      <c r="M274" t="inlineStr">
+        <is>
+          <t>Article; disease elimination; global disease burden; health care quality; hepatitis C; Hepatitis C virus; human; implementation science; leadership; nonhuman; virus hepatitis; World Health Organization</t>
+        </is>
+      </c>
+      <c r="N274" t="inlineStr">
+        <is>
+          <t>Informed by work on futurity in science and technology studies, we trace how global disease elimination targets perform a world without disease through their translations in visual advocacy campaigns. Treating disease elimination targets and their visualisations as performative, we take the case of hepatitis C elimination to interrogate how futuring practices in public health govern the present and make effects. We focus specifically on how World Health Organization targets in the Global Health Sector Strategy on Viral Hepatitis entangle with visual resources produced by the World Hepatitis Alliance NOhep advocacy campaign. Targets and their visual representations in campaigns perform a disease elimination future which is set apart from the present, and yet urges action in-the-now. It enacts global health citizens but separates them from localised experiences of living with, and being cured of, disease. This disease elimination future relies heavily on instrumental rationalities and logics of the present, including the privileging of biomedical technoscientific knowledge, implementation science and global health governance, to the exclusion of other matters of concern, flattening out complexity to perform its certain achievability. These enactments raise political questions about how disease elimination futures might be made in a different mode. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O274" t="inlineStr"/>
+      <c r="P274" t="inlineStr"/>
+      <c r="Q274" t="inlineStr"/>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>When-you-heal-the-soil-Environmental-racism</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>‘When you heal the soil…’: Environmental racism and socioecological repair in contemporary urban agriculture</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>Shostak, Sara</t>
+        </is>
+      </c>
+      <c r="D275" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E275" t="inlineStr">
+        <is>
+          <t>Environmental Sociology</t>
+        </is>
+      </c>
+      <c r="F275" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/23251042.2022.2073626</t>
+        </is>
+      </c>
+      <c r="G275" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H275" t="inlineStr"/>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
+      <c r="M275" t="inlineStr"/>
+      <c r="N275" t="inlineStr">
+        <is>
+          <t>Drawing on data from an ethnographic study of urban agriculture in Massachusetts, this paper investigates the multiple meanings of soil for contemporary urban farmers and gardeners. I first consider how urban farmers speak for and with the soil in their neighborhoods to call attention to historical and ongoing environmental racism. These narratives highlight how racialized social processes–including redlining, blockbusting, white flight and disinvestment–have harmed the health of both people and the environment in urban communities of color. I then describe how urban farmers and gardeners articulate the importance of soil for health and well-being, especially for people whose relationships with the earth have been disrupted by capitalism, colonialism and racism. These narratives draw on both scientific and spiritual frameworks to highlight the healing potential of re-establishing direct relationships with nature, reclaiming ancestral knowledge about the healing properties of plants, and reconnecting with the ancestors themselves. Analysis of these interlinked narratives contributes to an emerging cross-disciplinary scholarship on the situatedness of ways of conceptualizing and interacting with soils, calling attention especially to the role of racialized inequities in the creation of harmful soil materialities and the possibilities of socioecological repair. © 2022 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O275" t="inlineStr"/>
+      <c r="P275" t="inlineStr"/>
+      <c r="Q275" t="inlineStr"/>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Listening-with-the-subaltern</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>Listening-with the subaltern: Anthropocene, Pluriverse and more-than-human agency</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>Carvalho, António; Riquito, Mariana</t>
+        </is>
+      </c>
+      <c r="D276" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E276" t="inlineStr">
+        <is>
+          <t>Nordia Geographical Publications</t>
+        </is>
+      </c>
+      <c r="F276" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.30671/nordia.107404</t>
+        </is>
+      </c>
+      <c r="G276" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H276" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Listening-with-the-subaltern.txt</t>
+        </is>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
+      <c r="M276" t="inlineStr">
+        <is>
+          <t>Anthropocene; esthetics; lithium; mining; politics; wildfire</t>
+        </is>
+      </c>
+      <c r="N276" t="inlineStr">
+        <is>
+          <t>The Anthropocene brings to the fore the need to foster ontologies that reject the modern “one-world world” (Law 2015) model, characterized by extractivism, dualism and human exceptionalism, requiring the enactment of pluriverses (de la Cadena &amp; Blaser 2018) that recognize the heterogeneous clamor of human and non-human agency. As an attempt to listen-with those oppressed and silenced by the modern extractivist paradigm, in this paper, we propose the mobilization of relational, dialogic and non-dualistic methodologies that attend to subaltern and more-than-human worlds. Drawing on a variety of sources – such as the Parliament of Things, the Council of All Beings, the Pedagogy of the Oppressed, meditative and artistic practices –, our article speculatively engages with affective, situated, hybrid and counter-hegemonic methodologies that articulate contemplative practices, the arts, more-than-human agency and local communities, recognizing that politics, aesthetics and affect are intimately entwined. Our experimental endeavour is centred on three case studies that encapsulate some of the socio-political and technological tensions of our current zeitgeist – wildfires, geoengineering, and lithium mining –, speculating on how pluriversal methodologies can bring to the fore the many worlds silenced by the modern “one-world world”. © 2022 Geographical Society of Northern Finland. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O276" t="inlineStr"/>
+      <c r="P276" t="inlineStr"/>
+      <c r="Q276" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Seeds-of-change-Social-practices-of-urban-community-seed</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>Seeds of change? Social practices of urban community seed sharing initiatives for just transitions to sustainability</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>Davies, Anna R.; Rut, Monika; Feeney, Jane K.</t>
+        </is>
+      </c>
+      <c r="D277" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E277" t="inlineStr">
+        <is>
+          <t>Local Environment</t>
+        </is>
+      </c>
+      <c r="F277" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/13549839.2022.2077714</t>
+        </is>
+      </c>
+      <c r="G277" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H277" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Seeds-of-change-Social-practices-of-urban-community-seed.txt</t>
+        </is>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
+      <c r="M277" t="inlineStr">
+        <is>
+          <t>governance approach; sustainability; sustainable development; urban development; urban planning; urbanization</t>
+        </is>
+      </c>
+      <c r="N277" t="inlineStr">
+        <is>
+          <t>The sharing of seeds is a practice with ancient roots. However, the structures of global agri-food trade in late modernity have drastically reconfigured practices of exchange and reshaped matters of legal ownership, resulting in constrained access to seeds for many. Scholars and activists are increasingly concerned about the negative impacts these changes are having from a justice and sustainability perspective. To date, seed sharing research has predominantly occurred as one element of wider seed sovereignty debates, and particularly in relation to farmers in low- and middle-income countries. Seed sharing beyond these contexts has received limited attention. To broaden understanding of seed sharing and its diverse practices, this paper provides a foundational landscape level analysis of urban community seed sharing initiatives from 100 urban locations globally. It outlines the rules, tools, skills and understandings that shape seed sharing practices and teases out commonalities with, and differences between, these urban activities and those that currently dominate the landscape of seed sharing research. In conclusion, further research is proposed to build on these foundations and establish the contributions, actual and potential, that urban seed sharing provides for just transitions to more sustainable urban food systems. © 2022 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O277" t="inlineStr"/>
+      <c r="P277" t="inlineStr"/>
+      <c r="Q277" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Worlds-of-Gray-and-Green-Mineral-Extraction</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Worlds of Gray and Green Mineral Extraction as Ecological Practice</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>Ureta, Sebastián; Flores, Patricio</t>
+        </is>
+      </c>
+      <c r="D278" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E278" t="inlineStr">
+        <is>
+          <t>Worlds of Gray and Green Mineral Extraction as Ecological Practice</t>
+        </is>
+      </c>
+      <c r="F278" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85136869257&amp;partnerID=40&amp;md5=fd66598f469481c0ef8cd772c2423934</t>
+        </is>
+      </c>
+      <c r="G278" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H278" t="inlineStr"/>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
+      <c r="M278" t="inlineStr"/>
+      <c r="N278" t="inlineStr">
+        <is>
+          <t>The Anthropocene has arrived riding a wave of pollution. From "forever chemicals" to oceanic garbage patches, human-made chemical compounds are seemingly everywhere. Concerned about how these compounds disrupt multiple lives and ecologies, environmental scholars, activists, and affected communities have sought to curb the causes of pollution, focusing especially on the extractive industries. In Worlds of Gray and Green, authors Sebastián Ureta and Patricio Flores challenge us to rethink extraction as ecological practice. Adopting an environmental humanities analytic lens, Ureta and Flores offer a rich ethnographic exploration of the waste produced by Chile's El Teniente, the world's largest underground mine. Deposited in a massive dam, the waste—known as tailings—engages with human and non-human entities in multiple ways through a process the authors call geosymbiosis. Some of these geosymbioses result in toxicity and damage, while others become the basis of lively novel ecologies. A particular kind of power emerges in the process, one that is radically indifferent to human beings but that affects them in many ways. Learning to live with geosymbioses offers a tentative path forward amid ongoing environmental devastation.  © 2022 by Sebastián Ureta &amp; Patricio Flores.</t>
+        </is>
+      </c>
+      <c r="O278" t="inlineStr"/>
+      <c r="P278" t="inlineStr"/>
+      <c r="Q278" t="inlineStr"/>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>THE-CARING-CITY</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>THE CARING CITY: Ethics of Urban Design</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>Davis, Juliet</t>
+        </is>
+      </c>
+      <c r="D279" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E279" t="inlineStr">
+        <is>
+          <t>The Caring City: Ethics of Urban Design</t>
+        </is>
+      </c>
+      <c r="F279" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.51952/9781529201222</t>
+        </is>
+      </c>
+      <c r="G279" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H279" t="inlineStr"/>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
+      <c r="M279" t="inlineStr">
+        <is>
+          <t>Design; Natural environment; Built environment; Case-studies; City-making; Environment; Urban design; Urban planners; Urban studies; Wellbeing; Urban growth</t>
+        </is>
+      </c>
+      <c r="N279" t="inlineStr">
+        <is>
+          <t>In this important contribution to urban studies, Juliet Davis makes the case for a more ethical and humane approach to city development and management. With a range of illustrative case studies, the book challenges the conventional and neoliberal thinking of urban planners and academics, and explores new ways to correct problems of inequality and exclusion. It shows how a philosophy of caring can improve both city environments and communities. This is an original and powerful theory of urban care that can promote the wellbeing of our cities' many inhabitants. © Bristol University Press 2022.</t>
+        </is>
+      </c>
+      <c r="O279" t="inlineStr"/>
+      <c r="P279" t="inlineStr"/>
+      <c r="Q279" t="inlineStr"/>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>MORE-POSTHUMAN-GLOSSARY</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>MORE POSTHUMAN GLOSSARY</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>Jones, Emily; Klumbytė, Goda; Braidotti, Rosi</t>
+        </is>
+      </c>
+      <c r="D280" t="inlineStr">
+        <is>
+          <t>2022</t>
+        </is>
+      </c>
+      <c r="E280" t="inlineStr">
+        <is>
+          <t>More Posthuman Glossary</t>
+        </is>
+      </c>
+      <c r="F280" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85188395551&amp;partnerID=40&amp;md5=ce326f6cb0dd5ae4b0cd3bea257cd76c</t>
+        </is>
+      </c>
+      <c r="G280" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H280" t="inlineStr"/>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
+      <c r="M280" t="inlineStr"/>
+      <c r="N280" t="inlineStr">
+        <is>
+          <t>The notion of the posthuman continues to both intrigue and confuse, not least because of the huge number of ideas, theories and figures associated with this term. More Posthuman Glossary provides a way in to the dizzying array of posthuman concepts, providing vivid accounts of emerging terms. It is much more than a series of definitions, however, in that it seeks to imagine and predict what new terms might come into being as this exciting field continues to expand. A follow-up volume to the brilliant interventions of Posthuman Glossary (2018), this book extends and elaborates on that work, particularly focusing on concepts of race, indigeneity and new ideas in radical ecology. It also includes new and emerging voices within the new humanities and multiple modes of communicating ideas. This is an indispensible glossary for those who are exploring what the non-human, inhuman and posthuman might mean in the 21st century. © Natascha Unkart, 2019 "Untitled (Salvaged)". All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O280" t="inlineStr"/>
+      <c r="P280" t="inlineStr"/>
+      <c r="Q280" t="inlineStr"/>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Identifying-barriers-to-routine-soil-testing</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>Identifying barriers to routine soil testing within beef and sheep farming systems</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>Rhymes, Jennifer M.; Wynne-Jones, Sophie; Prysor Williams, A.; Harris, Ian M.; Rose, Duncan; Chadwick, David R.; Jones, David L.</t>
+        </is>
+      </c>
+      <c r="D281" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E281" t="inlineStr">
+        <is>
+          <t>Geoderma</t>
+        </is>
+      </c>
+      <c r="F281" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.geoderma.2021.115298</t>
+        </is>
+      </c>
+      <c r="G281" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H281" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Identifying-barriers-to-routine-soil-testing.txt</t>
+        </is>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
+      <c r="M281" t="inlineStr">
+        <is>
+          <t>Agriculture; Nutrients; Planning; Soil testing; Soils; Statistical tests; Surveys; Adoption; Economic and environmental benefits; Farmer decision making; Farming system; Nutrient management planning; Sheep farmers; Sheep farming; Soil indexes; Soil-tests; Sustainable Farming; Decision making</t>
+        </is>
+      </c>
+      <c r="N281" t="inlineStr">
+        <is>
+          <t>Soil testing in agriculture is associated with many economic and environmental benefits. However, previous studies have shown that a significant proportion of beef and sheep farmers in the UK do not carry out standard soil index testing (pH, available Mg, P and K); with much fewer again carrying out more extensive soil tests (e.g., organic matter, micronutrients). This study identifies barriers and motivations to soil testing amongst the beef and sheep sector, using a combination of farmer surveys, expert interviews, and a 5-year soil testing dataset from the largest commercial UK soil testing laboratory. Evidence for differences in the adoption of soil tests by beef and sheep farmers compared to the arable and dairy sectors is explained in relation to: (1) the extent of soil pH and nutrient imbalances, linking to the intensity of management in the different sectors; and (2) the extent to which farmers perceive links between their soils and their outputs (profits, yield, livestock health). We show a greater likelihood for farmers to engage with soil testing when the links to declining outputs are clearer. Our results showed that beef and sheep farmers who did engage with soil testing showed greater levels of innovation and were more likely to seek advisory support, most often associated with larger farm sizes. Our data also highlights the importance of an output-driven approach to initiate an interest in soil analyses amongst less engaged farmers. We argue that this avenue offers greater potential for enhancement of farmers’ knowledge of the soil system than a primarily regulatory-driven approach, where soil testing becomes a compulsory action but does not lead to subsequent improvements in farm management. © 2021 Elsevier B.V.</t>
+        </is>
+      </c>
+      <c r="O281" t="inlineStr"/>
+      <c r="P281" t="inlineStr"/>
+      <c r="Q281" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Addressing-digital-diversity</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Addressing digital diversity: Care matters in vulnerable digital relations in a Swedish library context</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>Sefyrin, Johanna; Gustafsson, Mariana; Wihlborg, Elin</t>
+        </is>
+      </c>
+      <c r="D282" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E282" t="inlineStr">
+        <is>
+          <t>Science and Public Policy</t>
+        </is>
+      </c>
+      <c r="F282" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1093/scipol/scab048</t>
+        </is>
+      </c>
+      <c r="G282" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H282" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Addressing-digital-diversity.txt</t>
+        </is>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
+      <c r="M282" t="inlineStr">
+        <is>
+          <t>Sweden; technological development; vulnerability</t>
+        </is>
+      </c>
+      <c r="N282" t="inlineStr">
+        <is>
+          <t>As societies become increasingly digitalized, the requirements for inclusion continuously increase. In a Swedish public, municipal, library context, it is common that individuals who face difficulties related to digital technologies come and ask for help. In this paper, we explore care in relations constituted by individuals and digital technologies and analyze how care matters for digital inclusion. It builds on field studies in a Swedish library context and includes qualitative interviews, focus groups, and observations of employees working to support individuals with digital needs. In order to analyze the material, we apply the concept of care. In the concluding discussion, we argue first for viewing individuals as sociomaterial entanglements of relations constituted by humans and non-humans, second that these sociomaterial entangled relations are vulnerable, shifting, and fluid, rather than stable, and third that these relations are in constant need of care.  © 2021 The Author(s). Published by Oxford University Press. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O282" t="inlineStr"/>
+      <c r="P282" t="inlineStr"/>
+      <c r="Q282" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Laundry-power-and-care</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Laundry power and care: Relational materialism, temporalities and spatialisation of communal laundering</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>Glad, Wiktoria</t>
+        </is>
+      </c>
+      <c r="D283" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E283" t="inlineStr">
+        <is>
+          <t>Geoforum</t>
+        </is>
+      </c>
+      <c r="F283" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.geoforum.2021.10.019</t>
+        </is>
+      </c>
+      <c r="G283" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H283" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Laundry-power-and-care.txt</t>
+        </is>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
+      <c r="M283" t="inlineStr">
+        <is>
+          <t>Sweden; accessibility; conceptual framework; decision making; infrastructure; location theory; rental sector; sanitation; social inclusion; spatial analysis; theoretical study</t>
+        </is>
+      </c>
+      <c r="N283" t="inlineStr">
+        <is>
+          <t>Laundering activities enact a range of socio-material relations and spatialisation of infrastructures such as provision of machines, water, energy, laundry and lately digitalisation. Drawing on a case study on communal laundry facilities in Sweden, this paper focuses on socio-material relations and explores laundry practices in Swedish rental housing, aiming for a theoretical contribution in the field of care, which could incorporate spatial and temporal aspects to be more inclusive. Theoretically based in topologies of power, with sensitivity to processes of spatialisation and temporalities, the analyses show how decisions about design, space and technologies influence everyday life of tenants. The paper illuminates how availability and access to laundry facilities were conformed and individualised to reach expected standards. Laundry spaces were subject to digitalisation and automation technologies introduced to meet efficiency and environmental demands and handle perceived problematic tenant practices. Conclusions are that relational materialism in the field of care and scripting processes would benefit from explicitly including theoretical thinking about space and temporality, conceptualised as choreography. The approach “thinking with care” brought backgrounded laundering phenomena to the fore and pointed out laundering as a matter we should care about. Digitalisation and automation facilitated control of shared laundry spaces and ambitions to individualise laundry made private spaces, such as bathrooms, more attractive to host laundering activities but backgrounded social dimensions of communal laundering. © 2021 The Author</t>
+        </is>
+      </c>
+      <c r="O283" t="inlineStr"/>
+      <c r="P283" t="inlineStr"/>
+      <c r="Q283" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Seeing-copiaposols-anthropogenic-soils</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Seeing copiapósols: anthropogenic soils, strategic unknowing, and emergent taxonomies in northern Chile</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>Ureta, Sebastián; Otaegui, Alvaro</t>
+        </is>
+      </c>
+      <c r="D284" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E284" t="inlineStr">
+        <is>
+          <t>Agriculture and Human Values</t>
+        </is>
+      </c>
+      <c r="F284" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10460-021-10191-4</t>
+        </is>
+      </c>
+      <c r="G284" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H284" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Seeing-copiaposols-anthropogenic-soils.txt</t>
+        </is>
+      </c>
+      <c r="I284" t="inlineStr"/>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
+      <c r="M284" t="inlineStr"/>
+      <c r="N284" t="inlineStr">
+        <is>
+          <t>In recent decades, anthropogenic soils have become so ubiquitous that for some authors they should be taken as the “golden spike” signaling the start of the Anthropocene. Despite their prominence, leading soil taxonomies have resisted calls to recognize them as a proper kind of soil. Such omission has importantly limited the ways in which soil practitioners can account and deal with the sociopolitical aspects embedded in soil formation. Approaching the issue from a sociomaterial perspective, this paper studies the effects of such omission on the work of soil scientists working in northern Chile. By contrasting their usage of the USDA/NRCS soil typology with the realities found in the field, the work of strategic unknowing that such typologies achieve becomes evident. To challenge such situation, the paper concludes exploring the notion of emergent taxonomies, classifications that are sensitive to local configurations of materials, living beings and power out which soils emerge. © 2021, The Author(s), under exclusive licence to Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="O284" t="inlineStr"/>
+      <c r="P284" t="inlineStr"/>
+      <c r="Q284" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>Good-farming-as-surviving-well-in-rural-Australia</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>Good farming as surviving well in rural Australia</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>Larder, Nicolette</t>
+        </is>
+      </c>
+      <c r="D285" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E285" t="inlineStr">
+        <is>
+          <t>Journal of Rural Studies</t>
+        </is>
+      </c>
+      <c r="F285" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jrurstud.2021.10.014</t>
+        </is>
+      </c>
+      <c r="G285" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H285" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Good-farming-as-surviving-well-in-rural-Australia.txt</t>
+        </is>
+      </c>
+      <c r="I285" t="inlineStr"/>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
+      <c r="M285" t="inlineStr">
+        <is>
+          <t>Australia; agricultural development; agricultural policy; alternative agriculture; farming system; food production; rural area</t>
+        </is>
+      </c>
+      <c r="N285" t="inlineStr">
+        <is>
+          <t>Agriculture policies in Australia have long encouraged productivist agriculture that aims to maximise yields through intensive production. Many have argued Australian farmers are trapped on the productivist treadmill as a result and there is evidence of an Australian farming culture where productivism is internalised as the standard of good farming. In this paper, I share the stories and experiences of commercial farmers in two regions of rural Australia who view good farming as production that moves them away from extractive productivism and towards a way of producing food that lets them and their non-human counterparts survive well. © 2021</t>
+        </is>
+      </c>
+      <c r="O285" t="inlineStr"/>
+      <c r="P285" t="inlineStr"/>
+      <c r="Q285" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Stepping-into-STS-literature</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr"/>
+      <c r="C286" t="inlineStr"/>
+      <c r="D286" t="inlineStr"/>
+      <c r="E286" t="inlineStr"/>
+      <c r="F286" t="inlineStr"/>
+      <c r="G286" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H286" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Stepping-into-STS-literature.txt</t>
+        </is>
+      </c>
+      <c r="I286" t="inlineStr"/>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
+      <c r="M286" t="inlineStr"/>
+      <c r="N286" t="inlineStr"/>
+      <c r="O286" t="inlineStr"/>
+      <c r="P286" t="inlineStr"/>
+      <c r="Q286" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Hocus-pocus-spirituality-and-soil-care-in-biodynamic-agriculture</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>Hocus pocus? Spirituality and soil care in biodynamic agriculture</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>Pigott, Anna</t>
+        </is>
+      </c>
+      <c r="D287" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E287" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F287" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/2514848620970924</t>
+        </is>
+      </c>
+      <c r="G287" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H287" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Hocus-pocus-spirituality-and-soil-care-in-biodynamic-agriculture.txt</t>
+        </is>
+      </c>
+      <c r="I287" t="inlineStr"/>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
+      <c r="M287" t="inlineStr"/>
+      <c r="N287" t="inlineStr">
+        <is>
+          <t>In this article, I participate in efforts to re-imagine soils as lively, complex, more-than-human ecologies, by turning to the largely sidestepped subject of spirituality in agriculture. Spiritual knowledge practices rarely sit comfortably alongside technoscientific, productivist accounts of soil health, and yet they can re-configure how soils are conceptualised and managed, with implications for relationships of care. Drawing on an extended period of learning with a Community Supported Agriculture project in south Wales, the article explores how care is cultivated through a non-conventional method of farming known as biodynamics, which incorporates astrological and spiritual principles. I suggest that biodynamic narratives and rituals encourage attentiveness to more-than-human agency and energy, to depth (not only underground but also above-ground influences of the air and celestial bodies), and to reciprocity between soil biota and humans. Biodynamic practices also make space for mystery, thereby resisting drives to measure and map, and offering possibilities for disrupting anthropocentric approaches to soil care. However, the example presented here also highlights how, despite biodynamic’s growing popularity, its spiritual elements have a tendency to be kept quiet, their presence sidelined by more familiar, secular, narratives. Nonetheless, I contend that if effective soil care demands more diverse knowledge practices than those that are currently obliterating critical soil communities at an alarming rate, then there can be much to learn from a touch of magic. © The Author(s) 2020.</t>
+        </is>
+      </c>
+      <c r="O287" t="inlineStr"/>
+      <c r="P287" t="inlineStr"/>
+      <c r="Q287" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Legibility-and-the-Legacy-of-Racialized-Dispossession</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Legibility and the Legacy of Racialized Dispossession in Digital Agriculture</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>Liu, Jen; Sengers, Phoebe</t>
+        </is>
+      </c>
+      <c r="D288" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E288" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="F288" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3479867</t>
+        </is>
+      </c>
+      <c r="G288" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H288" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Legibility-and-the-Legacy-of-Racialized-Dispossession.txt</t>
+        </is>
+      </c>
+      <c r="I288" t="inlineStr"/>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
+      <c r="M288" t="inlineStr">
+        <is>
+          <t>Agricultural robots; Agricultural technologies; Agriculture systems; Data driven; Data-driven model; Design of data-driven system; Digital agriculture; Digital system; Driven system; Race in agriculture; Rural computing; Agriculture</t>
+        </is>
+      </c>
+      <c r="N288" t="inlineStr">
+        <is>
+          <t>This paper examines the causes and consequences of legibility as an organizing principle in the design of digital agriculture (DA) systems in the United States. Legibility refers to systems of governance that use simplified understandings of a situation to control and direct action upon it. Legibility in digital agriculture systems occurs at the confluence of two traditions of legibility: the data-driven model common in the design of digital systems, and tactics for the control of nature and labor that have developed in the United States since the foundation of the colonies. Our argument draws from (1) a historical analysis of broader patterns of agricultural technology and racialized land dispossession in what is now the United States and (2) empirical fieldwork that examines the adoption and maintenance of digital agriculture systems in rural New York State. We describe the role that legibility historically has played in the development of agricultural systems in the US, and their consequences for who is able to farm and how. This history raises the questions: What is made legible to whom? In that process, what becomes illegible? While legibility promises transparent and environmentally beneficial control, in our fieldwork we find that the demands of legibility are also restructuring the physical landscape, creating additional invisible labor, producing systems that are brittle to real-world conditions on farms, and creating opaque systems that block people from adapting to their circumstances. In reading our fieldwork together with the historical case, we demonstrate the pressures that are shaping the stakes, subject, and objects of legibility in agricultural technology. As more data-driven systems are used for environmental contexts, the CSCW community needs to extend its ways to understand how data-driven systems impact land, labor, and resources.  © 2021 ACM.</t>
+        </is>
+      </c>
+      <c r="O288" t="inlineStr"/>
+      <c r="P288" t="inlineStr"/>
+      <c r="Q288" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>what-is-the-Topic-of-the-Group-Please-on-Migration-Care-and-the-Challenges-of-Participation-in-Design</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>"what is the Topic of the Group, Please?" on Migration, Care and the Challenges of Participation in Design</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>Krüger, Max; Weibert, Anne; De Castro Leal, Debora; Randall, Dave; Wulf, Volker</t>
+        </is>
+      </c>
+      <c r="D289" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E289" t="inlineStr">
+        <is>
+          <t>Proceedings of the ACM on Human-Computer Interaction</t>
+        </is>
+      </c>
+      <c r="F289" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3476050</t>
+        </is>
+      </c>
+      <c r="G289" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H289" t="inlineStr"/>
+      <c r="I289" t="inlineStr"/>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
+      <c r="M289" t="inlineStr">
+        <is>
+          <t>Co-designs; Host countries; Matter of care; Migration; New hosts; Number of peoples; Participation; Participatory design; Refugee; Regional conflict; Project management</t>
+        </is>
+      </c>
+      <c r="N289" t="inlineStr">
+        <is>
+          <t>An increasing number of people around the world are forced to leave their homes due to the climate catastrophe, regional conflict or poverty. In their new host countries however, refugees and migrants are frequently met by a wide range of challenges, including wider societal participation. The difficulties migrants and refugees face have also increasingly become the topic of HCI and CSCW work. In this paper we report on a three year-long project, involving refugees, migrants and activist supporters in a co-design project to develop tools that aid the process of resettling. Several aspects have challenged equal participation in the project, including divergent motives, unequal power distribution and cultural heterogeneity. Despite these challenges the project outcomes are in use and maintained beyond the project runtime through voluntary actors. We reflect on this discrepancy between process and outcome drawing on the concept of care.  © 2021 ACM.</t>
+        </is>
+      </c>
+      <c r="O289" t="inlineStr"/>
+      <c r="P289" t="inlineStr"/>
+      <c r="Q289" t="inlineStr"/>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Soil-territory-land-the-spatial-politics-of-settler-organic-farming-in-the-west-bank-israel</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Soil, territory, land: The spatial politics of settler organic farming in the West Bank, Israel/Palestine</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>Grosglik, Rafi; Handel, Ariel; Monterescu, Daniel</t>
+        </is>
+      </c>
+      <c r="D290" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E290" t="inlineStr">
+        <is>
+          <t>Environment and Planning D: Society and Space</t>
+        </is>
+      </c>
+      <c r="F290" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/02637758211041121</t>
+        </is>
+      </c>
+      <c r="G290" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H290" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-territory-land-the-spatial-politics-of-settler-organic-farming-in-the-west-bank-israel.txt</t>
+        </is>
+      </c>
+      <c r="I290" t="inlineStr"/>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
+      <c r="M290" t="inlineStr">
+        <is>
+          <t>Israel; Occupied Territories; Palestine; West Bank; colonialism; indigenous population; national identity; organic farming; political economy; political geography; sovereignty; spatial analysis; territorial delimitation</t>
+        </is>
+      </c>
+      <c r="N290" t="inlineStr">
+        <is>
+          <t>In settler colonial settings, agriculture is a means of reclaiming territorial sovereignty and indigenous identity. Turning attention to the Jewish settlers in the West Bank and their multiple uses and abuses of organic farming, this article explores epistemic and political spatial operations on the colonial frontier. Applying a relational conceptualization of three spatial modalities—soil, territory, and land—we explore the ways in which these modalities serve as political apparatuses: Soil designates the romantic perception of cultivable space, territory is concerned with borders and political sovereignty, and land is seen as a space of economic value and as a means of production. While agriculture is a well-known instrument of expansion and dispossession, organic farming contributes to the colonial operation by binding together affective attachment to the place, and new economic singularity in relation to environmental and ethical claims. We argue that organic farming practices converge claims for local authenticity, spatial appropriation, and high economic values that are embedded in what we term the colonial quality turn. Ultimately, organic farming in the West Bank normalizes the inherent violence of the colonial project and strengthens the settlers’ claim for political privilege. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O290" t="inlineStr"/>
+      <c r="P290" t="inlineStr"/>
+      <c r="Q290" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Care-in-dairy-farming-with-automatic-milking-systems</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>Care in dairy farming with automatic milking systems, identified using an Activity Theory lens</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>Lundström, Christina; Lindblom, Jessica</t>
+        </is>
+      </c>
+      <c r="D291" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E291" t="inlineStr">
+        <is>
+          <t>Journal of Rural Studies</t>
+        </is>
+      </c>
+      <c r="F291" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jrurstud.2021.09.006</t>
+        </is>
+      </c>
+      <c r="G291" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H291" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Care-in-dairy-farming-with-automatic-milking-systems.txt</t>
+        </is>
+      </c>
+      <c r="I291" t="inlineStr"/>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
+      <c r="M291" t="inlineStr">
+        <is>
+          <t>Sweden; dairy farming; machine learning; milk production; smallholder</t>
+        </is>
+      </c>
+      <c r="N291" t="inlineStr">
+        <is>
+          <t>Context: In Sweden, 34% of herds in official statistics 2021 (77% of the cows) have an automatic milking system (AMS) and keep 19% of the dairy cows. Objective: This study should be considered in relation to the rapid increase of digitalisation in agriculture. It aimed at investigating Swedish farmers’ experiences and reflections in dairy farming concerning AMS use from a care perspective, based on two research questions: 1) What kinds of success factors and management challenges do farmers experience with AMS usage? and 2) How do farmers view their work environment in this kind of system? Methods: A mixed method approach was performed, using method triangulation through a questionnaire, interviews, and field visits. The Activity Theory (AT) was used as a theoretical lens to consider care practice in the dairy farming as a learning system. Results: AND CONCLUSIONS: Participating dairy farmers were found to be in a continuous learning process on different levels in their system, from detailed problems with an individual cow or the herd to the whole dairy system. Implementation of AMS required learning in order to manage, and thus care for, a system comprising of animals, technology, and humans, to increase business viability. In successful AMS use, willingness to learn, adapt to the local situation, and continually improve practice, or care as a patterning of activities, appeared to be the most important factors. With more people involved, differentiations were possible, which in turn accentuated the need for more trained staff who can perform more complicated tasks. The findings indicated high importance of experience and a ‘stockperson's eye’, in combination with tool-mediated seeing using data from the robot, in developing enhanced professional vision and good care. A good stockperson had broad competence combining a stockperson's eye with experience with robot data. One of the greatest challenges for dairy farms was finding a good stockperson as staff or advisor. Increased flexibility in work and better physical health were important driving forces for implementing AMS, while handling alarms was mentally stressful and gave different perspectives on AMS vulnerability. Overall, the analysis of the collected data showed that AMS had brought major, primarily positive, changes in daily work and increased work satisfaction for most farmers, with a clear majority of the respondents feeling good in their work situation and enjoying their work. Significance: Application of AT in studying AMS from a care perspective, represents a shift from traditional research that normally addresses technological inventions, to studying farmers’ socio-technical system. The AT lens revealed the work practices in performing care, as a patterning of activities accomplished by a tinkering learning process, in the rich and messy matrix of humans, cows, and technology. © 2021 The Authors</t>
+        </is>
+      </c>
+      <c r="O291" t="inlineStr"/>
+      <c r="P291" t="inlineStr"/>
+      <c r="Q291" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>the-role-of-soils-in-learning-and-inspiration-physical-and-psychological-experiences-and-in-supporting</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr"/>
+      <c r="C292" t="inlineStr"/>
+      <c r="D292" t="inlineStr"/>
+      <c r="E292" t="inlineStr"/>
+      <c r="F292" t="inlineStr"/>
+      <c r="G292" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H292" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\the-role-of-soils-in-learning-and-inspiration-physical-and-psychological-experiences-and-in-supporting.txt</t>
+        </is>
+      </c>
+      <c r="I292" t="inlineStr"/>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
+      <c r="M292" t="inlineStr"/>
+      <c r="N292" t="inlineStr"/>
+      <c r="O292" t="inlineStr"/>
+      <c r="P292" t="inlineStr"/>
+      <c r="Q292" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>emplaced-care-and-atmospheric-politics-in-unbreathable-worlds</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr"/>
+      <c r="C293" t="inlineStr"/>
+      <c r="D293" t="inlineStr"/>
+      <c r="E293" t="inlineStr"/>
+      <c r="F293" t="inlineStr"/>
+      <c r="G293" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H293" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\emplaced-care-and-atmospheric-politics-in-unbreathable-worlds.txt</t>
+        </is>
+      </c>
+      <c r="I293" t="inlineStr"/>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
+      <c r="M293" t="inlineStr"/>
+      <c r="N293" t="inlineStr"/>
+      <c r="O293" t="inlineStr"/>
+      <c r="P293" t="inlineStr"/>
+      <c r="Q293" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Microbial-antagonism-in-the-trentino-alps-negotiating-spacetimes-and-ownership</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr"/>
+      <c r="C294" t="inlineStr"/>
+      <c r="D294" t="inlineStr"/>
+      <c r="E294" t="inlineStr"/>
+      <c r="F294" t="inlineStr"/>
+      <c r="G294" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H294" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Microbial-antagonism-in-the-trentino-alps-negotiating-spacetimes-and-ownership.txt</t>
+        </is>
+      </c>
+      <c r="I294" t="inlineStr"/>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
+      <c r="M294" t="inlineStr"/>
+      <c r="N294" t="inlineStr"/>
+      <c r="O294" t="inlineStr"/>
+      <c r="P294" t="inlineStr"/>
+      <c r="Q294" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q294"/>
+  <dimension ref="A1:Q324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20479,11 +20479,31 @@
           <t>the-role-of-soils-in-learning-and-inspiration-physical-and-psychological-experiences-and-in-supporting</t>
         </is>
       </c>
-      <c r="B292" t="inlineStr"/>
-      <c r="C292" t="inlineStr"/>
-      <c r="D292" t="inlineStr"/>
-      <c r="E292" t="inlineStr"/>
-      <c r="F292" t="inlineStr"/>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>The role of soils in learning and inspiration, physical and psychological experiences, and in supporting identities</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>McElwee, Pamela</t>
+        </is>
+      </c>
+      <c r="D292" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E292" t="inlineStr">
+        <is>
+          <t>Philosophical Transactions of the Royal Society B: Biological Sciences</t>
+        </is>
+      </c>
+      <c r="F292" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1098/rstb.2020.0184</t>
+        </is>
+      </c>
       <c r="G292" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
@@ -20498,8 +20518,16 @@
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
       <c r="L292" t="inlineStr"/>
-      <c r="M292" t="inlineStr"/>
-      <c r="N292" t="inlineStr"/>
+      <c r="M292" t="inlineStr">
+        <is>
+          <t>Art; Conservation of Natural Resources; Cultural Characteristics; Environment; Gardening; Humans; Recreation; Religion; Social Justice; Soil; anthropogenic effect; social justice; soil analysis; soil ecosystem; art; cultural factor; environment; environmental protection; gardening; human; psychology; recreation; religion; social justice; soil</t>
+        </is>
+      </c>
+      <c r="N292" t="inlineStr">
+        <is>
+          <t>This paper reviews the literature on soil and nature's contributions to people (NCP) around learning and inspiration, physical and psychological experiences, and supporting identities, revealing a range of relationships to imagining, understanding and experiencing soil. Often labelled elsewhere as 'cultural ecosystem services', these NCP provide a range of benefits that are mostly non-material, non-consumptive and intangible. The review finds that NCP framings help to highlight how soils have contributed to inspiring learning and creative works, like art; to mental and physical health benefits, such as through recreation and gardening; and to cultural identities and practices, including religious practices and efforts for social justice. Overall, soils have played a large role in human creative endeavours, are the root of significant relationships to the environment and can be conceptualized through key metaphors, ideas and theory as a bridge linking culture and nature together. Yet despite the wide-ranging contributions of soils to these NCP, the literature remains uneven and much more remains to be understood, including how relational values of care and stewardship with soils can be fostered and how attention to the co-produced 'biosocial' nature of soil can help improve practices for soil health. This article is part of the theme issue 'The role of soils in delivering Nature's Contributions to People'. © 2021 The Author(s).</t>
+        </is>
+      </c>
       <c r="O292" t="inlineStr"/>
       <c r="P292" t="inlineStr"/>
       <c r="Q292" t="inlineStr">
@@ -20514,11 +20542,31 @@
           <t>emplaced-care-and-atmospheric-politics-in-unbreathable-worlds</t>
         </is>
       </c>
-      <c r="B293" t="inlineStr"/>
-      <c r="C293" t="inlineStr"/>
-      <c r="D293" t="inlineStr"/>
-      <c r="E293" t="inlineStr"/>
-      <c r="F293" t="inlineStr"/>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Emplaced care and atmospheric politics in unbreathable worlds</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>Kenner, Alison</t>
+        </is>
+      </c>
+      <c r="D293" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E293" t="inlineStr">
+        <is>
+          <t>Environment and Planning C: Politics and Space</t>
+        </is>
+      </c>
+      <c r="F293" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/2399654419851347</t>
+        </is>
+      </c>
       <c r="G293" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
@@ -20533,8 +20581,16 @@
       <c r="J293" t="inlineStr"/>
       <c r="K293" t="inlineStr"/>
       <c r="L293" t="inlineStr"/>
-      <c r="M293" t="inlineStr"/>
-      <c r="N293" t="inlineStr"/>
+      <c r="M293" t="inlineStr">
+        <is>
+          <t>United States; asthma; environmental politics; pathology; theoretical study</t>
+        </is>
+      </c>
+      <c r="N293" t="inlineStr">
+        <is>
+          <t>This paper contributes to emerging theories of unbreathable space by showing how breathers with asthma engage environments and atmospheres as the substrate of their everyday lives. Drawing on in-depth interviews with more than 80 asthma sufferers living in the United States, I show how nonpharmaceutical care practices are used to breathe in place. First, I argue that attunement operates as a labor of care that engages with and creates the substrate of everyday life. Next, I describe a range of emplacement tactics that breathers use to navigate atmospheres and environments that are potentially risky, or that immediately produce asthma symptoms. Emplaced care involves situating oneself in ways that protect the breathing body within the sociomaterial spaces of everyday life. Finally, people with asthma are orientated differently than other breathers who may share the same atmosphere, but are not pathologically sensitized to it. These narratives of asthma care lend insight into emergent atmospheric politics by showing how differently attuned breathers care through environments by isolating, distancing, and barricading themselves from the world and others. © The Author(s) 2019.</t>
+        </is>
+      </c>
       <c r="O293" t="inlineStr"/>
       <c r="P293" t="inlineStr"/>
       <c r="Q293" t="inlineStr">
@@ -20549,11 +20605,31 @@
           <t>Microbial-antagonism-in-the-trentino-alps-negotiating-spacetimes-and-ownership</t>
         </is>
       </c>
-      <c r="B294" t="inlineStr"/>
-      <c r="C294" t="inlineStr"/>
-      <c r="D294" t="inlineStr"/>
-      <c r="E294" t="inlineStr"/>
-      <c r="F294" t="inlineStr"/>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Microbial antagonism in the trentino alps negotiating spacetimes and ownership through the production of raw milk cheese in alpine high mountain summer pastures</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>Raffaetà, Roberta</t>
+        </is>
+      </c>
+      <c r="D294" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E294" t="inlineStr">
+        <is>
+          <t>Current Anthropology</t>
+        </is>
+      </c>
+      <c r="F294" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1086/714348</t>
+        </is>
+      </c>
       <c r="G294" t="inlineStr">
         <is>
           <t>snowballing Making-time-for-soil</t>
@@ -20569,7 +20645,11 @@
       <c r="K294" t="inlineStr"/>
       <c r="L294" t="inlineStr"/>
       <c r="M294" t="inlineStr"/>
-      <c r="N294" t="inlineStr"/>
+      <c r="N294" t="inlineStr">
+        <is>
+          <t>In this paper I analyze fermentation practices in the production of cheese in Alpine high mountain summer pastures and their connection to politics of space, heritage, and ownership in times of ecological, social, scientific, and economic transition. In the Trentino Alps, fermentation is a technology for enacting different spacetimes in that it is not only a technical act but is also connected to how people practice and give meaning to places. I will focus on how fermentation participates in the composition of different human, more-than-human, and microbial spacetimes, which I call “utopias,” “heterotopias,” and “atopias.” In these spacetimes, fermentation translates space into cheese through different logics: overlap, transduction, or abstraction. Discussing how fermentation is managed and perceived gives us the opportunity to reflect on who owns the Alps and leads to a debate on how to constitute sustainable and just futures. Fermentation plays a key role in scientific innovation as well as in social innovation as to how the Alps will be assigned value and ownership. © 2021 The Wenner-Gren Foundation for Anthropological Research. All rights reserved.</t>
+        </is>
+      </c>
       <c r="O294" t="inlineStr"/>
       <c r="P294" t="inlineStr"/>
       <c r="Q294" t="inlineStr">
@@ -20577,6 +20657,1600 @@
           <t>Sim</t>
         </is>
       </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Attending-to-nature-Understanding-care-and-caring-relations</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>Attending to nature: Understanding care and caring relations in forest management in the UK</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>O'Flynn, Trish; Geoghegan, Hilary; Dyke, Alison; de Bruin, Annemarieke</t>
+        </is>
+      </c>
+      <c r="D295" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E295" t="inlineStr">
+        <is>
+          <t>Journal of Rural Studies</t>
+        </is>
+      </c>
+      <c r="F295" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.jrurstud.2021.05.022</t>
+        </is>
+      </c>
+      <c r="G295" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H295" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Attending-to-nature-Understanding-care-and-caring-relations.txt</t>
+        </is>
+      </c>
+      <c r="I295" t="inlineStr"/>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
+      <c r="M295" t="inlineStr">
+        <is>
+          <t>United Kingdom; conservation; decision making; environmental values; forest management; forestry practice; nature-society relations; participatory approach; public space; rural area; tree</t>
+        </is>
+      </c>
+      <c r="N295" t="inlineStr">
+        <is>
+          <t>Increasing threats from pests and diseases fundamentally question what forest management is and must do in the 21st century. The sociological concept of ‘care’ offers new understandings of forest management as intimate and emotional relationships between people and trees. In this paper, we examine the empirical realities of conservation forest management at a UK publicly owned site to reveal the social, economic, and institutional contexts of care and caring relations and their role in management decisions. This in-depth qualitative case study uses walking interviews with staff from all levels of the organisation and participatory data testing to show how care underpins the work of forest management, that forests are made and sustained through caring practices, and that management decisions are influenced by caring relations. Through the care framework we highlight the complexities of real-life decision-making and offer implications for forestry policy and practice. Applying the well-established components of care in a new setting, wherein the caring relations involve nonhumans, we extend care theory and demonstrate the potential of the single case study for deeply contextual forest and conservation research. © 2021 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="O295" t="inlineStr"/>
+      <c r="P295" t="inlineStr"/>
+      <c r="Q295" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Metagenomics-approaches-in-microbial-ecology</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Metagenomics approaches in microbial ecology and research for sustainable agriculture; [Metagenomische Ansätze in der mikrobiellen Ökologie und Forschung für nachhaltige Landwirtschaft]</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>Meunier, Robert; Bayır, Saliha</t>
+        </is>
+      </c>
+      <c r="D296" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E296" t="inlineStr">
+        <is>
+          <t>Zeitschrift fur Technikfolgenabschatzung in Theorie und Praxis / Journal for Technology Assessment in Theory and Practice</t>
+        </is>
+      </c>
+      <c r="F296" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14512/tatup.30.2.24</t>
+        </is>
+      </c>
+      <c r="G296" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H296" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Metagenomics-approaches-in-microbial-ecology.txt</t>
+        </is>
+      </c>
+      <c r="I296" t="inlineStr"/>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
+      <c r="M296" t="inlineStr"/>
+      <c r="N296" t="inlineStr">
+        <is>
+          <t>• Technologies such as next generation sequencing (NGS) are transforming research fields at the methodological, conceptual, and or-ganizational level. They open up new possibilities and bring with them new commitments and inherent limitations. We show from a philosophy of science perspective how NGS-based metagenomics has trans-formed microbial ecology and, with it, parts of agricultural soil science, which integrate ecological approaches with the aim to inform agricultural practices. We reconstruct agricultural science as design science (sensu Niiniluoto) and describe how the possibilities, commitments, and limitations of metagenomics approaches in microbial ecology shape values, situation assessments, and recommendations for inter-ventions of soil microbiology in the context of sustainable agriculture. © 2021, Oekom Verlag. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O296" t="inlineStr"/>
+      <c r="P296" t="inlineStr"/>
+      <c r="Q296" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Words-Are-Essential-but-Underexamined-Research-Tools-for-Microbes-and-Microbiomes</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>Words Are Essential, but Underexamined, Research Tools for Microbes and Microbiomes</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>Szymanski, Erika</t>
+        </is>
+      </c>
+      <c r="D297" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E297" t="inlineStr">
+        <is>
+          <t>mSystems</t>
+        </is>
+      </c>
+      <c r="F297" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1128/mySystems.00769-21</t>
+        </is>
+      </c>
+      <c r="G297" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H297" t="inlineStr"/>
+      <c r="I297" t="inlineStr"/>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
+      <c r="M297" t="inlineStr">
+        <is>
+          <t>analogical reasoning; attention; expectation; human; human experiment; language; literature; microbiome; microorganism; nonhuman; review; synthetic biology; thinking; yeast</t>
+        </is>
+      </c>
+      <c r="N297" t="inlineStr">
+        <is>
+          <t>Language constitutes an essential set of scientific construction tools, not only for communicating knowledge, but for conceptualizing the world. Metaphors in particular, as conventions that guide and reproduce analogical reasoning, merit attention that they largely do not receive. My research addresses this deficit by examining how metaphors for handling microbes shape possibilities for working with yeast and bacteria in synthetic biology, microbiome research, and other fields that reconfigure what microbes can be. Though poised to reexamine assumptions, these fields routinely rest on metaphors and other language tools that quietly embed ways of thinking that may work against wider aims-for example, imagining bacteria as imperfect machines that should therefore be rendered increasingly passive and controllable. Researchers, therefore, need to examine how language tools structure their observations and expectations so that the tools they choose are appropriate for the work they want to do. © 2021 Szymanski.</t>
+        </is>
+      </c>
+      <c r="O297" t="inlineStr"/>
+      <c r="P297" t="inlineStr"/>
+      <c r="Q297" t="inlineStr"/>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>no-future-for-care-without-new-digital-media-making-time(s)-for-mediated-informal-care-practices</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>No future for care without new digital media? Making time(s) for mediated informal care practices in later life</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>López-Gómez, Daniel; Beneito-Montagut, Roser; García-Santesmases, Andrea</t>
+        </is>
+      </c>
+      <c r="D298" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E298" t="inlineStr">
+        <is>
+          <t>International Journal of Cultural Studies</t>
+        </is>
+      </c>
+      <c r="F298" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/1367877920951818</t>
+        </is>
+      </c>
+      <c r="G298" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H298" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\no-future-for-care-without-new-digital-media-making-time(s)-for-mediated-informal-care-practices.txt</t>
+        </is>
+      </c>
+      <c r="I298" t="inlineStr"/>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
+      <c r="M298" t="inlineStr"/>
+      <c r="N298" t="inlineStr">
+        <is>
+          <t>There is a growing interest in using social media and digital platforms as allies to strengthen social support among the aged. Drawing on ethnographic interviews and observations of 21 people in their 80s, the article foregrounds the multiple and intersecting temporalities of informal mediated care practices in later life through an exploration of the wide range of infrastructures on which they rely, from social media platforms to housing and urban infrastructure. We identify four temporalities of mediated informal care to assert the need to problematize the future-oriented temporalities of new caring media. The article paves the way to consider infrastructures of informal care as making time in multiple forms, irrespective of their newness or oldness, or the futures that every new piece of technology and service may potentially bring to our present. © The Author(s) 2020.</t>
+        </is>
+      </c>
+      <c r="O298" t="inlineStr"/>
+      <c r="P298" t="inlineStr"/>
+      <c r="Q298" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>towards-a-more-than-human-political-ecology-of-coastal-protection-coast-care-practices-in-aotearoa-new</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>Towards a more-than-human political ecology of coastal protection: Coast Care practices in Aotearoa New Zealand</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>Gesing, Friederike</t>
+        </is>
+      </c>
+      <c r="D299" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E299" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F299" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/2514848619860751</t>
+        </is>
+      </c>
+      <c r="G299" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H299" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\towards-a-more-than-human-political-ecology-of-coastal-protection-coast-care-practices-in-aotearoa-new.txt</t>
+        </is>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
+      <c r="M299" t="inlineStr"/>
+      <c r="N299" t="inlineStr">
+        <is>
+          <t>Coastal protection measures are intended to stabilize the boundaries of land and sea—and of private property. But structural engineering solutions, such as seawalls, have negative side-effects in terms of environmental and climate justice: they cause erosion of adjacent areas, they limit public access, and they can lead to the loss of sandy beaches. So-called “soft” coastal protection approaches promise more sustainable and just alternatives. The article explores the role of the more-than-human in such practices. Arguing that the popular framing of coastal protection as “working with nature” is a strategic naturalization, the paper aims to develop a more-than-human take on the political ecology of coastal protection. The empirical basis is built from ethnographic material on volunteer dune restoration by Coast Care groups in Aotearoa New Zealand. The analysis shows that the “multispecies agencies” (Locke, 2013) at work in various practices associated with Coast Care include communities of plants and animals, human care work and artefacts, as well as abiotic elements such as sand, wind, water and concrete. The article argues that to foster political and practical engagements for more sustainable coastal naturecultures, these entanglements should be made explicit and accountable. A more-than-human political ecology approach to understand the promises of soft coastal protection therefore combines three analytic sensibilities. Firstly, it looks at the ontological politics and categorization practices that define and enact specific versions of coastal nature. Secondly, it focuses on the politics of care in multispecies worlds, including the abiotic. And thirdly, it takes into account the “ordinary politics” of contested coastal space, decision-making and planning. © The Author(s) 2019.</t>
+        </is>
+      </c>
+      <c r="O299" t="inlineStr"/>
+      <c r="P299" t="inlineStr"/>
+      <c r="Q299" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Entangled-materialities-Caring-for-soil-communities-at-glass-industry-sites</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Entangled materialities: Caring for soil communities at glass industry sites</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>Latva-Somppi, Riikka; Mäkelä, Maarit; Lindström, Kristina; Ståhl, Åsa</t>
+        </is>
+      </c>
+      <c r="D300" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E300" t="inlineStr">
+        <is>
+          <t>FormAkademisk</t>
+        </is>
+      </c>
+      <c r="F300" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.7577/FORMAKADEMISK.4180</t>
+        </is>
+      </c>
+      <c r="G300" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H300" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Entangled-materialities-Caring-for-soil-communities-at-glass-industry-sites.txt</t>
+        </is>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
+      <c r="M300" t="inlineStr"/>
+      <c r="N300" t="inlineStr">
+        <is>
+          <t>This paper discusses craft and design practices through their impact on the environment. We consider how to act concerning the consequences of the craft and design industry. Also, we reflect on the agency of our field of practice in changing how we perceive the environment. We present three case studies of the European glass industry sites in Sweden, Italy and Finland, where we study contamination of the soil with participatory, speculative and craft methods. Through these cases, we reflect on our role in soil communities and ask how we may act in them with responsibility, hope and care. We conclude by proposing to act locally, to share our practices and make them visible, expanding our situated, personal skills and knowledge towards the political. © 2021, The Assosiation FormAkademisk. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O300" t="inlineStr"/>
+      <c r="P300" t="inlineStr"/>
+      <c r="Q300" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>Calling-for-a-Plurality-of-Perspectives-on-Design-Futuring-An-Un-Manifesto</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>Calling for a Plurality of Perspectives on Design Futuring: An Un-Manifesto</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>Howell, Noura; Schulte, Britta F.; Twigger Holroyd, Amy; Fatás Arana, Rocío; Sharma, Sumita; Eden, Grace</t>
+        </is>
+      </c>
+      <c r="D301" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>Conference on Human Factors in Computing Systems - Proceedings</t>
+        </is>
+      </c>
+      <c r="F301" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3411763.3450364</t>
+        </is>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr"/>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
+      <c r="M301" t="inlineStr">
+        <is>
+          <t>Software engineering; Professional backgrounds; Singular points; Technological progress; Human engineering</t>
+        </is>
+      </c>
+      <c r="N301" t="inlineStr">
+        <is>
+          <t>The Futures Cone, a prominent model in design futuring, is useful for promoting discussions about possible, plausible, probable, and preferable futures. Yet this model has limitations, such as representing diverse human experiences as a singular point of "the present"and implicitly embedding notions of linear progress. Responding to this, we argue that a plurality of perspectives is needed to engage imaginations that depict a diverse unfolding of potential futures. Through reflecting on our own cultural and professional backgrounds, we offer five perspectives for design futuring as a contribution to this plurality: Parallel Presents, "I Am Time", Epithelial Metaphors, the Uncertainties Cone, and Meet (with) "Speculation". These perspectives open alternative approaches to design futuring, move outside prevalent notions of technological progress, and foreground interdependent, relational agencies. © 2021 Owner/Author.</t>
+        </is>
+      </c>
+      <c r="O301" t="inlineStr"/>
+      <c r="P301" t="inlineStr"/>
+      <c r="Q301" t="inlineStr"/>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Algorithmic-food-justice-Co-designing-more-than-human-blockchain-futures-for-the-food-commons</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>Algorithmic food justice: Co-designing more-than-human blockchain futures for the food commons</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>Heitlinger, Sara; Houston, Lara</t>
+        </is>
+      </c>
+      <c r="D302" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E302" t="inlineStr">
+        <is>
+          <t>Conference on Human Factors in Computing Systems - Proceedings</t>
+        </is>
+      </c>
+      <c r="F302" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3411764.3445655</t>
+        </is>
+      </c>
+      <c r="G302" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H302" t="inlineStr"/>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
+      <c r="M302" t="inlineStr">
+        <is>
+          <t>Agricultural robots; Blockchain; Financial markets; Human engineering; Co-designing; Co-designs; Economic values; Food system; Human values; Multi-species; Role play; Social and environmental; Fintech</t>
+        </is>
+      </c>
+      <c r="N302" t="inlineStr">
+        <is>
+          <t>The relationships that constitute the global industrial food system tend towards two dominant values that are creating unsustainable social and environmental inequalities. The frst is a human-centered perspective on food that privileges humans over all other species. The second is a view of food as a commodity to be traded for maximum economic value, rewarding a small number of shareholders. We present work that explores the unique algorithmic afordances of blockchain to create new types of value exchange and governance in the food system. We describe a project that used roleplay with urban agricultural communities to co-design blockchain-based food futures and explore the conditions for creating a thriving multispecies food commons.We discuss how the project helped rethink algorithmic food justice by reconfguring more-than-human values and reconfguring food as more-than-human commons. We also discuss some of the challenges and tensions arising from these explorations. © 2021 ACM.</t>
+        </is>
+      </c>
+      <c r="O302" t="inlineStr"/>
+      <c r="P302" t="inlineStr"/>
+      <c r="Q302" t="inlineStr"/>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Human-nature-relations-in-urban-gardens-Explorations-with-camera-traps</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>Human-nature relations in urban gardens: Explorations with camera traps</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>Vella, Kellie; Ploderer, Bernd; Brereton, Margot</t>
+        </is>
+      </c>
+      <c r="D303" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E303" t="inlineStr">
+        <is>
+          <t>Conference on Human Factors in Computing Systems - Proceedings</t>
+        </is>
+      </c>
+      <c r="F303" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1145/3411764.3445438</t>
+        </is>
+      </c>
+      <c r="G303" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H303" t="inlineStr"/>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
+      <c r="M303" t="inlineStr">
+        <is>
+          <t>Biodiversity; Conservation; Human engineering; Green spaces; Human nature; Natural sensing; Sensing technology; Urban biodiversity; Urban garden; Cameras</t>
+        </is>
+      </c>
+      <c r="N303" t="inlineStr">
+        <is>
+          <t>As cities grow, their people become increasingly distanced from nature except within private and public green spaces. Sensing technologies provide a means to harness curiosity about the animals living in these spaces, and possibly also connect interest to care. Yet little is known as to how people may use these technologies, or the implications for human-nature relations. To learn more, we gave commercial camera traps to ten adult participants to understand how they explored their gardens, what they wanted to learn, and what they did with this knowledge. We discovered trade-ofs between control and care; the usefulness of diferent media and mystery; the temporalities of engaging in natural sensing practice; and a prevalence of sharing media within households. We discuss design for convivial cohabitation with the creatures in our garden. This research contributes to better human-nature relations through citizen sensing, as well as HCI for urban biodiversity conservation. © 2021 ACM.</t>
+        </is>
+      </c>
+      <c r="O303" t="inlineStr"/>
+      <c r="P303" t="inlineStr"/>
+      <c r="Q303" t="inlineStr"/>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Trans-Temporal-pigs-Humans-spirits-and-the-temporal-multiplicity-of-pigs-in-Ifugao-the-Philippines</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr"/>
+      <c r="C304" t="inlineStr"/>
+      <c r="D304" t="inlineStr"/>
+      <c r="E304" t="inlineStr"/>
+      <c r="F304" t="inlineStr"/>
+      <c r="G304" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H304" t="inlineStr"/>
+      <c r="I304" t="inlineStr"/>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
+      <c r="M304" t="inlineStr"/>
+      <c r="N304" t="inlineStr"/>
+      <c r="O304" t="inlineStr"/>
+      <c r="P304" t="inlineStr"/>
+      <c r="Q304" t="inlineStr"/>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>disrupting-climate-change-futures-conceptual-tools-for-lost-histories</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr"/>
+      <c r="C305" t="inlineStr"/>
+      <c r="D305" t="inlineStr"/>
+      <c r="E305" t="inlineStr"/>
+      <c r="F305" t="inlineStr"/>
+      <c r="G305" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H305" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\disrupting-climate-change-futures-conceptual-tools-for-lost-histories.txt</t>
+        </is>
+      </c>
+      <c r="I305" t="inlineStr"/>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
+      <c r="M305" t="inlineStr"/>
+      <c r="N305" t="inlineStr"/>
+      <c r="O305" t="inlineStr"/>
+      <c r="P305" t="inlineStr"/>
+      <c r="Q305" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>social-movements-as-agents-of-change-fighting-intersectional-food-inequalities-building-food-as-webs-of-life</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>Social movements as agents of change: Fighting intersectional food inequalities, building food as webs of life</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>Motta, Renata</t>
+        </is>
+      </c>
+      <c r="D306" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E306" t="inlineStr">
+        <is>
+          <t>Sociological Review</t>
+        </is>
+      </c>
+      <c r="F306" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/00380261211009061</t>
+        </is>
+      </c>
+      <c r="G306" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H306" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\social-movements-as-agents-of-change-fighting-intersectional-food-inequalities-building-food-as-webs-of-life.txt</t>
+        </is>
+      </c>
+      <c r="I306" t="inlineStr"/>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
+      <c r="M306" t="inlineStr"/>
+      <c r="N306" t="inlineStr">
+        <is>
+          <t>What does the diversity of social movements and food initiatives tell us about processes of social change? I argue that they offer a productive analytical lens to observe social change because they identify injustices and dynamics of inequalities in the food system and are actively engaged in transforming these. Alternative local food initiatives react to the environmental impacts of globalized food relations; food sovereignty movements highlight class inequalities and power asymmetries in the food system that affect people’s rights to culturally appropriate foodways; food justice movements denounce institutional racism; feminist movements fight persistent gender inequalities from food production to consumption; vegan movements defend animal rights. These are often mapped onto different world regions, with food justice movements more present in the US; food sovereignty movements louder in the Global South; feminist food movements more active in Latin America; and local food movements commonly in the Global North. This article brings together diverse strands of activism and research on social inequalities related to food under the conceptual umbrella of food inequalities. In addition to concept building, it contributes to a sociology of food studies by mapping the geopolitics of knowledge about social change behind the growing mobilization around food issues. © The Author(s) 2021.</t>
+        </is>
+      </c>
+      <c r="O306" t="inlineStr"/>
+      <c r="P306" t="inlineStr"/>
+      <c r="Q306" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Developmental-history-of-soil-concepts-from-a-scientific-perspective</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Developmental history of soil concepts from a scientific perspective</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>Mizuta, Katsutoshi; Grunwald, Sabine; Cropper, Wendell P.; Bacon, Allan R.</t>
+        </is>
+      </c>
+      <c r="D307" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E307" t="inlineStr">
+        <is>
+          <t>Applied Sciences (Switzerland)</t>
+        </is>
+      </c>
+      <c r="F307" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3390/app11094275</t>
+        </is>
+      </c>
+      <c r="G307" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H307" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Developmental-history-of-soil-concepts-from-a-scientific-perspective.txt</t>
+        </is>
+      </c>
+      <c r="I307" t="inlineStr"/>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
+      <c r="M307" t="inlineStr"/>
+      <c r="N307" t="inlineStr">
+        <is>
+          <t>Various soil concepts have emerged since the beginning of the twentieth century, with some shared similarities. These concepts have contributed to a rise in the awareness of protecting limited soil resources, but not every idea has equally gained widespread attention from scientists. The purpose of this study was to document the developmental history of 10 soil concepts from 1900 to 2018 and investigate their growth/decline. Articles containing words related to the selected soil concepts in titles, abstracts, or publication contents available in the Web of Science were examined. “Soil production” was the oldest concept, found in a paper published in 1910, followed chronologically in the literature by soil care, fertility, conservation, quality, health, protection, security, sustainability, and resilience. Most of the concepts were initially found in non-soil-science journals that predated publications in soil science journals, which implies slowness of the soil science community’s adoption. The statistical publication trend for each concept over time was analyzed and interpreted based on diffusion of innovation theory. The results suggest that all of the soil concepts experienced a statistically positive/upward shift (p &lt; 0.01) over time. In particular, soil concepts cited in soil science journals tended to maintain their momentum and communal value over time in soil science research, except the soil care concept. Applications of soil concept research based on collaboration between scientists of different nationalities, affiliations, and research expertise would further increase the possibility of citation frequency and foster interdisciplinary and transdisciplinary collaboration. © 2021 by the authors. Licensee MDPI, Basel, Switzerland.</t>
+        </is>
+      </c>
+      <c r="O307" t="inlineStr"/>
+      <c r="P307" t="inlineStr"/>
+      <c r="Q307" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Developing-earthly-attachments-in-the-anthropocene</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>Developing earthly attachments in the anthropocene</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>Huijbens, Edward H.</t>
+        </is>
+      </c>
+      <c r="D308" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E308" t="inlineStr">
+        <is>
+          <t>Developing Earthly Attachments in the Anthropocene</t>
+        </is>
+      </c>
+      <c r="F308" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9781003098782</t>
+        </is>
+      </c>
+      <c r="G308" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H308" t="inlineStr"/>
+      <c r="I308" t="inlineStr"/>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
+      <c r="M308" t="inlineStr"/>
+      <c r="N308" t="inlineStr">
+        <is>
+          <t>This book explores the development and significance of an Earth-oriented progressive approach to fostering global wellbeing and inclusive societies in an era of climate change and uncertainty. Developing Earthly Attachments in the Anthropocene examines the ways in which the Earth has become a source of political, social, and cultural theory in times of global climate change. The book explains how the Earth contributes to the creation of a regenerative culture, drawing examples from the Netherlands and Iceland. These examples offer understandings of how legacies of non-respectful exploitative practices culminating in the rapid post-war growth of global consumption have resulted in impacts on the ecosystem, highlighting the challenges of living with planet Earth. The book familiarizes readers with the implied agencies of the Earth which become evident in our reliance on the carbon economy - a factor of modern-day globalized capitalism responsible for global environmental change and emergency. It also suggests ways to inspire and develop new ways of spatial sense making for those seeking earthly attachments. Offering novel theoretical and practical insights for politically active people, this book will appeal to those involved in local and national policy making processes. It will also be of interest to academics and students of geography, political science, and environmental sciences. © 2021 Edward H. Huijbens.</t>
+        </is>
+      </c>
+      <c r="O308" t="inlineStr"/>
+      <c r="P308" t="inlineStr"/>
+      <c r="Q308" t="inlineStr"/>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Sharing-the-harvest-Transformative-artful-and-activist-methodologies-for-urban-agroecology</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr"/>
+      <c r="C309" t="inlineStr"/>
+      <c r="D309" t="inlineStr"/>
+      <c r="E309" t="inlineStr"/>
+      <c r="F309" t="inlineStr"/>
+      <c r="G309" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H309" t="inlineStr"/>
+      <c r="I309" t="inlineStr"/>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
+      <c r="M309" t="inlineStr"/>
+      <c r="N309" t="inlineStr"/>
+      <c r="O309" t="inlineStr"/>
+      <c r="P309" t="inlineStr"/>
+      <c r="Q309" t="inlineStr"/>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Writing-with-rocks</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>Writing with rocks</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>Valtonen, Anu; Pullen, Alison</t>
+        </is>
+      </c>
+      <c r="D310" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E310" t="inlineStr">
+        <is>
+          <t>Gender, Work and Organization</t>
+        </is>
+      </c>
+      <c r="F310" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/gwao.12579</t>
+        </is>
+      </c>
+      <c r="G310" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H310" t="inlineStr"/>
+      <c r="I310" t="inlineStr"/>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
+      <c r="M310" t="inlineStr">
+        <is>
+          <t>Arctic; Australia; Finland; New South Wales; Sydney [New South Wales]; Macropodidae; ethics; feminism; geology; politics; rock</t>
+        </is>
+      </c>
+      <c r="N310" t="inlineStr">
+        <is>
+          <t>Rocks. Geological forces across time and space. Non-human beings. Humans. Affect material encounters with rocks. Connecting. Being. Writing… From the Artic to Eastern Finland. From Sydney to Kangaroo Island, Australia. From the north to the south, and back again. Corporeal, affective. These rocks live with and through us. Touching rocks—rocks touch us. Bodies—rocks, co-constituted in life. Disrupting. Non-violent. Ethico-political acts of writing. Writing rocks. Humans become geologic forces. Care. Response-able. © 2021 John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="O310" t="inlineStr"/>
+      <c r="P310" t="inlineStr"/>
+      <c r="Q310" t="inlineStr"/>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Becoming-alive-within-science-education-research</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr"/>
+      <c r="C311" t="inlineStr"/>
+      <c r="D311" t="inlineStr"/>
+      <c r="E311" t="inlineStr"/>
+      <c r="F311" t="inlineStr"/>
+      <c r="G311" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H311" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Becoming-alive-within-science-education-research.txt</t>
+        </is>
+      </c>
+      <c r="I311" t="inlineStr"/>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
+      <c r="M311" t="inlineStr"/>
+      <c r="N311" t="inlineStr"/>
+      <c r="O311" t="inlineStr"/>
+      <c r="P311" t="inlineStr"/>
+      <c r="Q311" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Soil-health-and-well-being-Redefining-soil-health-based-upon-a-plurality-of-values</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Soil health and well-being: Redefining soil health based upon a plurality of values</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>Friedrichsen, Claire N.; Hagen-Zakarison, Sheryl; Friesen, Maren L.; McFarland, Carol R.; Tao, Haiying; Wulfhorst, J.D.</t>
+        </is>
+      </c>
+      <c r="D312" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E312" t="inlineStr">
+        <is>
+          <t>Soil Security</t>
+        </is>
+      </c>
+      <c r="F312" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.soisec.2021.100004</t>
+        </is>
+      </c>
+      <c r="G312" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H312" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Soil-health-and-well-being-Redefining-soil-health-based-upon-a-plurality-of-values.txt</t>
+        </is>
+      </c>
+      <c r="I312" t="inlineStr"/>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
+      <c r="M312" t="inlineStr"/>
+      <c r="N312" t="inlineStr">
+        <is>
+          <t>The dominant research paradigm for soil health emphasizes instrumental values to achieve sustainable food systems. However, soil provides a plurality of values in society beyond instrumental value contributing to human well-being. This research aims to understand the relational values that soil provides farmers by examining the meaningfulness and intrinsic motivation for building soil health among wheat farmers in the Inland Pacific Northwest (iPNW). Data were collected from two soil health work sessions and 11 in-depth semi-structured interviews with innovator wheat farmers to understanding broader perspectives and meanings of soil health. Four themes of relational values emerged from the data showing the link between soil health and human well-being. The results suggest that the term soil health should not be exclusively assessed by its instrumental values but also by its relational values supporting a plural valuation of soil health. Incorporating soil health's plural valuation into research will contribute to more effective holistic innovations supporting human and environmental well-being. This research provides important insights into defining soil health and for transforming the innovation paradigm of soil health to include relational values and cultural ecosystem services for transforming our current food system into an equitable, sustainable, healthy, and just system. Changing soil health assessments to acknowledge additional soil health management outcomes related to human well-being may facilitate decision-making, support the intrinsic motivation of soil health, and provide support to transformative food systems. © 2021</t>
+        </is>
+      </c>
+      <c r="O312" t="inlineStr"/>
+      <c r="P312" t="inlineStr"/>
+      <c r="Q312" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Rupturing-violent-land-imaginaries</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Rupturing violent land imaginaries: finding hope through a land titling campaign in Cambodia</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>Schoenberger, Laura; Beban, Alice</t>
+        </is>
+      </c>
+      <c r="D313" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E313" t="inlineStr">
+        <is>
+          <t>Agriculture and Human Values</t>
+        </is>
+      </c>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10460-020-10156-z</t>
+        </is>
+      </c>
+      <c r="G313" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H313" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Rupturing-violent-land-imaginaries.txt</t>
+        </is>
+      </c>
+      <c r="I313" t="inlineStr"/>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
+      <c r="M313" t="inlineStr"/>
+      <c r="N313" t="inlineStr">
+        <is>
+          <t>In areas of land conflict, fear and the threat of violence work to reproduce imaginaries of land as a resource that powerful people can grab. An urgent question for agrarian scholars and activists is how people can overcome fear so that alternative imaginaries might flourish. In this article, we argue for attention to the affective dimension of imaginaries; ideas of what land is and should be are co-constituted through the material and social, imbued with powerful emotions that enable imaginaries to be reproduced, to be challenged, and even to be transformed. We draw from long-term research projects in Cambodia—a country known for plantation-fuelled dispossession—where the Prime Minister’s surprise announcement of a land titling campaign in 2012 ruptured the wave of land grabbing, creating openings to imagine different outcomes that are rooted in the potential for legal recognition of smallholder claims. Although the campaign was an uncertain rupture in land imaginaries, these moments matter. Land claimants sought to create affective ties with volunteer land surveyors that embedded hopeful land imaginaries in rural areas and into the national cadastral system. The land title in this context is the material bearer of a land imaginary that centres on rural people’s connection to the land, and also reinforces rural people’s connection to the Cambodian state and the potential to gain the state’s protection. We contribute to an emerging literature that locates the formative effects of hope as an orientation and as a method by exploring the possibilities inherent in rupture. © 2020, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="O313" t="inlineStr"/>
+      <c r="P313" t="inlineStr"/>
+      <c r="Q313" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Nuclear-waste-as-toxic-legacy-and-future-fantasy</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Nuclear waste as toxic legacy and future fantasy</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>Kasperski, Tatiana; Storm, Anna</t>
+        </is>
+      </c>
+      <c r="D314" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E314" t="inlineStr">
+        <is>
+          <t>Geschichte und Gesellschaft</t>
+        </is>
+      </c>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.13109/GEGE.2020.46.4.682</t>
+        </is>
+      </c>
+      <c r="G314" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H314" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Nuclear-waste-as-toxic-legacy-and-future-fantasy.txt</t>
+        </is>
+      </c>
+      <c r="I314" t="inlineStr"/>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
+      <c r="M314" t="inlineStr"/>
+      <c r="N314" t="inlineStr">
+        <is>
+          <t>In this article, we examine how human interactions with nuclear waste, with special regard to responsibilities and temporalities, have changed over time. Based primarily on historical and contemporary accounts, including interviews, we trace the history of how radioactive residue has been conceptualized and handled in Soviet and post-Soviet Russia and Sweden, from the Second World War to the present. By juxtaposing the practices and perspectives of dumping, management and care, our aim is to contribute to current efforts to make sense of waste in the Anthropocene. We conclude that to acknowledge a need for eternal care is to accentuate the interdependence of historical and geological temporalities. © 2021 Vandenhoeck and Ruprecht GmbH and Co. KG. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O314" t="inlineStr"/>
+      <c r="P314" t="inlineStr"/>
+      <c r="Q314" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Introduction-to-symposium-Reimagining-land-materiality-affect-tand-the-uneven-trajectories-of-land-transformation</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Introduction to symposium ‘Reimagining land: materiality, affect and the uneven trajectories of land transformation’</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>Sippel, Sarah Ruth; Visser, Oane</t>
+        </is>
+      </c>
+      <c r="D315" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E315" t="inlineStr">
+        <is>
+          <t>Agriculture and Human Values</t>
+        </is>
+      </c>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10460-020-10152-3</t>
+        </is>
+      </c>
+      <c r="G315" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H315" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Introduction-to-symposium-Reimagining-land-materiality-affect-tand-the-uneven-trajectories-of-land-transformation.txt</t>
+        </is>
+      </c>
+      <c r="I315" t="inlineStr"/>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
+      <c r="M315" t="inlineStr"/>
+      <c r="N315" t="inlineStr">
+        <is>
+          <t>Over the past decade land has again moved to the centre of resource conflicts, agrarian struggles, and competing visions over the future of food and farming. This renewed interest in land necessitates asking the seemingly simple, but pertinent, question ‘what is land?’ To reach a more profound understanding of the uniqueness of land, and what distinguishes land from other resources, this symposium suggests the notion of ‘land imaginaries’ as a crucial lens in the study of current land transformations. Political-economy, and the particular economic, financial, or political interests of various actors involved in land projects do not directly result in, or translate into, outcomes, such as dispossession and enclosure, increased commodification, financialization, and assetization, or mobilization and resistance. All these processes are informed by different imaginaries of land—the underlying understandings, views, and visions of what land is, can, and should be—and associated visions, hopes, and dreams regarding land. Drawing on a variety of case studies from across the world, crossing Global North/South and East/West, and including contemporary and historical instances of land transformation, this symposium addresses the multifaceted ways in which implicit, explicit, and emergent understandings of land shape current land transformations. © 2020, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O315" t="inlineStr"/>
+      <c r="P315" t="inlineStr"/>
+      <c r="Q315" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Decaying-Words-The-Metaphor-of-Evolution-in-Language-Becomes-Literal-in-a-Canadian-Forest</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Decaying Words: The Metaphor of Evolution in Language Becomes Literal in a Canadian Forest</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>Wilson, Joseph</t>
+        </is>
+      </c>
+      <c r="D316" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E316" t="inlineStr">
+        <is>
+          <t>Technology and Language</t>
+        </is>
+      </c>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.48417/technolang.2021.01.03</t>
+        </is>
+      </c>
+      <c r="G316" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H316" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Decaying-Words-The-Metaphor-of-Evolution-in-Language-Becomes-Literal-in-a-Canadian-Forest.txt</t>
+        </is>
+      </c>
+      <c r="I316" t="inlineStr"/>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
+      <c r="M316" t="inlineStr"/>
+      <c r="N316" t="inlineStr">
+        <is>
+          <t>In 2009, two Canadian poets Stephen Collis and Jordan Scott travelled to five different ecosystems within the borders of British Columbia (BC). At each location, they left a copy of the canonical text of physical anthropology, Darwin’s Origin of Species (1859), open to the elements, for one calendar year. The project, documented in the photographic book Decomp turned the poets’ usual mode of expression on its head: instead of manipulating words to create a final work of linguistic expression, the poets let nature dissolve the integrity of the book, leaving words and morphemes dangling in poetic fragments. The Decomp project allows us to reflect on the environmental influences on language, and the organic structure of language. The dominant metaphors that describe language come from the biological world, and from Darwin’s theory of evolution in particular. Languages can be said to evolve, mutate, grow, stagnate and even die. Like the words in Darwin’s text left to the elements, languages can be isolated by geographic factors and left to fossilize without continued exchange with other cultures. In the forests B.C. the metaphorical mapping between biology and language becomes literal. We bear witness to the effects of entropy on the book and as the line between animate and inanimate agents blurs. As the poets piece together the fragments of Darwin’s prose in Decomp, we are confronted with such questions, confronted with the ephemeral nature of language and the acts of assembly we all perform every day in the face of linguistic change, and often, decay. © 2021, St. Petersburg Polytechnic University of Peter the Great. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O316" t="inlineStr"/>
+      <c r="P316" t="inlineStr"/>
+      <c r="Q316" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Recipes for Technoutopia</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Recipes for Technoutopia: On hospitality and infrastructure as experimental performance</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>Jordan, Stephanie Beth</t>
+        </is>
+      </c>
+      <c r="D317" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E317" t="inlineStr">
+        <is>
+          <t>Routledge Handbook of Art, Science, and Technology Studies</t>
+        </is>
+      </c>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9780429437069-18</t>
+        </is>
+      </c>
+      <c r="G317" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H317" t="inlineStr"/>
+      <c r="I317" t="inlineStr"/>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
+      <c r="M317" t="inlineStr"/>
+      <c r="N317" t="inlineStr">
+        <is>
+          <t>Through the performance of a radical brunch, this piece explores questions of inclusion, responsibility, labor, and care in the development of infrastructure, mirroring the many ways in which the promises of big data will solve pressing problems of participation, climate, and culture. By conceiving of infrastructure as experimental performance, I assert that infrastructure is experiential, sensorial, political, and situated. Through the performance, new rich understanding arises that connects infrastructural moments of breakdown, maintenance, and repair to the politics of the personal, orientation, and disorientation, uncovering a dissonance between the rhetoric of future-building and the sociomaterial realities of the present. If the recipe for the future is a technoutopia, this experimental performance asks: what are its ingredients and the labor of its production? Who is the chef, the served, the hungry? What spoils utopias? © 2022 selection and editorial matter, Hannah Star Rogers, Megan K. Halpern, Dehlia Hannah, and Kathryn de Ridder-Vignone individual chapters, the contributors.</t>
+        </is>
+      </c>
+      <c r="O317" t="inlineStr"/>
+      <c r="P317" t="inlineStr"/>
+      <c r="Q317" t="inlineStr"/>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Responsible-research-and-innovation-meets-multispecies-studies</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Responsible research and innovation meets multispecies studies: why RRI needs to be a more-than-human exercise</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>Szymanski, Erika Amethyst; Smith, Robert D. J.; Calvert, Jane</t>
+        </is>
+      </c>
+      <c r="D318" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E318" t="inlineStr">
+        <is>
+          <t>Journal of Responsible Innovation</t>
+        </is>
+      </c>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/23299460.2021.1906040</t>
+        </is>
+      </c>
+      <c r="G318" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H318" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Responsible-research-and-innovation-meets-multispecies-studies.txt</t>
+        </is>
+      </c>
+      <c r="I318" t="inlineStr"/>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
+      <c r="M318" t="inlineStr"/>
+      <c r="N318" t="inlineStr">
+        <is>
+          <t>We offer an argument for why responsible research and innovation should be in conversation with multispecies studies. We suggest that RRI can learn from multispecies studies to expand definitions of stakeholders and responsibilities, thereby including other creatures in conversations and frameworks where they are currently missing. In addition, the RRI community might benefit from exploring conceptual overlaps between RRI and multispecies studies literatures. For example, concepts germane to RRI–notably, care and relationality–have been particularly well-developed with respect to how they oblige mutually responsive relationships. Consequently, connecting these two areas of theory and practice should nuance discussions about responsibility as an individual versus a collective endeavor and about the relationship between RRI and knowledge production. © 2021 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O318" t="inlineStr"/>
+      <c r="P318" t="inlineStr"/>
+      <c r="Q318" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Glyphosate-A-love-story</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>Glyphosate—A love story. Ordinary thoughtlessness and response-ability in industrial farming</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>Müller, Birgit</t>
+        </is>
+      </c>
+      <c r="D319" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E319" t="inlineStr">
+        <is>
+          <t>Journal of Agrarian Change</t>
+        </is>
+      </c>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/joac.12374</t>
+        </is>
+      </c>
+      <c r="G319" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H319" t="inlineStr"/>
+      <c r="I319" t="inlineStr"/>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
+      <c r="M319" t="inlineStr"/>
+      <c r="N319" t="inlineStr">
+        <is>
+          <t>More than 8.6 billion kilograms of glyphosate have been used worldwide since the 1970s. Herbicide tolerant crops became the lynchpin of the technological revolution for large-scale farming first in the United States and Canada, and now in Europe. Zero-till farming, as a production scheme and a world view, is based on simplifications promoted by a handful of transnational corporations with the complicity of politicians looking for easy solutions for problems, such as climate change, erosion and the hunger in the world. At the same time, the massive use of glyphosate is branded as an endocrine disrupter, causing cancer, male sterility and infertility. It interferes with soil bacteria and acts on the equilibrium of soil fungi. Glyphosate resistant crops connect farmers to far away consumers ingesting the food they grow together with the traces of chemicals. Farmers intra-act with the myriads of life-forms of the soil eco-system. How do they perceive the life in the soil, when they spray chemicals? The article explores the political dimensions of the agency of both humans and non-humans to understand the effects of the modernizing project of zero-till, as well as to identify spaces and scales of possibility from where alternatives can emerge. © 2020 John Wiley &amp; Sons Ltd</t>
+        </is>
+      </c>
+      <c r="O319" t="inlineStr"/>
+      <c r="P319" t="inlineStr"/>
+      <c r="Q319" t="inlineStr"/>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Scaffolding-transitions-of-possibility-the-food-walk-as-embodied-method-in-Singapore</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>Scaffolding transitions of possibility: the food walk as embodied method in Singapore</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>Ng, Huiying</t>
+        </is>
+      </c>
+      <c r="D320" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E320" t="inlineStr">
+        <is>
+          <t>Journal of Urbanism</t>
+        </is>
+      </c>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17549175.2021.1941203</t>
+        </is>
+      </c>
+      <c r="G320" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H320" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Scaffolding-transitions-of-possibility-the-food-walk-as-embodied-method-in-Singapore.txt</t>
+        </is>
+      </c>
+      <c r="I320" t="inlineStr"/>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
+      <c r="M320" t="inlineStr"/>
+      <c r="N320" t="inlineStr">
+        <is>
+          <t>Resilient food infrastructures responsive to instability and change often form at the urban edge of food systems. As such, they could take heed of knowledge practices that occur at the urban edge. This paper conceptualizes learning as a co-productive activity that can be scaffolded by space, and examines how it applies to the re-imagination of food systems. By considering walking as a method in the design of desired foodscapes, this paper addresses how “time niches” foster embodied knowledges of care and haptic connection. The two cases that illustrate this–a set of walking workshops with Singapore-based participants and a visualising workshop with visiting conference participants–consider how so-called lay and expert knowledges may come together in knowledge co-production in future-making practices. The paper explores how civic and decolonial practices occur in the sustainability transition of food. © 2021 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O320" t="inlineStr"/>
+      <c r="P320" t="inlineStr"/>
+      <c r="Q320" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Alter-transitional-justice-transforming-unjust-relations-with-the-more-than-human</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Alter-transitional justice; transforming unjust relations with the more-than-human</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>Celermajer, Danielle; O’Brien, Anne Therese</t>
+        </is>
+      </c>
+      <c r="D321" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E321" t="inlineStr">
+        <is>
+          <t>Posthuman Legalities:New Materialism and Law Beyond the Human</t>
+        </is>
+      </c>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85130198688&amp;partnerID=40&amp;md5=7cf71b0b5c8ca61d8ec86558071791a1</t>
+        </is>
+      </c>
+      <c r="G321" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H321" t="inlineStr"/>
+      <c r="I321" t="inlineStr"/>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
+      <c r="M321" t="inlineStr"/>
+      <c r="N321" t="inlineStr">
+        <is>
+          <t>Drawing on the emerging field of multispecies justice, this article seeks to understand how the idea of transitional justice, capaciously understood, might be put to work to transform unjust relations between humans and the more-than-human. Reflecting onconcerns in the literatures on animals and the environment concerning the cogency of addressing past wrongs against the more-than-human by using a justice framework, the article sets out a foundational agenda for transitional justice and a conceptual framework responsive to the ontological diversity of beings and communities other than humans. Focusing on soil specifically, the article explores the problem of developing transitional justice approaches for transforming relations that involve systemic violence where such violence is not acknowledged because the harmed being - soil - is not recognized as the type of community to which justice might be owed. To illustrate prototransitional justice, the article considers both the work of regenerative farmers and emergent collaborations between farmers and visual artists to explore how engagements with the arts of relating to the more than-human might move the as yet private transformations of relations with soil into a more public, albeit incipient, process of justice. © Edward Elgar Publishing 2021.</t>
+        </is>
+      </c>
+      <c r="O321" t="inlineStr"/>
+      <c r="P321" t="inlineStr"/>
+      <c r="Q321" t="inlineStr"/>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Animality-coloniality-COVID-19-and-the-Animal-question</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Animality/coloniality: COVID-19 and the Animal question</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>Isaacs, Jenny R.; Otruba, Ariel</t>
+        </is>
+      </c>
+      <c r="D322" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E322" t="inlineStr">
+        <is>
+          <t>A Research Agenda for Animal Geographies</t>
+        </is>
+      </c>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85123422033&amp;partnerID=40&amp;md5=02fd034bd658a93ea6fea7cfba6a9d2a</t>
+        </is>
+      </c>
+      <c r="G322" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H322" t="inlineStr"/>
+      <c r="I322" t="inlineStr"/>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
+      <c r="M322" t="inlineStr"/>
+      <c r="N322" t="inlineStr">
+        <is>
+          <t>Joining efforts to “decolonize geography”, we offer ‘animality/coloniality’ as a heuristic device for analyzing asymmetrical power relations between humans and nonhumanity. The case of COVID-19 is used to demonstrate the complexity, problems, and dangers of defining and deploying the category of ‘animal’. By illustrating how competing ideas of animality are worked through each other in understandings of and responses to zoonotic viruses, we suggest that delinking animality/coloniality should begin with an embrace of the ‘alien’ Other as a pathogenic constituency. While the perennial Animal question remains an important driver of new research in animal geographies, we caution that it should be taken up with reflexive, critical attention to one’s political purpose and situated location within (colonial) knowledge production. © Alice Hovorka, Sandra McCubbin and Lauren Van Patter 2021.</t>
+        </is>
+      </c>
+      <c r="O322" t="inlineStr"/>
+      <c r="P322" t="inlineStr"/>
+      <c r="Q322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>PLANTS-PATHOGENS-AND-THE-POLITICS-OF-CARE</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>PLANTS, PATHOGENS, AND THE POLITICS OF CARE: Xylella fastidiosa and the Intra‐active Breakdown of Mallorca's Almond Ecology</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>REISMAN, EMILY</t>
+        </is>
+      </c>
+      <c r="D323" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E323" t="inlineStr">
+        <is>
+          <t>Cultural Anthropology</t>
+        </is>
+      </c>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.14506/ca36.3.07</t>
+        </is>
+      </c>
+      <c r="G323" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H323" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\PLANTS-PATHOGENS-AND-THE-POLITICS-OF-CARE.txt</t>
+        </is>
+      </c>
+      <c r="I323" t="inlineStr"/>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
+      <c r="M323" t="inlineStr"/>
+      <c r="N323" t="inlineStr">
+        <is>
+          <t>Almonds were once “the gold of Mallorca,” a source of modest wealth and a pillar of diversified farming systems for smallholders on the largest of Spain's Balearic Islands. Now researchers believe nearly every rainfed almond tree on the island will be dead within as few as five years. The introduced bacteria Xylella fastidiosa, enabled by its spittle‐bug vector, and emboldened by climate change, has flooded the xylem of these rainfed trees, impeding the flow of fluid and nutrients to the point where the tree can no longer survive. This article enrolls feminist theorizations of care and agential realism to broaden the political scope and stakes of a plant epidemic. I argue that by attending to the care relations underlying pathogenicity we can shift from narratives of landscape purification toward a more‐than‐human politics of care. © 2021. All rights reserved.</t>
+        </is>
+      </c>
+      <c r="O323" t="inlineStr"/>
+      <c r="P323" t="inlineStr"/>
+      <c r="Q323" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Ecological-Transition-What-It-Is-and-How-to-Do-It</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Ecological Transition: What It Is and How to Do It</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>Ghelfi, Andrea; Papadopoulos, Dimitris</t>
+        </is>
+      </c>
+      <c r="D324" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E324" t="inlineStr">
+        <is>
+          <t>Tecnoscienza</t>
+        </is>
+      </c>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85130158731&amp;partnerID=40&amp;md5=59a86ecab841037b443a065dc2d0c911</t>
+        </is>
+      </c>
+      <c r="G324" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H324" t="inlineStr"/>
+      <c r="I324" t="inlineStr"/>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
+      <c r="M324" t="inlineStr"/>
+      <c r="N324" t="inlineStr">
+        <is>
+          <t>The paper examines different practices, imaginaries and programs of ecological transitions whose articulation points towards a more-than-local and less-than-global green eco-social transformation. Translocal ecological transitions bring together climate action politics, environmental justice, and the everyday ecologism of experimental community-led technoscience. Within transition projects we see the emergence of new more-than-human political constituencies, the making of broad eco-social coalitions, and the implementation of innovative forms of reparative governance. Ecological transitions foster a new political space, green democracy, as an alternative to both regressive nationalism and green globalism that dominate contemporary politics. © 2021 STS Italia. All Rights Reserved.</t>
+        </is>
+      </c>
+      <c r="O324" t="inlineStr"/>
+      <c r="P324" t="inlineStr"/>
+      <c r="Q324" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
+++ b/Ontologia de Solos/Pesquisa SCOPUS/Pesquisa_Ontologia_Solos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q324"/>
+  <dimension ref="A1:Q344"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22252,6 +22252,1126 @@
       <c r="P324" t="inlineStr"/>
       <c r="Q324" t="inlineStr"/>
     </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Care-in-Technology-Volume-7</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Care in Technology: Volume 7</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>Guchet, Xavier</t>
+        </is>
+      </c>
+      <c r="D325" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E325" t="inlineStr">
+        <is>
+          <t>Care in Technology: Volume 7</t>
+        </is>
+      </c>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1002/9781119821403</t>
+        </is>
+      </c>
+      <c r="G325" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H325" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Care-in-Technology-Volume-7.txt</t>
+        </is>
+      </c>
+      <c r="I325" t="inlineStr"/>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
+      <c r="M325" t="inlineStr"/>
+      <c r="N325" t="inlineStr">
+        <is>
+          <t>Today, it is widely recognized that in order to meet environmental challenges, it will not simply be enough to make our lifestyles greener; also critical is putting an end to the modern conception of the human as master and possessor of nature. However, to bear fruit, this change in anthropology must also be accompanied by a revision in our conception of technology. Since the Enlightenment and the development of industrialization, technology no longer seems to be subject to the guiding principles set by the Greeks: prudence and the search for the right measure in all, which leads to the care of beings and the world. Care in Technology analyzes the historical changes that have led technology to become an unthinkable part of care, and care an unthinkable part of technology. It also establishes the conditions for care to once again become a regulatory principle of the activity of engineers who design technology. © ISTE Ltd 2021.</t>
+        </is>
+      </c>
+      <c r="O325" t="inlineStr"/>
+      <c r="P325" t="inlineStr"/>
+      <c r="Q325" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Urban-Ecosystem-Justice</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Urban Ecosystem Justice: Strategies for Equitable Sustainability and Ecological Literacy in the City</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>Kellogg, Scott</t>
+        </is>
+      </c>
+      <c r="D326" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="E326" t="inlineStr">
+        <is>
+          <t>Urban Ecosystem Justice: Strategies for Equitable Sustainability and Ecological Literacy in the City</t>
+        </is>
+      </c>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.4324/9780367858711</t>
+        </is>
+      </c>
+      <c r="G326" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H326" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Urban-Ecosystem-Justice.txt</t>
+        </is>
+      </c>
+      <c r="I326" t="inlineStr"/>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
+      <c r="M326" t="inlineStr"/>
+      <c r="N326" t="inlineStr">
+        <is>
+          <t>Merging together the fields of urban ecology, environmental justice, and urban environmental education, Urban Ecosystem Justice promotes building fair, accessible, and mutually beneficial relationships between citizens and the soils, water, atmospheres, and biodiversity in their cities. This book provides a framework for recentering issues of justice and fairness in sustainability discourse while challenging the profound ecological alienation experienced by urban residents. While the urban sustainability movement has had many successes in the past few decades, there remain areas for it to grow. For one, the benefits of sustainability have disproportionately benefited wealthier city residents, with concerns over equity, justice, and social sustainability frequently taking a back seat to economic and environmental considerations. Additionally, many city dwellers remain estranged from and unfamiliar with ecological processes, with urban environments often thought of as existing outside of nature or as hopelessly degraded. Through a citizen-centered lens, the book offers a guide to reconciling these issues by demonstrating how questions of equity, access, and justice apply to the biophysical dimensions of the urban ecosystem: Soil, water, air, waste, and biodiversity. Drawing heavily from the fields of urban ecology, environmental justice, and ecological design, this book lays out a science of cities for people: A pedagogical platform that can be used to promote ecological literacy in underrepresented urban communities through affordable and decentralized means. This book provides both a theoretical and practical field guide to students and researchers of urban sustainability, city planners, architects, policymakers, and activists wishing to develop reciprocal relationships with urban ecologies. © 2022 Scott Kellogg.</t>
+        </is>
+      </c>
+      <c r="O326" t="inlineStr"/>
+      <c r="P326" t="inlineStr"/>
+      <c r="Q326" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Caring-for-strangers-Alterity-alliances-and-reptile-conservation</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Caring for strangers: Alterity, alliances, and reptile conservation in the “gecko garden refuges” in manapany-les-bains, la réunion</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>Krieg, Lisa Jenny</t>
+        </is>
+      </c>
+      <c r="D327" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E327" t="inlineStr">
+        <is>
+          <t>Geographische Zeitschrift</t>
+        </is>
+      </c>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.25162/gz-2020-0007</t>
+        </is>
+      </c>
+      <c r="G327" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H327" t="inlineStr"/>
+      <c r="I327" t="inlineStr"/>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
+      <c r="M327" t="inlineStr">
+        <is>
+          <t>Indian Ocean; Indian Ocean (West); Mascarene Islands; Reunion; ethnography; exploration; mammal; reptile</t>
+        </is>
+      </c>
+      <c r="N327" t="inlineStr">
+        <is>
+          <t>Commonly seen as either dangerous or unsocial, reptiles represent a kind of alterity that is often deemed categorically different from warm-blooded mammals. In the village of Manapany-les-Bains, however, on the island of La Réunion in the Western Indian Ocean, care for the endangered gecko species Phelsuma inexpectata has taken an unexpected turn: initiated by a local NGO, village residents have declared their private gardens a gecko-friendly zone. Engaging concepts of multispecies care and alterity, this article explores what caring for a reptile means. Based on ethnographic field research in Manapany-les-Bains, I will discuss how the gecko's otherness remains an ambivalent trope, being both reduced and capitalized on, and that new alliances are exclusionary and fragmented. © Franz Steiner Verlag, Stuttgart 2020</t>
+        </is>
+      </c>
+      <c r="O327" t="inlineStr"/>
+      <c r="P327" t="inlineStr"/>
+      <c r="Q327" t="inlineStr"/>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Plastic-pigs-and-public-secrets-in-translational-neonatology-in-Denmark</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Plastic pigs and public secrets in translational neonatology in Denmark</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>Dam, Mie S.; Sangild, Per T.; Svendsen, Mette N.</t>
+        </is>
+      </c>
+      <c r="D328" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E328" t="inlineStr">
+        <is>
+          <t>Palgrave Communications</t>
+        </is>
+      </c>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1057/s41599-020-0463-y</t>
+        </is>
+      </c>
+      <c r="G328" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H328" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Plastic-pigs-and-public-secrets-in-translational-neonatology-in-Denmark.txt</t>
+        </is>
+      </c>
+      <c r="I328" t="inlineStr"/>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
+      <c r="L328" t="inlineStr"/>
+      <c r="M328" t="inlineStr"/>
+      <c r="N328" t="inlineStr">
+        <is>
+          <t>This paper explores how a translational research platform in Denmark uses piglets as infant models. Drawing on meanings of “public” as “open” and “visible,” we track how researchers and clinicians together and separately turn research piglets and premature infants into both public and un-public beings in laboratory and clinical settings. In these complex multispecies relationships, researchers and clinicians alike create and retain certain “zones of unknowing” in which intimate cross-species care relations are fostered. While critical social scientists call for greater public recognition of animals in accounts of human health, our study demonstrates that “zones of unknowing” enable the involved professionals to care simultaneously for neonatal beings and the greater public good. To account for the efforts involved in contributing to the greater public good, we introduce the term “publication work.” We argue that publication work relies as much on porosity between species and spaces as on actively drawing boundaries between species and between public and private spaces. Plastic pigs and public secrets are crucial to realise the ambition of more-than-human public health. © 2020, The Author(s).</t>
+        </is>
+      </c>
+      <c r="O328" t="inlineStr"/>
+      <c r="P328" t="inlineStr"/>
+      <c r="Q328" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Rhythms-of-Law-Aboriginal-Jurisprudence-and-the-Anthropocene</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Rhythms of Law: Aboriginal Jurisprudence and the Anthropocene</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>Wright, Kate</t>
+        </is>
+      </c>
+      <c r="D329" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E329" t="inlineStr">
+        <is>
+          <t>Law and Critique</t>
+        </is>
+      </c>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s10978-020-09279-3</t>
+        </is>
+      </c>
+      <c r="G329" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H329" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Rhythms-of-Law-Aboriginal-Jurisprudence-and-the-Anthropocene.txt</t>
+        </is>
+      </c>
+      <c r="I329" t="inlineStr"/>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
+      <c r="L329" t="inlineStr"/>
+      <c r="M329" t="inlineStr"/>
+      <c r="N329" t="inlineStr">
+        <is>
+          <t>On 1 December 2019, over one hundred Aboriginal nations performed ancestral and creation dances in synchrony across the Australian continent. One of the communities that danced was the Anaiwan nation from the north-eastern region of New South Wales, Australia. Since 2014 I have been working with Anaiwan people in a collaborative activist research project, creating and maintaining an Aboriginal community garden on the fringes of my hometown of Armidale as a site for land reclamation and decolonising, multispecies research. The community garden is adjacent to the site of the old East Armidale Aboriginal Reserve, where over one hundred dispossessed Aboriginal people were forced to live on the municipal town garbage depot in the mid-twentieth century. This paper positions both the Nation Dance 2019 movement, and the Armidale Aboriginal Community Garden, as rhythmic events that activate Aboriginal Law and sovereignty that is held enduring in the land but that has been buried alive by the settler-colonial state. Focusing on the tensions between deep Indigenous ancestral temporality and colonial territoriality, I argue that the emergence of the Anthropocene reveals a dangerous dissonance between the rhythms of Aboriginal Law patterned through present-day Australian environments and the grid-based structures of colonial governance imposed upon them. © 2020, Springer Nature B.V.</t>
+        </is>
+      </c>
+      <c r="O329" t="inlineStr"/>
+      <c r="P329" t="inlineStr"/>
+      <c r="Q329" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Organic-taste-and-labour-on-Indian-tea-plantations</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Organic taste and labour on Indian tea plantations*</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>Kumpf, Desirée</t>
+        </is>
+      </c>
+      <c r="D330" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E330" t="inlineStr">
+        <is>
+          <t>Social Anthropology</t>
+        </is>
+      </c>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/1469-8676.12951</t>
+        </is>
+      </c>
+      <c r="G330" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H330" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Organic-taste-and-labour-on-Indian-tea-plantations.txt</t>
+        </is>
+      </c>
+      <c r="I330" t="inlineStr"/>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
+      <c r="L330" t="inlineStr"/>
+      <c r="M330" t="inlineStr"/>
+      <c r="N330" t="inlineStr">
+        <is>
+          <t>This paper takes a multispecies perspective on taste to explore how organic agriculture affects both nonhuman relations and human labour on Indian tea plantations. Organic tea planters use taste to assess soil conditions and climatic changes and to apply organic practices accordingly. The paper argues that, on the one hand, planters strategically cultivate forms of collaboration between tea plants, fungi, cows and soil microorganisms to enhance the taste of monoculture crops. On the other hand, since these collaborative forms require and reproduce the precarious labour of tea workers and supervisors, their resistance against organic practices also affects tastes. The terroir of organic tea features both the multispecies ‘togetherness’ on monocultures and the inequalities of plantation labour. © 2020 The Authors. Social Anthropology published by Wiley Periodicals LLC on behalf of European Association of Social Anthropologists.</t>
+        </is>
+      </c>
+      <c r="O330" t="inlineStr"/>
+      <c r="P330" t="inlineStr"/>
+      <c r="Q330" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Blue-space-as-caring-space-water</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Blue space as caring space–water and the cultivation of care in social and environmental practice; [  L’espace bleu en tant qu’espace de soins–l’eau et la culture de soins dans la pratique sociale et environnementale]; [  El espacio azul como espacio de cuidado — el agua y el cultivo del cuidado en la práctica social y ambiental]</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>Buser, Michael; Payne, Tom; Edizel, Özlem; Dudley, Lyze</t>
+        </is>
+      </c>
+      <c r="D331" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E331" t="inlineStr">
+        <is>
+          <t>Social and Cultural Geography</t>
+        </is>
+      </c>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/14649365.2018.1534263</t>
+        </is>
+      </c>
+      <c r="G331" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H331" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Blue-space-as-caring-space-water.txt</t>
+        </is>
+      </c>
+      <c r="I331" t="inlineStr"/>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
+      <c r="L331" t="inlineStr"/>
+      <c r="M331" t="inlineStr">
+        <is>
+          <t>Bristol [Bristol (ADS)]; Bristol [England]; England; Leeds [England]; London [England]; United Kingdom; environmental change; environmental management; environmentalism; greenspace; social change; water management</t>
+        </is>
+      </c>
+      <c r="N331" t="inlineStr">
+        <is>
+          <t>This paper studies three sites or ‘landscapes of care’ in Leeds, Bristol and London where water and associated built and natural environments are used to co-construct and facilitate forms of social and environmental care. Our research narrates the ways in which blue spaces are cultivated for the production of particular forms of caring bodies and sensibilities. Interpreting care as both a doing (caring for) and emotion (caring about), we draw attention to the diverse practices and distributed nature of care in these environments. Our paper has three main insights. First, we draw attention to the role of water as both a material and site of care. Second, we identify a range of more-than-human benefits associated with blue spaces and how these emerge via collaborative, non-linear and reciprocal forms of care. Third, we argue that by understanding how care works in everyday social practice, new forms of ecological care and pro-environmental ways of living with the world can emerge. © 2018 The Author(s). Published by Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O331" t="inlineStr"/>
+      <c r="P331" t="inlineStr"/>
+      <c r="Q331" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Diverging-temporalities-of-care-work-on-urban-farms</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Diverging temporalities of care work on urban farms: Negotiating history, responsibility, and productivity in Lithuania</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>Mincytė, Diana; Bartkienė, Aistė; Bikauskaitė, Renata</t>
+        </is>
+      </c>
+      <c r="D332" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E332" t="inlineStr">
+        <is>
+          <t>Geoforum</t>
+        </is>
+      </c>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.geoforum.2020.06.006</t>
+        </is>
+      </c>
+      <c r="G332" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H332" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Diverging-temporalities-of-care-work-on-urban-farms.txt</t>
+        </is>
+      </c>
+      <c r="I332" t="inlineStr"/>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
+      <c r="L332" t="inlineStr"/>
+      <c r="M332" t="inlineStr">
+        <is>
+          <t>Lithuania; agricultural development; agricultural practice; agricultural production; farming system; spatiotemporal analysis; urban area</t>
+        </is>
+      </c>
+      <c r="N332" t="inlineStr">
+        <is>
+          <t>While scholars have developed a nuanced understanding of agriculture as a form of care, the temporal organization of farming practices has received little consideration. Focusing on how farmers organize and experience agriculture, we track diverging approaches to care work on urban farms in Vilnius, Lithuania. Our ethnographic fieldwork and interviews show how Lithuanian urban farmers are struggling to reconcile the civic ideals of the global urban farming movement with their historical understandings of care for specific plants and the land. Whereas the older generation views farming as kinship-based individualized work focusing on particular plants and garden ecologies, the younger generation approaches it as a way to unwind, mediate, and build a community. These different perspectives on farming translate into divergent temporalities of care in which productivist goals rooted in socialist self-provisioning practices and embodied in orderly landscapes encounter new trends of agricultural care manifested in the natural aesthetics of the farms. We examine dynamic tensions between the two farming modalities by linking them to different understandings of moral commitments and responsibilities for plants and land. Through the lens of temporality, we also show how these divergent care modes are themselves grounded in gender inequalities reproduced on the farms and enabled by by the welfare state institutions, including maternity leave and retirement policies. © 2020 Elsevier Ltd</t>
+        </is>
+      </c>
+      <c r="O332" t="inlineStr"/>
+      <c r="P332" t="inlineStr"/>
+      <c r="Q332" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>The-moral-work-of-timing-mobilities</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>The moral work of timing mobilities: ‘limited insight’ and truncated worth in municipal traffic management</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>Wagenknecht, Susann</t>
+        </is>
+      </c>
+      <c r="D333" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E333" t="inlineStr">
+        <is>
+          <t>Mobilities</t>
+        </is>
+      </c>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/17450101.2020.1802105</t>
+        </is>
+      </c>
+      <c r="G333" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H333" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-moral-work-of-timing-mobilities.txt</t>
+        </is>
+      </c>
+      <c r="I333" t="inlineStr"/>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
+      <c r="L333" t="inlineStr"/>
+      <c r="M333" t="inlineStr">
+        <is>
+          <t>mobility; morality; public administration; traffic management; transportation infrastructure; urban transport</t>
+        </is>
+      </c>
+      <c r="N333" t="inlineStr">
+        <is>
+          <t>Timing urban traffic is moral work. In this paper, I show how the moral work that goes into timing traffic lights addresses both industrial, civic, and domestic worth in ways that cut generalization short. Relying upon ethnographic fieldwork, this paper focuses on how municipal traffic engineering maintains traffic lights and handles complaints about them. Steeped in moral ambiguity, the paper argues, municipal traffic engineering resorts to singularizing complaints, truncating worth, and working with careful dedication from one contestable compromise to the next. With this argument, the paper contributes to an understanding of the temporal and moral orderings at stake in adjusting and justifying urban mobilities. © 2020 Informa UK Limited, trading as Taylor &amp; Francis Group.</t>
+        </is>
+      </c>
+      <c r="O333" t="inlineStr"/>
+      <c r="P333" t="inlineStr"/>
+      <c r="Q333" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>The-swarming-life-of-pastures</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>The swarming life of pastures: living with vole outbreaks in the French Jura uplands</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>Meulemans, Germain</t>
+        </is>
+      </c>
+      <c r="D334" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E334" t="inlineStr">
+        <is>
+          <t>Social Anthropology</t>
+        </is>
+      </c>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/1469-8676.12786</t>
+        </is>
+      </c>
+      <c r="G334" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H334" t="inlineStr"/>
+      <c r="I334" t="inlineStr"/>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
+      <c r="L334" t="inlineStr"/>
+      <c r="M334" t="inlineStr"/>
+      <c r="N334" t="inlineStr">
+        <is>
+          <t>This paper addresses the joint becoming of landscapes, agricultural tasks and prairie rodents in the French Jura uplands, where the development of hay monoculture triggered outbreaks of water voles that reduce pastures to dust. I explore links between processual landscape anthropology and contemporary scholarship on more-than-human entanglements in order to follow how ecological disruptions called for the development of new arts of noticing towards multispecies life. I first describe the relationships between Jura farmers, voles, fields and agricultural modernisation programmes, and suggest that vole outbreaks bring these together around shared tasks. I then consider how disputes over how to control voles led to changes in farmers’ ways of caring for their cows and tending the fields. I argue that these underlined changes in their ways of understanding and responding to the rhythms of the landscape’s more-than-human activities. Finally, I draw on the example of conflicts between farmers over whether cows or pastures should be more central to their work. I make the case that to be attentive to fields as a landscape in the Jura is ultimately to define the (in)appropriateness of certain actions and tasks. It becomes constitutive of what ‘good farming’ should be, and precipitates new identities. © 2020 European Association of Social Anthropologists</t>
+        </is>
+      </c>
+      <c r="O334" t="inlineStr"/>
+      <c r="P334" t="inlineStr"/>
+      <c r="Q334" t="inlineStr"/>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Political-ecology-of-milk-Contested-futures-of-a-lively-food</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Political ecology of milk: Contested futures of a lively food</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>Clay, Nathan; Yurco, Kayla</t>
+        </is>
+      </c>
+      <c r="D335" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E335" t="inlineStr">
+        <is>
+          <t>Geography Compass</t>
+        </is>
+      </c>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/gec3.12497</t>
+        </is>
+      </c>
+      <c r="G335" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H335" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Political-ecology-of-milk-Contested-futures-of-a-lively-food.txt</t>
+        </is>
+      </c>
+      <c r="I335" t="inlineStr"/>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
+      <c r="L335" t="inlineStr"/>
+      <c r="M335" t="inlineStr">
+        <is>
+          <t>agricultural development; agricultural management; agricultural production; dairy farming; environmental politics; food security; future prospect; milk; political economy</t>
+        </is>
+      </c>
+      <c r="N335" t="inlineStr">
+        <is>
+          <t>This article advances thinking on the political ecology of food and agriculture by reviewing research on milk and dairy. As increasingly contested foods, milk and dairy provide a window onto inter-linked social and environmental crises and attempts to solve them through adjustments to food production and consumption. We critically assess three trajectories of change (more milk, better milk, and less milk) that are representative of broader efforts to fix social-environmental crises through food. Arguing that these efforts eschew systemic change, we discuss how ideas from food studies, agrarian political economy, and development studies can be united in a potentially transformative research agenda on the political ecology of milk (as well as other foods). We reflect on how concepts of justice, power, and care might inform a political ecology of food and agriculture that can help envision and enact more democratic food futures. © 2020 The Authors. Geography Compass published by John Wiley &amp; Sons Ltd.</t>
+        </is>
+      </c>
+      <c r="O335" t="inlineStr"/>
+      <c r="P335" t="inlineStr"/>
+      <c r="Q335" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>RRI-s-Commitment-to-Care-and-Vulnerability-of-Agrarian-Systems</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>RRI’s Commitment to Care and Vulnerability of Agrarian Systems: The ‘Problem’ of Rice Straw Burning in India</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>Pandey, Poonam</t>
+        </is>
+      </c>
+      <c r="D336" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E336" t="inlineStr">
+        <is>
+          <t>Science, Technology and Society</t>
+        </is>
+      </c>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/0971721820902965</t>
+        </is>
+      </c>
+      <c r="G336" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H336" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\RRI-s-Commitment-to-Care-and-Vulnerability-of-Agrarian-Systems.txt</t>
+        </is>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
+      <c r="L336" t="inlineStr"/>
+      <c r="M336" t="inlineStr">
+        <is>
+          <t>India; burning; demand analysis; farming system; rice; straw; vulnerability</t>
+        </is>
+      </c>
+      <c r="N336" t="inlineStr">
+        <is>
+          <t>This paper employs RRI’s mandate of ‘commitment to care’ to understand the ‘problem’ of rice straw burning in India and the possible ways of engaging with it. Straw burning is often framed as a linear technology or policy deficit ‘problem’ in need of an immediate and quick fix. Interventions and solutions emerging from such framings have so far remained ineffective. The ‘commitment to care’ approach enables us to situate the current practices of straw burning in a complex web of relationalities, dependencies, vulnerabilities, and affect. By doing so, the ‘problem’ of straw burning is rearticulated and redefined as a cumulative effect of multiple interventions, transformations, and contradictions that led to the shaping of modern agricultural systems in India. This re-articulation demands for a rethinking of engagement, remedies and responsibilities in ways that move beyond the individualization of blame and action. © 2020 SAGE Publications.</t>
+        </is>
+      </c>
+      <c r="O336" t="inlineStr"/>
+      <c r="P336" t="inlineStr"/>
+      <c r="Q336" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>The-Peasant-Way-of-a-More-than-Radical-Democracy</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr"/>
+      <c r="C337" t="inlineStr"/>
+      <c r="D337" t="inlineStr"/>
+      <c r="E337" t="inlineStr"/>
+      <c r="F337" t="inlineStr"/>
+      <c r="G337" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H337" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\The-Peasant-Way-of-a-More-than-Radical-Democracy.txt</t>
+        </is>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
+      <c r="L337" t="inlineStr"/>
+      <c r="M337" t="inlineStr"/>
+      <c r="N337" t="inlineStr"/>
+      <c r="O337" t="inlineStr"/>
+      <c r="P337" t="inlineStr"/>
+      <c r="Q337" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Plants-Crop-diversity-pre-breeding-technologies</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Plants: Crop diversity pre-breeding technologies as agrarian care co-opted?</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>Graddy-Lovelace, Garrett</t>
+        </is>
+      </c>
+      <c r="D338" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E338" t="inlineStr">
+        <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1111/area.12499</t>
+        </is>
+      </c>
+      <c r="G338" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H338" t="inlineStr"/>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
+      <c r="L338" t="inlineStr"/>
+      <c r="M338" t="inlineStr">
+        <is>
+          <t>agricultural technology; breeding; crop plant; cultivation; farmers knowledge; phenotype; species diversity; technological development</t>
+        </is>
+      </c>
+      <c r="N338" t="inlineStr">
+        <is>
+          <t>Within the realm of international agricultural biodiversity conservation, there has been a surge of funding for “pre-breeding” of plant genetic resources for food and agriculture. Molecular high-throughput analysis, among other techniques, attempts to discern, document, and digitise the genomic traits of farmer/landrace varieties and crop wild relatives stored in gene banks to render them legible fodder for professional breeding. But pre-breeding necessitates thorough phenotypic evaluation and characterisation to understand the physiological attributes, heritable traits, and responses of a plant through its life cycle, under various growing and climactic conditions. This paper explores the irony that a range of surveillance technologies have been developed and deployed to mimic the agrarian work and skills of observing plants and attending to how they are faring, what they like and do not like over many seasons and contexts. These calls and technologies acknowledge the need for heedful attention to crops, even as they further displace actual farmers and their longstanding modes of selecting and saving open-pollinated seeds each harvest. Here, attending to crops entails remembering and communicating collectively gathered information of and from the plant. Such agrarian expertise of caring for plants has been systematically devalued and de-intellectualised, with gendered implications. Drawing on feminist geographies and political ecology, a landscape of care framework discloses the matrix of human and beyond-human care at work in cultivating agricultural biodiversity. Rather than ushering in a new valuation of this expertise, new pre-breeding technologies and trainings continue to ignore on-farm, plant-based care work and the farmers who do it. Calling out this contradiction could help re-centre such agrarian care skills as the crux to effective agricultural biodiversity utilisation. The proliferation of pre-breeding technologies could signify the co-optation of agrarian care skills or the opportunity to re-centre and revalue them. The information, practices and views in this article are those of the author(s) and do not necessarily reflect the opinion of the Royal Geographical Society (with IBG). © 2020 Royal Geographical Society (with the Institute of British Geographers).</t>
+        </is>
+      </c>
+      <c r="O338" t="inlineStr"/>
+      <c r="P338" t="inlineStr"/>
+      <c r="Q338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Accomplishing-an-adaptive-clinical-trial-for-cancer</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Accomplishing an adaptive clinical trial for cancer: Valuation practices and care work across the laboratory and the clinic</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>Swallow, Julia; Kerr, Anne; Chekar, Choon Key; Cunningham-Burley, Sarah</t>
+        </is>
+      </c>
+      <c r="D339" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E339" t="inlineStr">
+        <is>
+          <t>Social Science and Medicine</t>
+        </is>
+      </c>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1016/j.socscimed.2020.112949</t>
+        </is>
+      </c>
+      <c r="G339" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H339" t="inlineStr">
+        <is>
+          <t>c:\workspace\artigos\Ontologia de Solos\Pesquisa SCOPUS\Textos_Extraidos\Accomplishing-an-adaptive-clinical-trial-for-cancer.txt</t>
+        </is>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
+      <c r="L339" t="inlineStr"/>
+      <c r="M339" t="inlineStr">
+        <is>
+          <t>Adaptive Clinical Trials as Topic; Delivery of Health Care; Female; Humans; Laboratories; Male; Neoplasms; Qualitative Research; United Kingdom; cancer; drug development; drug prescribing; genomics; health care; qualitative analysis; research work; Article; biomedicine; cancer research; clinical laboratory; clinical practice; clinical trial (topic); general practitioner; genome analysis; health care organization; health personnel attitude; human; malignant neoplasm; patient care; qualitative research; tumor biopsy; United Kingdom; adaptive clinical trial (topic); female; health care delivery; laboratory; male; neoplasm</t>
+        </is>
+      </c>
+      <c r="N339" t="inlineStr">
+        <is>
+          <t>A new generation of adaptive, multi-arm clinical trials has been developed in cancer research including those offering experimental treatments to patients based on the genomic analysis of their cancer. Depending on the molecular changes found in patients’ cancer cells, it is anticipated that targeted and personalised therapies will be made available for those who have reached the end of standard treatment options, potentially extending survival time. Results from these trials are also expected to advance genomic knowledge for patients in the future. Drawing on data from a qualitative study of one such trial in the UK, comprising observations of out-patient clinic appointments, out-patient biopsy procedures, laboratory work, and interviews with practitioners, this paper explores how the clinical and research value of one such trial was accomplished in everyday practice by focussing on the work of clinical trials and laboratory staff across recruitment, laboratory analysis, and results management. In the face of numerous potential set-backs, disappointments and failure, we explore how practitioners worked to balance the need to meet established measures of value such as numbers of patients recruited into the trial, alongside cultivating the value of positive affects for patients by managing their expectations and emotions. This care work was performed primarily by practitioners whose roles have historically been devalued in healthcare practice and yet, as we show, were critical to this process. We conclude by arguing that as complex multi-arm adaptive trials become more commonplace, we need to attend to, and render visible, the dynamic and care-full valuation practices of backstage practitioners through which experimental biomedicine is accomplished, and in doing so show that care both achieves clinical and research value, and is also a series of practices and processes that tends to tissue, patients and staff in the context of ever-present possibility of failure. © 2020 The Authors</t>
+        </is>
+      </c>
+      <c r="O339" t="inlineStr"/>
+      <c r="P339" t="inlineStr"/>
+      <c r="Q339" t="inlineStr">
+        <is>
+          <t>Sim</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Nonhuman-labor-and-the-making-of-resources-making-soil</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Nonhuman labor and the making of resources making soils a resource through microbial labor</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>Krzywoszynska, Anna</t>
+        </is>
+      </c>
+      <c r="D340" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>Environmental Humanities</t>
+        </is>
+      </c>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1215/22011919-8142319</t>
+        </is>
+      </c>
+      <c r="G340" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H340" t="inlineStr"/>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
+      <c r="L340" t="inlineStr"/>
+      <c r="M340" t="inlineStr">
+        <is>
+          <t>agricultural labor; ecological modernization; ethnography; nature-society relations; soil biota; soil improvement</t>
+        </is>
+      </c>
+      <c r="N340" t="inlineStr">
+        <is>
+          <t>With soils increasingly seen as living ecosystems, the understanding of the relationship between soils and agricultural labor is changing. A shift from working the soil to working with the soil is hoped to deliver a true ecological modernization of capitalist agriculture, making the production of ever-growing yields and the maintenance of healthy ecosystems co-constitutive. Drawing on ethnographic data from English farming, this article argues that the current trends are in fact a continuation of the logic of capitalist soil improvement in which soils are made into economic resources. By proposing a new conceptualization of labor as a material process of transformation oriented toward the generation of capital value, the author establishes a dialogue between hitherto separate literatures on the making of economic resources and on nonhuman labor. This approach transforms the debates on the relationship between nature and capital by productively collapsing the distinction between labor and resources. The author argues that acknowledging the material co-constitution of (any form of) labor and resource making allows us to better analyze the processes through which natures are rolled into capital. Today's enrollment of soil biota as labor thus opens up the whole biosphere to the logic of improvement, and to the operations of capital. © 2020 Anna Krzywoszynska.</t>
+        </is>
+      </c>
+      <c r="O340" t="inlineStr"/>
+      <c r="P340" t="inlineStr"/>
+      <c r="Q340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>The-science-question-in-alternative-agricultures</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>The science question in alternative agricultures: Zero budget natural farming and the emergence of agronomical pluralism in India</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>Münster, Daniel</t>
+        </is>
+      </c>
+      <c r="D341" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>Science and Scientification in South Asia and Europe</t>
+        </is>
+      </c>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>https://www.scopus.com/inward/record.uri?eid=2-s2.0-85105196048&amp;partnerID=40&amp;md5=68171b76bfc4371a3b7991ef56178ae5</t>
+        </is>
+      </c>
+      <c r="G341" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H341" t="inlineStr"/>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
+      <c r="L341" t="inlineStr"/>
+      <c r="M341" t="inlineStr"/>
+      <c r="N341" t="inlineStr"/>
+      <c r="O341" t="inlineStr"/>
+      <c r="P341" t="inlineStr"/>
+      <c r="Q341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Valuing-plants-in-devalued-space</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Valuing plants in devalued spaces: Caring for Baltimore's Street trees</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>Shcheglovitova, Mariya</t>
+        </is>
+      </c>
+      <c r="D342" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>Environment and Planning E: Nature and Space</t>
+        </is>
+      </c>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/2514848619854375</t>
+        </is>
+      </c>
+      <c r="G342" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H342" t="inlineStr"/>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
+      <c r="L342" t="inlineStr"/>
+      <c r="M342" t="inlineStr"/>
+      <c r="N342" t="inlineStr">
+        <is>
+          <t>Baltimore City, MD is addressing its future with expansive sustainability initiatives. These include an aggressive tree planting campaign to double the city's tree canopy by 2037. While discourses of greening present tree plantings and related programs as a resolution for the legacies of racist housing market practices, these programs are themselves subject to the legacies of spatial inequalities in access to infrastructural care. Sustainability discourses present urban trees as inherently valuable economically and environmentally but these discourses are disconnected from trees' needs for ongoing care and maintenance. The daily material practices of caring for and maintaining trees are deprioritized in favor of planting more trees to gain these supposedly “inherent” benefits. In the spaces where trees were meant to bring economic and environmental vitality, their deaths reinforce the racist legacies they claim to correct. This paper examines these links and contradictions within the framework of relational urban political ecology. Through a lens of care, this paper shows how humans and non/humans actively co-construct urban space and how just spaces can come about through attention to the needs of humans and non/humans. © The Author(s) 2019.</t>
+        </is>
+      </c>
+      <c r="O342" t="inlineStr"/>
+      <c r="P342" t="inlineStr"/>
+      <c r="Q342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Mountain-Bike-Trail-Building-Dirty-Work-and-a New-Terrestrial-Politics</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Mountain Bike Trail Building, “Dirty” Work, and a New Terrestrial Politics</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>Cherrington, Jim; Black, Jack</t>
+        </is>
+      </c>
+      <c r="D343" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>World Futures</t>
+        </is>
+      </c>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1080/02604027.2019.1698234</t>
+        </is>
+      </c>
+      <c r="G343" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H343" t="inlineStr"/>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
+      <c r="L343" t="inlineStr"/>
+      <c r="M343" t="inlineStr"/>
+      <c r="N343" t="inlineStr">
+        <is>
+          <t>Dirt is evoked to signify many important facets of mountain bike culture, including its emergence, history, and everyday forms of practice and affect. These significations are also drawn on to frame the sport's (sub)cultural and counterideological affiliations. In this article we examine how both the practice of mountain biking and, specifically, mountain bike trail building, raises questions over the object and latent function of dirt, hinting at the way that abjection can, under certain circumstances, be a source of intrigue and pleasure. In doing so, we suggest a resymbolization of our relationship with dirt via a consideration of the terrestrial. © 2019, © 2019 Taylor &amp; Francis Group, LLC.</t>
+        </is>
+      </c>
+      <c r="O343" t="inlineStr"/>
+      <c r="P343" t="inlineStr"/>
+      <c r="Q343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Geophagiac-Art-Food-Dirt</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Geophagiac: Art, Food, Dirt</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>Kelley, Lindsay</t>
+        </is>
+      </c>
+      <c r="D344" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>Thinking with Soils: Material Politics and Social Theory</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.5040/9781350109568.ch-012</t>
+        </is>
+      </c>
+      <c r="G344" t="inlineStr">
+        <is>
+          <t>snowballing Making-time-for-soil</t>
+        </is>
+      </c>
+      <c r="H344" t="inlineStr"/>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
+      <c r="L344" t="inlineStr"/>
+      <c r="M344" t="inlineStr"/>
+      <c r="N344" t="inlineStr"/>
+      <c r="O344" t="inlineStr"/>
+      <c r="P344" t="inlineStr"/>
+      <c r="Q344" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
